--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E7" s="2">
         <v>43729</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43533</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43365</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43169</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43001</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42805</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42637</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42441</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42273</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42077</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19517600</v>
+        <v>17114300</v>
       </c>
       <c r="E8" s="3">
-        <v>17944200</v>
+        <v>18593500</v>
       </c>
       <c r="F8" s="3">
-        <v>19556300</v>
+        <v>17094600</v>
       </c>
       <c r="G8" s="3">
-        <v>17856300</v>
+        <v>18630400</v>
       </c>
       <c r="H8" s="3">
-        <v>18931900</v>
+        <v>17010900</v>
       </c>
       <c r="I8" s="3">
-        <v>17558900</v>
+        <v>18035600</v>
       </c>
       <c r="J8" s="3">
+        <v>16727600</v>
+      </c>
+      <c r="K8" s="3">
         <v>16343700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14460900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16198200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14626900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18289400</v>
+        <v>15801400</v>
       </c>
       <c r="E9" s="3">
-        <v>16502700</v>
+        <v>17423400</v>
       </c>
       <c r="F9" s="3">
-        <v>18039900</v>
+        <v>15721400</v>
       </c>
       <c r="G9" s="3">
-        <v>16697900</v>
+        <v>17185700</v>
       </c>
       <c r="H9" s="3">
-        <v>17657200</v>
+        <v>15907300</v>
       </c>
       <c r="I9" s="3">
-        <v>16435500</v>
+        <v>16821200</v>
       </c>
       <c r="J9" s="3">
+        <v>15657300</v>
+      </c>
+      <c r="K9" s="3">
         <v>15354700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13549200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15210900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13693300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1228200</v>
+        <v>1312900</v>
       </c>
       <c r="E10" s="3">
-        <v>1441500</v>
+        <v>1170000</v>
       </c>
       <c r="F10" s="3">
-        <v>1516500</v>
+        <v>1373200</v>
       </c>
       <c r="G10" s="3">
-        <v>1158400</v>
+        <v>1444700</v>
       </c>
       <c r="H10" s="3">
-        <v>1274700</v>
+        <v>1103500</v>
       </c>
       <c r="I10" s="3">
-        <v>1123500</v>
+        <v>1214400</v>
       </c>
       <c r="J10" s="3">
+        <v>1070300</v>
+      </c>
+      <c r="K10" s="3">
         <v>989000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>911700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>987400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>933600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,19 +949,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>11100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -958,8 +978,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -970,8 +990,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19209900</v>
+        <v>16606900</v>
       </c>
       <c r="E17" s="3">
-        <v>17570600</v>
+        <v>18300300</v>
       </c>
       <c r="F17" s="3">
-        <v>19164600</v>
+        <v>16738700</v>
       </c>
       <c r="G17" s="3">
-        <v>17552500</v>
+        <v>18257200</v>
       </c>
       <c r="H17" s="3">
-        <v>18566000</v>
+        <v>16721400</v>
       </c>
       <c r="I17" s="3">
-        <v>17319800</v>
+        <v>17687000</v>
       </c>
       <c r="J17" s="3">
+        <v>16499700</v>
+      </c>
+      <c r="K17" s="3">
         <v>15752900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14090500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15646500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14212100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>307700</v>
+        <v>507400</v>
       </c>
       <c r="E18" s="3">
-        <v>373600</v>
+        <v>293100</v>
       </c>
       <c r="F18" s="3">
-        <v>391700</v>
+        <v>355900</v>
       </c>
       <c r="G18" s="3">
-        <v>303800</v>
+        <v>373200</v>
       </c>
       <c r="H18" s="3">
-        <v>365900</v>
+        <v>289400</v>
       </c>
       <c r="I18" s="3">
-        <v>239200</v>
+        <v>348500</v>
       </c>
       <c r="J18" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K18" s="3">
         <v>590800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>370400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>551700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>414800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20700</v>
+        <v>13500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3900</v>
+        <v>-19700</v>
       </c>
       <c r="F20" s="3">
-        <v>38800</v>
+        <v>-3700</v>
       </c>
       <c r="G20" s="3">
-        <v>7800</v>
+        <v>36900</v>
       </c>
       <c r="H20" s="3">
-        <v>-7800</v>
+        <v>7400</v>
       </c>
       <c r="I20" s="3">
-        <v>-2600</v>
+        <v>-7400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-29700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-26100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-48700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1149300</v>
+        <v>1246400</v>
       </c>
       <c r="E21" s="3">
-        <v>1120900</v>
+        <v>1094900</v>
       </c>
       <c r="F21" s="3">
-        <v>1310900</v>
+        <v>1067800</v>
       </c>
       <c r="G21" s="3">
-        <v>788600</v>
+        <v>1248800</v>
       </c>
       <c r="H21" s="3">
-        <v>826100</v>
+        <v>751300</v>
       </c>
       <c r="I21" s="3">
-        <v>625700</v>
+        <v>787000</v>
       </c>
       <c r="J21" s="3">
+        <v>596100</v>
+      </c>
+      <c r="K21" s="3">
         <v>983800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>705600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>927400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>709700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>275400</v>
+        <v>218000</v>
       </c>
       <c r="E22" s="3">
-        <v>246900</v>
+        <v>262300</v>
       </c>
       <c r="F22" s="3">
-        <v>292200</v>
+        <v>235200</v>
       </c>
       <c r="G22" s="3">
-        <v>67200</v>
+        <v>278300</v>
       </c>
       <c r="H22" s="3">
-        <v>73700</v>
+        <v>64000</v>
       </c>
       <c r="I22" s="3">
-        <v>67200</v>
+        <v>70200</v>
       </c>
       <c r="J22" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K22" s="3">
         <v>80200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>73000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>83500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>79000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11600</v>
+        <v>303000</v>
       </c>
       <c r="E23" s="3">
-        <v>122800</v>
+        <v>11100</v>
       </c>
       <c r="F23" s="3">
-        <v>138300</v>
+        <v>117000</v>
       </c>
       <c r="G23" s="3">
-        <v>244300</v>
+        <v>131800</v>
       </c>
       <c r="H23" s="3">
-        <v>284400</v>
+        <v>232800</v>
       </c>
       <c r="I23" s="3">
-        <v>169400</v>
+        <v>271000</v>
       </c>
       <c r="J23" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K23" s="3">
         <v>480900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>272600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>442200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>287100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>60800</v>
+        <v>69000</v>
       </c>
       <c r="E24" s="3">
-        <v>41400</v>
+        <v>57900</v>
       </c>
       <c r="F24" s="3">
-        <v>-20700</v>
+        <v>39400</v>
       </c>
       <c r="G24" s="3">
-        <v>59500</v>
+        <v>-19700</v>
       </c>
       <c r="H24" s="3">
-        <v>69800</v>
+        <v>56700</v>
       </c>
       <c r="I24" s="3">
-        <v>68500</v>
+        <v>66500</v>
       </c>
       <c r="J24" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K24" s="3">
         <v>94400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-49100</v>
+        <v>234000</v>
       </c>
       <c r="E26" s="3">
-        <v>81400</v>
+        <v>-46800</v>
       </c>
       <c r="F26" s="3">
-        <v>159000</v>
+        <v>77600</v>
       </c>
       <c r="G26" s="3">
-        <v>184900</v>
+        <v>151500</v>
       </c>
       <c r="H26" s="3">
-        <v>214600</v>
+        <v>176100</v>
       </c>
       <c r="I26" s="3">
-        <v>100800</v>
+        <v>204400</v>
       </c>
       <c r="J26" s="3">
+        <v>96100</v>
+      </c>
+      <c r="K26" s="3">
         <v>386600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>344300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>234400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-63300</v>
+        <v>219200</v>
       </c>
       <c r="E27" s="3">
-        <v>71100</v>
+        <v>-60300</v>
       </c>
       <c r="F27" s="3">
-        <v>146100</v>
+        <v>67700</v>
       </c>
       <c r="G27" s="3">
-        <v>174500</v>
+        <v>139200</v>
       </c>
       <c r="H27" s="3">
-        <v>201700</v>
+        <v>166300</v>
       </c>
       <c r="I27" s="3">
-        <v>90500</v>
+        <v>192100</v>
       </c>
       <c r="J27" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K27" s="3">
         <v>373600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>256900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>341700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>234400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20700</v>
+        <v>-13500</v>
       </c>
       <c r="E32" s="3">
-        <v>3900</v>
+        <v>19700</v>
       </c>
       <c r="F32" s="3">
-        <v>-38800</v>
+        <v>3700</v>
       </c>
       <c r="G32" s="3">
-        <v>-7800</v>
+        <v>-36900</v>
       </c>
       <c r="H32" s="3">
-        <v>7800</v>
+        <v>-7400</v>
       </c>
       <c r="I32" s="3">
-        <v>2600</v>
+        <v>7400</v>
       </c>
       <c r="J32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>29700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>26100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>48700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63300</v>
+        <v>219200</v>
       </c>
       <c r="E33" s="3">
-        <v>71100</v>
+        <v>-60300</v>
       </c>
       <c r="F33" s="3">
-        <v>146100</v>
+        <v>67700</v>
       </c>
       <c r="G33" s="3">
-        <v>174500</v>
+        <v>139200</v>
       </c>
       <c r="H33" s="3">
-        <v>201700</v>
+        <v>166300</v>
       </c>
       <c r="I33" s="3">
-        <v>90500</v>
+        <v>192100</v>
       </c>
       <c r="J33" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K33" s="3">
         <v>373600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>256900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>341700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>234400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63300</v>
+        <v>219200</v>
       </c>
       <c r="E35" s="3">
-        <v>71100</v>
+        <v>-60300</v>
       </c>
       <c r="F35" s="3">
-        <v>146100</v>
+        <v>67700</v>
       </c>
       <c r="G35" s="3">
-        <v>174500</v>
+        <v>139200</v>
       </c>
       <c r="H35" s="3">
-        <v>201700</v>
+        <v>166300</v>
       </c>
       <c r="I35" s="3">
-        <v>90500</v>
+        <v>192100</v>
       </c>
       <c r="J35" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K35" s="3">
         <v>373600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>256900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>341700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>234400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E38" s="2">
         <v>43729</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43533</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43365</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43169</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42805</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42637</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42441</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42273</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42077</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1429800</v>
+        <v>1224200</v>
       </c>
       <c r="E41" s="3">
-        <v>1051100</v>
+        <v>1362100</v>
       </c>
       <c r="F41" s="3">
-        <v>1160900</v>
+        <v>2381900</v>
       </c>
       <c r="G41" s="3">
-        <v>1353600</v>
+        <v>1106000</v>
       </c>
       <c r="H41" s="3">
-        <v>1409200</v>
+        <v>1289500</v>
       </c>
       <c r="I41" s="3">
-        <v>1088500</v>
+        <v>1342400</v>
       </c>
       <c r="J41" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1383300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1113900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1494700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1692100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>703300</v>
+        <v>101000</v>
       </c>
       <c r="E42" s="3">
-        <v>671000</v>
+        <v>670000</v>
       </c>
       <c r="F42" s="3">
-        <v>1186800</v>
+        <v>639200</v>
       </c>
       <c r="G42" s="3">
-        <v>1145400</v>
+        <v>1130600</v>
       </c>
       <c r="H42" s="3">
-        <v>490000</v>
+        <v>1091200</v>
       </c>
       <c r="I42" s="3">
-        <v>440800</v>
+        <v>466800</v>
       </c>
       <c r="J42" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K42" s="3">
         <v>309000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>439600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>156500</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5818900</v>
+        <v>5864900</v>
       </c>
       <c r="E43" s="3">
-        <v>5517700</v>
+        <v>5543400</v>
       </c>
       <c r="F43" s="3">
-        <v>5345800</v>
+        <v>5256500</v>
       </c>
       <c r="G43" s="3">
-        <v>5305700</v>
+        <v>5092700</v>
       </c>
       <c r="H43" s="3">
-        <v>4673500</v>
+        <v>5054500</v>
       </c>
       <c r="I43" s="3">
-        <v>4214600</v>
+        <v>4452200</v>
       </c>
       <c r="J43" s="3">
+        <v>4015000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4140900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2873400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2986900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2725800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2524900</v>
+        <v>2133100</v>
       </c>
       <c r="E44" s="3">
-        <v>2493800</v>
+        <v>2405300</v>
       </c>
       <c r="F44" s="3">
-        <v>2429200</v>
+        <v>2375800</v>
       </c>
       <c r="G44" s="3">
-        <v>2340000</v>
+        <v>2314200</v>
       </c>
       <c r="H44" s="3">
-        <v>2492500</v>
+        <v>2229200</v>
       </c>
       <c r="I44" s="3">
-        <v>2294700</v>
+        <v>2374500</v>
       </c>
       <c r="J44" s="3">
+        <v>2186100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2460200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1262600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1321300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1312800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>53000</v>
+        <v>14800</v>
       </c>
       <c r="E45" s="3">
-        <v>27100</v>
+        <v>50500</v>
       </c>
       <c r="F45" s="3">
-        <v>60800</v>
+        <v>25900</v>
       </c>
       <c r="G45" s="3">
-        <v>12900</v>
+        <v>57900</v>
       </c>
       <c r="H45" s="3">
-        <v>23300</v>
+        <v>12300</v>
       </c>
       <c r="I45" s="3">
-        <v>121500</v>
+        <v>22200</v>
       </c>
       <c r="J45" s="3">
+        <v>115800</v>
+      </c>
+      <c r="K45" s="3">
         <v>175800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>90900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10529900</v>
+        <v>9338000</v>
       </c>
       <c r="E46" s="3">
-        <v>9760700</v>
+        <v>10031400</v>
       </c>
       <c r="F46" s="3">
-        <v>10183500</v>
+        <v>9298600</v>
       </c>
       <c r="G46" s="3">
-        <v>10157600</v>
+        <v>9701300</v>
       </c>
       <c r="H46" s="3">
-        <v>9088500</v>
+        <v>9676700</v>
       </c>
       <c r="I46" s="3">
-        <v>8160200</v>
+        <v>8658100</v>
       </c>
       <c r="J46" s="3">
+        <v>7773900</v>
+      </c>
+      <c r="K46" s="3">
         <v>8469200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5755900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6018100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5821500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5865500</v>
+        <v>5513900</v>
       </c>
       <c r="E47" s="3">
-        <v>5502200</v>
+        <v>5587800</v>
       </c>
       <c r="F47" s="3">
-        <v>4602400</v>
+        <v>5241700</v>
       </c>
       <c r="G47" s="3">
-        <v>4069800</v>
+        <v>4384500</v>
       </c>
       <c r="H47" s="3">
-        <v>3694900</v>
+        <v>3877100</v>
       </c>
       <c r="I47" s="3">
-        <v>3435000</v>
+        <v>3519900</v>
       </c>
       <c r="J47" s="3">
+        <v>3272400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3243700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3155100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2870800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2683600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17867900</v>
+        <v>16918500</v>
       </c>
       <c r="E48" s="3">
-        <v>18339800</v>
+        <v>17021900</v>
       </c>
       <c r="F48" s="3">
-        <v>18537600</v>
+        <v>17471500</v>
       </c>
       <c r="G48" s="3">
-        <v>12796200</v>
+        <v>17659900</v>
       </c>
       <c r="H48" s="3">
-        <v>12862200</v>
+        <v>12190400</v>
       </c>
       <c r="I48" s="3">
-        <v>12935900</v>
+        <v>12253200</v>
       </c>
       <c r="J48" s="3">
+        <v>12323400</v>
+      </c>
+      <c r="K48" s="3">
         <v>12974600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12735300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12722200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12704400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1303200</v>
+        <v>1246400</v>
       </c>
       <c r="E49" s="3">
-        <v>1348400</v>
+        <v>1241500</v>
       </c>
       <c r="F49" s="3">
-        <v>1358700</v>
+        <v>1284600</v>
       </c>
       <c r="G49" s="3">
-        <v>1385900</v>
+        <v>1294400</v>
       </c>
       <c r="H49" s="3">
-        <v>1076900</v>
+        <v>1320300</v>
       </c>
       <c r="I49" s="3">
-        <v>1038100</v>
+        <v>1025900</v>
       </c>
       <c r="J49" s="3">
+        <v>989000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1027800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>429100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>448700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>428000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1803500</v>
+        <v>1390500</v>
       </c>
       <c r="E52" s="3">
-        <v>1261800</v>
+        <v>1718100</v>
       </c>
       <c r="F52" s="3">
-        <v>377500</v>
+        <v>1202000</v>
       </c>
       <c r="G52" s="3">
-        <v>33600</v>
+        <v>359600</v>
       </c>
       <c r="H52" s="3">
-        <v>11600</v>
+        <v>32000</v>
       </c>
       <c r="I52" s="3">
-        <v>25900</v>
+        <v>11100</v>
       </c>
       <c r="J52" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K52" s="3">
         <v>60800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>138300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37370000</v>
+        <v>34407200</v>
       </c>
       <c r="E54" s="3">
-        <v>36212900</v>
+        <v>35600600</v>
       </c>
       <c r="F54" s="3">
-        <v>35059700</v>
+        <v>34498300</v>
       </c>
       <c r="G54" s="3">
-        <v>28443100</v>
+        <v>33399800</v>
       </c>
       <c r="H54" s="3">
-        <v>26734000</v>
+        <v>27096400</v>
       </c>
       <c r="I54" s="3">
-        <v>25595100</v>
+        <v>25468300</v>
       </c>
       <c r="J54" s="3">
+        <v>24383200</v>
+      </c>
+      <c r="K54" s="3">
         <v>25776000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22138100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22131500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21775800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6089100</v>
+        <v>5265100</v>
       </c>
       <c r="E57" s="3">
-        <v>5653500</v>
+        <v>5800800</v>
       </c>
       <c r="F57" s="3">
-        <v>6182200</v>
+        <v>5385800</v>
       </c>
       <c r="G57" s="3">
-        <v>5587500</v>
+        <v>5889500</v>
       </c>
       <c r="H57" s="3">
-        <v>5409100</v>
+        <v>5323000</v>
       </c>
       <c r="I57" s="3">
-        <v>4836400</v>
+        <v>5153000</v>
       </c>
       <c r="J57" s="3">
+        <v>4607400</v>
+      </c>
+      <c r="K57" s="3">
         <v>5511200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8151900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8526300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8369500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1332900</v>
+        <v>687200</v>
       </c>
       <c r="E58" s="3">
-        <v>1744000</v>
+        <v>1269800</v>
       </c>
       <c r="F58" s="3">
-        <v>989000</v>
+        <v>1661400</v>
       </c>
       <c r="G58" s="3">
-        <v>824800</v>
+        <v>942200</v>
       </c>
       <c r="H58" s="3">
-        <v>899800</v>
+        <v>785800</v>
       </c>
       <c r="I58" s="3">
-        <v>444700</v>
+        <v>857200</v>
       </c>
       <c r="J58" s="3">
+        <v>423700</v>
+      </c>
+      <c r="K58" s="3">
         <v>586900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>290900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>230900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>342400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8916500</v>
+        <v>8884800</v>
       </c>
       <c r="E59" s="3">
-        <v>7921000</v>
+        <v>8494300</v>
       </c>
       <c r="F59" s="3">
-        <v>7208700</v>
+        <v>7546000</v>
       </c>
       <c r="G59" s="3">
-        <v>6906200</v>
+        <v>6867400</v>
       </c>
       <c r="H59" s="3">
-        <v>6646300</v>
+        <v>6579200</v>
       </c>
       <c r="I59" s="3">
-        <v>6041300</v>
+        <v>6331700</v>
       </c>
       <c r="J59" s="3">
+        <v>5755300</v>
+      </c>
+      <c r="K59" s="3">
         <v>5257900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>322200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>277800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>404300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16338500</v>
+        <v>14837100</v>
       </c>
       <c r="E60" s="3">
-        <v>15318500</v>
+        <v>15565000</v>
       </c>
       <c r="F60" s="3">
-        <v>14379900</v>
+        <v>14593200</v>
       </c>
       <c r="G60" s="3">
-        <v>13318500</v>
+        <v>13699100</v>
       </c>
       <c r="H60" s="3">
-        <v>12955200</v>
+        <v>12687900</v>
       </c>
       <c r="I60" s="3">
-        <v>11100100</v>
+        <v>12341900</v>
       </c>
       <c r="J60" s="3">
+        <v>10574500</v>
+      </c>
+      <c r="K60" s="3">
         <v>11062600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8765000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9035000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9116100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8096900</v>
+        <v>8020200</v>
       </c>
       <c r="E61" s="3">
-        <v>7940400</v>
+        <v>7713500</v>
       </c>
       <c r="F61" s="3">
-        <v>8598500</v>
+        <v>7564500</v>
       </c>
       <c r="G61" s="3">
-        <v>2071100</v>
+        <v>8191400</v>
       </c>
       <c r="H61" s="3">
-        <v>1865500</v>
+        <v>1973000</v>
       </c>
       <c r="I61" s="3">
-        <v>2636000</v>
+        <v>1777200</v>
       </c>
       <c r="J61" s="3">
+        <v>2511200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2731700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2856400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3018200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3299900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2713600</v>
+        <v>1976700</v>
       </c>
       <c r="E62" s="3">
-        <v>2893300</v>
+        <v>2585100</v>
       </c>
       <c r="F62" s="3">
-        <v>2806700</v>
+        <v>2756300</v>
       </c>
       <c r="G62" s="3">
-        <v>3472500</v>
+        <v>2673800</v>
       </c>
       <c r="H62" s="3">
-        <v>2945000</v>
+        <v>3308100</v>
       </c>
       <c r="I62" s="3">
-        <v>2974800</v>
+        <v>2805600</v>
       </c>
       <c r="J62" s="3">
+        <v>2833900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3586300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2214700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1977300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2066000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27149000</v>
+        <v>24834000</v>
       </c>
       <c r="E66" s="3">
-        <v>26152300</v>
+        <v>25863600</v>
       </c>
       <c r="F66" s="3">
-        <v>25785100</v>
+        <v>24914000</v>
       </c>
       <c r="G66" s="3">
-        <v>18862100</v>
+        <v>24564300</v>
       </c>
       <c r="H66" s="3">
-        <v>17765800</v>
+        <v>17969000</v>
       </c>
       <c r="I66" s="3">
-        <v>16710900</v>
+        <v>16924600</v>
       </c>
       <c r="J66" s="3">
+        <v>15919700</v>
+      </c>
+      <c r="K66" s="3">
         <v>17380500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13836100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14030500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14482100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7274600</v>
+        <v>6754100</v>
       </c>
       <c r="E72" s="3">
-        <v>7122100</v>
+        <v>6930200</v>
       </c>
       <c r="F72" s="3">
-        <v>6346400</v>
+        <v>6784900</v>
       </c>
       <c r="G72" s="3">
-        <v>6668300</v>
+        <v>6045900</v>
       </c>
       <c r="H72" s="3">
-        <v>6065900</v>
+        <v>6352600</v>
       </c>
       <c r="I72" s="3">
-        <v>5987000</v>
+        <v>5778700</v>
       </c>
       <c r="J72" s="3">
+        <v>5703500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5500900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5484600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5285100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5113100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10221000</v>
+        <v>9573200</v>
       </c>
       <c r="E76" s="3">
-        <v>10060600</v>
+        <v>9737000</v>
       </c>
       <c r="F76" s="3">
-        <v>9274600</v>
+        <v>9584300</v>
       </c>
       <c r="G76" s="3">
-        <v>9581000</v>
+        <v>8835500</v>
       </c>
       <c r="H76" s="3">
-        <v>8968200</v>
+        <v>9127400</v>
       </c>
       <c r="I76" s="3">
-        <v>8884200</v>
+        <v>8543600</v>
       </c>
       <c r="J76" s="3">
+        <v>8463600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8395500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8301900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8101100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7293700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E80" s="2">
         <v>43729</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43533</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43365</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43169</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43001</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42805</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42637</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42441</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42273</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42077</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63300</v>
+        <v>219200</v>
       </c>
       <c r="E81" s="3">
-        <v>71100</v>
+        <v>-60300</v>
       </c>
       <c r="F81" s="3">
-        <v>146100</v>
+        <v>67700</v>
       </c>
       <c r="G81" s="3">
-        <v>174500</v>
+        <v>139200</v>
       </c>
       <c r="H81" s="3">
-        <v>201700</v>
+        <v>166300</v>
       </c>
       <c r="I81" s="3">
-        <v>90500</v>
+        <v>192100</v>
       </c>
       <c r="J81" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K81" s="3">
         <v>373600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>256900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>341700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>234400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>862300</v>
+        <v>725400</v>
       </c>
       <c r="E83" s="3">
-        <v>751100</v>
+        <v>821500</v>
       </c>
       <c r="F83" s="3">
-        <v>880400</v>
+        <v>715600</v>
       </c>
       <c r="G83" s="3">
-        <v>477000</v>
+        <v>838700</v>
       </c>
       <c r="H83" s="3">
-        <v>468000</v>
+        <v>454500</v>
       </c>
       <c r="I83" s="3">
-        <v>389100</v>
+        <v>445800</v>
       </c>
       <c r="J83" s="3">
+        <v>370700</v>
+      </c>
+      <c r="K83" s="3">
         <v>422700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>360000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>401700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>343700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1323800</v>
+        <v>428600</v>
       </c>
       <c r="E89" s="3">
-        <v>115100</v>
+        <v>1261200</v>
       </c>
       <c r="F89" s="3">
-        <v>1233300</v>
+        <v>109600</v>
       </c>
       <c r="G89" s="3">
-        <v>742100</v>
+        <v>1174900</v>
       </c>
       <c r="H89" s="3">
-        <v>1022600</v>
+        <v>706900</v>
       </c>
       <c r="I89" s="3">
-        <v>526200</v>
+        <v>974200</v>
       </c>
       <c r="J89" s="3">
+        <v>501300</v>
+      </c>
+      <c r="K89" s="3">
         <v>964400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>189100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>322200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>675500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-275400</v>
+        <v>-376900</v>
       </c>
       <c r="E91" s="3">
-        <v>-309000</v>
+        <v>-262300</v>
       </c>
       <c r="F91" s="3">
-        <v>-303800</v>
+        <v>-294400</v>
       </c>
       <c r="G91" s="3">
-        <v>-360700</v>
+        <v>-289400</v>
       </c>
       <c r="H91" s="3">
-        <v>-364600</v>
+        <v>-343600</v>
       </c>
       <c r="I91" s="3">
-        <v>-422700</v>
+        <v>-347300</v>
       </c>
       <c r="J91" s="3">
+        <v>-402700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-396900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-373000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-469600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-583300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120200</v>
+        <v>-410100</v>
       </c>
       <c r="E94" s="3">
-        <v>-337400</v>
+        <v>-114500</v>
       </c>
       <c r="F94" s="3">
-        <v>-275400</v>
+        <v>-321400</v>
       </c>
       <c r="G94" s="3">
-        <v>-248200</v>
+        <v>-262300</v>
       </c>
       <c r="H94" s="3">
-        <v>-359400</v>
+        <v>-236500</v>
       </c>
       <c r="I94" s="3">
-        <v>-386600</v>
+        <v>-342400</v>
       </c>
       <c r="J94" s="3">
+        <v>-368200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-583100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-113500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-408200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-454300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25900</v>
       </c>
-      <c r="E96" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>199600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-204800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-126400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,46 +4078,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-755000</v>
+        <v>-601000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5200</v>
+        <v>-719300</v>
       </c>
       <c r="F100" s="3">
-        <v>-967000</v>
+        <v>-4900</v>
       </c>
       <c r="G100" s="3">
-        <v>18100</v>
+        <v>-921200</v>
       </c>
       <c r="H100" s="3">
-        <v>-333500</v>
+        <v>17200</v>
       </c>
       <c r="I100" s="3">
-        <v>-275400</v>
+        <v>-317800</v>
       </c>
       <c r="J100" s="3">
+        <v>-262300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-327100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-233500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>66500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-385800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3911,42 +4160,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>448600</v>
+        <v>-582500</v>
       </c>
       <c r="E102" s="3">
-        <v>-442100</v>
+        <v>427400</v>
       </c>
       <c r="F102" s="3">
-        <v>-343900</v>
+        <v>-421200</v>
       </c>
       <c r="G102" s="3">
-        <v>512000</v>
+        <v>-327600</v>
       </c>
       <c r="H102" s="3">
-        <v>329700</v>
+        <v>487700</v>
       </c>
       <c r="I102" s="3">
-        <v>-135700</v>
+        <v>314100</v>
       </c>
       <c r="J102" s="3">
+        <v>-129300</v>
+      </c>
+      <c r="K102" s="3">
         <v>54300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-157800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-164600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17114300</v>
+        <v>18353700</v>
       </c>
       <c r="E8" s="3">
-        <v>18593500</v>
+        <v>19940000</v>
       </c>
       <c r="F8" s="3">
-        <v>17094600</v>
+        <v>18332600</v>
       </c>
       <c r="G8" s="3">
-        <v>18630400</v>
+        <v>19979600</v>
       </c>
       <c r="H8" s="3">
-        <v>17010900</v>
+        <v>18242800</v>
       </c>
       <c r="I8" s="3">
-        <v>18035600</v>
+        <v>19341600</v>
       </c>
       <c r="J8" s="3">
-        <v>16727600</v>
+        <v>17939000</v>
       </c>
       <c r="K8" s="3">
         <v>16343700</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15801400</v>
+        <v>16811000</v>
       </c>
       <c r="E9" s="3">
-        <v>17423400</v>
+        <v>18452800</v>
       </c>
       <c r="F9" s="3">
-        <v>15721400</v>
+        <v>16859900</v>
       </c>
       <c r="G9" s="3">
-        <v>17185700</v>
+        <v>18430300</v>
       </c>
       <c r="H9" s="3">
-        <v>15907300</v>
+        <v>17059300</v>
       </c>
       <c r="I9" s="3">
-        <v>16821200</v>
+        <v>18039300</v>
       </c>
       <c r="J9" s="3">
-        <v>15657300</v>
+        <v>16791200</v>
       </c>
       <c r="K9" s="3">
         <v>15354700</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1312900</v>
+        <v>1542700</v>
       </c>
       <c r="E10" s="3">
-        <v>1170000</v>
+        <v>1487200</v>
       </c>
       <c r="F10" s="3">
-        <v>1373200</v>
+        <v>1472700</v>
       </c>
       <c r="G10" s="3">
-        <v>1444700</v>
+        <v>1549300</v>
       </c>
       <c r="H10" s="3">
-        <v>1103500</v>
+        <v>1183400</v>
       </c>
       <c r="I10" s="3">
-        <v>1214400</v>
+        <v>1302300</v>
       </c>
       <c r="J10" s="3">
-        <v>1070300</v>
+        <v>1147800</v>
       </c>
       <c r="K10" s="3">
         <v>989000</v>
@@ -958,16 +958,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>146600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>295900</v>
       </c>
       <c r="F14" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>34300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-18500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16606900</v>
+        <v>17789700</v>
       </c>
       <c r="E17" s="3">
-        <v>18300300</v>
+        <v>19607100</v>
       </c>
       <c r="F17" s="3">
-        <v>16738700</v>
+        <v>17973300</v>
       </c>
       <c r="G17" s="3">
-        <v>18257200</v>
+        <v>19556900</v>
       </c>
       <c r="H17" s="3">
-        <v>16721400</v>
+        <v>17932400</v>
       </c>
       <c r="I17" s="3">
-        <v>17687000</v>
+        <v>18967900</v>
       </c>
       <c r="J17" s="3">
-        <v>16499700</v>
+        <v>17694600</v>
       </c>
       <c r="K17" s="3">
         <v>15752900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>507400</v>
+        <v>564000</v>
       </c>
       <c r="E18" s="3">
-        <v>293100</v>
+        <v>332800</v>
       </c>
       <c r="F18" s="3">
-        <v>355900</v>
+        <v>359300</v>
       </c>
       <c r="G18" s="3">
-        <v>373200</v>
+        <v>422700</v>
       </c>
       <c r="H18" s="3">
-        <v>289400</v>
+        <v>310400</v>
       </c>
       <c r="I18" s="3">
-        <v>348500</v>
+        <v>373800</v>
       </c>
       <c r="J18" s="3">
-        <v>227800</v>
+        <v>244300</v>
       </c>
       <c r="K18" s="3">
         <v>590800</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13500</v>
+        <v>-10600</v>
       </c>
       <c r="E20" s="3">
-        <v>-19700</v>
+        <v>-46200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3700</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3">
-        <v>36900</v>
+        <v>11900</v>
       </c>
       <c r="H20" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="I20" s="3">
-        <v>-7400</v>
+        <v>-7900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K20" s="3">
         <v>-29700</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1246400</v>
+        <v>1331400</v>
       </c>
       <c r="E21" s="3">
-        <v>1094900</v>
+        <v>1167600</v>
       </c>
       <c r="F21" s="3">
-        <v>1067800</v>
+        <v>1138500</v>
       </c>
       <c r="G21" s="3">
-        <v>1248800</v>
+        <v>1334000</v>
       </c>
       <c r="H21" s="3">
-        <v>751300</v>
+        <v>805700</v>
       </c>
       <c r="I21" s="3">
-        <v>787000</v>
+        <v>844000</v>
       </c>
       <c r="J21" s="3">
-        <v>596100</v>
+        <v>639300</v>
       </c>
       <c r="K21" s="3">
         <v>983800</v>
@@ -1235,25 +1235,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>218000</v>
+        <v>228500</v>
       </c>
       <c r="E22" s="3">
-        <v>262300</v>
+        <v>274700</v>
       </c>
       <c r="F22" s="3">
-        <v>235200</v>
+        <v>245700</v>
       </c>
       <c r="G22" s="3">
-        <v>278300</v>
+        <v>293200</v>
       </c>
       <c r="H22" s="3">
-        <v>64000</v>
+        <v>68700</v>
       </c>
       <c r="I22" s="3">
-        <v>70200</v>
+        <v>75300</v>
       </c>
       <c r="J22" s="3">
-        <v>64000</v>
+        <v>68700</v>
       </c>
       <c r="K22" s="3">
         <v>80200</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>303000</v>
+        <v>324900</v>
       </c>
       <c r="E23" s="3">
-        <v>11100</v>
+        <v>11900</v>
       </c>
       <c r="F23" s="3">
-        <v>117000</v>
+        <v>125500</v>
       </c>
       <c r="G23" s="3">
-        <v>131800</v>
+        <v>141300</v>
       </c>
       <c r="H23" s="3">
-        <v>232800</v>
+        <v>249600</v>
       </c>
       <c r="I23" s="3">
-        <v>271000</v>
+        <v>290600</v>
       </c>
       <c r="J23" s="3">
-        <v>161300</v>
+        <v>173000</v>
       </c>
       <c r="K23" s="3">
         <v>480900</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69000</v>
+        <v>74000</v>
       </c>
       <c r="E24" s="3">
-        <v>57900</v>
+        <v>62100</v>
       </c>
       <c r="F24" s="3">
-        <v>39400</v>
+        <v>42300</v>
       </c>
       <c r="G24" s="3">
-        <v>-19700</v>
+        <v>-21100</v>
       </c>
       <c r="H24" s="3">
-        <v>56700</v>
+        <v>60800</v>
       </c>
       <c r="I24" s="3">
-        <v>66500</v>
+        <v>71300</v>
       </c>
       <c r="J24" s="3">
-        <v>65300</v>
+        <v>70000</v>
       </c>
       <c r="K24" s="3">
         <v>94400</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>234000</v>
+        <v>251000</v>
       </c>
       <c r="E26" s="3">
-        <v>-46800</v>
+        <v>-50200</v>
       </c>
       <c r="F26" s="3">
-        <v>77600</v>
+        <v>83200</v>
       </c>
       <c r="G26" s="3">
-        <v>151500</v>
+        <v>162500</v>
       </c>
       <c r="H26" s="3">
-        <v>176100</v>
+        <v>188900</v>
       </c>
       <c r="I26" s="3">
-        <v>204400</v>
+        <v>219300</v>
       </c>
       <c r="J26" s="3">
-        <v>96100</v>
+        <v>103000</v>
       </c>
       <c r="K26" s="3">
         <v>386600</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>219200</v>
+        <v>235100</v>
       </c>
       <c r="E27" s="3">
-        <v>-60300</v>
+        <v>-64700</v>
       </c>
       <c r="F27" s="3">
-        <v>67700</v>
+        <v>72600</v>
       </c>
       <c r="G27" s="3">
-        <v>139200</v>
+        <v>149200</v>
       </c>
       <c r="H27" s="3">
-        <v>166300</v>
+        <v>178300</v>
       </c>
       <c r="I27" s="3">
-        <v>192100</v>
+        <v>206000</v>
       </c>
       <c r="J27" s="3">
-        <v>86200</v>
+        <v>92500</v>
       </c>
       <c r="K27" s="3">
         <v>373600</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13500</v>
+        <v>10600</v>
       </c>
       <c r="E32" s="3">
-        <v>19700</v>
+        <v>46200</v>
       </c>
       <c r="F32" s="3">
-        <v>3700</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3">
-        <v>-36900</v>
+        <v>-11900</v>
       </c>
       <c r="H32" s="3">
-        <v>-7400</v>
+        <v>-7900</v>
       </c>
       <c r="I32" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="J32" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K32" s="3">
         <v>29700</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>219200</v>
+        <v>235100</v>
       </c>
       <c r="E33" s="3">
-        <v>-60300</v>
+        <v>-64700</v>
       </c>
       <c r="F33" s="3">
-        <v>67700</v>
+        <v>72600</v>
       </c>
       <c r="G33" s="3">
-        <v>139200</v>
+        <v>149200</v>
       </c>
       <c r="H33" s="3">
-        <v>166300</v>
+        <v>178300</v>
       </c>
       <c r="I33" s="3">
-        <v>192100</v>
+        <v>206000</v>
       </c>
       <c r="J33" s="3">
-        <v>86200</v>
+        <v>92500</v>
       </c>
       <c r="K33" s="3">
         <v>373600</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>219200</v>
+        <v>235100</v>
       </c>
       <c r="E35" s="3">
-        <v>-60300</v>
+        <v>-64700</v>
       </c>
       <c r="F35" s="3">
-        <v>67700</v>
+        <v>72600</v>
       </c>
       <c r="G35" s="3">
-        <v>139200</v>
+        <v>149200</v>
       </c>
       <c r="H35" s="3">
-        <v>166300</v>
+        <v>178300</v>
       </c>
       <c r="I35" s="3">
-        <v>192100</v>
+        <v>206000</v>
       </c>
       <c r="J35" s="3">
-        <v>86200</v>
+        <v>92500</v>
       </c>
       <c r="K35" s="3">
         <v>373600</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1224200</v>
+        <v>952300</v>
       </c>
       <c r="E41" s="3">
-        <v>1362100</v>
+        <v>1460800</v>
       </c>
       <c r="F41" s="3">
-        <v>2381900</v>
+        <v>1073800</v>
       </c>
       <c r="G41" s="3">
-        <v>1106000</v>
+        <v>1186100</v>
       </c>
       <c r="H41" s="3">
-        <v>1289500</v>
+        <v>1382900</v>
       </c>
       <c r="I41" s="3">
-        <v>1342400</v>
+        <v>1439700</v>
       </c>
       <c r="J41" s="3">
-        <v>1037000</v>
+        <v>1112100</v>
       </c>
       <c r="K41" s="3">
         <v>1383300</v>
@@ -1930,25 +1930,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101000</v>
+        <v>468900</v>
       </c>
       <c r="E42" s="3">
-        <v>670000</v>
+        <v>718500</v>
       </c>
       <c r="F42" s="3">
-        <v>639200</v>
+        <v>685500</v>
       </c>
       <c r="G42" s="3">
-        <v>1130600</v>
+        <v>1212500</v>
       </c>
       <c r="H42" s="3">
-        <v>1091200</v>
+        <v>1170200</v>
       </c>
       <c r="I42" s="3">
-        <v>466800</v>
+        <v>500600</v>
       </c>
       <c r="J42" s="3">
-        <v>420000</v>
+        <v>450400</v>
       </c>
       <c r="K42" s="3">
         <v>309000</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5864900</v>
+        <v>6289600</v>
       </c>
       <c r="E43" s="3">
-        <v>5543400</v>
+        <v>5944900</v>
       </c>
       <c r="F43" s="3">
-        <v>5256500</v>
+        <v>5637100</v>
       </c>
       <c r="G43" s="3">
-        <v>5092700</v>
+        <v>5461500</v>
       </c>
       <c r="H43" s="3">
-        <v>5054500</v>
+        <v>5420500</v>
       </c>
       <c r="I43" s="3">
-        <v>4452200</v>
+        <v>4774700</v>
       </c>
       <c r="J43" s="3">
-        <v>4015000</v>
+        <v>4305800</v>
       </c>
       <c r="K43" s="3">
         <v>4140900</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2133100</v>
+        <v>2287600</v>
       </c>
       <c r="E44" s="3">
-        <v>2405300</v>
+        <v>2579500</v>
       </c>
       <c r="F44" s="3">
-        <v>2375800</v>
+        <v>2547800</v>
       </c>
       <c r="G44" s="3">
-        <v>2314200</v>
+        <v>2481800</v>
       </c>
       <c r="H44" s="3">
-        <v>2229200</v>
+        <v>2390600</v>
       </c>
       <c r="I44" s="3">
-        <v>2374500</v>
+        <v>2546500</v>
       </c>
       <c r="J44" s="3">
-        <v>2186100</v>
+        <v>2344400</v>
       </c>
       <c r="K44" s="3">
         <v>2460200</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14800</v>
+        <v>15800</v>
       </c>
       <c r="E45" s="3">
-        <v>50500</v>
+        <v>54200</v>
       </c>
       <c r="F45" s="3">
-        <v>25900</v>
+        <v>27700</v>
       </c>
       <c r="G45" s="3">
-        <v>57900</v>
+        <v>62100</v>
       </c>
       <c r="H45" s="3">
-        <v>12300</v>
+        <v>13200</v>
       </c>
       <c r="I45" s="3">
-        <v>22200</v>
+        <v>23800</v>
       </c>
       <c r="J45" s="3">
-        <v>115800</v>
+        <v>124200</v>
       </c>
       <c r="K45" s="3">
         <v>175800</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9338000</v>
+        <v>10014200</v>
       </c>
       <c r="E46" s="3">
-        <v>10031400</v>
+        <v>10757800</v>
       </c>
       <c r="F46" s="3">
-        <v>9298600</v>
+        <v>9972000</v>
       </c>
       <c r="G46" s="3">
-        <v>9701300</v>
+        <v>10403900</v>
       </c>
       <c r="H46" s="3">
-        <v>9676700</v>
+        <v>10377400</v>
       </c>
       <c r="I46" s="3">
-        <v>8658100</v>
+        <v>9285200</v>
       </c>
       <c r="J46" s="3">
-        <v>7773900</v>
+        <v>8336800</v>
       </c>
       <c r="K46" s="3">
         <v>8469200</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5513900</v>
+        <v>5913200</v>
       </c>
       <c r="E47" s="3">
-        <v>5587800</v>
+        <v>5992400</v>
       </c>
       <c r="F47" s="3">
-        <v>5241700</v>
+        <v>5621300</v>
       </c>
       <c r="G47" s="3">
-        <v>4384500</v>
+        <v>4702000</v>
       </c>
       <c r="H47" s="3">
-        <v>3877100</v>
+        <v>4157800</v>
       </c>
       <c r="I47" s="3">
-        <v>3519900</v>
+        <v>3774800</v>
       </c>
       <c r="J47" s="3">
-        <v>3272400</v>
+        <v>3509300</v>
       </c>
       <c r="K47" s="3">
         <v>3243700</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16918500</v>
+        <v>18143700</v>
       </c>
       <c r="E48" s="3">
-        <v>17021900</v>
+        <v>18254600</v>
       </c>
       <c r="F48" s="3">
-        <v>17471500</v>
+        <v>18736700</v>
       </c>
       <c r="G48" s="3">
-        <v>17659900</v>
+        <v>18938800</v>
       </c>
       <c r="H48" s="3">
-        <v>12190400</v>
+        <v>13073200</v>
       </c>
       <c r="I48" s="3">
-        <v>12253200</v>
+        <v>13140500</v>
       </c>
       <c r="J48" s="3">
-        <v>12323400</v>
+        <v>13215800</v>
       </c>
       <c r="K48" s="3">
         <v>12974600</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1246400</v>
+        <v>1336600</v>
       </c>
       <c r="E49" s="3">
-        <v>1241500</v>
+        <v>1331400</v>
       </c>
       <c r="F49" s="3">
-        <v>1284600</v>
+        <v>1377600</v>
       </c>
       <c r="G49" s="3">
-        <v>1294400</v>
+        <v>1388200</v>
       </c>
       <c r="H49" s="3">
-        <v>1320300</v>
+        <v>1415900</v>
       </c>
       <c r="I49" s="3">
-        <v>1025900</v>
+        <v>1100200</v>
       </c>
       <c r="J49" s="3">
-        <v>989000</v>
+        <v>1060600</v>
       </c>
       <c r="K49" s="3">
         <v>1027800</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1390500</v>
+        <v>1491200</v>
       </c>
       <c r="E52" s="3">
-        <v>1718100</v>
+        <v>1842500</v>
       </c>
       <c r="F52" s="3">
-        <v>1202000</v>
+        <v>1289100</v>
       </c>
       <c r="G52" s="3">
-        <v>359600</v>
+        <v>385700</v>
       </c>
       <c r="H52" s="3">
-        <v>32000</v>
+        <v>34300</v>
       </c>
       <c r="I52" s="3">
-        <v>11100</v>
+        <v>11900</v>
       </c>
       <c r="J52" s="3">
-        <v>24600</v>
+        <v>26400</v>
       </c>
       <c r="K52" s="3">
         <v>60800</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34407200</v>
+        <v>36898900</v>
       </c>
       <c r="E54" s="3">
-        <v>35600600</v>
+        <v>38178800</v>
       </c>
       <c r="F54" s="3">
-        <v>34498300</v>
+        <v>36996600</v>
       </c>
       <c r="G54" s="3">
-        <v>33399800</v>
+        <v>35818500</v>
       </c>
       <c r="H54" s="3">
-        <v>27096400</v>
+        <v>29058700</v>
       </c>
       <c r="I54" s="3">
-        <v>25468300</v>
+        <v>27312600</v>
       </c>
       <c r="J54" s="3">
-        <v>24383200</v>
+        <v>26149000</v>
       </c>
       <c r="K54" s="3">
         <v>25776000</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5265100</v>
+        <v>5646400</v>
       </c>
       <c r="E57" s="3">
-        <v>5800800</v>
+        <v>6220900</v>
       </c>
       <c r="F57" s="3">
-        <v>5385800</v>
+        <v>5775800</v>
       </c>
       <c r="G57" s="3">
-        <v>5889500</v>
+        <v>6316000</v>
       </c>
       <c r="H57" s="3">
-        <v>5323000</v>
+        <v>5708500</v>
       </c>
       <c r="I57" s="3">
-        <v>5153000</v>
+        <v>5526200</v>
       </c>
       <c r="J57" s="3">
-        <v>4607400</v>
+        <v>4941100</v>
       </c>
       <c r="K57" s="3">
         <v>5511200</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>687200</v>
+        <v>737000</v>
       </c>
       <c r="E58" s="3">
-        <v>1269800</v>
+        <v>1361700</v>
       </c>
       <c r="F58" s="3">
-        <v>1661400</v>
+        <v>1781700</v>
       </c>
       <c r="G58" s="3">
-        <v>942200</v>
+        <v>1010400</v>
       </c>
       <c r="H58" s="3">
-        <v>785800</v>
+        <v>842700</v>
       </c>
       <c r="I58" s="3">
-        <v>857200</v>
+        <v>919300</v>
       </c>
       <c r="J58" s="3">
-        <v>423700</v>
+        <v>454400</v>
       </c>
       <c r="K58" s="3">
         <v>586900</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8884800</v>
+        <v>9528200</v>
       </c>
       <c r="E59" s="3">
-        <v>8494300</v>
+        <v>9109500</v>
       </c>
       <c r="F59" s="3">
-        <v>7546000</v>
+        <v>8092500</v>
       </c>
       <c r="G59" s="3">
-        <v>6867400</v>
+        <v>7364700</v>
       </c>
       <c r="H59" s="3">
-        <v>6579200</v>
+        <v>7055700</v>
       </c>
       <c r="I59" s="3">
-        <v>6331700</v>
+        <v>6790200</v>
       </c>
       <c r="J59" s="3">
-        <v>5755300</v>
+        <v>6172100</v>
       </c>
       <c r="K59" s="3">
         <v>5257900</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14837100</v>
+        <v>15911600</v>
       </c>
       <c r="E60" s="3">
-        <v>15565000</v>
+        <v>16692100</v>
       </c>
       <c r="F60" s="3">
-        <v>14593200</v>
+        <v>15650000</v>
       </c>
       <c r="G60" s="3">
-        <v>13699100</v>
+        <v>14691100</v>
       </c>
       <c r="H60" s="3">
-        <v>12687900</v>
+        <v>13606800</v>
       </c>
       <c r="I60" s="3">
-        <v>12341900</v>
+        <v>13235600</v>
       </c>
       <c r="J60" s="3">
-        <v>10574500</v>
+        <v>11340300</v>
       </c>
       <c r="K60" s="3">
         <v>11062600</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8020200</v>
+        <v>8601000</v>
       </c>
       <c r="E61" s="3">
-        <v>7713500</v>
+        <v>8272100</v>
       </c>
       <c r="F61" s="3">
-        <v>7564500</v>
+        <v>8112300</v>
       </c>
       <c r="G61" s="3">
-        <v>8191400</v>
+        <v>8784600</v>
       </c>
       <c r="H61" s="3">
-        <v>1973000</v>
+        <v>2115900</v>
       </c>
       <c r="I61" s="3">
-        <v>1777200</v>
+        <v>1905900</v>
       </c>
       <c r="J61" s="3">
-        <v>2511200</v>
+        <v>2693100</v>
       </c>
       <c r="K61" s="3">
         <v>2731700</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1976700</v>
+        <v>2119900</v>
       </c>
       <c r="E62" s="3">
-        <v>2585100</v>
+        <v>2772300</v>
       </c>
       <c r="F62" s="3">
-        <v>2756300</v>
+        <v>2955900</v>
       </c>
       <c r="G62" s="3">
-        <v>2673800</v>
+        <v>2867400</v>
       </c>
       <c r="H62" s="3">
-        <v>3308100</v>
+        <v>3547600</v>
       </c>
       <c r="I62" s="3">
-        <v>2805600</v>
+        <v>3008800</v>
       </c>
       <c r="J62" s="3">
-        <v>2833900</v>
+        <v>3039100</v>
       </c>
       <c r="K62" s="3">
         <v>3586300</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24834000</v>
+        <v>26632400</v>
       </c>
       <c r="E66" s="3">
-        <v>25863600</v>
+        <v>27736600</v>
       </c>
       <c r="F66" s="3">
-        <v>24914000</v>
+        <v>26718300</v>
       </c>
       <c r="G66" s="3">
-        <v>24564300</v>
+        <v>26343200</v>
       </c>
       <c r="H66" s="3">
-        <v>17969000</v>
+        <v>19270300</v>
       </c>
       <c r="I66" s="3">
-        <v>16924600</v>
+        <v>18150300</v>
       </c>
       <c r="J66" s="3">
-        <v>15919700</v>
+        <v>17072500</v>
       </c>
       <c r="K66" s="3">
         <v>17380500</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6754100</v>
+        <v>7243200</v>
       </c>
       <c r="E72" s="3">
-        <v>6930200</v>
+        <v>7432100</v>
       </c>
       <c r="F72" s="3">
-        <v>6784900</v>
+        <v>7276200</v>
       </c>
       <c r="G72" s="3">
-        <v>6045900</v>
+        <v>6483800</v>
       </c>
       <c r="H72" s="3">
-        <v>6352600</v>
+        <v>6812600</v>
       </c>
       <c r="I72" s="3">
-        <v>5778700</v>
+        <v>6197100</v>
       </c>
       <c r="J72" s="3">
-        <v>5703500</v>
+        <v>6116600</v>
       </c>
       <c r="K72" s="3">
         <v>5500900</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9573200</v>
+        <v>10266500</v>
       </c>
       <c r="E76" s="3">
-        <v>9737000</v>
+        <v>10442200</v>
       </c>
       <c r="F76" s="3">
-        <v>9584300</v>
+        <v>10278400</v>
       </c>
       <c r="G76" s="3">
-        <v>8835500</v>
+        <v>9475300</v>
       </c>
       <c r="H76" s="3">
-        <v>9127400</v>
+        <v>9788400</v>
       </c>
       <c r="I76" s="3">
-        <v>8543600</v>
+        <v>9162300</v>
       </c>
       <c r="J76" s="3">
-        <v>8463600</v>
+        <v>9076500</v>
       </c>
       <c r="K76" s="3">
         <v>8395500</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>219200</v>
+        <v>235100</v>
       </c>
       <c r="E81" s="3">
-        <v>-60300</v>
+        <v>-64700</v>
       </c>
       <c r="F81" s="3">
-        <v>67700</v>
+        <v>72600</v>
       </c>
       <c r="G81" s="3">
-        <v>139200</v>
+        <v>149200</v>
       </c>
       <c r="H81" s="3">
-        <v>166300</v>
+        <v>178300</v>
       </c>
       <c r="I81" s="3">
-        <v>192100</v>
+        <v>206000</v>
       </c>
       <c r="J81" s="3">
-        <v>86200</v>
+        <v>92500</v>
       </c>
       <c r="K81" s="3">
         <v>373600</v>
@@ -3438,25 +3438,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>725400</v>
+        <v>777900</v>
       </c>
       <c r="E83" s="3">
-        <v>821500</v>
+        <v>881000</v>
       </c>
       <c r="F83" s="3">
-        <v>715600</v>
+        <v>767400</v>
       </c>
       <c r="G83" s="3">
-        <v>838700</v>
+        <v>899500</v>
       </c>
       <c r="H83" s="3">
-        <v>454500</v>
+        <v>487400</v>
       </c>
       <c r="I83" s="3">
-        <v>445800</v>
+        <v>478100</v>
       </c>
       <c r="J83" s="3">
-        <v>370700</v>
+        <v>397600</v>
       </c>
       <c r="K83" s="3">
         <v>422700</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>428600</v>
+        <v>459600</v>
       </c>
       <c r="E89" s="3">
-        <v>1261200</v>
+        <v>1352500</v>
       </c>
       <c r="F89" s="3">
-        <v>109600</v>
+        <v>117600</v>
       </c>
       <c r="G89" s="3">
-        <v>1174900</v>
+        <v>1260000</v>
       </c>
       <c r="H89" s="3">
-        <v>706900</v>
+        <v>758100</v>
       </c>
       <c r="I89" s="3">
-        <v>974200</v>
+        <v>1044700</v>
       </c>
       <c r="J89" s="3">
-        <v>501300</v>
+        <v>537600</v>
       </c>
       <c r="K89" s="3">
         <v>964400</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-376900</v>
+        <v>-404200</v>
       </c>
       <c r="E91" s="3">
-        <v>-262300</v>
+        <v>-281300</v>
       </c>
       <c r="F91" s="3">
-        <v>-294400</v>
+        <v>-315700</v>
       </c>
       <c r="G91" s="3">
-        <v>-289400</v>
+        <v>-310400</v>
       </c>
       <c r="H91" s="3">
-        <v>-343600</v>
+        <v>-368500</v>
       </c>
       <c r="I91" s="3">
-        <v>-347300</v>
+        <v>-372500</v>
       </c>
       <c r="J91" s="3">
-        <v>-402700</v>
+        <v>-431900</v>
       </c>
       <c r="K91" s="3">
         <v>-396900</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-410100</v>
+        <v>-439800</v>
       </c>
       <c r="E94" s="3">
-        <v>-114500</v>
+        <v>-122800</v>
       </c>
       <c r="F94" s="3">
-        <v>-321400</v>
+        <v>-344700</v>
       </c>
       <c r="G94" s="3">
-        <v>-262300</v>
+        <v>-281300</v>
       </c>
       <c r="H94" s="3">
-        <v>-236500</v>
+        <v>-253600</v>
       </c>
       <c r="I94" s="3">
-        <v>-342400</v>
+        <v>-367200</v>
       </c>
       <c r="J94" s="3">
-        <v>-368200</v>
+        <v>-394900</v>
       </c>
       <c r="K94" s="3">
         <v>-583100</v>
@@ -3923,25 +3923,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3700</v>
+        <v>-4000</v>
       </c>
       <c r="E96" s="3">
-        <v>-24600</v>
+        <v>-26400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3700</v>
+        <v>-4000</v>
       </c>
       <c r="G96" s="3">
-        <v>-24600</v>
+        <v>-26400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3700</v>
+        <v>-4000</v>
       </c>
       <c r="I96" s="3">
-        <v>-24600</v>
+        <v>-26400</v>
       </c>
       <c r="J96" s="3">
-        <v>-3700</v>
+        <v>-4000</v>
       </c>
       <c r="K96" s="3">
         <v>-25900</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-601000</v>
+        <v>-644500</v>
       </c>
       <c r="E100" s="3">
-        <v>-719300</v>
+        <v>-771300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4900</v>
+        <v>-5300</v>
       </c>
       <c r="G100" s="3">
-        <v>-921200</v>
+        <v>-988000</v>
       </c>
       <c r="H100" s="3">
-        <v>17200</v>
+        <v>18500</v>
       </c>
       <c r="I100" s="3">
-        <v>-317800</v>
+        <v>-340800</v>
       </c>
       <c r="J100" s="3">
-        <v>-262300</v>
+        <v>-281300</v>
       </c>
       <c r="K100" s="3">
         <v>-327100</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-582500</v>
+        <v>-624700</v>
       </c>
       <c r="E102" s="3">
-        <v>427400</v>
+        <v>458300</v>
       </c>
       <c r="F102" s="3">
-        <v>-421200</v>
+        <v>-451700</v>
       </c>
       <c r="G102" s="3">
-        <v>-327600</v>
+        <v>-351300</v>
       </c>
       <c r="H102" s="3">
-        <v>487700</v>
+        <v>523000</v>
       </c>
       <c r="I102" s="3">
-        <v>314100</v>
+        <v>336800</v>
       </c>
       <c r="J102" s="3">
-        <v>-129300</v>
+        <v>-138700</v>
       </c>
       <c r="K102" s="3">
         <v>54300</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44093</v>
+      </c>
+      <c r="E7" s="2">
         <v>43897</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43729</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43533</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43365</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43169</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43001</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42805</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42637</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42441</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42273</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42077</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18353700</v>
+        <v>19883100</v>
       </c>
       <c r="E8" s="3">
-        <v>19940000</v>
+        <v>18501100</v>
       </c>
       <c r="F8" s="3">
-        <v>18332600</v>
+        <v>20100100</v>
       </c>
       <c r="G8" s="3">
-        <v>19979600</v>
+        <v>18479800</v>
       </c>
       <c r="H8" s="3">
-        <v>18242800</v>
+        <v>20140100</v>
       </c>
       <c r="I8" s="3">
-        <v>19341600</v>
+        <v>18389300</v>
       </c>
       <c r="J8" s="3">
+        <v>19497000</v>
+      </c>
+      <c r="K8" s="3">
         <v>17939000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16343700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14460900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16198200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14626900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16811000</v>
+        <v>18165600</v>
       </c>
       <c r="E9" s="3">
-        <v>18452800</v>
+        <v>16946100</v>
       </c>
       <c r="F9" s="3">
-        <v>16859900</v>
+        <v>18601000</v>
       </c>
       <c r="G9" s="3">
-        <v>18430300</v>
+        <v>16995300</v>
       </c>
       <c r="H9" s="3">
-        <v>17059300</v>
+        <v>18578400</v>
       </c>
       <c r="I9" s="3">
-        <v>18039300</v>
+        <v>17196400</v>
       </c>
       <c r="J9" s="3">
+        <v>18184300</v>
+      </c>
+      <c r="K9" s="3">
         <v>16791200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15354700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13549200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15210900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13693300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1542700</v>
+        <v>1717500</v>
       </c>
       <c r="E10" s="3">
-        <v>1487200</v>
+        <v>1555100</v>
       </c>
       <c r="F10" s="3">
-        <v>1472700</v>
+        <v>1499200</v>
       </c>
       <c r="G10" s="3">
-        <v>1549300</v>
+        <v>1484500</v>
       </c>
       <c r="H10" s="3">
-        <v>1183400</v>
+        <v>1561700</v>
       </c>
       <c r="I10" s="3">
-        <v>1302300</v>
+        <v>1192900</v>
       </c>
       <c r="J10" s="3">
+        <v>1312800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1147800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>989000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>911700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>987400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>933600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,25 +969,28 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>146600</v>
+        <v>573800</v>
       </c>
       <c r="E14" s="3">
-        <v>295900</v>
+        <v>147800</v>
       </c>
       <c r="F14" s="3">
-        <v>34300</v>
+        <v>298200</v>
       </c>
       <c r="G14" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>34600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-18600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -981,8 +1001,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17789700</v>
+        <v>19797900</v>
       </c>
       <c r="E17" s="3">
-        <v>19607100</v>
+        <v>17932600</v>
       </c>
       <c r="F17" s="3">
-        <v>17973300</v>
+        <v>19764600</v>
       </c>
       <c r="G17" s="3">
-        <v>19556900</v>
+        <v>18117700</v>
       </c>
       <c r="H17" s="3">
-        <v>17932400</v>
+        <v>19714000</v>
       </c>
       <c r="I17" s="3">
-        <v>18967900</v>
+        <v>18076400</v>
       </c>
       <c r="J17" s="3">
+        <v>19120200</v>
+      </c>
+      <c r="K17" s="3">
         <v>17694600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15752900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14090500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15646500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14212100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>564000</v>
+        <v>85200</v>
       </c>
       <c r="E18" s="3">
-        <v>332800</v>
+        <v>568500</v>
       </c>
       <c r="F18" s="3">
-        <v>359300</v>
+        <v>335500</v>
       </c>
       <c r="G18" s="3">
-        <v>422700</v>
+        <v>362100</v>
       </c>
       <c r="H18" s="3">
-        <v>310400</v>
+        <v>426000</v>
       </c>
       <c r="I18" s="3">
-        <v>373800</v>
+        <v>312900</v>
       </c>
       <c r="J18" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K18" s="3">
         <v>244300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>590800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>370400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>551700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>414800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10600</v>
+        <v>-6700</v>
       </c>
       <c r="E20" s="3">
-        <v>-46200</v>
+        <v>-10700</v>
       </c>
       <c r="F20" s="3">
-        <v>11900</v>
+        <v>-46600</v>
       </c>
       <c r="G20" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
-        <v>7900</v>
+        <v>12000</v>
       </c>
       <c r="I20" s="3">
-        <v>-7900</v>
+        <v>8000</v>
       </c>
       <c r="J20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-48700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1331400</v>
+        <v>958600</v>
       </c>
       <c r="E21" s="3">
-        <v>1167600</v>
+        <v>1342100</v>
       </c>
       <c r="F21" s="3">
-        <v>1138500</v>
+        <v>1177000</v>
       </c>
       <c r="G21" s="3">
-        <v>1334000</v>
+        <v>1147700</v>
       </c>
       <c r="H21" s="3">
-        <v>805700</v>
+        <v>1344700</v>
       </c>
       <c r="I21" s="3">
-        <v>844000</v>
+        <v>812200</v>
       </c>
       <c r="J21" s="3">
+        <v>850800</v>
+      </c>
+      <c r="K21" s="3">
         <v>639300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>983800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>705600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>927400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>709700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>228500</v>
+        <v>261000</v>
       </c>
       <c r="E22" s="3">
-        <v>274700</v>
+        <v>230300</v>
       </c>
       <c r="F22" s="3">
-        <v>245700</v>
+        <v>276900</v>
       </c>
       <c r="G22" s="3">
-        <v>293200</v>
+        <v>247600</v>
       </c>
       <c r="H22" s="3">
+        <v>295600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>69200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K22" s="3">
         <v>68700</v>
       </c>
-      <c r="I22" s="3">
-        <v>75300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>68700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>73000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>83500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>79000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>324900</v>
+        <v>-182400</v>
       </c>
       <c r="E23" s="3">
-        <v>11900</v>
+        <v>327500</v>
       </c>
       <c r="F23" s="3">
-        <v>125500</v>
+        <v>12000</v>
       </c>
       <c r="G23" s="3">
-        <v>141300</v>
+        <v>126500</v>
       </c>
       <c r="H23" s="3">
-        <v>249600</v>
+        <v>142500</v>
       </c>
       <c r="I23" s="3">
-        <v>290600</v>
+        <v>251600</v>
       </c>
       <c r="J23" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K23" s="3">
         <v>173000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>480900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>272600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>442200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>287100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>74000</v>
+        <v>55900</v>
       </c>
       <c r="E24" s="3">
-        <v>62100</v>
+        <v>74600</v>
       </c>
       <c r="F24" s="3">
-        <v>42300</v>
+        <v>62600</v>
       </c>
       <c r="G24" s="3">
-        <v>-21100</v>
+        <v>42600</v>
       </c>
       <c r="H24" s="3">
-        <v>60800</v>
+        <v>-21300</v>
       </c>
       <c r="I24" s="3">
-        <v>71300</v>
+        <v>61200</v>
       </c>
       <c r="J24" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K24" s="3">
         <v>70000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>251000</v>
+        <v>-238300</v>
       </c>
       <c r="E26" s="3">
-        <v>-50200</v>
+        <v>253000</v>
       </c>
       <c r="F26" s="3">
-        <v>83200</v>
+        <v>-50600</v>
       </c>
       <c r="G26" s="3">
-        <v>162500</v>
+        <v>83900</v>
       </c>
       <c r="H26" s="3">
-        <v>188900</v>
+        <v>163800</v>
       </c>
       <c r="I26" s="3">
-        <v>219300</v>
+        <v>190400</v>
       </c>
       <c r="J26" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K26" s="3">
         <v>103000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>386600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>344300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>234400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>235100</v>
+        <v>-243600</v>
       </c>
       <c r="E27" s="3">
-        <v>-64700</v>
+        <v>237000</v>
       </c>
       <c r="F27" s="3">
-        <v>72600</v>
+        <v>-65200</v>
       </c>
       <c r="G27" s="3">
-        <v>149200</v>
+        <v>73200</v>
       </c>
       <c r="H27" s="3">
-        <v>178300</v>
+        <v>150400</v>
       </c>
       <c r="I27" s="3">
-        <v>206000</v>
+        <v>179700</v>
       </c>
       <c r="J27" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K27" s="3">
         <v>92500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>373600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>256900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>341700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>234400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10600</v>
+        <v>6700</v>
       </c>
       <c r="E32" s="3">
-        <v>46200</v>
+        <v>10700</v>
       </c>
       <c r="F32" s="3">
-        <v>-11900</v>
+        <v>46600</v>
       </c>
       <c r="G32" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
-        <v>-7900</v>
+        <v>-12000</v>
       </c>
       <c r="I32" s="3">
-        <v>7900</v>
+        <v>-8000</v>
       </c>
       <c r="J32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K32" s="3">
         <v>2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>48700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>235100</v>
+        <v>-243600</v>
       </c>
       <c r="E33" s="3">
-        <v>-64700</v>
+        <v>237000</v>
       </c>
       <c r="F33" s="3">
-        <v>72600</v>
+        <v>-65200</v>
       </c>
       <c r="G33" s="3">
-        <v>149200</v>
+        <v>73200</v>
       </c>
       <c r="H33" s="3">
-        <v>178300</v>
+        <v>150400</v>
       </c>
       <c r="I33" s="3">
-        <v>206000</v>
+        <v>179700</v>
       </c>
       <c r="J33" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K33" s="3">
         <v>92500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>373600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>256900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>341700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>234400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>235100</v>
+        <v>-243600</v>
       </c>
       <c r="E35" s="3">
-        <v>-64700</v>
+        <v>237000</v>
       </c>
       <c r="F35" s="3">
-        <v>72600</v>
+        <v>-65200</v>
       </c>
       <c r="G35" s="3">
-        <v>149200</v>
+        <v>73200</v>
       </c>
       <c r="H35" s="3">
-        <v>178300</v>
+        <v>150400</v>
       </c>
       <c r="I35" s="3">
-        <v>206000</v>
+        <v>179700</v>
       </c>
       <c r="J35" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K35" s="3">
         <v>92500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>373600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>256900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>341700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>234400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44093</v>
+      </c>
+      <c r="E38" s="2">
         <v>43897</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43729</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43533</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43365</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43169</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43001</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42805</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42637</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42441</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42273</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42077</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,377 +1969,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>952300</v>
+        <v>1386000</v>
       </c>
       <c r="E41" s="3">
-        <v>1460800</v>
+        <v>959900</v>
       </c>
       <c r="F41" s="3">
-        <v>1073800</v>
+        <v>1472500</v>
       </c>
       <c r="G41" s="3">
-        <v>1186100</v>
+        <v>1082400</v>
       </c>
       <c r="H41" s="3">
-        <v>1382900</v>
+        <v>1195600</v>
       </c>
       <c r="I41" s="3">
-        <v>1439700</v>
+        <v>1394000</v>
       </c>
       <c r="J41" s="3">
+        <v>1451200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1112100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1383300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1113900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1494700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1692100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>468900</v>
+        <v>629800</v>
       </c>
       <c r="E42" s="3">
-        <v>718500</v>
+        <v>472600</v>
       </c>
       <c r="F42" s="3">
-        <v>685500</v>
+        <v>724300</v>
       </c>
       <c r="G42" s="3">
-        <v>1212500</v>
+        <v>691000</v>
       </c>
       <c r="H42" s="3">
-        <v>1170200</v>
+        <v>1222200</v>
       </c>
       <c r="I42" s="3">
-        <v>500600</v>
+        <v>1179600</v>
       </c>
       <c r="J42" s="3">
+        <v>504600</v>
+      </c>
+      <c r="K42" s="3">
         <v>450400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>309000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>439600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>156500</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6289600</v>
+        <v>5496000</v>
       </c>
       <c r="E43" s="3">
-        <v>5944900</v>
+        <v>6340100</v>
       </c>
       <c r="F43" s="3">
-        <v>5637100</v>
+        <v>5992600</v>
       </c>
       <c r="G43" s="3">
-        <v>5461500</v>
+        <v>5682400</v>
       </c>
       <c r="H43" s="3">
-        <v>5420500</v>
+        <v>5505300</v>
       </c>
       <c r="I43" s="3">
-        <v>4774700</v>
+        <v>5464100</v>
       </c>
       <c r="J43" s="3">
+        <v>4813000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4305800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4140900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2873400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2986900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2725800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2287600</v>
+        <v>2176800</v>
       </c>
       <c r="E44" s="3">
-        <v>2579500</v>
+        <v>2306000</v>
       </c>
       <c r="F44" s="3">
-        <v>2547800</v>
+        <v>2600200</v>
       </c>
       <c r="G44" s="3">
-        <v>2481800</v>
+        <v>2568300</v>
       </c>
       <c r="H44" s="3">
-        <v>2390600</v>
+        <v>2501700</v>
       </c>
       <c r="I44" s="3">
-        <v>2546500</v>
+        <v>2409800</v>
       </c>
       <c r="J44" s="3">
+        <v>2566900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2344400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2460200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1262600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1321300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1312800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>37300</v>
       </c>
       <c r="E45" s="3">
-        <v>54200</v>
+        <v>16000</v>
       </c>
       <c r="F45" s="3">
-        <v>27700</v>
+        <v>54600</v>
       </c>
       <c r="G45" s="3">
-        <v>62100</v>
+        <v>28000</v>
       </c>
       <c r="H45" s="3">
-        <v>13200</v>
+        <v>62600</v>
       </c>
       <c r="I45" s="3">
-        <v>23800</v>
+        <v>13300</v>
       </c>
       <c r="J45" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K45" s="3">
         <v>124200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>175800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>90900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10014200</v>
+        <v>9725900</v>
       </c>
       <c r="E46" s="3">
-        <v>10757800</v>
+        <v>10094700</v>
       </c>
       <c r="F46" s="3">
-        <v>9972000</v>
+        <v>10844300</v>
       </c>
       <c r="G46" s="3">
-        <v>10403900</v>
+        <v>10052100</v>
       </c>
       <c r="H46" s="3">
-        <v>10377400</v>
+        <v>10487400</v>
       </c>
       <c r="I46" s="3">
-        <v>9285200</v>
+        <v>10460800</v>
       </c>
       <c r="J46" s="3">
+        <v>9359700</v>
+      </c>
+      <c r="K46" s="3">
         <v>8336800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8469200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5755900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6018100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5821500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5913200</v>
+        <v>4968800</v>
       </c>
       <c r="E47" s="3">
-        <v>5992400</v>
+        <v>5960700</v>
       </c>
       <c r="F47" s="3">
-        <v>5621300</v>
+        <v>6040600</v>
       </c>
       <c r="G47" s="3">
-        <v>4702000</v>
+        <v>5666400</v>
       </c>
       <c r="H47" s="3">
-        <v>4157800</v>
+        <v>4739800</v>
       </c>
       <c r="I47" s="3">
-        <v>3774800</v>
+        <v>4191200</v>
       </c>
       <c r="J47" s="3">
+        <v>3805100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3509300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3243700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3155100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2870800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2683600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18143700</v>
+        <v>17996500</v>
       </c>
       <c r="E48" s="3">
-        <v>18254600</v>
+        <v>18289400</v>
       </c>
       <c r="F48" s="3">
-        <v>18736700</v>
+        <v>18401300</v>
       </c>
       <c r="G48" s="3">
-        <v>18938800</v>
+        <v>18887200</v>
       </c>
       <c r="H48" s="3">
-        <v>13073200</v>
+        <v>19090900</v>
       </c>
       <c r="I48" s="3">
-        <v>13140500</v>
+        <v>13178200</v>
       </c>
       <c r="J48" s="3">
+        <v>13246100</v>
+      </c>
+      <c r="K48" s="3">
         <v>13215800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12974600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12735300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12722200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12704400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1336600</v>
+        <v>1192900</v>
       </c>
       <c r="E49" s="3">
-        <v>1331400</v>
+        <v>1347400</v>
       </c>
       <c r="F49" s="3">
-        <v>1377600</v>
+        <v>1342100</v>
       </c>
       <c r="G49" s="3">
-        <v>1388200</v>
+        <v>1388700</v>
       </c>
       <c r="H49" s="3">
-        <v>1415900</v>
+        <v>1399300</v>
       </c>
       <c r="I49" s="3">
-        <v>1100200</v>
+        <v>1427300</v>
       </c>
       <c r="J49" s="3">
+        <v>1109100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1060600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1027800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>429100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>448700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>428000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1491200</v>
+        <v>1355400</v>
       </c>
       <c r="E52" s="3">
-        <v>1842500</v>
+        <v>1503200</v>
       </c>
       <c r="F52" s="3">
-        <v>1289100</v>
+        <v>1857300</v>
       </c>
       <c r="G52" s="3">
-        <v>385700</v>
+        <v>1299400</v>
       </c>
       <c r="H52" s="3">
-        <v>34300</v>
+        <v>388800</v>
       </c>
       <c r="I52" s="3">
-        <v>11900</v>
+        <v>34600</v>
       </c>
       <c r="J52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K52" s="3">
         <v>26400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>138300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36898900</v>
+        <v>35239500</v>
       </c>
       <c r="E54" s="3">
-        <v>38178800</v>
+        <v>37195300</v>
       </c>
       <c r="F54" s="3">
-        <v>36996600</v>
+        <v>38485400</v>
       </c>
       <c r="G54" s="3">
-        <v>35818500</v>
+        <v>37293800</v>
       </c>
       <c r="H54" s="3">
-        <v>29058700</v>
+        <v>36106200</v>
       </c>
       <c r="I54" s="3">
-        <v>27312600</v>
+        <v>29292100</v>
       </c>
       <c r="J54" s="3">
+        <v>27532000</v>
+      </c>
+      <c r="K54" s="3">
         <v>26149000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25776000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22138100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22131500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21775800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5646400</v>
+        <v>6260200</v>
       </c>
       <c r="E57" s="3">
-        <v>6220900</v>
+        <v>5691700</v>
       </c>
       <c r="F57" s="3">
-        <v>5775800</v>
+        <v>6270900</v>
       </c>
       <c r="G57" s="3">
-        <v>6316000</v>
+        <v>5822200</v>
       </c>
       <c r="H57" s="3">
-        <v>5708500</v>
+        <v>6366800</v>
       </c>
       <c r="I57" s="3">
-        <v>5526200</v>
+        <v>5754300</v>
       </c>
       <c r="J57" s="3">
+        <v>5570600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4941100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5511200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8151900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8526300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8369500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>737000</v>
+        <v>1058500</v>
       </c>
       <c r="E58" s="3">
-        <v>1361700</v>
+        <v>742900</v>
       </c>
       <c r="F58" s="3">
-        <v>1781700</v>
+        <v>1372700</v>
       </c>
       <c r="G58" s="3">
-        <v>1010400</v>
+        <v>1796100</v>
       </c>
       <c r="H58" s="3">
-        <v>842700</v>
+        <v>1018500</v>
       </c>
       <c r="I58" s="3">
-        <v>919300</v>
+        <v>849400</v>
       </c>
       <c r="J58" s="3">
+        <v>926700</v>
+      </c>
+      <c r="K58" s="3">
         <v>454400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>586900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>290900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>230900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>342400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9528200</v>
+        <v>8133500</v>
       </c>
       <c r="E59" s="3">
-        <v>9109500</v>
+        <v>9604700</v>
       </c>
       <c r="F59" s="3">
-        <v>8092500</v>
+        <v>9182700</v>
       </c>
       <c r="G59" s="3">
-        <v>7364700</v>
+        <v>8157500</v>
       </c>
       <c r="H59" s="3">
-        <v>7055700</v>
+        <v>7423900</v>
       </c>
       <c r="I59" s="3">
-        <v>6790200</v>
+        <v>7112300</v>
       </c>
       <c r="J59" s="3">
+        <v>6844700</v>
+      </c>
+      <c r="K59" s="3">
         <v>6172100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5257900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>322200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>277800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>404300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15911600</v>
+        <v>15452200</v>
       </c>
       <c r="E60" s="3">
-        <v>16692100</v>
+        <v>16039400</v>
       </c>
       <c r="F60" s="3">
-        <v>15650000</v>
+        <v>16826200</v>
       </c>
       <c r="G60" s="3">
-        <v>14691100</v>
+        <v>15775800</v>
       </c>
       <c r="H60" s="3">
-        <v>13606800</v>
+        <v>14809200</v>
       </c>
       <c r="I60" s="3">
-        <v>13235600</v>
+        <v>13716100</v>
       </c>
       <c r="J60" s="3">
+        <v>13342000</v>
+      </c>
+      <c r="K60" s="3">
         <v>11340300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11062600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8765000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9035000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9116100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8601000</v>
+        <v>8176100</v>
       </c>
       <c r="E61" s="3">
-        <v>8272100</v>
+        <v>8670100</v>
       </c>
       <c r="F61" s="3">
-        <v>8112300</v>
+        <v>8338600</v>
       </c>
       <c r="G61" s="3">
-        <v>8784600</v>
+        <v>8177500</v>
       </c>
       <c r="H61" s="3">
-        <v>2115900</v>
+        <v>8855100</v>
       </c>
       <c r="I61" s="3">
-        <v>1905900</v>
+        <v>2132900</v>
       </c>
       <c r="J61" s="3">
+        <v>1921200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2693100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2731700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2856400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3018200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3299900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2119900</v>
+        <v>2042400</v>
       </c>
       <c r="E62" s="3">
-        <v>2772300</v>
+        <v>2136900</v>
       </c>
       <c r="F62" s="3">
-        <v>2955900</v>
+        <v>2794600</v>
       </c>
       <c r="G62" s="3">
-        <v>2867400</v>
+        <v>2979700</v>
       </c>
       <c r="H62" s="3">
-        <v>3547600</v>
+        <v>2890500</v>
       </c>
       <c r="I62" s="3">
-        <v>3008800</v>
+        <v>3576100</v>
       </c>
       <c r="J62" s="3">
+        <v>3032900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3039100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3586300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2214700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1977300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2066000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26632400</v>
+        <v>25670700</v>
       </c>
       <c r="E66" s="3">
-        <v>27736600</v>
+        <v>26846300</v>
       </c>
       <c r="F66" s="3">
-        <v>26718300</v>
+        <v>27959400</v>
       </c>
       <c r="G66" s="3">
-        <v>26343200</v>
+        <v>26932900</v>
       </c>
       <c r="H66" s="3">
-        <v>19270300</v>
+        <v>26554800</v>
       </c>
       <c r="I66" s="3">
-        <v>18150300</v>
+        <v>19425100</v>
       </c>
       <c r="J66" s="3">
+        <v>18296100</v>
+      </c>
+      <c r="K66" s="3">
         <v>17072500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17380500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13836100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14030500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14482100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7243200</v>
+        <v>6844700</v>
       </c>
       <c r="E72" s="3">
-        <v>7432100</v>
+        <v>7301400</v>
       </c>
       <c r="F72" s="3">
-        <v>7276200</v>
+        <v>7491800</v>
       </c>
       <c r="G72" s="3">
-        <v>6483800</v>
+        <v>7334700</v>
       </c>
       <c r="H72" s="3">
-        <v>6812600</v>
+        <v>6535800</v>
       </c>
       <c r="I72" s="3">
-        <v>6197100</v>
+        <v>6867400</v>
       </c>
       <c r="J72" s="3">
+        <v>6246900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6116600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5500900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5484600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5285100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5113100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10266500</v>
+        <v>9568800</v>
       </c>
       <c r="E76" s="3">
-        <v>10442200</v>
+        <v>10349000</v>
       </c>
       <c r="F76" s="3">
-        <v>10278400</v>
+        <v>10526000</v>
       </c>
       <c r="G76" s="3">
-        <v>9475300</v>
+        <v>10361000</v>
       </c>
       <c r="H76" s="3">
-        <v>9788400</v>
+        <v>9551500</v>
       </c>
       <c r="I76" s="3">
-        <v>9162300</v>
+        <v>9867000</v>
       </c>
       <c r="J76" s="3">
+        <v>9235900</v>
+      </c>
+      <c r="K76" s="3">
         <v>9076500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8395500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8301900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8101100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7293700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44093</v>
+      </c>
+      <c r="E80" s="2">
         <v>43897</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43729</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43533</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43365</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43169</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43001</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42805</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42637</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42441</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42273</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42077</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>235100</v>
+        <v>-243600</v>
       </c>
       <c r="E81" s="3">
-        <v>-64700</v>
+        <v>237000</v>
       </c>
       <c r="F81" s="3">
-        <v>72600</v>
+        <v>-65200</v>
       </c>
       <c r="G81" s="3">
-        <v>149200</v>
+        <v>73200</v>
       </c>
       <c r="H81" s="3">
-        <v>178300</v>
+        <v>150400</v>
       </c>
       <c r="I81" s="3">
-        <v>206000</v>
+        <v>179700</v>
       </c>
       <c r="J81" s="3">
+        <v>207700</v>
+      </c>
+      <c r="K81" s="3">
         <v>92500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>373600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>256900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>341700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>234400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>777900</v>
+        <v>880100</v>
       </c>
       <c r="E83" s="3">
-        <v>881000</v>
+        <v>784200</v>
       </c>
       <c r="F83" s="3">
-        <v>767400</v>
+        <v>888000</v>
       </c>
       <c r="G83" s="3">
-        <v>899500</v>
+        <v>773500</v>
       </c>
       <c r="H83" s="3">
-        <v>487400</v>
+        <v>906700</v>
       </c>
       <c r="I83" s="3">
-        <v>478100</v>
+        <v>491300</v>
       </c>
       <c r="J83" s="3">
+        <v>482000</v>
+      </c>
+      <c r="K83" s="3">
         <v>397600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>422700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>360000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>401700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>343700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>459600</v>
+        <v>2011700</v>
       </c>
       <c r="E89" s="3">
-        <v>1352500</v>
+        <v>463300</v>
       </c>
       <c r="F89" s="3">
-        <v>117600</v>
+        <v>1363400</v>
       </c>
       <c r="G89" s="3">
-        <v>1260000</v>
+        <v>118500</v>
       </c>
       <c r="H89" s="3">
-        <v>758100</v>
+        <v>1270200</v>
       </c>
       <c r="I89" s="3">
-        <v>1044700</v>
+        <v>764200</v>
       </c>
       <c r="J89" s="3">
+        <v>1053100</v>
+      </c>
+      <c r="K89" s="3">
         <v>537600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>964400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>189100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>322200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>675500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-404200</v>
+        <v>-342200</v>
       </c>
       <c r="E91" s="3">
-        <v>-281300</v>
+        <v>-407400</v>
       </c>
       <c r="F91" s="3">
-        <v>-315700</v>
+        <v>-283600</v>
       </c>
       <c r="G91" s="3">
-        <v>-310400</v>
+        <v>-318200</v>
       </c>
       <c r="H91" s="3">
-        <v>-368500</v>
+        <v>-312900</v>
       </c>
       <c r="I91" s="3">
-        <v>-372500</v>
+        <v>-371500</v>
       </c>
       <c r="J91" s="3">
+        <v>-375500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-431900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-396900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-373000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-469600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-583300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-439800</v>
+        <v>-350200</v>
       </c>
       <c r="E94" s="3">
-        <v>-122800</v>
+        <v>-443400</v>
       </c>
       <c r="F94" s="3">
-        <v>-344700</v>
+        <v>-123800</v>
       </c>
       <c r="G94" s="3">
-        <v>-281300</v>
+        <v>-347500</v>
       </c>
       <c r="H94" s="3">
-        <v>-253600</v>
+        <v>-283600</v>
       </c>
       <c r="I94" s="3">
-        <v>-367200</v>
+        <v>-255600</v>
       </c>
       <c r="J94" s="3">
+        <v>-370100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-394900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-583100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-113500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-408200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-454300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4000</v>
       </c>
-      <c r="E96" s="3">
-        <v>-26400</v>
-      </c>
       <c r="F96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-4000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-26400</v>
-      </c>
       <c r="H96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-4000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-26400</v>
-      </c>
       <c r="J96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-25900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>199600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-204800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-126400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,49 +4324,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-644500</v>
+        <v>-1050500</v>
       </c>
       <c r="E100" s="3">
-        <v>-771300</v>
+        <v>-649700</v>
       </c>
       <c r="F100" s="3">
+        <v>-777500</v>
+      </c>
+      <c r="G100" s="3">
         <v>-5300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-988000</v>
-      </c>
       <c r="H100" s="3">
-        <v>18500</v>
+        <v>-995900</v>
       </c>
       <c r="I100" s="3">
-        <v>-340800</v>
+        <v>18600</v>
       </c>
       <c r="J100" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-281300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-327100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-233500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>66500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-385800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4163,45 +4412,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-624700</v>
+        <v>611100</v>
       </c>
       <c r="E102" s="3">
-        <v>458300</v>
+        <v>-629800</v>
       </c>
       <c r="F102" s="3">
-        <v>-451700</v>
+        <v>462000</v>
       </c>
       <c r="G102" s="3">
-        <v>-351300</v>
+        <v>-455300</v>
       </c>
       <c r="H102" s="3">
-        <v>523000</v>
+        <v>-354200</v>
       </c>
       <c r="I102" s="3">
-        <v>336800</v>
+        <v>527200</v>
       </c>
       <c r="J102" s="3">
+        <v>339500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-138700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>54300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-157800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-164600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19883100</v>
+        <v>20507200</v>
       </c>
       <c r="E8" s="3">
-        <v>18501100</v>
+        <v>19081800</v>
       </c>
       <c r="F8" s="3">
-        <v>20100100</v>
+        <v>20731000</v>
       </c>
       <c r="G8" s="3">
-        <v>18479800</v>
+        <v>19059900</v>
       </c>
       <c r="H8" s="3">
-        <v>20140100</v>
+        <v>20772200</v>
       </c>
       <c r="I8" s="3">
-        <v>18389300</v>
+        <v>18966500</v>
       </c>
       <c r="J8" s="3">
-        <v>19497000</v>
+        <v>20109000</v>
       </c>
       <c r="K8" s="3">
         <v>17939000</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18165600</v>
+        <v>18735800</v>
       </c>
       <c r="E9" s="3">
-        <v>16946100</v>
+        <v>17478000</v>
       </c>
       <c r="F9" s="3">
-        <v>18601000</v>
+        <v>19184800</v>
       </c>
       <c r="G9" s="3">
-        <v>16995300</v>
+        <v>17528800</v>
       </c>
       <c r="H9" s="3">
-        <v>18578400</v>
+        <v>19161500</v>
       </c>
       <c r="I9" s="3">
-        <v>17196400</v>
+        <v>17736100</v>
       </c>
       <c r="J9" s="3">
-        <v>18184300</v>
+        <v>18755000</v>
       </c>
       <c r="K9" s="3">
         <v>16791200</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1717500</v>
+        <v>1771400</v>
       </c>
       <c r="E10" s="3">
-        <v>1555100</v>
+        <v>1603900</v>
       </c>
       <c r="F10" s="3">
-        <v>1499200</v>
+        <v>1546200</v>
       </c>
       <c r="G10" s="3">
-        <v>1484500</v>
+        <v>1531100</v>
       </c>
       <c r="H10" s="3">
-        <v>1561700</v>
+        <v>1610800</v>
       </c>
       <c r="I10" s="3">
-        <v>1192900</v>
+        <v>1230400</v>
       </c>
       <c r="J10" s="3">
-        <v>1312800</v>
+        <v>1354000</v>
       </c>
       <c r="K10" s="3">
         <v>1147800</v>
@@ -978,19 +978,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>573800</v>
+        <v>591800</v>
       </c>
       <c r="E14" s="3">
-        <v>147800</v>
+        <v>152400</v>
       </c>
       <c r="F14" s="3">
-        <v>298200</v>
+        <v>307600</v>
       </c>
       <c r="G14" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="H14" s="3">
-        <v>-18600</v>
+        <v>-19200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19797900</v>
+        <v>20419300</v>
       </c>
       <c r="E17" s="3">
-        <v>17932600</v>
+        <v>18495500</v>
       </c>
       <c r="F17" s="3">
-        <v>19764600</v>
+        <v>20385000</v>
       </c>
       <c r="G17" s="3">
-        <v>18117700</v>
+        <v>18686400</v>
       </c>
       <c r="H17" s="3">
-        <v>19714000</v>
+        <v>20332800</v>
       </c>
       <c r="I17" s="3">
-        <v>18076400</v>
+        <v>18643800</v>
       </c>
       <c r="J17" s="3">
-        <v>19120200</v>
+        <v>19720400</v>
       </c>
       <c r="K17" s="3">
         <v>17694600</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>85200</v>
+        <v>87900</v>
       </c>
       <c r="E18" s="3">
-        <v>568500</v>
+        <v>586400</v>
       </c>
       <c r="F18" s="3">
-        <v>335500</v>
+        <v>346000</v>
       </c>
       <c r="G18" s="3">
-        <v>362100</v>
+        <v>373500</v>
       </c>
       <c r="H18" s="3">
-        <v>426000</v>
+        <v>439400</v>
       </c>
       <c r="I18" s="3">
-        <v>312900</v>
+        <v>322700</v>
       </c>
       <c r="J18" s="3">
-        <v>376800</v>
+        <v>388600</v>
       </c>
       <c r="K18" s="3">
         <v>244300</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="E20" s="3">
-        <v>-10700</v>
+        <v>-11000</v>
       </c>
       <c r="F20" s="3">
-        <v>-46600</v>
+        <v>-48100</v>
       </c>
       <c r="G20" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="H20" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="I20" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J20" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="K20" s="3">
         <v>-2600</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>958600</v>
+        <v>988700</v>
       </c>
       <c r="E21" s="3">
-        <v>1342100</v>
+        <v>1384200</v>
       </c>
       <c r="F21" s="3">
-        <v>1177000</v>
+        <v>1213900</v>
       </c>
       <c r="G21" s="3">
-        <v>1147700</v>
+        <v>1183700</v>
       </c>
       <c r="H21" s="3">
-        <v>1344700</v>
+        <v>1386900</v>
       </c>
       <c r="I21" s="3">
-        <v>812200</v>
+        <v>837600</v>
       </c>
       <c r="J21" s="3">
-        <v>850800</v>
+        <v>877500</v>
       </c>
       <c r="K21" s="3">
         <v>639300</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>261000</v>
+        <v>269100</v>
       </c>
       <c r="E22" s="3">
-        <v>230300</v>
+        <v>237600</v>
       </c>
       <c r="F22" s="3">
-        <v>276900</v>
+        <v>285600</v>
       </c>
       <c r="G22" s="3">
-        <v>247600</v>
+        <v>255400</v>
       </c>
       <c r="H22" s="3">
-        <v>295600</v>
+        <v>304800</v>
       </c>
       <c r="I22" s="3">
-        <v>69200</v>
+        <v>71400</v>
       </c>
       <c r="J22" s="3">
-        <v>75900</v>
+        <v>78300</v>
       </c>
       <c r="K22" s="3">
         <v>68700</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-182400</v>
+        <v>-188100</v>
       </c>
       <c r="E23" s="3">
-        <v>327500</v>
+        <v>337800</v>
       </c>
       <c r="F23" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="G23" s="3">
-        <v>126500</v>
+        <v>130500</v>
       </c>
       <c r="H23" s="3">
-        <v>142500</v>
+        <v>146900</v>
       </c>
       <c r="I23" s="3">
-        <v>251600</v>
+        <v>259500</v>
       </c>
       <c r="J23" s="3">
-        <v>292900</v>
+        <v>302100</v>
       </c>
       <c r="K23" s="3">
         <v>173000</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55900</v>
+        <v>57700</v>
       </c>
       <c r="E24" s="3">
-        <v>74600</v>
+        <v>76900</v>
       </c>
       <c r="F24" s="3">
-        <v>62600</v>
+        <v>64500</v>
       </c>
       <c r="G24" s="3">
-        <v>42600</v>
+        <v>43900</v>
       </c>
       <c r="H24" s="3">
-        <v>-21300</v>
+        <v>-22000</v>
       </c>
       <c r="I24" s="3">
-        <v>61200</v>
+        <v>63200</v>
       </c>
       <c r="J24" s="3">
-        <v>71900</v>
+        <v>74200</v>
       </c>
       <c r="K24" s="3">
         <v>70000</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-238300</v>
+        <v>-245800</v>
       </c>
       <c r="E26" s="3">
-        <v>253000</v>
+        <v>260900</v>
       </c>
       <c r="F26" s="3">
-        <v>-50600</v>
+        <v>-52200</v>
       </c>
       <c r="G26" s="3">
-        <v>83900</v>
+        <v>86500</v>
       </c>
       <c r="H26" s="3">
-        <v>163800</v>
+        <v>168900</v>
       </c>
       <c r="I26" s="3">
-        <v>190400</v>
+        <v>196400</v>
       </c>
       <c r="J26" s="3">
-        <v>221000</v>
+        <v>227900</v>
       </c>
       <c r="K26" s="3">
         <v>103000</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-243600</v>
+        <v>-251300</v>
       </c>
       <c r="E27" s="3">
-        <v>237000</v>
+        <v>244400</v>
       </c>
       <c r="F27" s="3">
-        <v>-65200</v>
+        <v>-67300</v>
       </c>
       <c r="G27" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="H27" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="I27" s="3">
-        <v>179700</v>
+        <v>185400</v>
       </c>
       <c r="J27" s="3">
-        <v>207700</v>
+        <v>214200</v>
       </c>
       <c r="K27" s="3">
         <v>92500</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="E32" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="F32" s="3">
-        <v>46600</v>
+        <v>48100</v>
       </c>
       <c r="G32" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="I32" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="J32" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K32" s="3">
         <v>2600</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-243600</v>
+        <v>-251300</v>
       </c>
       <c r="E33" s="3">
-        <v>237000</v>
+        <v>244400</v>
       </c>
       <c r="F33" s="3">
-        <v>-65200</v>
+        <v>-67300</v>
       </c>
       <c r="G33" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="H33" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="I33" s="3">
-        <v>179700</v>
+        <v>185400</v>
       </c>
       <c r="J33" s="3">
-        <v>207700</v>
+        <v>214200</v>
       </c>
       <c r="K33" s="3">
         <v>92500</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-243600</v>
+        <v>-251300</v>
       </c>
       <c r="E35" s="3">
-        <v>237000</v>
+        <v>244400</v>
       </c>
       <c r="F35" s="3">
-        <v>-65200</v>
+        <v>-67300</v>
       </c>
       <c r="G35" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="H35" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="I35" s="3">
-        <v>179700</v>
+        <v>185400</v>
       </c>
       <c r="J35" s="3">
-        <v>207700</v>
+        <v>214200</v>
       </c>
       <c r="K35" s="3">
         <v>92500</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1386000</v>
+        <v>1429500</v>
       </c>
       <c r="E41" s="3">
-        <v>959900</v>
+        <v>990100</v>
       </c>
       <c r="F41" s="3">
-        <v>1472500</v>
+        <v>1518700</v>
       </c>
       <c r="G41" s="3">
-        <v>1082400</v>
+        <v>1116400</v>
       </c>
       <c r="H41" s="3">
-        <v>1195600</v>
+        <v>1233100</v>
       </c>
       <c r="I41" s="3">
-        <v>1394000</v>
+        <v>1437700</v>
       </c>
       <c r="J41" s="3">
-        <v>1451200</v>
+        <v>1496800</v>
       </c>
       <c r="K41" s="3">
         <v>1112100</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>629800</v>
+        <v>649500</v>
       </c>
       <c r="E42" s="3">
-        <v>472600</v>
+        <v>487500</v>
       </c>
       <c r="F42" s="3">
-        <v>724300</v>
+        <v>747000</v>
       </c>
       <c r="G42" s="3">
-        <v>691000</v>
+        <v>712700</v>
       </c>
       <c r="H42" s="3">
-        <v>1222200</v>
+        <v>1260600</v>
       </c>
       <c r="I42" s="3">
-        <v>1179600</v>
+        <v>1216600</v>
       </c>
       <c r="J42" s="3">
-        <v>504600</v>
+        <v>520400</v>
       </c>
       <c r="K42" s="3">
         <v>450400</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5496000</v>
+        <v>5668500</v>
       </c>
       <c r="E43" s="3">
-        <v>6340100</v>
+        <v>6539100</v>
       </c>
       <c r="F43" s="3">
-        <v>5992600</v>
+        <v>6180700</v>
       </c>
       <c r="G43" s="3">
-        <v>5682400</v>
+        <v>5860800</v>
       </c>
       <c r="H43" s="3">
-        <v>5505300</v>
+        <v>5678100</v>
       </c>
       <c r="I43" s="3">
-        <v>5464100</v>
+        <v>5635600</v>
       </c>
       <c r="J43" s="3">
-        <v>4813000</v>
+        <v>4964100</v>
       </c>
       <c r="K43" s="3">
         <v>4305800</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2176800</v>
+        <v>2245200</v>
       </c>
       <c r="E44" s="3">
-        <v>2306000</v>
+        <v>2378400</v>
       </c>
       <c r="F44" s="3">
-        <v>2600200</v>
+        <v>2681800</v>
       </c>
       <c r="G44" s="3">
-        <v>2568300</v>
+        <v>2648900</v>
       </c>
       <c r="H44" s="3">
-        <v>2501700</v>
+        <v>2580200</v>
       </c>
       <c r="I44" s="3">
-        <v>2409800</v>
+        <v>2485500</v>
       </c>
       <c r="J44" s="3">
-        <v>2566900</v>
+        <v>2647500</v>
       </c>
       <c r="K44" s="3">
         <v>2344400</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>37300</v>
+        <v>38400</v>
       </c>
       <c r="E45" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F45" s="3">
-        <v>54600</v>
+        <v>56300</v>
       </c>
       <c r="G45" s="3">
-        <v>28000</v>
+        <v>28800</v>
       </c>
       <c r="H45" s="3">
-        <v>62600</v>
+        <v>64500</v>
       </c>
       <c r="I45" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="J45" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="K45" s="3">
         <v>124200</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9725900</v>
+        <v>10031200</v>
       </c>
       <c r="E46" s="3">
-        <v>10094700</v>
+        <v>10411500</v>
       </c>
       <c r="F46" s="3">
-        <v>10844300</v>
+        <v>11184600</v>
       </c>
       <c r="G46" s="3">
-        <v>10052100</v>
+        <v>10367600</v>
       </c>
       <c r="H46" s="3">
-        <v>10487400</v>
+        <v>10816600</v>
       </c>
       <c r="I46" s="3">
-        <v>10460800</v>
+        <v>10789200</v>
       </c>
       <c r="J46" s="3">
-        <v>9359700</v>
+        <v>9653500</v>
       </c>
       <c r="K46" s="3">
         <v>8336800</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4968800</v>
+        <v>5124700</v>
       </c>
       <c r="E47" s="3">
-        <v>5960700</v>
+        <v>6147800</v>
       </c>
       <c r="F47" s="3">
-        <v>6040600</v>
+        <v>6230200</v>
       </c>
       <c r="G47" s="3">
-        <v>5666400</v>
+        <v>5844300</v>
       </c>
       <c r="H47" s="3">
-        <v>4739800</v>
+        <v>4888600</v>
       </c>
       <c r="I47" s="3">
-        <v>4191200</v>
+        <v>4322800</v>
       </c>
       <c r="J47" s="3">
-        <v>3805100</v>
+        <v>3924600</v>
       </c>
       <c r="K47" s="3">
         <v>3509300</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17996500</v>
+        <v>18561400</v>
       </c>
       <c r="E48" s="3">
-        <v>18289400</v>
+        <v>18863500</v>
       </c>
       <c r="F48" s="3">
-        <v>18401300</v>
+        <v>18978900</v>
       </c>
       <c r="G48" s="3">
-        <v>18887200</v>
+        <v>19480100</v>
       </c>
       <c r="H48" s="3">
-        <v>19090900</v>
+        <v>19690200</v>
       </c>
       <c r="I48" s="3">
-        <v>13178200</v>
+        <v>13591800</v>
       </c>
       <c r="J48" s="3">
-        <v>13246100</v>
+        <v>13661900</v>
       </c>
       <c r="K48" s="3">
         <v>13215800</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1192900</v>
+        <v>1230400</v>
       </c>
       <c r="E49" s="3">
-        <v>1347400</v>
+        <v>1389700</v>
       </c>
       <c r="F49" s="3">
-        <v>1342100</v>
+        <v>1384200</v>
       </c>
       <c r="G49" s="3">
-        <v>1388700</v>
+        <v>1432200</v>
       </c>
       <c r="H49" s="3">
-        <v>1399300</v>
+        <v>1443200</v>
       </c>
       <c r="I49" s="3">
-        <v>1427300</v>
+        <v>1472100</v>
       </c>
       <c r="J49" s="3">
-        <v>1109100</v>
+        <v>1143900</v>
       </c>
       <c r="K49" s="3">
         <v>1060600</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1355400</v>
+        <v>1397900</v>
       </c>
       <c r="E52" s="3">
-        <v>1503200</v>
+        <v>1550300</v>
       </c>
       <c r="F52" s="3">
-        <v>1857300</v>
+        <v>1915600</v>
       </c>
       <c r="G52" s="3">
-        <v>1299400</v>
+        <v>1340200</v>
       </c>
       <c r="H52" s="3">
-        <v>388800</v>
+        <v>401000</v>
       </c>
       <c r="I52" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="J52" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="K52" s="3">
         <v>26400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35239500</v>
+        <v>36345600</v>
       </c>
       <c r="E54" s="3">
-        <v>37195300</v>
+        <v>38362800</v>
       </c>
       <c r="F54" s="3">
-        <v>38485400</v>
+        <v>39693400</v>
       </c>
       <c r="G54" s="3">
-        <v>37293800</v>
+        <v>38464400</v>
       </c>
       <c r="H54" s="3">
-        <v>36106200</v>
+        <v>37239500</v>
       </c>
       <c r="I54" s="3">
-        <v>29292100</v>
+        <v>30211600</v>
       </c>
       <c r="J54" s="3">
-        <v>27532000</v>
+        <v>28396200</v>
       </c>
       <c r="K54" s="3">
         <v>26149000</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6260200</v>
+        <v>6456700</v>
       </c>
       <c r="E57" s="3">
-        <v>5691700</v>
+        <v>5870400</v>
       </c>
       <c r="F57" s="3">
-        <v>6270900</v>
+        <v>6467700</v>
       </c>
       <c r="G57" s="3">
-        <v>5822200</v>
+        <v>6005000</v>
       </c>
       <c r="H57" s="3">
-        <v>6366800</v>
+        <v>6566600</v>
       </c>
       <c r="I57" s="3">
-        <v>5754300</v>
+        <v>5934900</v>
       </c>
       <c r="J57" s="3">
-        <v>5570600</v>
+        <v>5745400</v>
       </c>
       <c r="K57" s="3">
         <v>4941100</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1058500</v>
+        <v>1091700</v>
       </c>
       <c r="E58" s="3">
-        <v>742900</v>
+        <v>766200</v>
       </c>
       <c r="F58" s="3">
-        <v>1372700</v>
+        <v>1415800</v>
       </c>
       <c r="G58" s="3">
-        <v>1796100</v>
+        <v>1852400</v>
       </c>
       <c r="H58" s="3">
-        <v>1018500</v>
+        <v>1050500</v>
       </c>
       <c r="I58" s="3">
-        <v>849400</v>
+        <v>876100</v>
       </c>
       <c r="J58" s="3">
-        <v>926700</v>
+        <v>955700</v>
       </c>
       <c r="K58" s="3">
         <v>454400</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8133500</v>
+        <v>8388800</v>
       </c>
       <c r="E59" s="3">
-        <v>9604700</v>
+        <v>9906200</v>
       </c>
       <c r="F59" s="3">
-        <v>9182700</v>
+        <v>9470900</v>
       </c>
       <c r="G59" s="3">
-        <v>8157500</v>
+        <v>8413500</v>
       </c>
       <c r="H59" s="3">
-        <v>7423900</v>
+        <v>7656900</v>
       </c>
       <c r="I59" s="3">
-        <v>7112300</v>
+        <v>7335600</v>
       </c>
       <c r="J59" s="3">
-        <v>6844700</v>
+        <v>7059600</v>
       </c>
       <c r="K59" s="3">
         <v>6172100</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15452200</v>
+        <v>15937200</v>
       </c>
       <c r="E60" s="3">
-        <v>16039400</v>
+        <v>16542800</v>
       </c>
       <c r="F60" s="3">
-        <v>16826200</v>
+        <v>17354400</v>
       </c>
       <c r="G60" s="3">
-        <v>15775800</v>
+        <v>16270900</v>
       </c>
       <c r="H60" s="3">
-        <v>14809200</v>
+        <v>15274000</v>
       </c>
       <c r="I60" s="3">
-        <v>13716100</v>
+        <v>14146600</v>
       </c>
       <c r="J60" s="3">
-        <v>13342000</v>
+        <v>13760700</v>
       </c>
       <c r="K60" s="3">
         <v>11340300</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8176100</v>
+        <v>8432800</v>
       </c>
       <c r="E61" s="3">
-        <v>8670100</v>
+        <v>8942200</v>
       </c>
       <c r="F61" s="3">
-        <v>8338600</v>
+        <v>8600300</v>
       </c>
       <c r="G61" s="3">
-        <v>8177500</v>
+        <v>8434100</v>
       </c>
       <c r="H61" s="3">
-        <v>8855100</v>
+        <v>9133100</v>
       </c>
       <c r="I61" s="3">
-        <v>2132900</v>
+        <v>2199900</v>
       </c>
       <c r="J61" s="3">
-        <v>1921200</v>
+        <v>1981500</v>
       </c>
       <c r="K61" s="3">
         <v>2693100</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2042400</v>
+        <v>2106500</v>
       </c>
       <c r="E62" s="3">
-        <v>2136900</v>
+        <v>2204000</v>
       </c>
       <c r="F62" s="3">
-        <v>2794600</v>
+        <v>2882300</v>
       </c>
       <c r="G62" s="3">
-        <v>2979700</v>
+        <v>3073200</v>
       </c>
       <c r="H62" s="3">
-        <v>2890500</v>
+        <v>2981200</v>
       </c>
       <c r="I62" s="3">
-        <v>3576100</v>
+        <v>3688400</v>
       </c>
       <c r="J62" s="3">
-        <v>3032900</v>
+        <v>3128100</v>
       </c>
       <c r="K62" s="3">
         <v>3039100</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25670700</v>
+        <v>26476500</v>
       </c>
       <c r="E66" s="3">
-        <v>26846300</v>
+        <v>27689000</v>
       </c>
       <c r="F66" s="3">
-        <v>27959400</v>
+        <v>28837000</v>
       </c>
       <c r="G66" s="3">
-        <v>26932900</v>
+        <v>27778300</v>
       </c>
       <c r="H66" s="3">
-        <v>26554800</v>
+        <v>27388300</v>
       </c>
       <c r="I66" s="3">
-        <v>19425100</v>
+        <v>20034800</v>
       </c>
       <c r="J66" s="3">
-        <v>18296100</v>
+        <v>18870400</v>
       </c>
       <c r="K66" s="3">
         <v>17072500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6844700</v>
+        <v>7059600</v>
       </c>
       <c r="E72" s="3">
-        <v>7301400</v>
+        <v>7530600</v>
       </c>
       <c r="F72" s="3">
-        <v>7491800</v>
+        <v>7726900</v>
       </c>
       <c r="G72" s="3">
-        <v>7334700</v>
+        <v>7564900</v>
       </c>
       <c r="H72" s="3">
-        <v>6535800</v>
+        <v>6741000</v>
       </c>
       <c r="I72" s="3">
-        <v>6867400</v>
+        <v>7082900</v>
       </c>
       <c r="J72" s="3">
-        <v>6246900</v>
+        <v>6443000</v>
       </c>
       <c r="K72" s="3">
         <v>6116600</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9568800</v>
+        <v>9869100</v>
       </c>
       <c r="E76" s="3">
-        <v>10349000</v>
+        <v>10673800</v>
       </c>
       <c r="F76" s="3">
-        <v>10526000</v>
+        <v>10856400</v>
       </c>
       <c r="G76" s="3">
-        <v>10361000</v>
+        <v>10686200</v>
       </c>
       <c r="H76" s="3">
-        <v>9551500</v>
+        <v>9851300</v>
       </c>
       <c r="I76" s="3">
-        <v>9867000</v>
+        <v>10176700</v>
       </c>
       <c r="J76" s="3">
-        <v>9235900</v>
+        <v>9525800</v>
       </c>
       <c r="K76" s="3">
         <v>9076500</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-243600</v>
+        <v>-251300</v>
       </c>
       <c r="E81" s="3">
-        <v>237000</v>
+        <v>244400</v>
       </c>
       <c r="F81" s="3">
-        <v>-65200</v>
+        <v>-67300</v>
       </c>
       <c r="G81" s="3">
-        <v>73200</v>
+        <v>75500</v>
       </c>
       <c r="H81" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="I81" s="3">
-        <v>179700</v>
+        <v>185400</v>
       </c>
       <c r="J81" s="3">
-        <v>207700</v>
+        <v>214200</v>
       </c>
       <c r="K81" s="3">
         <v>92500</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>880100</v>
+        <v>907700</v>
       </c>
       <c r="E83" s="3">
-        <v>784200</v>
+        <v>808800</v>
       </c>
       <c r="F83" s="3">
-        <v>888000</v>
+        <v>915900</v>
       </c>
       <c r="G83" s="3">
-        <v>773500</v>
+        <v>797800</v>
       </c>
       <c r="H83" s="3">
-        <v>906700</v>
+        <v>935100</v>
       </c>
       <c r="I83" s="3">
-        <v>491300</v>
+        <v>506700</v>
       </c>
       <c r="J83" s="3">
-        <v>482000</v>
+        <v>497100</v>
       </c>
       <c r="K83" s="3">
         <v>397600</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2011700</v>
+        <v>2074900</v>
       </c>
       <c r="E89" s="3">
-        <v>463300</v>
+        <v>477900</v>
       </c>
       <c r="F89" s="3">
-        <v>1363400</v>
+        <v>1406100</v>
       </c>
       <c r="G89" s="3">
-        <v>118500</v>
+        <v>122200</v>
       </c>
       <c r="H89" s="3">
-        <v>1270200</v>
+        <v>1310000</v>
       </c>
       <c r="I89" s="3">
-        <v>764200</v>
+        <v>788200</v>
       </c>
       <c r="J89" s="3">
-        <v>1053100</v>
+        <v>1086200</v>
       </c>
       <c r="K89" s="3">
         <v>537600</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-342200</v>
+        <v>-352900</v>
       </c>
       <c r="E91" s="3">
-        <v>-407400</v>
+        <v>-420200</v>
       </c>
       <c r="F91" s="3">
-        <v>-283600</v>
+        <v>-292500</v>
       </c>
       <c r="G91" s="3">
-        <v>-318200</v>
+        <v>-328200</v>
       </c>
       <c r="H91" s="3">
-        <v>-312900</v>
+        <v>-322700</v>
       </c>
       <c r="I91" s="3">
-        <v>-371500</v>
+        <v>-383100</v>
       </c>
       <c r="J91" s="3">
-        <v>-375500</v>
+        <v>-387200</v>
       </c>
       <c r="K91" s="3">
         <v>-431900</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-350200</v>
+        <v>-361100</v>
       </c>
       <c r="E94" s="3">
-        <v>-443400</v>
+        <v>-457300</v>
       </c>
       <c r="F94" s="3">
-        <v>-123800</v>
+        <v>-127700</v>
       </c>
       <c r="G94" s="3">
-        <v>-347500</v>
+        <v>-358400</v>
       </c>
       <c r="H94" s="3">
-        <v>-283600</v>
+        <v>-292500</v>
       </c>
       <c r="I94" s="3">
-        <v>-255600</v>
+        <v>-263700</v>
       </c>
       <c r="J94" s="3">
-        <v>-370100</v>
+        <v>-381700</v>
       </c>
       <c r="K94" s="3">
         <v>-394900</v>
@@ -4160,22 +4160,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="F96" s="3">
-        <v>-26600</v>
+        <v>-27500</v>
       </c>
       <c r="G96" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="H96" s="3">
-        <v>-26600</v>
+        <v>-27500</v>
       </c>
       <c r="I96" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J96" s="3">
-        <v>-26600</v>
+        <v>-27500</v>
       </c>
       <c r="K96" s="3">
         <v>-4000</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1050500</v>
+        <v>-1083400</v>
       </c>
       <c r="E100" s="3">
-        <v>-649700</v>
+        <v>-670100</v>
       </c>
       <c r="F100" s="3">
-        <v>-777500</v>
+        <v>-801900</v>
       </c>
       <c r="G100" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="H100" s="3">
-        <v>-995900</v>
+        <v>-1027100</v>
       </c>
       <c r="I100" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="J100" s="3">
-        <v>-343500</v>
+        <v>-354300</v>
       </c>
       <c r="K100" s="3">
         <v>-281300</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>611100</v>
+        <v>630300</v>
       </c>
       <c r="E102" s="3">
-        <v>-629800</v>
+        <v>-649500</v>
       </c>
       <c r="F102" s="3">
-        <v>462000</v>
+        <v>476500</v>
       </c>
       <c r="G102" s="3">
-        <v>-455300</v>
+        <v>-469600</v>
       </c>
       <c r="H102" s="3">
-        <v>-354200</v>
+        <v>-365300</v>
       </c>
       <c r="I102" s="3">
-        <v>527200</v>
+        <v>543800</v>
       </c>
       <c r="J102" s="3">
-        <v>339500</v>
+        <v>350200</v>
       </c>
       <c r="K102" s="3">
         <v>-138700</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20507200</v>
+        <v>21133300</v>
       </c>
       <c r="E8" s="3">
-        <v>19081800</v>
+        <v>19664400</v>
       </c>
       <c r="F8" s="3">
-        <v>20731000</v>
+        <v>21363900</v>
       </c>
       <c r="G8" s="3">
-        <v>19059900</v>
+        <v>19641700</v>
       </c>
       <c r="H8" s="3">
-        <v>20772200</v>
+        <v>21406400</v>
       </c>
       <c r="I8" s="3">
-        <v>18966500</v>
+        <v>19545500</v>
       </c>
       <c r="J8" s="3">
-        <v>20109000</v>
+        <v>20722900</v>
       </c>
       <c r="K8" s="3">
         <v>17939000</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18735800</v>
+        <v>19307800</v>
       </c>
       <c r="E9" s="3">
-        <v>17478000</v>
+        <v>18011500</v>
       </c>
       <c r="F9" s="3">
-        <v>19184800</v>
+        <v>19770500</v>
       </c>
       <c r="G9" s="3">
-        <v>17528800</v>
+        <v>18063900</v>
       </c>
       <c r="H9" s="3">
-        <v>19161500</v>
+        <v>19746400</v>
       </c>
       <c r="I9" s="3">
-        <v>17736100</v>
+        <v>18277600</v>
       </c>
       <c r="J9" s="3">
-        <v>18755000</v>
+        <v>19327600</v>
       </c>
       <c r="K9" s="3">
         <v>16791200</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1771400</v>
+        <v>1825500</v>
       </c>
       <c r="E10" s="3">
-        <v>1603900</v>
+        <v>1652800</v>
       </c>
       <c r="F10" s="3">
-        <v>1546200</v>
+        <v>1593400</v>
       </c>
       <c r="G10" s="3">
-        <v>1531100</v>
+        <v>1577800</v>
       </c>
       <c r="H10" s="3">
-        <v>1610800</v>
+        <v>1659900</v>
       </c>
       <c r="I10" s="3">
-        <v>1230400</v>
+        <v>1267900</v>
       </c>
       <c r="J10" s="3">
-        <v>1354000</v>
+        <v>1395300</v>
       </c>
       <c r="K10" s="3">
         <v>1147800</v>
@@ -978,19 +978,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>591800</v>
+        <v>609900</v>
       </c>
       <c r="E14" s="3">
-        <v>152400</v>
+        <v>157100</v>
       </c>
       <c r="F14" s="3">
-        <v>307600</v>
+        <v>317000</v>
       </c>
       <c r="G14" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="H14" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20419300</v>
+        <v>21042700</v>
       </c>
       <c r="E17" s="3">
-        <v>18495500</v>
+        <v>19060100</v>
       </c>
       <c r="F17" s="3">
-        <v>20385000</v>
+        <v>21007300</v>
       </c>
       <c r="G17" s="3">
-        <v>18686400</v>
+        <v>19256800</v>
       </c>
       <c r="H17" s="3">
-        <v>20332800</v>
+        <v>20953500</v>
       </c>
       <c r="I17" s="3">
-        <v>18643800</v>
+        <v>19212900</v>
       </c>
       <c r="J17" s="3">
-        <v>19720400</v>
+        <v>20322400</v>
       </c>
       <c r="K17" s="3">
         <v>17694600</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>87900</v>
+        <v>90600</v>
       </c>
       <c r="E18" s="3">
-        <v>586400</v>
+        <v>604300</v>
       </c>
       <c r="F18" s="3">
-        <v>346000</v>
+        <v>356600</v>
       </c>
       <c r="G18" s="3">
-        <v>373500</v>
+        <v>384900</v>
       </c>
       <c r="H18" s="3">
-        <v>439400</v>
+        <v>452800</v>
       </c>
       <c r="I18" s="3">
-        <v>322700</v>
+        <v>332600</v>
       </c>
       <c r="J18" s="3">
-        <v>388600</v>
+        <v>400500</v>
       </c>
       <c r="K18" s="3">
         <v>244300</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E20" s="3">
-        <v>-11000</v>
+        <v>-11300</v>
       </c>
       <c r="F20" s="3">
-        <v>-48100</v>
+        <v>-49500</v>
       </c>
       <c r="G20" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="H20" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="I20" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="J20" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="K20" s="3">
         <v>-2600</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>988700</v>
+        <v>1018900</v>
       </c>
       <c r="E21" s="3">
-        <v>1384200</v>
+        <v>1426400</v>
       </c>
       <c r="F21" s="3">
-        <v>1213900</v>
+        <v>1251000</v>
       </c>
       <c r="G21" s="3">
-        <v>1183700</v>
+        <v>1219800</v>
       </c>
       <c r="H21" s="3">
-        <v>1386900</v>
+        <v>1429300</v>
       </c>
       <c r="I21" s="3">
-        <v>837600</v>
+        <v>863200</v>
       </c>
       <c r="J21" s="3">
-        <v>877500</v>
+        <v>904300</v>
       </c>
       <c r="K21" s="3">
         <v>639300</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>269100</v>
+        <v>277400</v>
       </c>
       <c r="E22" s="3">
-        <v>237600</v>
+        <v>244800</v>
       </c>
       <c r="F22" s="3">
-        <v>285600</v>
+        <v>294300</v>
       </c>
       <c r="G22" s="3">
-        <v>255400</v>
+        <v>263200</v>
       </c>
       <c r="H22" s="3">
-        <v>304800</v>
+        <v>314200</v>
       </c>
       <c r="I22" s="3">
-        <v>71400</v>
+        <v>73600</v>
       </c>
       <c r="J22" s="3">
-        <v>78300</v>
+        <v>80700</v>
       </c>
       <c r="K22" s="3">
         <v>68700</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-188100</v>
+        <v>-193900</v>
       </c>
       <c r="E23" s="3">
-        <v>337800</v>
+        <v>348100</v>
       </c>
       <c r="F23" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G23" s="3">
-        <v>130500</v>
+        <v>134400</v>
       </c>
       <c r="H23" s="3">
-        <v>146900</v>
+        <v>151400</v>
       </c>
       <c r="I23" s="3">
-        <v>259500</v>
+        <v>267500</v>
       </c>
       <c r="J23" s="3">
-        <v>302100</v>
+        <v>311300</v>
       </c>
       <c r="K23" s="3">
         <v>173000</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57700</v>
+        <v>59400</v>
       </c>
       <c r="E24" s="3">
-        <v>76900</v>
+        <v>79200</v>
       </c>
       <c r="F24" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="G24" s="3">
-        <v>43900</v>
+        <v>45300</v>
       </c>
       <c r="H24" s="3">
-        <v>-22000</v>
+        <v>-22600</v>
       </c>
       <c r="I24" s="3">
-        <v>63200</v>
+        <v>65100</v>
       </c>
       <c r="J24" s="3">
-        <v>74200</v>
+        <v>76400</v>
       </c>
       <c r="K24" s="3">
         <v>70000</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-245800</v>
+        <v>-253300</v>
       </c>
       <c r="E26" s="3">
-        <v>260900</v>
+        <v>268900</v>
       </c>
       <c r="F26" s="3">
-        <v>-52200</v>
+        <v>-53800</v>
       </c>
       <c r="G26" s="3">
-        <v>86500</v>
+        <v>89200</v>
       </c>
       <c r="H26" s="3">
-        <v>168900</v>
+        <v>174100</v>
       </c>
       <c r="I26" s="3">
-        <v>196400</v>
+        <v>202400</v>
       </c>
       <c r="J26" s="3">
-        <v>227900</v>
+        <v>234900</v>
       </c>
       <c r="K26" s="3">
         <v>103000</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-251300</v>
+        <v>-259000</v>
       </c>
       <c r="E27" s="3">
-        <v>244400</v>
+        <v>251900</v>
       </c>
       <c r="F27" s="3">
-        <v>-67300</v>
+        <v>-69300</v>
       </c>
       <c r="G27" s="3">
-        <v>75500</v>
+        <v>77800</v>
       </c>
       <c r="H27" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="I27" s="3">
-        <v>185400</v>
+        <v>191000</v>
       </c>
       <c r="J27" s="3">
-        <v>214200</v>
+        <v>220800</v>
       </c>
       <c r="K27" s="3">
         <v>92500</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="E32" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="F32" s="3">
-        <v>48100</v>
+        <v>49500</v>
       </c>
       <c r="G32" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="H32" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="I32" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="J32" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="K32" s="3">
         <v>2600</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-251300</v>
+        <v>-259000</v>
       </c>
       <c r="E33" s="3">
-        <v>244400</v>
+        <v>251900</v>
       </c>
       <c r="F33" s="3">
-        <v>-67300</v>
+        <v>-69300</v>
       </c>
       <c r="G33" s="3">
-        <v>75500</v>
+        <v>77800</v>
       </c>
       <c r="H33" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="I33" s="3">
-        <v>185400</v>
+        <v>191000</v>
       </c>
       <c r="J33" s="3">
-        <v>214200</v>
+        <v>220800</v>
       </c>
       <c r="K33" s="3">
         <v>92500</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-251300</v>
+        <v>-259000</v>
       </c>
       <c r="E35" s="3">
-        <v>244400</v>
+        <v>251900</v>
       </c>
       <c r="F35" s="3">
-        <v>-67300</v>
+        <v>-69300</v>
       </c>
       <c r="G35" s="3">
-        <v>75500</v>
+        <v>77800</v>
       </c>
       <c r="H35" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="I35" s="3">
-        <v>185400</v>
+        <v>191000</v>
       </c>
       <c r="J35" s="3">
-        <v>214200</v>
+        <v>220800</v>
       </c>
       <c r="K35" s="3">
         <v>92500</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1429500</v>
+        <v>1473100</v>
       </c>
       <c r="E41" s="3">
-        <v>990100</v>
+        <v>1020300</v>
       </c>
       <c r="F41" s="3">
-        <v>1518700</v>
+        <v>1565100</v>
       </c>
       <c r="G41" s="3">
-        <v>1116400</v>
+        <v>1150500</v>
       </c>
       <c r="H41" s="3">
-        <v>1233100</v>
+        <v>1270800</v>
       </c>
       <c r="I41" s="3">
-        <v>1437700</v>
+        <v>1481600</v>
       </c>
       <c r="J41" s="3">
-        <v>1496800</v>
+        <v>1542500</v>
       </c>
       <c r="K41" s="3">
         <v>1112100</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>649500</v>
+        <v>669300</v>
       </c>
       <c r="E42" s="3">
-        <v>487500</v>
+        <v>502400</v>
       </c>
       <c r="F42" s="3">
-        <v>747000</v>
+        <v>769800</v>
       </c>
       <c r="G42" s="3">
-        <v>712700</v>
+        <v>734400</v>
       </c>
       <c r="H42" s="3">
-        <v>1260600</v>
+        <v>1299100</v>
       </c>
       <c r="I42" s="3">
-        <v>1216600</v>
+        <v>1253800</v>
       </c>
       <c r="J42" s="3">
-        <v>520400</v>
+        <v>536300</v>
       </c>
       <c r="K42" s="3">
         <v>450400</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5668500</v>
+        <v>5841600</v>
       </c>
       <c r="E43" s="3">
-        <v>6539100</v>
+        <v>6738800</v>
       </c>
       <c r="F43" s="3">
-        <v>6180700</v>
+        <v>6369400</v>
       </c>
       <c r="G43" s="3">
-        <v>5860800</v>
+        <v>6039700</v>
       </c>
       <c r="H43" s="3">
-        <v>5678100</v>
+        <v>5851500</v>
       </c>
       <c r="I43" s="3">
-        <v>5635600</v>
+        <v>5807600</v>
       </c>
       <c r="J43" s="3">
-        <v>4964100</v>
+        <v>5115600</v>
       </c>
       <c r="K43" s="3">
         <v>4305800</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2245200</v>
+        <v>2313700</v>
       </c>
       <c r="E44" s="3">
-        <v>2378400</v>
+        <v>2451000</v>
       </c>
       <c r="F44" s="3">
-        <v>2681800</v>
+        <v>2763700</v>
       </c>
       <c r="G44" s="3">
-        <v>2648900</v>
+        <v>2729700</v>
       </c>
       <c r="H44" s="3">
-        <v>2580200</v>
+        <v>2659000</v>
       </c>
       <c r="I44" s="3">
-        <v>2485500</v>
+        <v>2561300</v>
       </c>
       <c r="J44" s="3">
-        <v>2647500</v>
+        <v>2728300</v>
       </c>
       <c r="K44" s="3">
         <v>2344400</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="E45" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="F45" s="3">
-        <v>56300</v>
+        <v>58000</v>
       </c>
       <c r="G45" s="3">
-        <v>28800</v>
+        <v>29700</v>
       </c>
       <c r="H45" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="I45" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="J45" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="K45" s="3">
         <v>124200</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10031200</v>
+        <v>10337400</v>
       </c>
       <c r="E46" s="3">
-        <v>10411500</v>
+        <v>10729400</v>
       </c>
       <c r="F46" s="3">
-        <v>11184600</v>
+        <v>11526100</v>
       </c>
       <c r="G46" s="3">
-        <v>10367600</v>
+        <v>10684100</v>
       </c>
       <c r="H46" s="3">
-        <v>10816600</v>
+        <v>11146800</v>
       </c>
       <c r="I46" s="3">
-        <v>10789200</v>
+        <v>11118500</v>
       </c>
       <c r="J46" s="3">
-        <v>9653500</v>
+        <v>9948200</v>
       </c>
       <c r="K46" s="3">
         <v>8336800</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5124700</v>
+        <v>5281200</v>
       </c>
       <c r="E47" s="3">
-        <v>6147800</v>
+        <v>6335400</v>
       </c>
       <c r="F47" s="3">
-        <v>6230200</v>
+        <v>6420400</v>
       </c>
       <c r="G47" s="3">
-        <v>5844300</v>
+        <v>6022700</v>
       </c>
       <c r="H47" s="3">
-        <v>4888600</v>
+        <v>5037800</v>
       </c>
       <c r="I47" s="3">
-        <v>4322800</v>
+        <v>4454800</v>
       </c>
       <c r="J47" s="3">
-        <v>3924600</v>
+        <v>4044400</v>
       </c>
       <c r="K47" s="3">
         <v>3509300</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18561400</v>
+        <v>19128000</v>
       </c>
       <c r="E48" s="3">
-        <v>18863500</v>
+        <v>19439400</v>
       </c>
       <c r="F48" s="3">
-        <v>18978900</v>
+        <v>19558200</v>
       </c>
       <c r="G48" s="3">
-        <v>19480100</v>
+        <v>20074800</v>
       </c>
       <c r="H48" s="3">
-        <v>19690200</v>
+        <v>20291300</v>
       </c>
       <c r="I48" s="3">
-        <v>13591800</v>
+        <v>14006800</v>
       </c>
       <c r="J48" s="3">
-        <v>13661900</v>
+        <v>14078900</v>
       </c>
       <c r="K48" s="3">
         <v>13215800</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1230400</v>
+        <v>1267900</v>
       </c>
       <c r="E49" s="3">
-        <v>1389700</v>
+        <v>1432100</v>
       </c>
       <c r="F49" s="3">
-        <v>1384200</v>
+        <v>1426400</v>
       </c>
       <c r="G49" s="3">
-        <v>1432200</v>
+        <v>1476000</v>
       </c>
       <c r="H49" s="3">
-        <v>1443200</v>
+        <v>1487300</v>
       </c>
       <c r="I49" s="3">
-        <v>1472100</v>
+        <v>1517000</v>
       </c>
       <c r="J49" s="3">
-        <v>1143900</v>
+        <v>1178800</v>
       </c>
       <c r="K49" s="3">
         <v>1060600</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1397900</v>
+        <v>1440600</v>
       </c>
       <c r="E52" s="3">
-        <v>1550300</v>
+        <v>1597700</v>
       </c>
       <c r="F52" s="3">
-        <v>1915600</v>
+        <v>1974100</v>
       </c>
       <c r="G52" s="3">
-        <v>1340200</v>
+        <v>1381100</v>
       </c>
       <c r="H52" s="3">
-        <v>401000</v>
+        <v>413200</v>
       </c>
       <c r="I52" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="J52" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="K52" s="3">
         <v>26400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36345600</v>
+        <v>37455100</v>
       </c>
       <c r="E54" s="3">
-        <v>38362800</v>
+        <v>39533900</v>
       </c>
       <c r="F54" s="3">
-        <v>39693400</v>
+        <v>40905200</v>
       </c>
       <c r="G54" s="3">
-        <v>38464400</v>
+        <v>39638600</v>
       </c>
       <c r="H54" s="3">
-        <v>37239500</v>
+        <v>38376400</v>
       </c>
       <c r="I54" s="3">
-        <v>30211600</v>
+        <v>31133800</v>
       </c>
       <c r="J54" s="3">
-        <v>28396200</v>
+        <v>29263100</v>
       </c>
       <c r="K54" s="3">
         <v>26149000</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6456700</v>
+        <v>6653800</v>
       </c>
       <c r="E57" s="3">
-        <v>5870400</v>
+        <v>6049600</v>
       </c>
       <c r="F57" s="3">
-        <v>6467700</v>
+        <v>6665200</v>
       </c>
       <c r="G57" s="3">
-        <v>6005000</v>
+        <v>6188300</v>
       </c>
       <c r="H57" s="3">
-        <v>6566600</v>
+        <v>6767100</v>
       </c>
       <c r="I57" s="3">
-        <v>5934900</v>
+        <v>6116100</v>
       </c>
       <c r="J57" s="3">
-        <v>5745400</v>
+        <v>5920800</v>
       </c>
       <c r="K57" s="3">
         <v>4941100</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1091700</v>
+        <v>1125000</v>
       </c>
       <c r="E58" s="3">
-        <v>766200</v>
+        <v>789600</v>
       </c>
       <c r="F58" s="3">
-        <v>1415800</v>
+        <v>1459000</v>
       </c>
       <c r="G58" s="3">
-        <v>1852400</v>
+        <v>1909000</v>
       </c>
       <c r="H58" s="3">
-        <v>1050500</v>
+        <v>1082600</v>
       </c>
       <c r="I58" s="3">
-        <v>876100</v>
+        <v>902800</v>
       </c>
       <c r="J58" s="3">
-        <v>955700</v>
+        <v>984900</v>
       </c>
       <c r="K58" s="3">
         <v>454400</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8388800</v>
+        <v>8644900</v>
       </c>
       <c r="E59" s="3">
-        <v>9906200</v>
+        <v>10208600</v>
       </c>
       <c r="F59" s="3">
-        <v>9470900</v>
+        <v>9760000</v>
       </c>
       <c r="G59" s="3">
-        <v>8413500</v>
+        <v>8670400</v>
       </c>
       <c r="H59" s="3">
-        <v>7656900</v>
+        <v>7890700</v>
       </c>
       <c r="I59" s="3">
-        <v>7335600</v>
+        <v>7559500</v>
       </c>
       <c r="J59" s="3">
-        <v>7059600</v>
+        <v>7275100</v>
       </c>
       <c r="K59" s="3">
         <v>6172100</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15937200</v>
+        <v>16423800</v>
       </c>
       <c r="E60" s="3">
-        <v>16542800</v>
+        <v>17047800</v>
       </c>
       <c r="F60" s="3">
-        <v>17354400</v>
+        <v>17884200</v>
       </c>
       <c r="G60" s="3">
-        <v>16270900</v>
+        <v>16767600</v>
       </c>
       <c r="H60" s="3">
-        <v>15274000</v>
+        <v>15740300</v>
       </c>
       <c r="I60" s="3">
-        <v>14146600</v>
+        <v>14578500</v>
       </c>
       <c r="J60" s="3">
-        <v>13760700</v>
+        <v>14180800</v>
       </c>
       <c r="K60" s="3">
         <v>11340300</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8432800</v>
+        <v>8690200</v>
       </c>
       <c r="E61" s="3">
-        <v>8942200</v>
+        <v>9215200</v>
       </c>
       <c r="F61" s="3">
-        <v>8600300</v>
+        <v>8862800</v>
       </c>
       <c r="G61" s="3">
-        <v>8434100</v>
+        <v>8691600</v>
       </c>
       <c r="H61" s="3">
-        <v>9133100</v>
+        <v>9411900</v>
       </c>
       <c r="I61" s="3">
-        <v>2199900</v>
+        <v>2267000</v>
       </c>
       <c r="J61" s="3">
-        <v>1981500</v>
+        <v>2042000</v>
       </c>
       <c r="K61" s="3">
         <v>2693100</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2106500</v>
+        <v>2170800</v>
       </c>
       <c r="E62" s="3">
-        <v>2204000</v>
+        <v>2271300</v>
       </c>
       <c r="F62" s="3">
-        <v>2882300</v>
+        <v>2970300</v>
       </c>
       <c r="G62" s="3">
-        <v>3073200</v>
+        <v>3167000</v>
       </c>
       <c r="H62" s="3">
-        <v>2981200</v>
+        <v>3072200</v>
       </c>
       <c r="I62" s="3">
-        <v>3688400</v>
+        <v>3801000</v>
       </c>
       <c r="J62" s="3">
-        <v>3128100</v>
+        <v>3223600</v>
       </c>
       <c r="K62" s="3">
         <v>3039100</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26476500</v>
+        <v>27284700</v>
       </c>
       <c r="E66" s="3">
-        <v>27689000</v>
+        <v>28534300</v>
       </c>
       <c r="F66" s="3">
-        <v>28837000</v>
+        <v>29717300</v>
       </c>
       <c r="G66" s="3">
-        <v>27778300</v>
+        <v>28626300</v>
       </c>
       <c r="H66" s="3">
-        <v>27388300</v>
+        <v>28224400</v>
       </c>
       <c r="I66" s="3">
-        <v>20034800</v>
+        <v>20646500</v>
       </c>
       <c r="J66" s="3">
-        <v>18870400</v>
+        <v>19446400</v>
       </c>
       <c r="K66" s="3">
         <v>17072500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7059600</v>
+        <v>7275100</v>
       </c>
       <c r="E72" s="3">
-        <v>7530600</v>
+        <v>7760500</v>
       </c>
       <c r="F72" s="3">
-        <v>7726900</v>
+        <v>7962800</v>
       </c>
       <c r="G72" s="3">
-        <v>7564900</v>
+        <v>7795800</v>
       </c>
       <c r="H72" s="3">
-        <v>6741000</v>
+        <v>6946800</v>
       </c>
       <c r="I72" s="3">
-        <v>7082900</v>
+        <v>7299100</v>
       </c>
       <c r="J72" s="3">
-        <v>6443000</v>
+        <v>6639700</v>
       </c>
       <c r="K72" s="3">
         <v>6116600</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9869100</v>
+        <v>10170400</v>
       </c>
       <c r="E76" s="3">
-        <v>10673800</v>
+        <v>10999700</v>
       </c>
       <c r="F76" s="3">
-        <v>10856400</v>
+        <v>11187900</v>
       </c>
       <c r="G76" s="3">
-        <v>10686200</v>
+        <v>11012400</v>
       </c>
       <c r="H76" s="3">
-        <v>9851300</v>
+        <v>10152000</v>
       </c>
       <c r="I76" s="3">
-        <v>10176700</v>
+        <v>10487400</v>
       </c>
       <c r="J76" s="3">
-        <v>9525800</v>
+        <v>9816600</v>
       </c>
       <c r="K76" s="3">
         <v>9076500</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-251300</v>
+        <v>-259000</v>
       </c>
       <c r="E81" s="3">
-        <v>244400</v>
+        <v>251900</v>
       </c>
       <c r="F81" s="3">
-        <v>-67300</v>
+        <v>-69300</v>
       </c>
       <c r="G81" s="3">
-        <v>75500</v>
+        <v>77800</v>
       </c>
       <c r="H81" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="I81" s="3">
-        <v>185400</v>
+        <v>191000</v>
       </c>
       <c r="J81" s="3">
-        <v>214200</v>
+        <v>220800</v>
       </c>
       <c r="K81" s="3">
         <v>92500</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>907700</v>
+        <v>935400</v>
       </c>
       <c r="E83" s="3">
-        <v>808800</v>
+        <v>833500</v>
       </c>
       <c r="F83" s="3">
-        <v>915900</v>
+        <v>943900</v>
       </c>
       <c r="G83" s="3">
-        <v>797800</v>
+        <v>822200</v>
       </c>
       <c r="H83" s="3">
-        <v>935100</v>
+        <v>963700</v>
       </c>
       <c r="I83" s="3">
-        <v>506700</v>
+        <v>522200</v>
       </c>
       <c r="J83" s="3">
-        <v>497100</v>
+        <v>512300</v>
       </c>
       <c r="K83" s="3">
         <v>397600</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2074900</v>
+        <v>2138200</v>
       </c>
       <c r="E89" s="3">
-        <v>477900</v>
+        <v>492500</v>
       </c>
       <c r="F89" s="3">
-        <v>1406100</v>
+        <v>1449100</v>
       </c>
       <c r="G89" s="3">
-        <v>122200</v>
+        <v>125900</v>
       </c>
       <c r="H89" s="3">
-        <v>1310000</v>
+        <v>1350000</v>
       </c>
       <c r="I89" s="3">
-        <v>788200</v>
+        <v>812300</v>
       </c>
       <c r="J89" s="3">
-        <v>1086200</v>
+        <v>1119400</v>
       </c>
       <c r="K89" s="3">
         <v>537600</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-352900</v>
+        <v>-363700</v>
       </c>
       <c r="E91" s="3">
-        <v>-420200</v>
+        <v>-433000</v>
       </c>
       <c r="F91" s="3">
-        <v>-292500</v>
+        <v>-301400</v>
       </c>
       <c r="G91" s="3">
-        <v>-328200</v>
+        <v>-338200</v>
       </c>
       <c r="H91" s="3">
-        <v>-322700</v>
+        <v>-332600</v>
       </c>
       <c r="I91" s="3">
-        <v>-383100</v>
+        <v>-394800</v>
       </c>
       <c r="J91" s="3">
-        <v>-387200</v>
+        <v>-399100</v>
       </c>
       <c r="K91" s="3">
         <v>-431900</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-361100</v>
+        <v>-372200</v>
       </c>
       <c r="E94" s="3">
-        <v>-457300</v>
+        <v>-471200</v>
       </c>
       <c r="F94" s="3">
-        <v>-127700</v>
+        <v>-131600</v>
       </c>
       <c r="G94" s="3">
-        <v>-358400</v>
+        <v>-369300</v>
       </c>
       <c r="H94" s="3">
-        <v>-292500</v>
+        <v>-301400</v>
       </c>
       <c r="I94" s="3">
-        <v>-263700</v>
+        <v>-271700</v>
       </c>
       <c r="J94" s="3">
-        <v>-381700</v>
+        <v>-393400</v>
       </c>
       <c r="K94" s="3">
         <v>-394900</v>
@@ -4160,22 +4160,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="F96" s="3">
-        <v>-27500</v>
+        <v>-28300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H96" s="3">
-        <v>-27500</v>
+        <v>-28300</v>
       </c>
       <c r="I96" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="J96" s="3">
-        <v>-27500</v>
+        <v>-28300</v>
       </c>
       <c r="K96" s="3">
         <v>-4000</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1083400</v>
+        <v>-1116500</v>
       </c>
       <c r="E100" s="3">
-        <v>-670100</v>
+        <v>-690600</v>
       </c>
       <c r="F100" s="3">
-        <v>-801900</v>
+        <v>-826400</v>
       </c>
       <c r="G100" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1027100</v>
+        <v>-1058500</v>
       </c>
       <c r="I100" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="J100" s="3">
-        <v>-354300</v>
+        <v>-365100</v>
       </c>
       <c r="K100" s="3">
         <v>-281300</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>630300</v>
+        <v>649500</v>
       </c>
       <c r="E102" s="3">
-        <v>-649500</v>
+        <v>-669300</v>
       </c>
       <c r="F102" s="3">
-        <v>476500</v>
+        <v>491000</v>
       </c>
       <c r="G102" s="3">
-        <v>-469600</v>
+        <v>-484000</v>
       </c>
       <c r="H102" s="3">
-        <v>-365300</v>
+        <v>-376400</v>
       </c>
       <c r="I102" s="3">
-        <v>543800</v>
+        <v>560400</v>
       </c>
       <c r="J102" s="3">
-        <v>350200</v>
+        <v>360900</v>
       </c>
       <c r="K102" s="3">
         <v>-138700</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E7" s="2">
         <v>44093</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43897</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43729</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43533</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43365</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43169</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42805</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42637</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42441</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42273</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42077</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21133300</v>
+        <v>19248500</v>
       </c>
       <c r="E8" s="3">
-        <v>19664400</v>
+        <v>20366800</v>
       </c>
       <c r="F8" s="3">
-        <v>21363900</v>
+        <v>18951200</v>
       </c>
       <c r="G8" s="3">
-        <v>19641700</v>
+        <v>20589100</v>
       </c>
       <c r="H8" s="3">
-        <v>21406400</v>
+        <v>18929400</v>
       </c>
       <c r="I8" s="3">
-        <v>19545500</v>
+        <v>20630100</v>
       </c>
       <c r="J8" s="3">
+        <v>18836700</v>
+      </c>
+      <c r="K8" s="3">
         <v>20722900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17939000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16343700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14460900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16198200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14626900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19307800</v>
+        <v>18038900</v>
       </c>
       <c r="E9" s="3">
-        <v>18011500</v>
+        <v>18607600</v>
       </c>
       <c r="F9" s="3">
-        <v>19770500</v>
+        <v>17358300</v>
       </c>
       <c r="G9" s="3">
-        <v>18063900</v>
+        <v>19053500</v>
       </c>
       <c r="H9" s="3">
-        <v>19746400</v>
+        <v>17408800</v>
       </c>
       <c r="I9" s="3">
-        <v>18277600</v>
+        <v>19030300</v>
       </c>
       <c r="J9" s="3">
+        <v>17614700</v>
+      </c>
+      <c r="K9" s="3">
         <v>19327600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16791200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15354700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13549200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15210900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13693300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1825500</v>
+        <v>1209700</v>
       </c>
       <c r="E10" s="3">
-        <v>1652800</v>
+        <v>1759300</v>
       </c>
       <c r="F10" s="3">
-        <v>1593400</v>
+        <v>1592900</v>
       </c>
       <c r="G10" s="3">
-        <v>1577800</v>
+        <v>1535600</v>
       </c>
       <c r="H10" s="3">
-        <v>1659900</v>
+        <v>1520600</v>
       </c>
       <c r="I10" s="3">
-        <v>1267900</v>
+        <v>1599700</v>
       </c>
       <c r="J10" s="3">
+        <v>1222000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1395300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1147800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>989000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>911700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>987400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>933600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,28 +989,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>609900</v>
+        <v>248200</v>
       </c>
       <c r="E14" s="3">
-        <v>157100</v>
+        <v>594600</v>
       </c>
       <c r="F14" s="3">
-        <v>317000</v>
+        <v>151400</v>
       </c>
       <c r="G14" s="3">
-        <v>36800</v>
+        <v>305500</v>
       </c>
       <c r="H14" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>35500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-19100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1004,8 +1024,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1016,8 +1036,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21042700</v>
+        <v>19217200</v>
       </c>
       <c r="E17" s="3">
-        <v>19060100</v>
+        <v>20286400</v>
       </c>
       <c r="F17" s="3">
-        <v>21007300</v>
+        <v>18368900</v>
       </c>
       <c r="G17" s="3">
-        <v>19256800</v>
+        <v>20245500</v>
       </c>
       <c r="H17" s="3">
-        <v>20953500</v>
+        <v>18558500</v>
       </c>
       <c r="I17" s="3">
-        <v>19212900</v>
+        <v>20193600</v>
       </c>
       <c r="J17" s="3">
+        <v>18516200</v>
+      </c>
+      <c r="K17" s="3">
         <v>20322400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17694600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15752900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14090500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15646500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14212100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>90600</v>
+        <v>31400</v>
       </c>
       <c r="E18" s="3">
-        <v>604300</v>
+        <v>80500</v>
       </c>
       <c r="F18" s="3">
-        <v>356600</v>
+        <v>582300</v>
       </c>
       <c r="G18" s="3">
-        <v>384900</v>
+        <v>343700</v>
       </c>
       <c r="H18" s="3">
-        <v>452800</v>
+        <v>371000</v>
       </c>
       <c r="I18" s="3">
-        <v>332600</v>
+        <v>436400</v>
       </c>
       <c r="J18" s="3">
+        <v>320500</v>
+      </c>
+      <c r="K18" s="3">
         <v>400500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>244300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>590800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>370400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>551700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>414800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7100</v>
+        <v>4100</v>
       </c>
       <c r="E20" s="3">
-        <v>-11300</v>
+        <v>-6800</v>
       </c>
       <c r="F20" s="3">
-        <v>-49500</v>
+        <v>-10900</v>
       </c>
       <c r="G20" s="3">
-        <v>12700</v>
+        <v>-47700</v>
       </c>
       <c r="H20" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="I20" s="3">
-        <v>8500</v>
+        <v>12300</v>
       </c>
       <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1018900</v>
+        <v>837400</v>
       </c>
       <c r="E21" s="3">
-        <v>1426400</v>
+        <v>975100</v>
       </c>
       <c r="F21" s="3">
-        <v>1251000</v>
+        <v>1374700</v>
       </c>
       <c r="G21" s="3">
-        <v>1219800</v>
+        <v>1205600</v>
       </c>
       <c r="H21" s="3">
-        <v>1429300</v>
+        <v>1175600</v>
       </c>
       <c r="I21" s="3">
-        <v>863200</v>
+        <v>1377400</v>
       </c>
       <c r="J21" s="3">
+        <v>831900</v>
+      </c>
+      <c r="K21" s="3">
         <v>904300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>639300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>983800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>705600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>927400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>709700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>277400</v>
+        <v>204600</v>
       </c>
       <c r="E22" s="3">
-        <v>244800</v>
+        <v>260500</v>
       </c>
       <c r="F22" s="3">
-        <v>294300</v>
+        <v>235900</v>
       </c>
       <c r="G22" s="3">
-        <v>263200</v>
+        <v>283700</v>
       </c>
       <c r="H22" s="3">
-        <v>314200</v>
+        <v>253700</v>
       </c>
       <c r="I22" s="3">
-        <v>73600</v>
+        <v>302800</v>
       </c>
       <c r="J22" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K22" s="3">
         <v>80700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>73000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>83500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>79000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-193900</v>
+        <v>-169100</v>
       </c>
       <c r="E23" s="3">
-        <v>348100</v>
+        <v>-186800</v>
       </c>
       <c r="F23" s="3">
-        <v>12700</v>
+        <v>335500</v>
       </c>
       <c r="G23" s="3">
-        <v>134400</v>
+        <v>12300</v>
       </c>
       <c r="H23" s="3">
-        <v>151400</v>
+        <v>129600</v>
       </c>
       <c r="I23" s="3">
-        <v>267500</v>
+        <v>145900</v>
       </c>
       <c r="J23" s="3">
+        <v>257800</v>
+      </c>
+      <c r="K23" s="3">
         <v>311300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>173000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>480900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>272600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>442200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>287100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>59400</v>
+        <v>-31400</v>
       </c>
       <c r="E24" s="3">
-        <v>79200</v>
+        <v>57300</v>
       </c>
       <c r="F24" s="3">
-        <v>66500</v>
+        <v>76400</v>
       </c>
       <c r="G24" s="3">
-        <v>45300</v>
+        <v>64100</v>
       </c>
       <c r="H24" s="3">
-        <v>-22600</v>
+        <v>43600</v>
       </c>
       <c r="I24" s="3">
-        <v>65100</v>
+        <v>-21800</v>
       </c>
       <c r="J24" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K24" s="3">
         <v>76400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>70000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>97800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-253300</v>
+        <v>-137700</v>
       </c>
       <c r="E26" s="3">
-        <v>268900</v>
+        <v>-244100</v>
       </c>
       <c r="F26" s="3">
-        <v>-53800</v>
+        <v>259100</v>
       </c>
       <c r="G26" s="3">
-        <v>89200</v>
+        <v>-51800</v>
       </c>
       <c r="H26" s="3">
-        <v>174100</v>
+        <v>85900</v>
       </c>
       <c r="I26" s="3">
-        <v>202400</v>
+        <v>167700</v>
       </c>
       <c r="J26" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K26" s="3">
         <v>234900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>386600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>270000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>344300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>234400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-259000</v>
+        <v>-141800</v>
       </c>
       <c r="E27" s="3">
-        <v>251900</v>
+        <v>-249600</v>
       </c>
       <c r="F27" s="3">
-        <v>-69300</v>
+        <v>242800</v>
       </c>
       <c r="G27" s="3">
-        <v>77800</v>
+        <v>-66800</v>
       </c>
       <c r="H27" s="3">
-        <v>159900</v>
+        <v>75000</v>
       </c>
       <c r="I27" s="3">
-        <v>191000</v>
+        <v>154100</v>
       </c>
       <c r="J27" s="3">
+        <v>184100</v>
+      </c>
+      <c r="K27" s="3">
         <v>220800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>92500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>373600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>256900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>341700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>234400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7100</v>
+        <v>-4100</v>
       </c>
       <c r="E32" s="3">
-        <v>11300</v>
+        <v>6800</v>
       </c>
       <c r="F32" s="3">
-        <v>49500</v>
+        <v>10900</v>
       </c>
       <c r="G32" s="3">
-        <v>-12700</v>
+        <v>47700</v>
       </c>
       <c r="H32" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="I32" s="3">
-        <v>-8500</v>
+        <v>-12300</v>
       </c>
       <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-259000</v>
+        <v>-141800</v>
       </c>
       <c r="E33" s="3">
-        <v>251900</v>
+        <v>-249600</v>
       </c>
       <c r="F33" s="3">
-        <v>-69300</v>
+        <v>242800</v>
       </c>
       <c r="G33" s="3">
-        <v>77800</v>
+        <v>-66800</v>
       </c>
       <c r="H33" s="3">
-        <v>159900</v>
+        <v>75000</v>
       </c>
       <c r="I33" s="3">
-        <v>191000</v>
+        <v>154100</v>
       </c>
       <c r="J33" s="3">
+        <v>184100</v>
+      </c>
+      <c r="K33" s="3">
         <v>220800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>92500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>373600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>256900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>341700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>234400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-259000</v>
+        <v>-141800</v>
       </c>
       <c r="E35" s="3">
-        <v>251900</v>
+        <v>-249600</v>
       </c>
       <c r="F35" s="3">
-        <v>-69300</v>
+        <v>242800</v>
       </c>
       <c r="G35" s="3">
-        <v>77800</v>
+        <v>-66800</v>
       </c>
       <c r="H35" s="3">
-        <v>159900</v>
+        <v>75000</v>
       </c>
       <c r="I35" s="3">
-        <v>191000</v>
+        <v>154100</v>
       </c>
       <c r="J35" s="3">
+        <v>184100</v>
+      </c>
+      <c r="K35" s="3">
         <v>220800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>92500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>373600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>256900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>341700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>234400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E38" s="2">
         <v>44093</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43897</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43729</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43533</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43365</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43169</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43001</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42805</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42637</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42441</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42273</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42077</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1473100</v>
+        <v>852400</v>
       </c>
       <c r="E41" s="3">
-        <v>1020300</v>
+        <v>1419700</v>
       </c>
       <c r="F41" s="3">
-        <v>1565100</v>
+        <v>983300</v>
       </c>
       <c r="G41" s="3">
-        <v>1150500</v>
+        <v>1508400</v>
       </c>
       <c r="H41" s="3">
-        <v>1270800</v>
+        <v>1108800</v>
       </c>
       <c r="I41" s="3">
-        <v>1481600</v>
+        <v>1224700</v>
       </c>
       <c r="J41" s="3">
+        <v>1427900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1542500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1112100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1383300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1113900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1494700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1692100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>669300</v>
+        <v>1284700</v>
       </c>
       <c r="E42" s="3">
-        <v>502400</v>
+        <v>645100</v>
       </c>
       <c r="F42" s="3">
-        <v>769800</v>
+        <v>484100</v>
       </c>
       <c r="G42" s="3">
-        <v>734400</v>
+        <v>741900</v>
       </c>
       <c r="H42" s="3">
-        <v>1299100</v>
+        <v>707800</v>
       </c>
       <c r="I42" s="3">
-        <v>1253800</v>
+        <v>1252000</v>
       </c>
       <c r="J42" s="3">
+        <v>1208300</v>
+      </c>
+      <c r="K42" s="3">
         <v>536300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>450400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>309000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>439600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>156500</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5841600</v>
+        <v>5253300</v>
       </c>
       <c r="E43" s="3">
-        <v>6738800</v>
+        <v>5629700</v>
       </c>
       <c r="F43" s="3">
-        <v>6369400</v>
+        <v>6494400</v>
       </c>
       <c r="G43" s="3">
-        <v>6039700</v>
+        <v>6138400</v>
       </c>
       <c r="H43" s="3">
-        <v>5851500</v>
+        <v>5820700</v>
       </c>
       <c r="I43" s="3">
-        <v>5807600</v>
+        <v>5639300</v>
       </c>
       <c r="J43" s="3">
+        <v>5597000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5115600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4305800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4140900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2873400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2986900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2725800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2313700</v>
+        <v>2216200</v>
       </c>
       <c r="E44" s="3">
-        <v>2451000</v>
+        <v>2229800</v>
       </c>
       <c r="F44" s="3">
-        <v>2763700</v>
+        <v>2362100</v>
       </c>
       <c r="G44" s="3">
-        <v>2729700</v>
+        <v>2663500</v>
       </c>
       <c r="H44" s="3">
-        <v>2659000</v>
+        <v>2630800</v>
       </c>
       <c r="I44" s="3">
-        <v>2561300</v>
+        <v>2562600</v>
       </c>
       <c r="J44" s="3">
+        <v>2468500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2728300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2344400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2460200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1262600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1321300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1312800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>39600</v>
+        <v>6800</v>
       </c>
       <c r="E45" s="3">
-        <v>17000</v>
+        <v>38200</v>
       </c>
       <c r="F45" s="3">
-        <v>58000</v>
+        <v>16400</v>
       </c>
       <c r="G45" s="3">
-        <v>29700</v>
+        <v>55900</v>
       </c>
       <c r="H45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>25500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>124200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>175800</v>
+      </c>
+      <c r="N45" s="3">
         <v>66500</v>
       </c>
-      <c r="I45" s="3">
-        <v>14200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>25500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>124200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>175800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>66500</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>58700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>90900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10337400</v>
+        <v>9613400</v>
       </c>
       <c r="E46" s="3">
-        <v>10729400</v>
+        <v>9962500</v>
       </c>
       <c r="F46" s="3">
-        <v>11526100</v>
+        <v>10340300</v>
       </c>
       <c r="G46" s="3">
-        <v>10684100</v>
+        <v>11108100</v>
       </c>
       <c r="H46" s="3">
-        <v>11146800</v>
+        <v>10296600</v>
       </c>
       <c r="I46" s="3">
-        <v>11118500</v>
+        <v>10742600</v>
       </c>
       <c r="J46" s="3">
+        <v>10715300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9948200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8336800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8469200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5755900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6018100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5821500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5281200</v>
+        <v>4212700</v>
       </c>
       <c r="E47" s="3">
-        <v>6335400</v>
+        <v>5089700</v>
       </c>
       <c r="F47" s="3">
-        <v>6420400</v>
+        <v>6105700</v>
       </c>
       <c r="G47" s="3">
-        <v>6022700</v>
+        <v>6187500</v>
       </c>
       <c r="H47" s="3">
-        <v>5037800</v>
+        <v>5804300</v>
       </c>
       <c r="I47" s="3">
-        <v>4454800</v>
+        <v>4855100</v>
       </c>
       <c r="J47" s="3">
+        <v>4293200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4044400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3509300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3243700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3155100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2870800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2683600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19128000</v>
+        <v>18184800</v>
       </c>
       <c r="E48" s="3">
-        <v>19439400</v>
+        <v>18434300</v>
       </c>
       <c r="F48" s="3">
-        <v>19558200</v>
+        <v>18734400</v>
       </c>
       <c r="G48" s="3">
-        <v>20074800</v>
+        <v>18848900</v>
       </c>
       <c r="H48" s="3">
-        <v>20291300</v>
+        <v>19346700</v>
       </c>
       <c r="I48" s="3">
-        <v>14006800</v>
+        <v>19555400</v>
       </c>
       <c r="J48" s="3">
+        <v>13498800</v>
+      </c>
+      <c r="K48" s="3">
         <v>14078900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13215800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12974600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12735300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12722200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12704400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1267900</v>
+        <v>1246500</v>
       </c>
       <c r="E49" s="3">
-        <v>1432100</v>
+        <v>1222000</v>
       </c>
       <c r="F49" s="3">
-        <v>1426400</v>
+        <v>1380200</v>
       </c>
       <c r="G49" s="3">
-        <v>1476000</v>
+        <v>1374700</v>
       </c>
       <c r="H49" s="3">
-        <v>1487300</v>
+        <v>1422400</v>
       </c>
       <c r="I49" s="3">
-        <v>1517000</v>
+        <v>1433300</v>
       </c>
       <c r="J49" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1178800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1060600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1027800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>429100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>448700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>428000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1440600</v>
+        <v>1058300</v>
       </c>
       <c r="E52" s="3">
-        <v>1597700</v>
+        <v>1388300</v>
       </c>
       <c r="F52" s="3">
-        <v>1974100</v>
+        <v>1539700</v>
       </c>
       <c r="G52" s="3">
-        <v>1381100</v>
+        <v>1902500</v>
       </c>
       <c r="H52" s="3">
-        <v>413200</v>
+        <v>1331100</v>
       </c>
       <c r="I52" s="3">
-        <v>36800</v>
+        <v>398200</v>
       </c>
       <c r="J52" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>138300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37455100</v>
+        <v>34315700</v>
       </c>
       <c r="E54" s="3">
-        <v>39533900</v>
+        <v>36096800</v>
       </c>
       <c r="F54" s="3">
-        <v>40905200</v>
+        <v>38100200</v>
       </c>
       <c r="G54" s="3">
-        <v>39638600</v>
+        <v>39421700</v>
       </c>
       <c r="H54" s="3">
-        <v>38376400</v>
+        <v>38201100</v>
       </c>
       <c r="I54" s="3">
-        <v>31133800</v>
+        <v>36984600</v>
       </c>
       <c r="J54" s="3">
+        <v>30004700</v>
+      </c>
+      <c r="K54" s="3">
         <v>29263100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26149000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25776000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22138100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22131500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21775800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6653800</v>
+        <v>6120700</v>
       </c>
       <c r="E57" s="3">
-        <v>6049600</v>
+        <v>6412500</v>
       </c>
       <c r="F57" s="3">
-        <v>6665200</v>
+        <v>5830200</v>
       </c>
       <c r="G57" s="3">
-        <v>6188300</v>
+        <v>6423500</v>
       </c>
       <c r="H57" s="3">
-        <v>6767100</v>
+        <v>5963900</v>
       </c>
       <c r="I57" s="3">
-        <v>6116100</v>
+        <v>6521600</v>
       </c>
       <c r="J57" s="3">
+        <v>5894300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5920800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4941100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5511200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8151900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8526300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8369500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1125000</v>
+        <v>1066500</v>
       </c>
       <c r="E58" s="3">
-        <v>789600</v>
+        <v>1084200</v>
       </c>
       <c r="F58" s="3">
-        <v>1459000</v>
+        <v>761000</v>
       </c>
       <c r="G58" s="3">
-        <v>1909000</v>
+        <v>1406100</v>
       </c>
       <c r="H58" s="3">
-        <v>1082600</v>
+        <v>1839800</v>
       </c>
       <c r="I58" s="3">
-        <v>902800</v>
+        <v>1043300</v>
       </c>
       <c r="J58" s="3">
+        <v>870100</v>
+      </c>
+      <c r="K58" s="3">
         <v>984900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>454400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>586900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>290900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>230900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>342400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8644900</v>
+        <v>8792400</v>
       </c>
       <c r="E59" s="3">
-        <v>10208600</v>
+        <v>8331400</v>
       </c>
       <c r="F59" s="3">
-        <v>9760000</v>
+        <v>9838400</v>
       </c>
       <c r="G59" s="3">
-        <v>8670400</v>
+        <v>9406100</v>
       </c>
       <c r="H59" s="3">
-        <v>7890700</v>
+        <v>8355900</v>
       </c>
       <c r="I59" s="3">
-        <v>7559500</v>
+        <v>7604500</v>
       </c>
       <c r="J59" s="3">
+        <v>7285400</v>
+      </c>
+      <c r="K59" s="3">
         <v>7275100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6172100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5257900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>322200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>277800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>404300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16423800</v>
+        <v>15979500</v>
       </c>
       <c r="E60" s="3">
-        <v>17047800</v>
+        <v>15828100</v>
       </c>
       <c r="F60" s="3">
-        <v>17884200</v>
+        <v>16429600</v>
       </c>
       <c r="G60" s="3">
-        <v>16767600</v>
+        <v>17235600</v>
       </c>
       <c r="H60" s="3">
-        <v>15740300</v>
+        <v>16159500</v>
       </c>
       <c r="I60" s="3">
-        <v>14578500</v>
+        <v>15169400</v>
       </c>
       <c r="J60" s="3">
+        <v>14049800</v>
+      </c>
+      <c r="K60" s="3">
         <v>14180800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11340300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11062600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8765000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9035000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9116100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8690200</v>
+        <v>8261800</v>
       </c>
       <c r="E61" s="3">
-        <v>9215200</v>
+        <v>8375000</v>
       </c>
       <c r="F61" s="3">
-        <v>8862800</v>
+        <v>8881000</v>
       </c>
       <c r="G61" s="3">
-        <v>8691600</v>
+        <v>8541400</v>
       </c>
       <c r="H61" s="3">
-        <v>9411900</v>
+        <v>8376400</v>
       </c>
       <c r="I61" s="3">
-        <v>2267000</v>
+        <v>9070600</v>
       </c>
       <c r="J61" s="3">
+        <v>2184800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2042000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2693100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2731700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2856400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3018200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3299900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2170800</v>
+        <v>1067800</v>
       </c>
       <c r="E62" s="3">
-        <v>2271300</v>
+        <v>2092100</v>
       </c>
       <c r="F62" s="3">
-        <v>2970300</v>
+        <v>2188900</v>
       </c>
       <c r="G62" s="3">
-        <v>3167000</v>
+        <v>2862600</v>
       </c>
       <c r="H62" s="3">
-        <v>3072200</v>
+        <v>3052200</v>
       </c>
       <c r="I62" s="3">
-        <v>3801000</v>
+        <v>2960800</v>
       </c>
       <c r="J62" s="3">
+        <v>3663100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3223600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3039100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3586300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2214700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1977300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2066000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27284700</v>
+        <v>25309200</v>
       </c>
       <c r="E66" s="3">
-        <v>28534300</v>
+        <v>26295200</v>
       </c>
       <c r="F66" s="3">
-        <v>29717300</v>
+        <v>27499500</v>
       </c>
       <c r="G66" s="3">
-        <v>28626300</v>
+        <v>28639600</v>
       </c>
       <c r="H66" s="3">
-        <v>28224400</v>
+        <v>27588100</v>
       </c>
       <c r="I66" s="3">
-        <v>20646500</v>
+        <v>27200800</v>
       </c>
       <c r="J66" s="3">
+        <v>19897700</v>
+      </c>
+      <c r="K66" s="3">
         <v>19446400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17072500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17380500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13836100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14030500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14482100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7275100</v>
+        <v>6199800</v>
       </c>
       <c r="E72" s="3">
-        <v>7760500</v>
+        <v>7011200</v>
       </c>
       <c r="F72" s="3">
-        <v>7962800</v>
+        <v>7479000</v>
       </c>
       <c r="G72" s="3">
-        <v>7795800</v>
+        <v>7674000</v>
       </c>
       <c r="H72" s="3">
-        <v>6946800</v>
+        <v>7513100</v>
       </c>
       <c r="I72" s="3">
-        <v>7299100</v>
+        <v>6694800</v>
       </c>
       <c r="J72" s="3">
+        <v>7034400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6639700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6116600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5500900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5484600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5285100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5113100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10170400</v>
+        <v>9006500</v>
       </c>
       <c r="E76" s="3">
-        <v>10999700</v>
+        <v>9801600</v>
       </c>
       <c r="F76" s="3">
-        <v>11187900</v>
+        <v>10600700</v>
       </c>
       <c r="G76" s="3">
-        <v>11012400</v>
+        <v>10782100</v>
       </c>
       <c r="H76" s="3">
-        <v>10152000</v>
+        <v>10613000</v>
       </c>
       <c r="I76" s="3">
-        <v>10487400</v>
+        <v>9783800</v>
       </c>
       <c r="J76" s="3">
+        <v>10107000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9816600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9076500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8395500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8301900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8101100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7293700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44261</v>
+      </c>
+      <c r="E80" s="2">
         <v>44093</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43897</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43729</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43533</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43365</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43169</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43001</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42805</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42637</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42441</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42273</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42077</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-259000</v>
+        <v>-141800</v>
       </c>
       <c r="E81" s="3">
-        <v>251900</v>
+        <v>-249600</v>
       </c>
       <c r="F81" s="3">
-        <v>-69300</v>
+        <v>242800</v>
       </c>
       <c r="G81" s="3">
-        <v>77800</v>
+        <v>-66800</v>
       </c>
       <c r="H81" s="3">
-        <v>159900</v>
+        <v>75000</v>
       </c>
       <c r="I81" s="3">
-        <v>191000</v>
+        <v>154100</v>
       </c>
       <c r="J81" s="3">
+        <v>184100</v>
+      </c>
+      <c r="K81" s="3">
         <v>220800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>92500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>373600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>256900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>341700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>234400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>935400</v>
+        <v>801900</v>
       </c>
       <c r="E83" s="3">
-        <v>833500</v>
+        <v>901500</v>
       </c>
       <c r="F83" s="3">
-        <v>943900</v>
+        <v>803300</v>
       </c>
       <c r="G83" s="3">
-        <v>822200</v>
+        <v>909600</v>
       </c>
       <c r="H83" s="3">
-        <v>963700</v>
+        <v>792400</v>
       </c>
       <c r="I83" s="3">
-        <v>522200</v>
+        <v>928700</v>
       </c>
       <c r="J83" s="3">
+        <v>503200</v>
+      </c>
+      <c r="K83" s="3">
         <v>512300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>397600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>422700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>360000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>401700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>343700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2138200</v>
+        <v>1134700</v>
       </c>
       <c r="E89" s="3">
-        <v>492500</v>
+        <v>2060700</v>
       </c>
       <c r="F89" s="3">
-        <v>1449100</v>
+        <v>474600</v>
       </c>
       <c r="G89" s="3">
-        <v>125900</v>
+        <v>1396500</v>
       </c>
       <c r="H89" s="3">
-        <v>1350000</v>
+        <v>121400</v>
       </c>
       <c r="I89" s="3">
-        <v>812300</v>
+        <v>1301100</v>
       </c>
       <c r="J89" s="3">
+        <v>782800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1119400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>537600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>964400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>189100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>322200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>675500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363700</v>
+        <v>-226400</v>
       </c>
       <c r="E91" s="3">
-        <v>-433000</v>
+        <v>-350500</v>
       </c>
       <c r="F91" s="3">
-        <v>-301400</v>
+        <v>-417300</v>
       </c>
       <c r="G91" s="3">
-        <v>-338200</v>
+        <v>-290500</v>
       </c>
       <c r="H91" s="3">
-        <v>-332600</v>
+        <v>-325900</v>
       </c>
       <c r="I91" s="3">
-        <v>-394800</v>
+        <v>-320500</v>
       </c>
       <c r="J91" s="3">
+        <v>-380500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-399100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-431900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-396900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-373000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-469600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-583300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-372200</v>
+        <v>-395500</v>
       </c>
       <c r="E94" s="3">
-        <v>-471200</v>
+        <v>-358700</v>
       </c>
       <c r="F94" s="3">
-        <v>-131600</v>
+        <v>-454100</v>
       </c>
       <c r="G94" s="3">
-        <v>-369300</v>
+        <v>-126800</v>
       </c>
       <c r="H94" s="3">
-        <v>-301400</v>
+        <v>-355900</v>
       </c>
       <c r="I94" s="3">
-        <v>-271700</v>
+        <v>-290500</v>
       </c>
       <c r="J94" s="3">
+        <v>-261800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-393400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-394900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-583100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-113500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-408200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-454300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-31400</v>
       </c>
       <c r="E96" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-28300</v>
       </c>
-      <c r="G96" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-28300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>199600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-204800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-126400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,52 +4570,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1116500</v>
+        <v>-707800</v>
       </c>
       <c r="E100" s="3">
-        <v>-690600</v>
+        <v>-1076000</v>
       </c>
       <c r="F100" s="3">
-        <v>-826400</v>
+        <v>-665500</v>
       </c>
       <c r="G100" s="3">
-        <v>-5700</v>
+        <v>-796500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1058500</v>
+        <v>-5500</v>
       </c>
       <c r="I100" s="3">
-        <v>19800</v>
+        <v>-1020100</v>
       </c>
       <c r="J100" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-365100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-281300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-327100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-233500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>66500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-385800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4415,48 +4664,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>649500</v>
+        <v>31400</v>
       </c>
       <c r="E102" s="3">
-        <v>-669300</v>
+        <v>626000</v>
       </c>
       <c r="F102" s="3">
-        <v>491000</v>
+        <v>-645100</v>
       </c>
       <c r="G102" s="3">
-        <v>-484000</v>
+        <v>473200</v>
       </c>
       <c r="H102" s="3">
-        <v>-376400</v>
+        <v>-466400</v>
       </c>
       <c r="I102" s="3">
-        <v>560400</v>
+        <v>-362800</v>
       </c>
       <c r="J102" s="3">
+        <v>540100</v>
+      </c>
+      <c r="K102" s="3">
         <v>360900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-138700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>54300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-157800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-164600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44457</v>
+      </c>
+      <c r="E7" s="2">
         <v>44261</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44093</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43897</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43729</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43533</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43365</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43169</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42805</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42637</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42441</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42273</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42077</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19248500</v>
+        <v>20930200</v>
       </c>
       <c r="E8" s="3">
-        <v>20366800</v>
+        <v>18787100</v>
       </c>
       <c r="F8" s="3">
-        <v>18951200</v>
+        <v>19878600</v>
       </c>
       <c r="G8" s="3">
-        <v>20589100</v>
+        <v>18497000</v>
       </c>
       <c r="H8" s="3">
-        <v>18929400</v>
+        <v>20095600</v>
       </c>
       <c r="I8" s="3">
-        <v>20630100</v>
+        <v>18475700</v>
       </c>
       <c r="J8" s="3">
+        <v>20135500</v>
+      </c>
+      <c r="K8" s="3">
         <v>18836700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20722900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17939000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16343700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14460900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16198200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14626900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18038900</v>
+        <v>19269000</v>
       </c>
       <c r="E9" s="3">
-        <v>18607600</v>
+        <v>17606500</v>
       </c>
       <c r="F9" s="3">
-        <v>17358300</v>
+        <v>18161500</v>
       </c>
       <c r="G9" s="3">
-        <v>19053500</v>
+        <v>16942200</v>
       </c>
       <c r="H9" s="3">
-        <v>17408800</v>
+        <v>18596800</v>
       </c>
       <c r="I9" s="3">
-        <v>19030300</v>
+        <v>16991500</v>
       </c>
       <c r="J9" s="3">
+        <v>18574200</v>
+      </c>
+      <c r="K9" s="3">
         <v>17614700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19327600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16791200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15354700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13549200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15210900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13693300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1209700</v>
+        <v>1661200</v>
       </c>
       <c r="E10" s="3">
-        <v>1759300</v>
+        <v>1180700</v>
       </c>
       <c r="F10" s="3">
-        <v>1592900</v>
+        <v>1717100</v>
       </c>
       <c r="G10" s="3">
-        <v>1535600</v>
+        <v>1554700</v>
       </c>
       <c r="H10" s="3">
-        <v>1520600</v>
+        <v>1498800</v>
       </c>
       <c r="I10" s="3">
-        <v>1599700</v>
+        <v>1484200</v>
       </c>
       <c r="J10" s="3">
+        <v>1561400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1222000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1395300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1147800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>989000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>911700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>987400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>933600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,31 +1009,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>248200</v>
+        <v>-167700</v>
       </c>
       <c r="E14" s="3">
-        <v>594600</v>
+        <v>242300</v>
       </c>
       <c r="F14" s="3">
-        <v>151400</v>
+        <v>580400</v>
       </c>
       <c r="G14" s="3">
-        <v>305500</v>
+        <v>147800</v>
       </c>
       <c r="H14" s="3">
-        <v>35500</v>
+        <v>298200</v>
       </c>
       <c r="I14" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>34600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-18600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1027,8 +1047,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1039,8 +1059,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19217200</v>
+        <v>20019700</v>
       </c>
       <c r="E17" s="3">
-        <v>20286400</v>
+        <v>18756500</v>
       </c>
       <c r="F17" s="3">
-        <v>18368900</v>
+        <v>19800100</v>
       </c>
       <c r="G17" s="3">
-        <v>20245500</v>
+        <v>17928600</v>
       </c>
       <c r="H17" s="3">
-        <v>18558500</v>
+        <v>19760200</v>
       </c>
       <c r="I17" s="3">
-        <v>20193600</v>
+        <v>18113600</v>
       </c>
       <c r="J17" s="3">
+        <v>19709600</v>
+      </c>
+      <c r="K17" s="3">
         <v>18516200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20322400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17694600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15752900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14090500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15646500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14212100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>31400</v>
+        <v>910500</v>
       </c>
       <c r="E18" s="3">
-        <v>80500</v>
+        <v>30600</v>
       </c>
       <c r="F18" s="3">
-        <v>582300</v>
+        <v>78500</v>
       </c>
       <c r="G18" s="3">
-        <v>343700</v>
+        <v>568400</v>
       </c>
       <c r="H18" s="3">
-        <v>371000</v>
+        <v>335400</v>
       </c>
       <c r="I18" s="3">
-        <v>436400</v>
+        <v>362100</v>
       </c>
       <c r="J18" s="3">
+        <v>426000</v>
+      </c>
+      <c r="K18" s="3">
         <v>320500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>244300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>590800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>370400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>551700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>414800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4100</v>
+        <v>37300</v>
       </c>
       <c r="E20" s="3">
-        <v>-6800</v>
+        <v>4000</v>
       </c>
       <c r="F20" s="3">
-        <v>-10900</v>
+        <v>-6700</v>
       </c>
       <c r="G20" s="3">
-        <v>-47700</v>
+        <v>-10600</v>
       </c>
       <c r="H20" s="3">
-        <v>12300</v>
+        <v>-46600</v>
       </c>
       <c r="I20" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-29700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>837400</v>
+        <v>1824900</v>
       </c>
       <c r="E21" s="3">
-        <v>975100</v>
+        <v>817300</v>
       </c>
       <c r="F21" s="3">
-        <v>1374700</v>
+        <v>951700</v>
       </c>
       <c r="G21" s="3">
-        <v>1205600</v>
+        <v>1341700</v>
       </c>
       <c r="H21" s="3">
-        <v>1175600</v>
+        <v>1176700</v>
       </c>
       <c r="I21" s="3">
-        <v>1377400</v>
+        <v>1147400</v>
       </c>
       <c r="J21" s="3">
+        <v>1344400</v>
+      </c>
+      <c r="K21" s="3">
         <v>831900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>904300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>639300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>983800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>705600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>927400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>709700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>204600</v>
+        <v>227600</v>
       </c>
       <c r="E22" s="3">
-        <v>260500</v>
+        <v>199700</v>
       </c>
       <c r="F22" s="3">
-        <v>235900</v>
+        <v>254200</v>
       </c>
       <c r="G22" s="3">
-        <v>283700</v>
+        <v>230300</v>
       </c>
       <c r="H22" s="3">
-        <v>253700</v>
+        <v>276900</v>
       </c>
       <c r="I22" s="3">
-        <v>302800</v>
+        <v>247600</v>
       </c>
       <c r="J22" s="3">
+        <v>295500</v>
+      </c>
+      <c r="K22" s="3">
         <v>70900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>80200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>73000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>83500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>79000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-169100</v>
+        <v>720100</v>
       </c>
       <c r="E23" s="3">
-        <v>-186800</v>
+        <v>-165100</v>
       </c>
       <c r="F23" s="3">
-        <v>335500</v>
+        <v>-182400</v>
       </c>
       <c r="G23" s="3">
-        <v>12300</v>
+        <v>327500</v>
       </c>
       <c r="H23" s="3">
-        <v>129600</v>
+        <v>12000</v>
       </c>
       <c r="I23" s="3">
-        <v>145900</v>
+        <v>126500</v>
       </c>
       <c r="J23" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K23" s="3">
         <v>257800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>311300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>173000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>480900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>272600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>442200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>287100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-31400</v>
+        <v>202300</v>
       </c>
       <c r="E24" s="3">
-        <v>57300</v>
+        <v>-30600</v>
       </c>
       <c r="F24" s="3">
+        <v>55900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>74500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>62600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>62700</v>
+      </c>
+      <c r="L24" s="3">
         <v>76400</v>
       </c>
-      <c r="G24" s="3">
-        <v>64100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>43600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-21800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>62700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>76400</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>70000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>97800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>52700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-137700</v>
+        <v>517800</v>
       </c>
       <c r="E26" s="3">
-        <v>-244100</v>
+        <v>-134400</v>
       </c>
       <c r="F26" s="3">
-        <v>259100</v>
+        <v>-238300</v>
       </c>
       <c r="G26" s="3">
-        <v>-51800</v>
+        <v>252900</v>
       </c>
       <c r="H26" s="3">
-        <v>85900</v>
+        <v>-50600</v>
       </c>
       <c r="I26" s="3">
-        <v>167700</v>
+        <v>83900</v>
       </c>
       <c r="J26" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K26" s="3">
         <v>195000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>234900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>103000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>386600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>270000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>344300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>234400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-141800</v>
+        <v>517800</v>
       </c>
       <c r="E27" s="3">
-        <v>-249600</v>
+        <v>-138400</v>
       </c>
       <c r="F27" s="3">
-        <v>242800</v>
+        <v>-243600</v>
       </c>
       <c r="G27" s="3">
-        <v>-66800</v>
+        <v>236900</v>
       </c>
       <c r="H27" s="3">
-        <v>75000</v>
+        <v>-65200</v>
       </c>
       <c r="I27" s="3">
-        <v>154100</v>
+        <v>73200</v>
       </c>
       <c r="J27" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K27" s="3">
         <v>184100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>220800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>92500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>373600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>256900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>234400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4100</v>
+        <v>-37300</v>
       </c>
       <c r="E32" s="3">
-        <v>6800</v>
+        <v>-4000</v>
       </c>
       <c r="F32" s="3">
-        <v>10900</v>
+        <v>6700</v>
       </c>
       <c r="G32" s="3">
-        <v>47700</v>
+        <v>10600</v>
       </c>
       <c r="H32" s="3">
-        <v>-12300</v>
+        <v>46600</v>
       </c>
       <c r="I32" s="3">
-        <v>-12300</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>29700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>48700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-141800</v>
+        <v>517800</v>
       </c>
       <c r="E33" s="3">
-        <v>-249600</v>
+        <v>-138400</v>
       </c>
       <c r="F33" s="3">
-        <v>242800</v>
+        <v>-243600</v>
       </c>
       <c r="G33" s="3">
-        <v>-66800</v>
+        <v>236900</v>
       </c>
       <c r="H33" s="3">
-        <v>75000</v>
+        <v>-65200</v>
       </c>
       <c r="I33" s="3">
-        <v>154100</v>
+        <v>73200</v>
       </c>
       <c r="J33" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K33" s="3">
         <v>184100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>220800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>92500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>373600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>256900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>234400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-141800</v>
+        <v>517800</v>
       </c>
       <c r="E35" s="3">
-        <v>-249600</v>
+        <v>-138400</v>
       </c>
       <c r="F35" s="3">
-        <v>242800</v>
+        <v>-243600</v>
       </c>
       <c r="G35" s="3">
-        <v>-66800</v>
+        <v>236900</v>
       </c>
       <c r="H35" s="3">
-        <v>75000</v>
+        <v>-65200</v>
       </c>
       <c r="I35" s="3">
-        <v>154100</v>
+        <v>73200</v>
       </c>
       <c r="J35" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K35" s="3">
         <v>184100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>220800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>92500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>373600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>256900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>234400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44457</v>
+      </c>
+      <c r="E38" s="2">
         <v>44261</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44093</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43897</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43729</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43533</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43365</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43169</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43001</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42805</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42637</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42441</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42273</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42077</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,431 +2143,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>852400</v>
+        <v>1446900</v>
       </c>
       <c r="E41" s="3">
-        <v>1419700</v>
+        <v>962400</v>
       </c>
       <c r="F41" s="3">
-        <v>983300</v>
+        <v>2204300</v>
       </c>
       <c r="G41" s="3">
-        <v>1508400</v>
+        <v>959700</v>
       </c>
       <c r="H41" s="3">
-        <v>1108800</v>
+        <v>1472200</v>
       </c>
       <c r="I41" s="3">
-        <v>1224700</v>
+        <v>1082200</v>
       </c>
       <c r="J41" s="3">
+        <v>1195300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1427900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1542500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1112100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1383300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1113900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1494700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1692100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1284700</v>
+        <v>879900</v>
       </c>
       <c r="E42" s="3">
-        <v>645100</v>
+        <v>1253900</v>
       </c>
       <c r="F42" s="3">
-        <v>484100</v>
+        <v>629600</v>
       </c>
       <c r="G42" s="3">
-        <v>741900</v>
+        <v>472500</v>
       </c>
       <c r="H42" s="3">
-        <v>707800</v>
+        <v>724100</v>
       </c>
       <c r="I42" s="3">
-        <v>1252000</v>
+        <v>690800</v>
       </c>
       <c r="J42" s="3">
+        <v>1221900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1208300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>536300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>450400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>309000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>439600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>156500</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5253300</v>
+        <v>4942400</v>
       </c>
       <c r="E43" s="3">
-        <v>5629700</v>
+        <v>9289700</v>
       </c>
       <c r="F43" s="3">
-        <v>6494400</v>
+        <v>9993900</v>
       </c>
       <c r="G43" s="3">
-        <v>6138400</v>
+        <v>6338700</v>
       </c>
       <c r="H43" s="3">
-        <v>5820700</v>
+        <v>5991300</v>
       </c>
       <c r="I43" s="3">
-        <v>5639300</v>
+        <v>5681100</v>
       </c>
       <c r="J43" s="3">
+        <v>5504100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5597000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5115600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4305800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4140900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2873400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2986900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2725800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2216200</v>
+        <v>2238900</v>
       </c>
       <c r="E44" s="3">
-        <v>2229800</v>
+        <v>2163000</v>
       </c>
       <c r="F44" s="3">
-        <v>2362100</v>
+        <v>2176300</v>
       </c>
       <c r="G44" s="3">
-        <v>2663500</v>
+        <v>2305500</v>
       </c>
       <c r="H44" s="3">
-        <v>2630800</v>
+        <v>2599600</v>
       </c>
       <c r="I44" s="3">
-        <v>2562600</v>
+        <v>2567700</v>
       </c>
       <c r="J44" s="3">
+        <v>2501100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2468500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2728300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2344400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2460200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1262600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1321300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1312800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6800</v>
+        <v>26600</v>
       </c>
       <c r="E45" s="3">
-        <v>38200</v>
+        <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>16400</v>
+        <v>37300</v>
       </c>
       <c r="G45" s="3">
-        <v>55900</v>
+        <v>16000</v>
       </c>
       <c r="H45" s="3">
-        <v>28600</v>
+        <v>54600</v>
       </c>
       <c r="I45" s="3">
-        <v>64100</v>
+        <v>28000</v>
       </c>
       <c r="J45" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K45" s="3">
         <v>13600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>124200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>175800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>90900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9613400</v>
+        <v>9534700</v>
       </c>
       <c r="E46" s="3">
-        <v>9962500</v>
+        <v>9513400</v>
       </c>
       <c r="F46" s="3">
-        <v>10340300</v>
+        <v>10542300</v>
       </c>
       <c r="G46" s="3">
-        <v>11108100</v>
+        <v>10092400</v>
       </c>
       <c r="H46" s="3">
-        <v>10296600</v>
+        <v>10841800</v>
       </c>
       <c r="I46" s="3">
-        <v>10742600</v>
+        <v>10049800</v>
       </c>
       <c r="J46" s="3">
+        <v>10485100</v>
+      </c>
+      <c r="K46" s="3">
         <v>10715300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9948200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8336800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8469200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5755900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6018100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5821500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4212700</v>
+        <v>3637900</v>
       </c>
       <c r="E47" s="3">
-        <v>5089700</v>
+        <v>7146700</v>
       </c>
       <c r="F47" s="3">
-        <v>6105700</v>
+        <v>8710700</v>
       </c>
       <c r="G47" s="3">
-        <v>6187500</v>
+        <v>5959300</v>
       </c>
       <c r="H47" s="3">
-        <v>5804300</v>
+        <v>6039200</v>
       </c>
       <c r="I47" s="3">
-        <v>4855100</v>
+        <v>5665200</v>
       </c>
       <c r="J47" s="3">
+        <v>4738700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4293200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4044400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3509300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3243700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3155100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2870800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2683600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18184800</v>
+        <v>18154900</v>
       </c>
       <c r="E48" s="3">
-        <v>18434300</v>
+        <v>29179000</v>
       </c>
       <c r="F48" s="3">
-        <v>18734400</v>
+        <v>29651600</v>
       </c>
       <c r="G48" s="3">
-        <v>18848900</v>
+        <v>18285300</v>
       </c>
       <c r="H48" s="3">
-        <v>19346700</v>
+        <v>18397100</v>
       </c>
       <c r="I48" s="3">
-        <v>19555400</v>
+        <v>18883000</v>
       </c>
       <c r="J48" s="3">
+        <v>19086600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13498800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14078900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13215800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12974600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12735300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12722200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12704400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1246500</v>
+        <v>1332400</v>
       </c>
       <c r="E49" s="3">
-        <v>1222000</v>
+        <v>1216600</v>
       </c>
       <c r="F49" s="3">
-        <v>1380200</v>
+        <v>1142100</v>
       </c>
       <c r="G49" s="3">
-        <v>1374700</v>
+        <v>1347100</v>
       </c>
       <c r="H49" s="3">
-        <v>1422400</v>
+        <v>1341700</v>
       </c>
       <c r="I49" s="3">
-        <v>1433300</v>
+        <v>1388300</v>
       </c>
       <c r="J49" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1462000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1178800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1060600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1027800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>429100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>448700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>428000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1058300</v>
+        <v>1517500</v>
       </c>
       <c r="E52" s="3">
-        <v>1388300</v>
+        <v>1032900</v>
       </c>
       <c r="F52" s="3">
-        <v>1539700</v>
+        <v>1355100</v>
       </c>
       <c r="G52" s="3">
-        <v>1902500</v>
+        <v>1502800</v>
       </c>
       <c r="H52" s="3">
-        <v>1331100</v>
+        <v>1856900</v>
       </c>
       <c r="I52" s="3">
-        <v>398200</v>
+        <v>1299200</v>
       </c>
       <c r="J52" s="3">
+        <v>388700</v>
+      </c>
+      <c r="K52" s="3">
         <v>35500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>62600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>138300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34315700</v>
+        <v>34177300</v>
       </c>
       <c r="E54" s="3">
-        <v>36096800</v>
+        <v>33623600</v>
       </c>
       <c r="F54" s="3">
-        <v>38100200</v>
+        <v>36050200</v>
       </c>
       <c r="G54" s="3">
-        <v>39421700</v>
+        <v>37186900</v>
       </c>
       <c r="H54" s="3">
-        <v>38201100</v>
+        <v>38476800</v>
       </c>
       <c r="I54" s="3">
-        <v>36984600</v>
+        <v>37285400</v>
       </c>
       <c r="J54" s="3">
+        <v>36098100</v>
+      </c>
+      <c r="K54" s="3">
         <v>30004700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29263100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26149000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25776000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22138100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22131500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21775800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6120700</v>
+        <v>6073800</v>
       </c>
       <c r="E57" s="3">
-        <v>6412500</v>
+        <v>5974000</v>
       </c>
       <c r="F57" s="3">
-        <v>5830200</v>
+        <v>6258800</v>
       </c>
       <c r="G57" s="3">
-        <v>6423500</v>
+        <v>5690500</v>
       </c>
       <c r="H57" s="3">
-        <v>5963900</v>
+        <v>6269500</v>
       </c>
       <c r="I57" s="3">
-        <v>6521600</v>
+        <v>5820900</v>
       </c>
       <c r="J57" s="3">
+        <v>6365300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5894300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5920800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4941100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5511200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8151900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8526300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8369500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1066500</v>
+        <v>1090200</v>
       </c>
       <c r="E58" s="3">
-        <v>1084200</v>
+        <v>1171400</v>
       </c>
       <c r="F58" s="3">
-        <v>761000</v>
+        <v>1876900</v>
       </c>
       <c r="G58" s="3">
-        <v>1406100</v>
+        <v>742800</v>
       </c>
       <c r="H58" s="3">
-        <v>1839800</v>
+        <v>1372400</v>
       </c>
       <c r="I58" s="3">
-        <v>1043300</v>
+        <v>1795700</v>
       </c>
       <c r="J58" s="3">
+        <v>1018300</v>
+      </c>
+      <c r="K58" s="3">
         <v>870100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>984900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>454400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>586900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>290900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>230900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>342400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8792400</v>
+        <v>7041500</v>
       </c>
       <c r="E59" s="3">
-        <v>8331400</v>
+        <v>8581600</v>
       </c>
       <c r="F59" s="3">
-        <v>9838400</v>
+        <v>8131700</v>
       </c>
       <c r="G59" s="3">
-        <v>9406100</v>
+        <v>9602600</v>
       </c>
       <c r="H59" s="3">
-        <v>8355900</v>
+        <v>9180600</v>
       </c>
       <c r="I59" s="3">
-        <v>7604500</v>
+        <v>8155600</v>
       </c>
       <c r="J59" s="3">
+        <v>7422200</v>
+      </c>
+      <c r="K59" s="3">
         <v>7285400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7275100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6172100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5257900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>322200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>277800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>404300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15979500</v>
+        <v>14205500</v>
       </c>
       <c r="E60" s="3">
-        <v>15828100</v>
+        <v>15726900</v>
       </c>
       <c r="F60" s="3">
-        <v>16429600</v>
+        <v>16267400</v>
       </c>
       <c r="G60" s="3">
-        <v>17235600</v>
+        <v>16035800</v>
       </c>
       <c r="H60" s="3">
-        <v>16159500</v>
+        <v>16822400</v>
       </c>
       <c r="I60" s="3">
-        <v>15169400</v>
+        <v>15772200</v>
       </c>
       <c r="J60" s="3">
+        <v>14805800</v>
+      </c>
+      <c r="K60" s="3">
         <v>14049800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14180800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11340300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11062600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8765000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9035000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9116100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8261800</v>
+        <v>8633500</v>
       </c>
       <c r="E61" s="3">
-        <v>8375000</v>
+        <v>8063800</v>
       </c>
       <c r="F61" s="3">
-        <v>8881000</v>
+        <v>8174300</v>
       </c>
       <c r="G61" s="3">
-        <v>8541400</v>
+        <v>8668100</v>
       </c>
       <c r="H61" s="3">
-        <v>8376400</v>
+        <v>8336700</v>
       </c>
       <c r="I61" s="3">
-        <v>9070600</v>
+        <v>8175600</v>
       </c>
       <c r="J61" s="3">
+        <v>8853100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2184800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2042000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2693100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2731700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2856400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3018200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3299900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1067800</v>
+        <v>1919400</v>
       </c>
       <c r="E62" s="3">
-        <v>2092100</v>
+        <v>1042300</v>
       </c>
       <c r="F62" s="3">
-        <v>2188900</v>
+        <v>2041900</v>
       </c>
       <c r="G62" s="3">
-        <v>2862600</v>
+        <v>2136400</v>
       </c>
       <c r="H62" s="3">
-        <v>3052200</v>
+        <v>2794000</v>
       </c>
       <c r="I62" s="3">
-        <v>2960800</v>
+        <v>2979000</v>
       </c>
       <c r="J62" s="3">
+        <v>2889800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3663100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3223600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3039100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3586300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2214700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1977300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2066000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25309200</v>
+        <v>24758500</v>
       </c>
       <c r="E66" s="3">
-        <v>26295200</v>
+        <v>24833000</v>
       </c>
       <c r="F66" s="3">
-        <v>27499500</v>
+        <v>26483600</v>
       </c>
       <c r="G66" s="3">
-        <v>28639600</v>
+        <v>26840300</v>
       </c>
       <c r="H66" s="3">
-        <v>27588100</v>
+        <v>27953100</v>
       </c>
       <c r="I66" s="3">
-        <v>27200800</v>
+        <v>26926800</v>
       </c>
       <c r="J66" s="3">
+        <v>26548800</v>
+      </c>
+      <c r="K66" s="3">
         <v>19897700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19446400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17072500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17380500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13836100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14030500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14482100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6199800</v>
+        <v>6671500</v>
       </c>
       <c r="E72" s="3">
-        <v>7011200</v>
+        <v>6051200</v>
       </c>
       <c r="F72" s="3">
-        <v>7479000</v>
+        <v>6843200</v>
       </c>
       <c r="G72" s="3">
-        <v>7674000</v>
+        <v>7299800</v>
       </c>
       <c r="H72" s="3">
-        <v>7513100</v>
+        <v>7490100</v>
       </c>
       <c r="I72" s="3">
-        <v>6694800</v>
+        <v>7333000</v>
       </c>
       <c r="J72" s="3">
+        <v>6534400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7034400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6639700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6116600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5500900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5484600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5285100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5113100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9006500</v>
+        <v>9418900</v>
       </c>
       <c r="E76" s="3">
-        <v>9801600</v>
+        <v>8790600</v>
       </c>
       <c r="F76" s="3">
-        <v>10600700</v>
+        <v>9566600</v>
       </c>
       <c r="G76" s="3">
-        <v>10782100</v>
+        <v>10346600</v>
       </c>
       <c r="H76" s="3">
-        <v>10613000</v>
+        <v>10523700</v>
       </c>
       <c r="I76" s="3">
-        <v>9783800</v>
+        <v>10358600</v>
       </c>
       <c r="J76" s="3">
+        <v>9549300</v>
+      </c>
+      <c r="K76" s="3">
         <v>10107000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9816600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9076500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8395500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8301900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8101100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7293700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44457</v>
+      </c>
+      <c r="E80" s="2">
         <v>44261</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44093</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43897</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43729</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43533</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43365</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43169</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43001</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42805</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42637</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42441</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42273</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42077</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-141800</v>
+        <v>517800</v>
       </c>
       <c r="E81" s="3">
-        <v>-249600</v>
+        <v>-138400</v>
       </c>
       <c r="F81" s="3">
-        <v>242800</v>
+        <v>-243600</v>
       </c>
       <c r="G81" s="3">
-        <v>-66800</v>
+        <v>236900</v>
       </c>
       <c r="H81" s="3">
-        <v>75000</v>
+        <v>-65200</v>
       </c>
       <c r="I81" s="3">
-        <v>154100</v>
+        <v>73200</v>
       </c>
       <c r="J81" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K81" s="3">
         <v>184100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>220800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>92500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>373600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>256900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>234400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>801900</v>
+        <v>877200</v>
       </c>
       <c r="E83" s="3">
-        <v>901500</v>
+        <v>782700</v>
       </c>
       <c r="F83" s="3">
-        <v>803300</v>
+        <v>879900</v>
       </c>
       <c r="G83" s="3">
-        <v>909600</v>
+        <v>784000</v>
       </c>
       <c r="H83" s="3">
-        <v>792400</v>
+        <v>887800</v>
       </c>
       <c r="I83" s="3">
-        <v>928700</v>
+        <v>773400</v>
       </c>
       <c r="J83" s="3">
+        <v>906500</v>
+      </c>
+      <c r="K83" s="3">
         <v>503200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>512300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>397600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>422700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>360000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>401700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>343700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1134700</v>
+        <v>1215300</v>
       </c>
       <c r="E89" s="3">
-        <v>2060700</v>
+        <v>1107500</v>
       </c>
       <c r="F89" s="3">
-        <v>474600</v>
+        <v>2011300</v>
       </c>
       <c r="G89" s="3">
-        <v>1396500</v>
+        <v>463200</v>
       </c>
       <c r="H89" s="3">
-        <v>121400</v>
+        <v>1363000</v>
       </c>
       <c r="I89" s="3">
-        <v>1301100</v>
+        <v>118500</v>
       </c>
       <c r="J89" s="3">
+        <v>1269900</v>
+      </c>
+      <c r="K89" s="3">
         <v>782800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1119400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>537600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>964400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>189100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>322200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>675500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-226400</v>
+        <v>-205000</v>
       </c>
       <c r="E91" s="3">
-        <v>-350500</v>
+        <v>-221000</v>
       </c>
       <c r="F91" s="3">
-        <v>-417300</v>
+        <v>-342100</v>
       </c>
       <c r="G91" s="3">
-        <v>-290500</v>
+        <v>-407300</v>
       </c>
       <c r="H91" s="3">
-        <v>-325900</v>
+        <v>-283500</v>
       </c>
       <c r="I91" s="3">
-        <v>-320500</v>
+        <v>-318100</v>
       </c>
       <c r="J91" s="3">
+        <v>-312800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-380500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-399100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-431900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-396900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-373000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-469600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-583300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-395500</v>
+        <v>-374000</v>
       </c>
       <c r="E94" s="3">
-        <v>-358700</v>
+        <v>-386000</v>
       </c>
       <c r="F94" s="3">
-        <v>-454100</v>
+        <v>-350100</v>
       </c>
       <c r="G94" s="3">
-        <v>-126800</v>
+        <v>-443300</v>
       </c>
       <c r="H94" s="3">
-        <v>-355900</v>
+        <v>-123800</v>
       </c>
       <c r="I94" s="3">
-        <v>-290500</v>
+        <v>-347400</v>
       </c>
       <c r="J94" s="3">
+        <v>-283500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-261800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-393400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-394900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-583100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-113500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-408200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-454300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-31400</v>
+        <v>-5300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-30600</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-27300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>199600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-204800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,55 +4816,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-707800</v>
+        <v>-895800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1076000</v>
+        <v>-690800</v>
       </c>
       <c r="F100" s="3">
-        <v>-665500</v>
+        <v>-1050200</v>
       </c>
       <c r="G100" s="3">
-        <v>-796500</v>
+        <v>-649600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5500</v>
+        <v>-777400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1020100</v>
+        <v>-5300</v>
       </c>
       <c r="J100" s="3">
+        <v>-995700</v>
+      </c>
+      <c r="K100" s="3">
         <v>19100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-365100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-281300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-327100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-233500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>66500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-385800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4667,51 +4916,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31400</v>
+        <v>-54600</v>
       </c>
       <c r="E102" s="3">
-        <v>626000</v>
+        <v>30600</v>
       </c>
       <c r="F102" s="3">
-        <v>-645100</v>
+        <v>611000</v>
       </c>
       <c r="G102" s="3">
-        <v>473200</v>
+        <v>-629600</v>
       </c>
       <c r="H102" s="3">
-        <v>-466400</v>
+        <v>461900</v>
       </c>
       <c r="I102" s="3">
-        <v>-362800</v>
+        <v>-455200</v>
       </c>
       <c r="J102" s="3">
+        <v>-354100</v>
+      </c>
+      <c r="K102" s="3">
         <v>540100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>360900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-138700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>54300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-157800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-164600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20930200</v>
+        <v>20497600</v>
       </c>
       <c r="E8" s="3">
-        <v>18787100</v>
+        <v>18398900</v>
       </c>
       <c r="F8" s="3">
-        <v>19878600</v>
+        <v>19467800</v>
       </c>
       <c r="G8" s="3">
-        <v>18497000</v>
+        <v>18114700</v>
       </c>
       <c r="H8" s="3">
-        <v>20095600</v>
+        <v>19680300</v>
       </c>
       <c r="I8" s="3">
-        <v>18475700</v>
+        <v>18093800</v>
       </c>
       <c r="J8" s="3">
-        <v>20135500</v>
+        <v>19719400</v>
       </c>
       <c r="K8" s="3">
         <v>18836700</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19269000</v>
+        <v>18870800</v>
       </c>
       <c r="E9" s="3">
-        <v>17606500</v>
+        <v>17242600</v>
       </c>
       <c r="F9" s="3">
-        <v>18161500</v>
+        <v>17786200</v>
       </c>
       <c r="G9" s="3">
-        <v>16942200</v>
+        <v>16592100</v>
       </c>
       <c r="H9" s="3">
-        <v>18596800</v>
+        <v>18212500</v>
       </c>
       <c r="I9" s="3">
-        <v>16991500</v>
+        <v>16640300</v>
       </c>
       <c r="J9" s="3">
-        <v>18574200</v>
+        <v>18190300</v>
       </c>
       <c r="K9" s="3">
         <v>17614700</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1661200</v>
+        <v>1626900</v>
       </c>
       <c r="E10" s="3">
-        <v>1180700</v>
+        <v>1156300</v>
       </c>
       <c r="F10" s="3">
-        <v>1717100</v>
+        <v>1681600</v>
       </c>
       <c r="G10" s="3">
-        <v>1554700</v>
+        <v>1522600</v>
       </c>
       <c r="H10" s="3">
-        <v>1498800</v>
+        <v>1467800</v>
       </c>
       <c r="I10" s="3">
-        <v>1484200</v>
+        <v>1453500</v>
       </c>
       <c r="J10" s="3">
-        <v>1561400</v>
+        <v>1529100</v>
       </c>
       <c r="K10" s="3">
         <v>1222000</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-167700</v>
+        <v>-164300</v>
       </c>
       <c r="E14" s="3">
-        <v>242300</v>
+        <v>237300</v>
       </c>
       <c r="F14" s="3">
-        <v>580400</v>
+        <v>568400</v>
       </c>
       <c r="G14" s="3">
-        <v>147800</v>
+        <v>144700</v>
       </c>
       <c r="H14" s="3">
-        <v>298200</v>
+        <v>292000</v>
       </c>
       <c r="I14" s="3">
-        <v>34600</v>
+        <v>33900</v>
       </c>
       <c r="J14" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20019700</v>
+        <v>19606000</v>
       </c>
       <c r="E17" s="3">
-        <v>18756500</v>
+        <v>18368900</v>
       </c>
       <c r="F17" s="3">
-        <v>19800100</v>
+        <v>19390900</v>
       </c>
       <c r="G17" s="3">
-        <v>17928600</v>
+        <v>17558100</v>
       </c>
       <c r="H17" s="3">
-        <v>19760200</v>
+        <v>19351800</v>
       </c>
       <c r="I17" s="3">
-        <v>18113600</v>
+        <v>17739300</v>
       </c>
       <c r="J17" s="3">
-        <v>19709600</v>
+        <v>19302300</v>
       </c>
       <c r="K17" s="3">
         <v>18516200</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>910500</v>
+        <v>891700</v>
       </c>
       <c r="E18" s="3">
-        <v>30600</v>
+        <v>30000</v>
       </c>
       <c r="F18" s="3">
-        <v>78500</v>
+        <v>76900</v>
       </c>
       <c r="G18" s="3">
-        <v>568400</v>
+        <v>556600</v>
       </c>
       <c r="H18" s="3">
-        <v>335400</v>
+        <v>328500</v>
       </c>
       <c r="I18" s="3">
-        <v>362100</v>
+        <v>354600</v>
       </c>
       <c r="J18" s="3">
-        <v>426000</v>
+        <v>417100</v>
       </c>
       <c r="K18" s="3">
         <v>320500</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>37300</v>
+        <v>36500</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F20" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="G20" s="3">
-        <v>-10600</v>
+        <v>-10400</v>
       </c>
       <c r="H20" s="3">
-        <v>-46600</v>
+        <v>-45600</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="J20" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="K20" s="3">
         <v>8200</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1824900</v>
+        <v>1787200</v>
       </c>
       <c r="E21" s="3">
-        <v>817300</v>
+        <v>800400</v>
       </c>
       <c r="F21" s="3">
-        <v>951700</v>
+        <v>932100</v>
       </c>
       <c r="G21" s="3">
-        <v>1341700</v>
+        <v>1314000</v>
       </c>
       <c r="H21" s="3">
-        <v>1176700</v>
+        <v>1152400</v>
       </c>
       <c r="I21" s="3">
-        <v>1147400</v>
+        <v>1123700</v>
       </c>
       <c r="J21" s="3">
-        <v>1344400</v>
+        <v>1316600</v>
       </c>
       <c r="K21" s="3">
         <v>831900</v>
@@ -1355,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>227600</v>
+        <v>222900</v>
       </c>
       <c r="E22" s="3">
-        <v>199700</v>
+        <v>195500</v>
       </c>
       <c r="F22" s="3">
-        <v>254200</v>
+        <v>249000</v>
       </c>
       <c r="G22" s="3">
-        <v>230300</v>
+        <v>225500</v>
       </c>
       <c r="H22" s="3">
-        <v>276900</v>
+        <v>271100</v>
       </c>
       <c r="I22" s="3">
-        <v>247600</v>
+        <v>242500</v>
       </c>
       <c r="J22" s="3">
-        <v>295500</v>
+        <v>289400</v>
       </c>
       <c r="K22" s="3">
         <v>70900</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>720100</v>
+        <v>705200</v>
       </c>
       <c r="E23" s="3">
-        <v>-165100</v>
+        <v>-161600</v>
       </c>
       <c r="F23" s="3">
-        <v>-182400</v>
+        <v>-178600</v>
       </c>
       <c r="G23" s="3">
-        <v>327500</v>
+        <v>320700</v>
       </c>
       <c r="H23" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="I23" s="3">
-        <v>126500</v>
+        <v>123800</v>
       </c>
       <c r="J23" s="3">
-        <v>142400</v>
+        <v>139500</v>
       </c>
       <c r="K23" s="3">
         <v>257800</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>202300</v>
+        <v>198100</v>
       </c>
       <c r="E24" s="3">
-        <v>-30600</v>
+        <v>-30000</v>
       </c>
       <c r="F24" s="3">
-        <v>55900</v>
+        <v>54800</v>
       </c>
       <c r="G24" s="3">
-        <v>74500</v>
+        <v>73000</v>
       </c>
       <c r="H24" s="3">
-        <v>62600</v>
+        <v>61300</v>
       </c>
       <c r="I24" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="J24" s="3">
-        <v>-21300</v>
+        <v>-20900</v>
       </c>
       <c r="K24" s="3">
         <v>62700</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>517800</v>
+        <v>507100</v>
       </c>
       <c r="E26" s="3">
-        <v>-134400</v>
+        <v>-131700</v>
       </c>
       <c r="F26" s="3">
-        <v>-238300</v>
+        <v>-233300</v>
       </c>
       <c r="G26" s="3">
-        <v>252900</v>
+        <v>247700</v>
       </c>
       <c r="H26" s="3">
-        <v>-50600</v>
+        <v>-49500</v>
       </c>
       <c r="I26" s="3">
-        <v>83900</v>
+        <v>82100</v>
       </c>
       <c r="J26" s="3">
-        <v>163700</v>
+        <v>160300</v>
       </c>
       <c r="K26" s="3">
         <v>195000</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>517800</v>
+        <v>507100</v>
       </c>
       <c r="E27" s="3">
-        <v>-138400</v>
+        <v>-135600</v>
       </c>
       <c r="F27" s="3">
-        <v>-243600</v>
+        <v>-238600</v>
       </c>
       <c r="G27" s="3">
-        <v>236900</v>
+        <v>232000</v>
       </c>
       <c r="H27" s="3">
-        <v>-65200</v>
+        <v>-63900</v>
       </c>
       <c r="I27" s="3">
-        <v>73200</v>
+        <v>71700</v>
       </c>
       <c r="J27" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="K27" s="3">
         <v>184100</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-37300</v>
+        <v>-36500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F32" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G32" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="H32" s="3">
-        <v>46600</v>
+        <v>45600</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-11700</v>
       </c>
       <c r="J32" s="3">
-        <v>-12000</v>
+        <v>-11700</v>
       </c>
       <c r="K32" s="3">
         <v>-8200</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>517800</v>
+        <v>507100</v>
       </c>
       <c r="E33" s="3">
-        <v>-138400</v>
+        <v>-135600</v>
       </c>
       <c r="F33" s="3">
-        <v>-243600</v>
+        <v>-238600</v>
       </c>
       <c r="G33" s="3">
-        <v>236900</v>
+        <v>232000</v>
       </c>
       <c r="H33" s="3">
-        <v>-65200</v>
+        <v>-63900</v>
       </c>
       <c r="I33" s="3">
-        <v>73200</v>
+        <v>71700</v>
       </c>
       <c r="J33" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="K33" s="3">
         <v>184100</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>517800</v>
+        <v>507100</v>
       </c>
       <c r="E35" s="3">
-        <v>-138400</v>
+        <v>-135600</v>
       </c>
       <c r="F35" s="3">
-        <v>-243600</v>
+        <v>-238600</v>
       </c>
       <c r="G35" s="3">
-        <v>236900</v>
+        <v>232000</v>
       </c>
       <c r="H35" s="3">
-        <v>-65200</v>
+        <v>-63900</v>
       </c>
       <c r="I35" s="3">
-        <v>73200</v>
+        <v>71700</v>
       </c>
       <c r="J35" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="K35" s="3">
         <v>184100</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1446900</v>
+        <v>1417000</v>
       </c>
       <c r="E41" s="3">
-        <v>962400</v>
+        <v>942500</v>
       </c>
       <c r="F41" s="3">
-        <v>2204300</v>
+        <v>2158700</v>
       </c>
       <c r="G41" s="3">
-        <v>959700</v>
+        <v>939900</v>
       </c>
       <c r="H41" s="3">
-        <v>1472200</v>
+        <v>1441800</v>
       </c>
       <c r="I41" s="3">
-        <v>1082200</v>
+        <v>1059800</v>
       </c>
       <c r="J41" s="3">
-        <v>1195300</v>
+        <v>1170600</v>
       </c>
       <c r="K41" s="3">
         <v>1427900</v>
@@ -2200,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>879900</v>
+        <v>861700</v>
       </c>
       <c r="E42" s="3">
-        <v>1253900</v>
+        <v>1228000</v>
       </c>
       <c r="F42" s="3">
-        <v>629600</v>
+        <v>616600</v>
       </c>
       <c r="G42" s="3">
-        <v>472500</v>
+        <v>462800</v>
       </c>
       <c r="H42" s="3">
-        <v>724100</v>
+        <v>709200</v>
       </c>
       <c r="I42" s="3">
-        <v>690800</v>
+        <v>676600</v>
       </c>
       <c r="J42" s="3">
-        <v>1221900</v>
+        <v>1196700</v>
       </c>
       <c r="K42" s="3">
         <v>1208300</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4942400</v>
+        <v>4840200</v>
       </c>
       <c r="E43" s="3">
-        <v>9289700</v>
+        <v>9097800</v>
       </c>
       <c r="F43" s="3">
-        <v>9993900</v>
+        <v>9787400</v>
       </c>
       <c r="G43" s="3">
-        <v>6338700</v>
+        <v>6207700</v>
       </c>
       <c r="H43" s="3">
-        <v>5991300</v>
+        <v>5867500</v>
       </c>
       <c r="I43" s="3">
-        <v>5681100</v>
+        <v>5563700</v>
       </c>
       <c r="J43" s="3">
-        <v>5504100</v>
+        <v>5390300</v>
       </c>
       <c r="K43" s="3">
         <v>5597000</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2238900</v>
+        <v>2192600</v>
       </c>
       <c r="E44" s="3">
-        <v>2163000</v>
+        <v>2118300</v>
       </c>
       <c r="F44" s="3">
-        <v>2176300</v>
+        <v>2131400</v>
       </c>
       <c r="G44" s="3">
-        <v>2305500</v>
+        <v>2257800</v>
       </c>
       <c r="H44" s="3">
-        <v>2599600</v>
+        <v>2545900</v>
       </c>
       <c r="I44" s="3">
-        <v>2567700</v>
+        <v>2514600</v>
       </c>
       <c r="J44" s="3">
-        <v>2501100</v>
+        <v>2449400</v>
       </c>
       <c r="K44" s="3">
         <v>2468500</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F45" s="3">
-        <v>37300</v>
+        <v>36500</v>
       </c>
       <c r="G45" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="H45" s="3">
-        <v>54600</v>
+        <v>53400</v>
       </c>
       <c r="I45" s="3">
-        <v>28000</v>
+        <v>27400</v>
       </c>
       <c r="J45" s="3">
-        <v>62600</v>
+        <v>61300</v>
       </c>
       <c r="K45" s="3">
         <v>13600</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9534700</v>
+        <v>9337600</v>
       </c>
       <c r="E46" s="3">
-        <v>9513400</v>
+        <v>9316800</v>
       </c>
       <c r="F46" s="3">
-        <v>10542300</v>
+        <v>10324400</v>
       </c>
       <c r="G46" s="3">
-        <v>10092400</v>
+        <v>9883800</v>
       </c>
       <c r="H46" s="3">
-        <v>10841800</v>
+        <v>10617700</v>
       </c>
       <c r="I46" s="3">
-        <v>10049800</v>
+        <v>9842100</v>
       </c>
       <c r="J46" s="3">
-        <v>10485100</v>
+        <v>10268400</v>
       </c>
       <c r="K46" s="3">
         <v>10715300</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3637900</v>
+        <v>3562700</v>
       </c>
       <c r="E47" s="3">
-        <v>7146700</v>
+        <v>6999000</v>
       </c>
       <c r="F47" s="3">
-        <v>8710700</v>
+        <v>8530700</v>
       </c>
       <c r="G47" s="3">
-        <v>5959300</v>
+        <v>5836200</v>
       </c>
       <c r="H47" s="3">
-        <v>6039200</v>
+        <v>5914400</v>
       </c>
       <c r="I47" s="3">
-        <v>5665200</v>
+        <v>5548100</v>
       </c>
       <c r="J47" s="3">
-        <v>4738700</v>
+        <v>4640800</v>
       </c>
       <c r="K47" s="3">
         <v>4293200</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18154900</v>
+        <v>17779700</v>
       </c>
       <c r="E48" s="3">
-        <v>29179000</v>
+        <v>28576000</v>
       </c>
       <c r="F48" s="3">
-        <v>29651600</v>
+        <v>29038800</v>
       </c>
       <c r="G48" s="3">
-        <v>18285300</v>
+        <v>17907400</v>
       </c>
       <c r="H48" s="3">
-        <v>18397100</v>
+        <v>18016900</v>
       </c>
       <c r="I48" s="3">
-        <v>18883000</v>
+        <v>18492700</v>
       </c>
       <c r="J48" s="3">
-        <v>19086600</v>
+        <v>18692200</v>
       </c>
       <c r="K48" s="3">
         <v>13498800</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1332400</v>
+        <v>1304900</v>
       </c>
       <c r="E49" s="3">
-        <v>1216600</v>
+        <v>1191500</v>
       </c>
       <c r="F49" s="3">
-        <v>1142100</v>
+        <v>1118500</v>
       </c>
       <c r="G49" s="3">
-        <v>1347100</v>
+        <v>1319200</v>
       </c>
       <c r="H49" s="3">
-        <v>1341700</v>
+        <v>1314000</v>
       </c>
       <c r="I49" s="3">
-        <v>1388300</v>
+        <v>1359600</v>
       </c>
       <c r="J49" s="3">
-        <v>1399000</v>
+        <v>1370100</v>
       </c>
       <c r="K49" s="3">
         <v>1462000</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1517500</v>
+        <v>1486100</v>
       </c>
       <c r="E52" s="3">
-        <v>1032900</v>
+        <v>1011600</v>
       </c>
       <c r="F52" s="3">
-        <v>1355100</v>
+        <v>1327100</v>
       </c>
       <c r="G52" s="3">
-        <v>1502800</v>
+        <v>1471800</v>
       </c>
       <c r="H52" s="3">
-        <v>1856900</v>
+        <v>1818500</v>
       </c>
       <c r="I52" s="3">
-        <v>1299200</v>
+        <v>1272300</v>
       </c>
       <c r="J52" s="3">
-        <v>388700</v>
+        <v>380600</v>
       </c>
       <c r="K52" s="3">
         <v>35500</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34177300</v>
+        <v>33471000</v>
       </c>
       <c r="E54" s="3">
-        <v>33623600</v>
+        <v>32928700</v>
       </c>
       <c r="F54" s="3">
-        <v>36050200</v>
+        <v>35305100</v>
       </c>
       <c r="G54" s="3">
-        <v>37186900</v>
+        <v>36418400</v>
       </c>
       <c r="H54" s="3">
-        <v>38476800</v>
+        <v>37681600</v>
       </c>
       <c r="I54" s="3">
-        <v>37285400</v>
+        <v>36514900</v>
       </c>
       <c r="J54" s="3">
-        <v>36098100</v>
+        <v>35352100</v>
       </c>
       <c r="K54" s="3">
         <v>30004700</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6073800</v>
+        <v>5948300</v>
       </c>
       <c r="E57" s="3">
-        <v>5974000</v>
+        <v>5850500</v>
       </c>
       <c r="F57" s="3">
-        <v>6258800</v>
+        <v>6129500</v>
       </c>
       <c r="G57" s="3">
-        <v>5690500</v>
+        <v>5572800</v>
       </c>
       <c r="H57" s="3">
-        <v>6269500</v>
+        <v>6139900</v>
       </c>
       <c r="I57" s="3">
-        <v>5820900</v>
+        <v>5700600</v>
       </c>
       <c r="J57" s="3">
-        <v>6365300</v>
+        <v>6233800</v>
       </c>
       <c r="K57" s="3">
         <v>5894300</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1090200</v>
+        <v>1067600</v>
       </c>
       <c r="E58" s="3">
-        <v>1171400</v>
+        <v>1147200</v>
       </c>
       <c r="F58" s="3">
-        <v>1876900</v>
+        <v>1838100</v>
       </c>
       <c r="G58" s="3">
-        <v>742800</v>
+        <v>727400</v>
       </c>
       <c r="H58" s="3">
-        <v>1372400</v>
+        <v>1344000</v>
       </c>
       <c r="I58" s="3">
-        <v>1795700</v>
+        <v>1758500</v>
       </c>
       <c r="J58" s="3">
-        <v>1018300</v>
+        <v>997200</v>
       </c>
       <c r="K58" s="3">
         <v>870100</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7041500</v>
+        <v>6896000</v>
       </c>
       <c r="E59" s="3">
-        <v>8581600</v>
+        <v>8404200</v>
       </c>
       <c r="F59" s="3">
-        <v>8131700</v>
+        <v>7963600</v>
       </c>
       <c r="G59" s="3">
-        <v>9602600</v>
+        <v>9404100</v>
       </c>
       <c r="H59" s="3">
-        <v>9180600</v>
+        <v>8990900</v>
       </c>
       <c r="I59" s="3">
-        <v>8155600</v>
+        <v>7987100</v>
       </c>
       <c r="J59" s="3">
-        <v>7422200</v>
+        <v>7268800</v>
       </c>
       <c r="K59" s="3">
         <v>7285400</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14205500</v>
+        <v>13911900</v>
       </c>
       <c r="E60" s="3">
-        <v>15726900</v>
+        <v>15401900</v>
       </c>
       <c r="F60" s="3">
-        <v>16267400</v>
+        <v>15931200</v>
       </c>
       <c r="G60" s="3">
-        <v>16035800</v>
+        <v>15704300</v>
       </c>
       <c r="H60" s="3">
-        <v>16822400</v>
+        <v>16474800</v>
       </c>
       <c r="I60" s="3">
-        <v>15772200</v>
+        <v>15446200</v>
       </c>
       <c r="J60" s="3">
-        <v>14805800</v>
+        <v>14499800</v>
       </c>
       <c r="K60" s="3">
         <v>14049800</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8633500</v>
+        <v>8455100</v>
       </c>
       <c r="E61" s="3">
-        <v>8063800</v>
+        <v>7897100</v>
       </c>
       <c r="F61" s="3">
-        <v>8174300</v>
+        <v>8005300</v>
       </c>
       <c r="G61" s="3">
-        <v>8668100</v>
+        <v>8489000</v>
       </c>
       <c r="H61" s="3">
-        <v>8336700</v>
+        <v>8164400</v>
       </c>
       <c r="I61" s="3">
-        <v>8175600</v>
+        <v>8006600</v>
       </c>
       <c r="J61" s="3">
-        <v>8853100</v>
+        <v>8670200</v>
       </c>
       <c r="K61" s="3">
         <v>2184800</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1919400</v>
+        <v>1879800</v>
       </c>
       <c r="E62" s="3">
-        <v>1042300</v>
+        <v>1020700</v>
       </c>
       <c r="F62" s="3">
-        <v>2041900</v>
+        <v>1999700</v>
       </c>
       <c r="G62" s="3">
-        <v>2136400</v>
+        <v>2092300</v>
       </c>
       <c r="H62" s="3">
-        <v>2794000</v>
+        <v>2736200</v>
       </c>
       <c r="I62" s="3">
-        <v>2979000</v>
+        <v>2917400</v>
       </c>
       <c r="J62" s="3">
-        <v>2889800</v>
+        <v>2830100</v>
       </c>
       <c r="K62" s="3">
         <v>3663100</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24758500</v>
+        <v>24246800</v>
       </c>
       <c r="E66" s="3">
-        <v>24833000</v>
+        <v>24319800</v>
       </c>
       <c r="F66" s="3">
-        <v>26483600</v>
+        <v>25936200</v>
       </c>
       <c r="G66" s="3">
-        <v>26840300</v>
+        <v>26285600</v>
       </c>
       <c r="H66" s="3">
-        <v>27953100</v>
+        <v>27375400</v>
       </c>
       <c r="I66" s="3">
-        <v>26926800</v>
+        <v>26370300</v>
       </c>
       <c r="J66" s="3">
-        <v>26548800</v>
+        <v>26000100</v>
       </c>
       <c r="K66" s="3">
         <v>19897700</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6671500</v>
+        <v>6533600</v>
       </c>
       <c r="E72" s="3">
-        <v>6051200</v>
+        <v>5926100</v>
       </c>
       <c r="F72" s="3">
-        <v>6843200</v>
+        <v>6701800</v>
       </c>
       <c r="G72" s="3">
-        <v>7299800</v>
+        <v>7148900</v>
       </c>
       <c r="H72" s="3">
-        <v>7490100</v>
+        <v>7335300</v>
       </c>
       <c r="I72" s="3">
-        <v>7333000</v>
+        <v>7181500</v>
       </c>
       <c r="J72" s="3">
-        <v>6534400</v>
+        <v>6399300</v>
       </c>
       <c r="K72" s="3">
         <v>7034400</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9418900</v>
+        <v>9224200</v>
       </c>
       <c r="E76" s="3">
-        <v>8790600</v>
+        <v>8608900</v>
       </c>
       <c r="F76" s="3">
-        <v>9566600</v>
+        <v>9368900</v>
       </c>
       <c r="G76" s="3">
-        <v>10346600</v>
+        <v>10132800</v>
       </c>
       <c r="H76" s="3">
-        <v>10523700</v>
+        <v>10306200</v>
       </c>
       <c r="I76" s="3">
-        <v>10358600</v>
+        <v>10144500</v>
       </c>
       <c r="J76" s="3">
-        <v>9549300</v>
+        <v>9352000</v>
       </c>
       <c r="K76" s="3">
         <v>10107000</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>517800</v>
+        <v>507100</v>
       </c>
       <c r="E81" s="3">
-        <v>-138400</v>
+        <v>-135600</v>
       </c>
       <c r="F81" s="3">
-        <v>-243600</v>
+        <v>-238600</v>
       </c>
       <c r="G81" s="3">
-        <v>236900</v>
+        <v>232000</v>
       </c>
       <c r="H81" s="3">
-        <v>-65200</v>
+        <v>-63900</v>
       </c>
       <c r="I81" s="3">
-        <v>73200</v>
+        <v>71700</v>
       </c>
       <c r="J81" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="K81" s="3">
         <v>184100</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>877200</v>
+        <v>859100</v>
       </c>
       <c r="E83" s="3">
-        <v>782700</v>
+        <v>766500</v>
       </c>
       <c r="F83" s="3">
-        <v>879900</v>
+        <v>861700</v>
       </c>
       <c r="G83" s="3">
-        <v>784000</v>
+        <v>767800</v>
       </c>
       <c r="H83" s="3">
-        <v>887800</v>
+        <v>869500</v>
       </c>
       <c r="I83" s="3">
-        <v>773400</v>
+        <v>757400</v>
       </c>
       <c r="J83" s="3">
-        <v>906500</v>
+        <v>887700</v>
       </c>
       <c r="K83" s="3">
         <v>503200</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1215300</v>
+        <v>1190200</v>
       </c>
       <c r="E89" s="3">
-        <v>1107500</v>
+        <v>1084600</v>
       </c>
       <c r="F89" s="3">
-        <v>2011300</v>
+        <v>1969700</v>
       </c>
       <c r="G89" s="3">
-        <v>463200</v>
+        <v>453600</v>
       </c>
       <c r="H89" s="3">
-        <v>1363000</v>
+        <v>1334900</v>
       </c>
       <c r="I89" s="3">
-        <v>118500</v>
+        <v>116000</v>
       </c>
       <c r="J89" s="3">
-        <v>1269900</v>
+        <v>1243600</v>
       </c>
       <c r="K89" s="3">
         <v>782800</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-205000</v>
+        <v>-200800</v>
       </c>
       <c r="E91" s="3">
-        <v>-221000</v>
+        <v>-216400</v>
       </c>
       <c r="F91" s="3">
-        <v>-342100</v>
+        <v>-335000</v>
       </c>
       <c r="G91" s="3">
-        <v>-407300</v>
+        <v>-398900</v>
       </c>
       <c r="H91" s="3">
-        <v>-283500</v>
+        <v>-277700</v>
       </c>
       <c r="I91" s="3">
-        <v>-318100</v>
+        <v>-311600</v>
       </c>
       <c r="J91" s="3">
-        <v>-312800</v>
+        <v>-306300</v>
       </c>
       <c r="K91" s="3">
         <v>-380500</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-374000</v>
+        <v>-366300</v>
       </c>
       <c r="E94" s="3">
-        <v>-386000</v>
+        <v>-378000</v>
       </c>
       <c r="F94" s="3">
-        <v>-350100</v>
+        <v>-342800</v>
       </c>
       <c r="G94" s="3">
-        <v>-443300</v>
+        <v>-434100</v>
       </c>
       <c r="H94" s="3">
-        <v>-123800</v>
+        <v>-121200</v>
       </c>
       <c r="I94" s="3">
-        <v>-347400</v>
+        <v>-340200</v>
       </c>
       <c r="J94" s="3">
-        <v>-283500</v>
+        <v>-277700</v>
       </c>
       <c r="K94" s="3">
         <v>-261800</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E96" s="3">
-        <v>-30600</v>
+        <v>-30000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="H96" s="3">
-        <v>-26600</v>
+        <v>-26100</v>
       </c>
       <c r="I96" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J96" s="3">
-        <v>-26600</v>
+        <v>-26100</v>
       </c>
       <c r="K96" s="3">
         <v>-4100</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-895800</v>
+        <v>-877300</v>
       </c>
       <c r="E100" s="3">
-        <v>-690800</v>
+        <v>-676600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1050200</v>
+        <v>-1028500</v>
       </c>
       <c r="G100" s="3">
-        <v>-649600</v>
+        <v>-636200</v>
       </c>
       <c r="H100" s="3">
-        <v>-777400</v>
+        <v>-761300</v>
       </c>
       <c r="I100" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J100" s="3">
-        <v>-995700</v>
+        <v>-975100</v>
       </c>
       <c r="K100" s="3">
         <v>19100</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-54600</v>
+        <v>-53400</v>
       </c>
       <c r="E102" s="3">
-        <v>30600</v>
+        <v>30000</v>
       </c>
       <c r="F102" s="3">
-        <v>611000</v>
+        <v>598300</v>
       </c>
       <c r="G102" s="3">
-        <v>-629600</v>
+        <v>-616600</v>
       </c>
       <c r="H102" s="3">
-        <v>461900</v>
+        <v>452300</v>
       </c>
       <c r="I102" s="3">
-        <v>-455200</v>
+        <v>-445800</v>
       </c>
       <c r="J102" s="3">
-        <v>-354100</v>
+        <v>-346800</v>
       </c>
       <c r="K102" s="3">
         <v>540100</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20497600</v>
+        <v>19181700</v>
       </c>
       <c r="E8" s="3">
-        <v>18398900</v>
+        <v>17217700</v>
       </c>
       <c r="F8" s="3">
-        <v>19467800</v>
+        <v>18218000</v>
       </c>
       <c r="G8" s="3">
-        <v>18114700</v>
+        <v>16951700</v>
       </c>
       <c r="H8" s="3">
-        <v>19680300</v>
+        <v>18416800</v>
       </c>
       <c r="I8" s="3">
-        <v>18093800</v>
+        <v>16932200</v>
       </c>
       <c r="J8" s="3">
-        <v>19719400</v>
+        <v>18453400</v>
       </c>
       <c r="K8" s="3">
         <v>18836700</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18870800</v>
+        <v>17659300</v>
       </c>
       <c r="E9" s="3">
-        <v>17242600</v>
+        <v>16135600</v>
       </c>
       <c r="F9" s="3">
-        <v>17786200</v>
+        <v>16644300</v>
       </c>
       <c r="G9" s="3">
-        <v>16592100</v>
+        <v>15526900</v>
       </c>
       <c r="H9" s="3">
-        <v>18212500</v>
+        <v>17043200</v>
       </c>
       <c r="I9" s="3">
-        <v>16640300</v>
+        <v>15572000</v>
       </c>
       <c r="J9" s="3">
-        <v>18190300</v>
+        <v>17022500</v>
       </c>
       <c r="K9" s="3">
         <v>17614700</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1626900</v>
+        <v>1522400</v>
       </c>
       <c r="E10" s="3">
-        <v>1156300</v>
+        <v>1082100</v>
       </c>
       <c r="F10" s="3">
-        <v>1681600</v>
+        <v>1573700</v>
       </c>
       <c r="G10" s="3">
-        <v>1522600</v>
+        <v>1424800</v>
       </c>
       <c r="H10" s="3">
-        <v>1467800</v>
+        <v>1373600</v>
       </c>
       <c r="I10" s="3">
-        <v>1453500</v>
+        <v>1360200</v>
       </c>
       <c r="J10" s="3">
-        <v>1529100</v>
+        <v>1430900</v>
       </c>
       <c r="K10" s="3">
         <v>1222000</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-164300</v>
+        <v>-153700</v>
       </c>
       <c r="E14" s="3">
-        <v>237300</v>
+        <v>222000</v>
       </c>
       <c r="F14" s="3">
-        <v>568400</v>
+        <v>531900</v>
       </c>
       <c r="G14" s="3">
-        <v>144700</v>
+        <v>135400</v>
       </c>
       <c r="H14" s="3">
-        <v>292000</v>
+        <v>273300</v>
       </c>
       <c r="I14" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="J14" s="3">
-        <v>-18300</v>
+        <v>-17100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19606000</v>
+        <v>18347300</v>
       </c>
       <c r="E17" s="3">
-        <v>18368900</v>
+        <v>17189600</v>
       </c>
       <c r="F17" s="3">
-        <v>19390900</v>
+        <v>18146000</v>
       </c>
       <c r="G17" s="3">
-        <v>17558100</v>
+        <v>16430800</v>
       </c>
       <c r="H17" s="3">
-        <v>19351800</v>
+        <v>18109400</v>
       </c>
       <c r="I17" s="3">
-        <v>17739300</v>
+        <v>16600400</v>
       </c>
       <c r="J17" s="3">
-        <v>19302300</v>
+        <v>18063100</v>
       </c>
       <c r="K17" s="3">
         <v>18516200</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>891700</v>
+        <v>834400</v>
       </c>
       <c r="E18" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="F18" s="3">
-        <v>76900</v>
+        <v>72000</v>
       </c>
       <c r="G18" s="3">
-        <v>556600</v>
+        <v>520900</v>
       </c>
       <c r="H18" s="3">
-        <v>328500</v>
+        <v>307400</v>
       </c>
       <c r="I18" s="3">
-        <v>354600</v>
+        <v>331800</v>
       </c>
       <c r="J18" s="3">
-        <v>417100</v>
+        <v>390400</v>
       </c>
       <c r="K18" s="3">
         <v>320500</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>36500</v>
+        <v>34200</v>
       </c>
       <c r="E20" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="G20" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="H20" s="3">
-        <v>-45600</v>
+        <v>-42700</v>
       </c>
       <c r="I20" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="J20" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="K20" s="3">
         <v>8200</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1787200</v>
+        <v>1672500</v>
       </c>
       <c r="E21" s="3">
-        <v>800400</v>
+        <v>749000</v>
       </c>
       <c r="F21" s="3">
-        <v>932100</v>
+        <v>872200</v>
       </c>
       <c r="G21" s="3">
-        <v>1314000</v>
+        <v>1229700</v>
       </c>
       <c r="H21" s="3">
-        <v>1152400</v>
+        <v>1078400</v>
       </c>
       <c r="I21" s="3">
-        <v>1123700</v>
+        <v>1051600</v>
       </c>
       <c r="J21" s="3">
-        <v>1316600</v>
+        <v>1232100</v>
       </c>
       <c r="K21" s="3">
         <v>831900</v>
@@ -1355,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>222900</v>
+        <v>208600</v>
       </c>
       <c r="E22" s="3">
-        <v>195500</v>
+        <v>183000</v>
       </c>
       <c r="F22" s="3">
-        <v>249000</v>
+        <v>233000</v>
       </c>
       <c r="G22" s="3">
-        <v>225500</v>
+        <v>211000</v>
       </c>
       <c r="H22" s="3">
-        <v>271100</v>
+        <v>253700</v>
       </c>
       <c r="I22" s="3">
-        <v>242500</v>
+        <v>226900</v>
       </c>
       <c r="J22" s="3">
-        <v>289400</v>
+        <v>270800</v>
       </c>
       <c r="K22" s="3">
         <v>70900</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>705200</v>
+        <v>660000</v>
       </c>
       <c r="E23" s="3">
-        <v>-161600</v>
+        <v>-151300</v>
       </c>
       <c r="F23" s="3">
-        <v>-178600</v>
+        <v>-167100</v>
       </c>
       <c r="G23" s="3">
-        <v>320700</v>
+        <v>300100</v>
       </c>
       <c r="H23" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="I23" s="3">
-        <v>123800</v>
+        <v>115900</v>
       </c>
       <c r="J23" s="3">
-        <v>139500</v>
+        <v>130500</v>
       </c>
       <c r="K23" s="3">
         <v>257800</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>198100</v>
+        <v>185400</v>
       </c>
       <c r="E24" s="3">
-        <v>-30000</v>
+        <v>-28100</v>
       </c>
       <c r="F24" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="G24" s="3">
-        <v>73000</v>
+        <v>68300</v>
       </c>
       <c r="H24" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="I24" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="J24" s="3">
-        <v>-20900</v>
+        <v>-19500</v>
       </c>
       <c r="K24" s="3">
         <v>62700</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="E26" s="3">
-        <v>-131700</v>
+        <v>-123200</v>
       </c>
       <c r="F26" s="3">
-        <v>-233300</v>
+        <v>-218400</v>
       </c>
       <c r="G26" s="3">
-        <v>247700</v>
+        <v>231800</v>
       </c>
       <c r="H26" s="3">
-        <v>-49500</v>
+        <v>-46400</v>
       </c>
       <c r="I26" s="3">
-        <v>82100</v>
+        <v>76900</v>
       </c>
       <c r="J26" s="3">
-        <v>160300</v>
+        <v>150000</v>
       </c>
       <c r="K26" s="3">
         <v>195000</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="E27" s="3">
-        <v>-135600</v>
+        <v>-126900</v>
       </c>
       <c r="F27" s="3">
-        <v>-238600</v>
+        <v>-223200</v>
       </c>
       <c r="G27" s="3">
-        <v>232000</v>
+        <v>217100</v>
       </c>
       <c r="H27" s="3">
-        <v>-63900</v>
+        <v>-59800</v>
       </c>
       <c r="I27" s="3">
-        <v>71700</v>
+        <v>67100</v>
       </c>
       <c r="J27" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="K27" s="3">
         <v>184100</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-36500</v>
+        <v>-34200</v>
       </c>
       <c r="E32" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="G32" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="H32" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="I32" s="3">
-        <v>-11700</v>
+        <v>-11000</v>
       </c>
       <c r="J32" s="3">
-        <v>-11700</v>
+        <v>-11000</v>
       </c>
       <c r="K32" s="3">
         <v>-8200</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="E33" s="3">
-        <v>-135600</v>
+        <v>-126900</v>
       </c>
       <c r="F33" s="3">
-        <v>-238600</v>
+        <v>-223200</v>
       </c>
       <c r="G33" s="3">
-        <v>232000</v>
+        <v>217100</v>
       </c>
       <c r="H33" s="3">
-        <v>-63900</v>
+        <v>-59800</v>
       </c>
       <c r="I33" s="3">
-        <v>71700</v>
+        <v>67100</v>
       </c>
       <c r="J33" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="K33" s="3">
         <v>184100</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="E35" s="3">
-        <v>-135600</v>
+        <v>-126900</v>
       </c>
       <c r="F35" s="3">
-        <v>-238600</v>
+        <v>-223200</v>
       </c>
       <c r="G35" s="3">
-        <v>232000</v>
+        <v>217100</v>
       </c>
       <c r="H35" s="3">
-        <v>-63900</v>
+        <v>-59800</v>
       </c>
       <c r="I35" s="3">
-        <v>71700</v>
+        <v>67100</v>
       </c>
       <c r="J35" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="K35" s="3">
         <v>184100</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1417000</v>
+        <v>1326000</v>
       </c>
       <c r="E41" s="3">
-        <v>942500</v>
+        <v>882000</v>
       </c>
       <c r="F41" s="3">
-        <v>2158700</v>
+        <v>2020200</v>
       </c>
       <c r="G41" s="3">
-        <v>939900</v>
+        <v>879500</v>
       </c>
       <c r="H41" s="3">
-        <v>1441800</v>
+        <v>1349200</v>
       </c>
       <c r="I41" s="3">
-        <v>1059800</v>
+        <v>991800</v>
       </c>
       <c r="J41" s="3">
-        <v>1170600</v>
+        <v>1095500</v>
       </c>
       <c r="K41" s="3">
         <v>1427900</v>
@@ -2200,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>861700</v>
+        <v>806400</v>
       </c>
       <c r="E42" s="3">
-        <v>1228000</v>
+        <v>1149100</v>
       </c>
       <c r="F42" s="3">
-        <v>616600</v>
+        <v>577000</v>
       </c>
       <c r="G42" s="3">
-        <v>462800</v>
+        <v>433100</v>
       </c>
       <c r="H42" s="3">
-        <v>709200</v>
+        <v>663600</v>
       </c>
       <c r="I42" s="3">
-        <v>676600</v>
+        <v>633100</v>
       </c>
       <c r="J42" s="3">
-        <v>1196700</v>
+        <v>1119900</v>
       </c>
       <c r="K42" s="3">
         <v>1208300</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4840200</v>
+        <v>4529500</v>
       </c>
       <c r="E43" s="3">
-        <v>9097800</v>
+        <v>8513700</v>
       </c>
       <c r="F43" s="3">
-        <v>9787400</v>
+        <v>9159000</v>
       </c>
       <c r="G43" s="3">
-        <v>6207700</v>
+        <v>5809200</v>
       </c>
       <c r="H43" s="3">
-        <v>5867500</v>
+        <v>5490800</v>
       </c>
       <c r="I43" s="3">
-        <v>5563700</v>
+        <v>5206500</v>
       </c>
       <c r="J43" s="3">
-        <v>5390300</v>
+        <v>5044300</v>
       </c>
       <c r="K43" s="3">
         <v>5597000</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2192600</v>
+        <v>2051900</v>
       </c>
       <c r="E44" s="3">
-        <v>2118300</v>
+        <v>1982300</v>
       </c>
       <c r="F44" s="3">
-        <v>2131400</v>
+        <v>1994500</v>
       </c>
       <c r="G44" s="3">
-        <v>2257800</v>
+        <v>2112900</v>
       </c>
       <c r="H44" s="3">
-        <v>2545900</v>
+        <v>2382500</v>
       </c>
       <c r="I44" s="3">
-        <v>2514600</v>
+        <v>2353200</v>
       </c>
       <c r="J44" s="3">
-        <v>2449400</v>
+        <v>2292200</v>
       </c>
       <c r="K44" s="3">
         <v>2468500</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="E45" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3">
-        <v>36500</v>
+        <v>34200</v>
       </c>
       <c r="G45" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3">
-        <v>53400</v>
+        <v>50000</v>
       </c>
       <c r="I45" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="J45" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="K45" s="3">
         <v>13600</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9337600</v>
+        <v>8738100</v>
       </c>
       <c r="E46" s="3">
-        <v>9316800</v>
+        <v>8718600</v>
       </c>
       <c r="F46" s="3">
-        <v>10324400</v>
+        <v>9661600</v>
       </c>
       <c r="G46" s="3">
-        <v>9883800</v>
+        <v>9249300</v>
       </c>
       <c r="H46" s="3">
-        <v>10617700</v>
+        <v>9936100</v>
       </c>
       <c r="I46" s="3">
-        <v>9842100</v>
+        <v>9210200</v>
       </c>
       <c r="J46" s="3">
-        <v>10268400</v>
+        <v>9609200</v>
       </c>
       <c r="K46" s="3">
         <v>10715300</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3562700</v>
+        <v>3334000</v>
       </c>
       <c r="E47" s="3">
-        <v>6999000</v>
+        <v>6549600</v>
       </c>
       <c r="F47" s="3">
-        <v>8530700</v>
+        <v>7983000</v>
       </c>
       <c r="G47" s="3">
-        <v>5836200</v>
+        <v>5461500</v>
       </c>
       <c r="H47" s="3">
-        <v>5914400</v>
+        <v>5534700</v>
       </c>
       <c r="I47" s="3">
-        <v>5548100</v>
+        <v>5191900</v>
       </c>
       <c r="J47" s="3">
-        <v>4640800</v>
+        <v>4342800</v>
       </c>
       <c r="K47" s="3">
         <v>4293200</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17779700</v>
+        <v>16638200</v>
       </c>
       <c r="E48" s="3">
-        <v>28576000</v>
+        <v>26741400</v>
       </c>
       <c r="F48" s="3">
-        <v>29038800</v>
+        <v>27174500</v>
       </c>
       <c r="G48" s="3">
-        <v>17907400</v>
+        <v>16757800</v>
       </c>
       <c r="H48" s="3">
-        <v>18016900</v>
+        <v>16860200</v>
       </c>
       <c r="I48" s="3">
-        <v>18492700</v>
+        <v>17305500</v>
       </c>
       <c r="J48" s="3">
-        <v>18692200</v>
+        <v>17492100</v>
       </c>
       <c r="K48" s="3">
         <v>13498800</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1304900</v>
+        <v>1221100</v>
       </c>
       <c r="E49" s="3">
-        <v>1191500</v>
+        <v>1115000</v>
       </c>
       <c r="F49" s="3">
-        <v>1118500</v>
+        <v>1046700</v>
       </c>
       <c r="G49" s="3">
-        <v>1319200</v>
+        <v>1234500</v>
       </c>
       <c r="H49" s="3">
-        <v>1314000</v>
+        <v>1229700</v>
       </c>
       <c r="I49" s="3">
-        <v>1359600</v>
+        <v>1272400</v>
       </c>
       <c r="J49" s="3">
-        <v>1370100</v>
+        <v>1282100</v>
       </c>
       <c r="K49" s="3">
         <v>1462000</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1486100</v>
+        <v>1390700</v>
       </c>
       <c r="E52" s="3">
-        <v>1011600</v>
+        <v>946600</v>
       </c>
       <c r="F52" s="3">
-        <v>1327100</v>
+        <v>1241900</v>
       </c>
       <c r="G52" s="3">
-        <v>1471800</v>
+        <v>1377300</v>
       </c>
       <c r="H52" s="3">
-        <v>1818500</v>
+        <v>1701800</v>
       </c>
       <c r="I52" s="3">
-        <v>1272300</v>
+        <v>1190600</v>
       </c>
       <c r="J52" s="3">
-        <v>380600</v>
+        <v>356200</v>
       </c>
       <c r="K52" s="3">
         <v>35500</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33471000</v>
+        <v>31322200</v>
       </c>
       <c r="E54" s="3">
-        <v>32928700</v>
+        <v>30814700</v>
       </c>
       <c r="F54" s="3">
-        <v>35305100</v>
+        <v>33038600</v>
       </c>
       <c r="G54" s="3">
-        <v>36418400</v>
+        <v>34080300</v>
       </c>
       <c r="H54" s="3">
-        <v>37681600</v>
+        <v>35262400</v>
       </c>
       <c r="I54" s="3">
-        <v>36514900</v>
+        <v>34170600</v>
       </c>
       <c r="J54" s="3">
-        <v>35352100</v>
+        <v>33082500</v>
       </c>
       <c r="K54" s="3">
         <v>30004700</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5948300</v>
+        <v>5566400</v>
       </c>
       <c r="E57" s="3">
-        <v>5850500</v>
+        <v>5474900</v>
       </c>
       <c r="F57" s="3">
-        <v>6129500</v>
+        <v>5736000</v>
       </c>
       <c r="G57" s="3">
-        <v>5572800</v>
+        <v>5215100</v>
       </c>
       <c r="H57" s="3">
-        <v>6139900</v>
+        <v>5745700</v>
       </c>
       <c r="I57" s="3">
-        <v>5700600</v>
+        <v>5334600</v>
       </c>
       <c r="J57" s="3">
-        <v>6233800</v>
+        <v>5833600</v>
       </c>
       <c r="K57" s="3">
         <v>5894300</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1067600</v>
+        <v>999100</v>
       </c>
       <c r="E58" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="F58" s="3">
-        <v>1838100</v>
+        <v>1720100</v>
       </c>
       <c r="G58" s="3">
-        <v>727400</v>
+        <v>680700</v>
       </c>
       <c r="H58" s="3">
-        <v>1344000</v>
+        <v>1257700</v>
       </c>
       <c r="I58" s="3">
-        <v>1758500</v>
+        <v>1645600</v>
       </c>
       <c r="J58" s="3">
-        <v>997200</v>
+        <v>933200</v>
       </c>
       <c r="K58" s="3">
         <v>870100</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6896000</v>
+        <v>6453300</v>
       </c>
       <c r="E59" s="3">
-        <v>8404200</v>
+        <v>7864700</v>
       </c>
       <c r="F59" s="3">
-        <v>7963600</v>
+        <v>7452400</v>
       </c>
       <c r="G59" s="3">
-        <v>9404100</v>
+        <v>8800400</v>
       </c>
       <c r="H59" s="3">
-        <v>8990900</v>
+        <v>8413700</v>
       </c>
       <c r="I59" s="3">
-        <v>7987100</v>
+        <v>7474300</v>
       </c>
       <c r="J59" s="3">
-        <v>7268800</v>
+        <v>6802200</v>
       </c>
       <c r="K59" s="3">
         <v>7285400</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13911900</v>
+        <v>13018800</v>
       </c>
       <c r="E60" s="3">
-        <v>15401900</v>
+        <v>14413100</v>
       </c>
       <c r="F60" s="3">
-        <v>15931200</v>
+        <v>14908400</v>
       </c>
       <c r="G60" s="3">
-        <v>15704300</v>
+        <v>14696100</v>
       </c>
       <c r="H60" s="3">
-        <v>16474800</v>
+        <v>15417100</v>
       </c>
       <c r="I60" s="3">
-        <v>15446200</v>
+        <v>14454600</v>
       </c>
       <c r="J60" s="3">
-        <v>14499800</v>
+        <v>13568900</v>
       </c>
       <c r="K60" s="3">
         <v>14049800</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8455100</v>
+        <v>7912300</v>
       </c>
       <c r="E61" s="3">
-        <v>7897100</v>
+        <v>7390200</v>
       </c>
       <c r="F61" s="3">
-        <v>8005300</v>
+        <v>7491400</v>
       </c>
       <c r="G61" s="3">
-        <v>8489000</v>
+        <v>7944000</v>
       </c>
       <c r="H61" s="3">
-        <v>8164400</v>
+        <v>7640200</v>
       </c>
       <c r="I61" s="3">
-        <v>8006600</v>
+        <v>7492600</v>
       </c>
       <c r="J61" s="3">
-        <v>8670200</v>
+        <v>8113600</v>
       </c>
       <c r="K61" s="3">
         <v>2184800</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1879800</v>
+        <v>1759100</v>
       </c>
       <c r="E62" s="3">
-        <v>1020700</v>
+        <v>955200</v>
       </c>
       <c r="F62" s="3">
-        <v>1999700</v>
+        <v>1871300</v>
       </c>
       <c r="G62" s="3">
-        <v>2092300</v>
+        <v>1957900</v>
       </c>
       <c r="H62" s="3">
-        <v>2736200</v>
+        <v>2560600</v>
       </c>
       <c r="I62" s="3">
-        <v>2917400</v>
+        <v>2730100</v>
       </c>
       <c r="J62" s="3">
-        <v>2830100</v>
+        <v>2648400</v>
       </c>
       <c r="K62" s="3">
         <v>3663100</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24246800</v>
+        <v>22690100</v>
       </c>
       <c r="E66" s="3">
-        <v>24319800</v>
+        <v>22758500</v>
       </c>
       <c r="F66" s="3">
-        <v>25936200</v>
+        <v>24271100</v>
       </c>
       <c r="G66" s="3">
-        <v>26285600</v>
+        <v>24598100</v>
       </c>
       <c r="H66" s="3">
-        <v>27375400</v>
+        <v>25617900</v>
       </c>
       <c r="I66" s="3">
-        <v>26370300</v>
+        <v>24677400</v>
       </c>
       <c r="J66" s="3">
-        <v>26000100</v>
+        <v>24330900</v>
       </c>
       <c r="K66" s="3">
         <v>19897700</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6533600</v>
+        <v>6114100</v>
       </c>
       <c r="E72" s="3">
-        <v>5926100</v>
+        <v>5545700</v>
       </c>
       <c r="F72" s="3">
-        <v>6701800</v>
+        <v>6271500</v>
       </c>
       <c r="G72" s="3">
-        <v>7148900</v>
+        <v>6689900</v>
       </c>
       <c r="H72" s="3">
-        <v>7335300</v>
+        <v>6864400</v>
       </c>
       <c r="I72" s="3">
-        <v>7181500</v>
+        <v>6720400</v>
       </c>
       <c r="J72" s="3">
-        <v>6399300</v>
+        <v>5988500</v>
       </c>
       <c r="K72" s="3">
         <v>7034400</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9224200</v>
+        <v>8632000</v>
       </c>
       <c r="E76" s="3">
-        <v>8608900</v>
+        <v>8056200</v>
       </c>
       <c r="F76" s="3">
-        <v>9368900</v>
+        <v>8767400</v>
       </c>
       <c r="G76" s="3">
-        <v>10132800</v>
+        <v>9482300</v>
       </c>
       <c r="H76" s="3">
-        <v>10306200</v>
+        <v>9644500</v>
       </c>
       <c r="I76" s="3">
-        <v>10144500</v>
+        <v>9493300</v>
       </c>
       <c r="J76" s="3">
-        <v>9352000</v>
+        <v>8751600</v>
       </c>
       <c r="K76" s="3">
         <v>10107000</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="E81" s="3">
-        <v>-135600</v>
+        <v>-126900</v>
       </c>
       <c r="F81" s="3">
-        <v>-238600</v>
+        <v>-223200</v>
       </c>
       <c r="G81" s="3">
-        <v>232000</v>
+        <v>217100</v>
       </c>
       <c r="H81" s="3">
-        <v>-63900</v>
+        <v>-59800</v>
       </c>
       <c r="I81" s="3">
-        <v>71700</v>
+        <v>67100</v>
       </c>
       <c r="J81" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="K81" s="3">
         <v>184100</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>859100</v>
+        <v>803900</v>
       </c>
       <c r="E83" s="3">
-        <v>766500</v>
+        <v>717300</v>
       </c>
       <c r="F83" s="3">
-        <v>861700</v>
+        <v>806400</v>
       </c>
       <c r="G83" s="3">
-        <v>767800</v>
+        <v>718500</v>
       </c>
       <c r="H83" s="3">
-        <v>869500</v>
+        <v>813700</v>
       </c>
       <c r="I83" s="3">
-        <v>757400</v>
+        <v>708800</v>
       </c>
       <c r="J83" s="3">
-        <v>887700</v>
+        <v>830800</v>
       </c>
       <c r="K83" s="3">
         <v>503200</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1190200</v>
+        <v>1113800</v>
       </c>
       <c r="E89" s="3">
-        <v>1084600</v>
+        <v>1015000</v>
       </c>
       <c r="F89" s="3">
-        <v>1969700</v>
+        <v>1843300</v>
       </c>
       <c r="G89" s="3">
-        <v>453600</v>
+        <v>424500</v>
       </c>
       <c r="H89" s="3">
-        <v>1334900</v>
+        <v>1249200</v>
       </c>
       <c r="I89" s="3">
-        <v>116000</v>
+        <v>108600</v>
       </c>
       <c r="J89" s="3">
-        <v>1243600</v>
+        <v>1163800</v>
       </c>
       <c r="K89" s="3">
         <v>782800</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200800</v>
+        <v>-187900</v>
       </c>
       <c r="E91" s="3">
-        <v>-216400</v>
+        <v>-202500</v>
       </c>
       <c r="F91" s="3">
-        <v>-335000</v>
+        <v>-313500</v>
       </c>
       <c r="G91" s="3">
-        <v>-398900</v>
+        <v>-373300</v>
       </c>
       <c r="H91" s="3">
-        <v>-277700</v>
+        <v>-259800</v>
       </c>
       <c r="I91" s="3">
-        <v>-311600</v>
+        <v>-291600</v>
       </c>
       <c r="J91" s="3">
-        <v>-306300</v>
+        <v>-286700</v>
       </c>
       <c r="K91" s="3">
         <v>-380500</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-366300</v>
+        <v>-342800</v>
       </c>
       <c r="E94" s="3">
-        <v>-378000</v>
+        <v>-353800</v>
       </c>
       <c r="F94" s="3">
-        <v>-342800</v>
+        <v>-320800</v>
       </c>
       <c r="G94" s="3">
-        <v>-434100</v>
+        <v>-406200</v>
       </c>
       <c r="H94" s="3">
-        <v>-121200</v>
+        <v>-113500</v>
       </c>
       <c r="I94" s="3">
-        <v>-340200</v>
+        <v>-318400</v>
       </c>
       <c r="J94" s="3">
-        <v>-277700</v>
+        <v>-259800</v>
       </c>
       <c r="K94" s="3">
         <v>-261800</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="E96" s="3">
-        <v>-30000</v>
+        <v>-28100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="H96" s="3">
-        <v>-26100</v>
+        <v>-24400</v>
       </c>
       <c r="I96" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="J96" s="3">
-        <v>-26100</v>
+        <v>-24400</v>
       </c>
       <c r="K96" s="3">
         <v>-4100</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-877300</v>
+        <v>-821000</v>
       </c>
       <c r="E100" s="3">
-        <v>-676600</v>
+        <v>-633100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1028500</v>
+        <v>-962500</v>
       </c>
       <c r="G100" s="3">
-        <v>-636200</v>
+        <v>-595300</v>
       </c>
       <c r="H100" s="3">
-        <v>-761300</v>
+        <v>-712400</v>
       </c>
       <c r="I100" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="J100" s="3">
-        <v>-975100</v>
+        <v>-912500</v>
       </c>
       <c r="K100" s="3">
         <v>19100</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-53400</v>
+        <v>-50000</v>
       </c>
       <c r="E102" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="F102" s="3">
-        <v>598300</v>
+        <v>559900</v>
       </c>
       <c r="G102" s="3">
-        <v>-616600</v>
+        <v>-577000</v>
       </c>
       <c r="H102" s="3">
-        <v>452300</v>
+        <v>423300</v>
       </c>
       <c r="I102" s="3">
-        <v>-445800</v>
+        <v>-417200</v>
       </c>
       <c r="J102" s="3">
-        <v>-346800</v>
+        <v>-324500</v>
       </c>
       <c r="K102" s="3">
         <v>540100</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E7" s="2">
         <v>44457</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44261</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44093</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43897</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43533</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43365</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43169</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42805</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42637</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42441</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42273</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42077</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19181700</v>
+        <v>16762900</v>
       </c>
       <c r="E8" s="3">
-        <v>17217700</v>
+        <v>18599900</v>
       </c>
       <c r="F8" s="3">
-        <v>18218000</v>
+        <v>16695500</v>
       </c>
       <c r="G8" s="3">
-        <v>16951700</v>
+        <v>17665400</v>
       </c>
       <c r="H8" s="3">
-        <v>18416800</v>
+        <v>16437600</v>
       </c>
       <c r="I8" s="3">
-        <v>16932200</v>
+        <v>17858200</v>
       </c>
       <c r="J8" s="3">
+        <v>16418700</v>
+      </c>
+      <c r="K8" s="3">
         <v>18453400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18836700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20722900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17939000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16343700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14460900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16198200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14626900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17659300</v>
+        <v>15451000</v>
       </c>
       <c r="E9" s="3">
-        <v>16135600</v>
+        <v>17123700</v>
       </c>
       <c r="F9" s="3">
-        <v>16644300</v>
+        <v>15645000</v>
       </c>
       <c r="G9" s="3">
-        <v>15526900</v>
+        <v>16139500</v>
       </c>
       <c r="H9" s="3">
-        <v>17043200</v>
+        <v>15056000</v>
       </c>
       <c r="I9" s="3">
-        <v>15572000</v>
+        <v>16526300</v>
       </c>
       <c r="J9" s="3">
+        <v>15099700</v>
+      </c>
+      <c r="K9" s="3">
         <v>17022500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17614700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19327600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16791200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15354700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13549200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15210900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13693300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1522400</v>
+        <v>1311800</v>
       </c>
       <c r="E10" s="3">
-        <v>1082100</v>
+        <v>1476300</v>
       </c>
       <c r="F10" s="3">
-        <v>1573700</v>
+        <v>1050400</v>
       </c>
       <c r="G10" s="3">
-        <v>1424800</v>
+        <v>1525900</v>
       </c>
       <c r="H10" s="3">
-        <v>1373600</v>
+        <v>1381600</v>
       </c>
       <c r="I10" s="3">
-        <v>1360200</v>
+        <v>1331900</v>
       </c>
       <c r="J10" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1430900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1222000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1395300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1147800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>989000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>911700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>987400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>933600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,34 +1029,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-153700</v>
+        <v>26000</v>
       </c>
       <c r="E14" s="3">
-        <v>222000</v>
+        <v>-149000</v>
       </c>
       <c r="F14" s="3">
-        <v>531900</v>
+        <v>101700</v>
       </c>
       <c r="G14" s="3">
-        <v>135400</v>
+        <v>515700</v>
       </c>
       <c r="H14" s="3">
-        <v>273300</v>
+        <v>131300</v>
       </c>
       <c r="I14" s="3">
-        <v>31700</v>
+        <v>265000</v>
       </c>
       <c r="J14" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1050,8 +1070,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1062,8 +1082,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18347300</v>
+        <v>16198600</v>
       </c>
       <c r="E17" s="3">
-        <v>17189600</v>
+        <v>17790800</v>
       </c>
       <c r="F17" s="3">
-        <v>18146000</v>
+        <v>16558200</v>
       </c>
       <c r="G17" s="3">
-        <v>16430800</v>
+        <v>17595600</v>
       </c>
       <c r="H17" s="3">
-        <v>18109400</v>
+        <v>15932500</v>
       </c>
       <c r="I17" s="3">
-        <v>16600400</v>
+        <v>17560200</v>
       </c>
       <c r="J17" s="3">
+        <v>16096900</v>
+      </c>
+      <c r="K17" s="3">
         <v>18063100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18516200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20322400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17694600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15752900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14090500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15646500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14212100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>834400</v>
+        <v>564200</v>
       </c>
       <c r="E18" s="3">
-        <v>28100</v>
+        <v>809100</v>
       </c>
       <c r="F18" s="3">
-        <v>72000</v>
+        <v>137200</v>
       </c>
       <c r="G18" s="3">
-        <v>520900</v>
+        <v>69800</v>
       </c>
       <c r="H18" s="3">
-        <v>307400</v>
+        <v>505100</v>
       </c>
       <c r="I18" s="3">
-        <v>331800</v>
+        <v>298100</v>
       </c>
       <c r="J18" s="3">
+        <v>321700</v>
+      </c>
+      <c r="K18" s="3">
         <v>390400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>320500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>244300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>590800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>370400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>551700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>414800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>34200</v>
+        <v>-28400</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>33100</v>
       </c>
       <c r="F20" s="3">
-        <v>-6100</v>
+        <v>9500</v>
       </c>
       <c r="G20" s="3">
-        <v>-9800</v>
+        <v>-5900</v>
       </c>
       <c r="H20" s="3">
-        <v>-42700</v>
+        <v>-9500</v>
       </c>
       <c r="I20" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>11000</v>
       </c>
-      <c r="J20" s="3">
-        <v>11000</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-29700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-48700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1672500</v>
+        <v>1199500</v>
       </c>
       <c r="E21" s="3">
-        <v>749000</v>
+        <v>1621800</v>
       </c>
       <c r="F21" s="3">
-        <v>872200</v>
+        <v>842200</v>
       </c>
       <c r="G21" s="3">
-        <v>1229700</v>
+        <v>845800</v>
       </c>
       <c r="H21" s="3">
-        <v>1078400</v>
+        <v>1192400</v>
       </c>
       <c r="I21" s="3">
-        <v>1051600</v>
+        <v>1045700</v>
       </c>
       <c r="J21" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1232100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>831900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>904300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>639300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>983800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>705600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>927400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>709700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>208600</v>
+        <v>165600</v>
       </c>
       <c r="E22" s="3">
-        <v>183000</v>
+        <v>202300</v>
       </c>
       <c r="F22" s="3">
-        <v>233000</v>
+        <v>177400</v>
       </c>
       <c r="G22" s="3">
-        <v>211000</v>
+        <v>225900</v>
       </c>
       <c r="H22" s="3">
-        <v>253700</v>
+        <v>204600</v>
       </c>
       <c r="I22" s="3">
-        <v>226900</v>
+        <v>246000</v>
       </c>
       <c r="J22" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K22" s="3">
         <v>270800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>80200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>73000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>83500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>79000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>660000</v>
+        <v>370200</v>
       </c>
       <c r="E23" s="3">
-        <v>-151300</v>
+        <v>639900</v>
       </c>
       <c r="F23" s="3">
-        <v>-167100</v>
+        <v>-30800</v>
       </c>
       <c r="G23" s="3">
-        <v>300100</v>
+        <v>-162100</v>
       </c>
       <c r="H23" s="3">
-        <v>11000</v>
+        <v>291000</v>
       </c>
       <c r="I23" s="3">
-        <v>115900</v>
+        <v>10600</v>
       </c>
       <c r="J23" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K23" s="3">
         <v>130500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>257800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>311300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>173000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>480900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>272600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>442200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>287100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>185400</v>
+        <v>29600</v>
       </c>
       <c r="E24" s="3">
-        <v>-28100</v>
+        <v>179800</v>
       </c>
       <c r="F24" s="3">
-        <v>51200</v>
+        <v>-5900</v>
       </c>
       <c r="G24" s="3">
-        <v>68300</v>
+        <v>49700</v>
       </c>
       <c r="H24" s="3">
-        <v>57300</v>
+        <v>66200</v>
       </c>
       <c r="I24" s="3">
-        <v>39000</v>
+        <v>55600</v>
       </c>
       <c r="J24" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-19500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>62700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>76400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>70000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>94400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>97800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>52700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>474500</v>
+        <v>340700</v>
       </c>
       <c r="E26" s="3">
-        <v>-123200</v>
+        <v>460100</v>
       </c>
       <c r="F26" s="3">
-        <v>-218400</v>
+        <v>-24800</v>
       </c>
       <c r="G26" s="3">
-        <v>231800</v>
+        <v>-211700</v>
       </c>
       <c r="H26" s="3">
-        <v>-46400</v>
+        <v>224800</v>
       </c>
       <c r="I26" s="3">
-        <v>76900</v>
+        <v>-45000</v>
       </c>
       <c r="J26" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K26" s="3">
         <v>150000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>195000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>234900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>386600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>270000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>344300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>234400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474500</v>
+        <v>340700</v>
       </c>
       <c r="E27" s="3">
-        <v>-126900</v>
+        <v>460100</v>
       </c>
       <c r="F27" s="3">
-        <v>-223200</v>
+        <v>-28400</v>
       </c>
       <c r="G27" s="3">
-        <v>217100</v>
+        <v>-216500</v>
       </c>
       <c r="H27" s="3">
-        <v>-59800</v>
+        <v>210600</v>
       </c>
       <c r="I27" s="3">
-        <v>67100</v>
+        <v>-58000</v>
       </c>
       <c r="J27" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K27" s="3">
         <v>137800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>184100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>220800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>92500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>373600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>256900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>341700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>234400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-34200</v>
+        <v>28400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>-33100</v>
       </c>
       <c r="F32" s="3">
-        <v>6100</v>
+        <v>-9500</v>
       </c>
       <c r="G32" s="3">
-        <v>9800</v>
+        <v>5900</v>
       </c>
       <c r="H32" s="3">
-        <v>42700</v>
+        <v>9500</v>
       </c>
       <c r="I32" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11000</v>
       </c>
-      <c r="J32" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>29700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>48700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>474500</v>
+        <v>340700</v>
       </c>
       <c r="E33" s="3">
-        <v>-126900</v>
+        <v>460100</v>
       </c>
       <c r="F33" s="3">
-        <v>-223200</v>
+        <v>-28400</v>
       </c>
       <c r="G33" s="3">
-        <v>217100</v>
+        <v>-216500</v>
       </c>
       <c r="H33" s="3">
-        <v>-59800</v>
+        <v>210600</v>
       </c>
       <c r="I33" s="3">
-        <v>67100</v>
+        <v>-58000</v>
       </c>
       <c r="J33" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K33" s="3">
         <v>137800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>184100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>220800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>92500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>373600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>256900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>341700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>234400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>474500</v>
+        <v>340700</v>
       </c>
       <c r="E35" s="3">
-        <v>-126900</v>
+        <v>460100</v>
       </c>
       <c r="F35" s="3">
-        <v>-223200</v>
+        <v>-28400</v>
       </c>
       <c r="G35" s="3">
-        <v>217100</v>
+        <v>-216500</v>
       </c>
       <c r="H35" s="3">
-        <v>-59800</v>
+        <v>210600</v>
       </c>
       <c r="I35" s="3">
-        <v>67100</v>
+        <v>-58000</v>
       </c>
       <c r="J35" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K35" s="3">
         <v>137800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>184100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>220800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>92500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>373600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>256900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>341700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>234400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E38" s="2">
         <v>44457</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44261</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44093</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43897</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43533</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43365</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43169</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43001</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42805</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42637</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42441</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42273</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42077</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1326000</v>
+        <v>699100</v>
       </c>
       <c r="E41" s="3">
-        <v>882000</v>
+        <v>1285800</v>
       </c>
       <c r="F41" s="3">
-        <v>2020200</v>
+        <v>855200</v>
       </c>
       <c r="G41" s="3">
-        <v>879500</v>
+        <v>1958900</v>
       </c>
       <c r="H41" s="3">
-        <v>1349200</v>
+        <v>2028700</v>
       </c>
       <c r="I41" s="3">
-        <v>991800</v>
+        <v>1308300</v>
       </c>
       <c r="J41" s="3">
+        <v>961700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1095500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1427900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1542500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1112100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1383300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1113900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1494700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1692100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>806400</v>
+        <v>508600</v>
       </c>
       <c r="E42" s="3">
-        <v>1149100</v>
+        <v>781900</v>
       </c>
       <c r="F42" s="3">
-        <v>577000</v>
+        <v>1114300</v>
       </c>
       <c r="G42" s="3">
-        <v>433100</v>
+        <v>559500</v>
       </c>
       <c r="H42" s="3">
-        <v>663600</v>
+        <v>419900</v>
       </c>
       <c r="I42" s="3">
-        <v>633100</v>
+        <v>643500</v>
       </c>
       <c r="J42" s="3">
+        <v>613900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1119900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1208300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>536300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>450400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>309000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>439600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>156500</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4529500</v>
+        <v>4549400</v>
       </c>
       <c r="E43" s="3">
-        <v>8513700</v>
+        <v>4392100</v>
       </c>
       <c r="F43" s="3">
-        <v>9159000</v>
+        <v>8255500</v>
       </c>
       <c r="G43" s="3">
-        <v>5809200</v>
+        <v>8881200</v>
       </c>
       <c r="H43" s="3">
-        <v>5490800</v>
+        <v>10306600</v>
       </c>
       <c r="I43" s="3">
-        <v>5206500</v>
+        <v>5324200</v>
       </c>
       <c r="J43" s="3">
+        <v>5048600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5044300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5597000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5115600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4305800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4140900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2873400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2986900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2725800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2051900</v>
+        <v>2125700</v>
       </c>
       <c r="E44" s="3">
-        <v>1982300</v>
+        <v>1989600</v>
       </c>
       <c r="F44" s="3">
-        <v>1994500</v>
+        <v>1922200</v>
       </c>
       <c r="G44" s="3">
-        <v>2112900</v>
+        <v>1934000</v>
       </c>
       <c r="H44" s="3">
-        <v>2382500</v>
+        <v>2048800</v>
       </c>
       <c r="I44" s="3">
-        <v>2353200</v>
+        <v>2310200</v>
       </c>
       <c r="J44" s="3">
+        <v>2281800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2292200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2468500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2728300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2344400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2460200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1262600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1321300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1312800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24400</v>
+        <v>92300</v>
       </c>
       <c r="E45" s="3">
-        <v>6100</v>
+        <v>23700</v>
       </c>
       <c r="F45" s="3">
-        <v>34200</v>
+        <v>5900</v>
       </c>
       <c r="G45" s="3">
-        <v>14600</v>
+        <v>33100</v>
       </c>
       <c r="H45" s="3">
-        <v>50000</v>
+        <v>14200</v>
       </c>
       <c r="I45" s="3">
-        <v>25600</v>
+        <v>48500</v>
       </c>
       <c r="J45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="K45" s="3">
         <v>57300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>124200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>175800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>90900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8738100</v>
+        <v>7975100</v>
       </c>
       <c r="E46" s="3">
-        <v>8718600</v>
+        <v>8473100</v>
       </c>
       <c r="F46" s="3">
-        <v>9661600</v>
+        <v>8454200</v>
       </c>
       <c r="G46" s="3">
-        <v>9249300</v>
+        <v>9368600</v>
       </c>
       <c r="H46" s="3">
-        <v>9936100</v>
+        <v>8968700</v>
       </c>
       <c r="I46" s="3">
-        <v>9210200</v>
+        <v>9634700</v>
       </c>
       <c r="J46" s="3">
+        <v>8930900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9609200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10715300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9948200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8336800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8469200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5755900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6018100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5821500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3334000</v>
+        <v>3191500</v>
       </c>
       <c r="E47" s="3">
-        <v>6549600</v>
+        <v>3232900</v>
       </c>
       <c r="F47" s="3">
-        <v>7983000</v>
+        <v>6351000</v>
       </c>
       <c r="G47" s="3">
-        <v>5461500</v>
+        <v>7740900</v>
       </c>
       <c r="H47" s="3">
-        <v>5534700</v>
+        <v>9380400</v>
       </c>
       <c r="I47" s="3">
-        <v>5191900</v>
+        <v>5366800</v>
       </c>
       <c r="J47" s="3">
+        <v>5034400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4342800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4293200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4044400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3509300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3243700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3155100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2870800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2683600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16638200</v>
+        <v>16515600</v>
       </c>
       <c r="E48" s="3">
-        <v>26741400</v>
+        <v>16133600</v>
       </c>
       <c r="F48" s="3">
-        <v>27174500</v>
+        <v>25930400</v>
       </c>
       <c r="G48" s="3">
-        <v>16757800</v>
+        <v>26350300</v>
       </c>
       <c r="H48" s="3">
-        <v>16860200</v>
+        <v>26835300</v>
       </c>
       <c r="I48" s="3">
-        <v>17305500</v>
+        <v>16348900</v>
       </c>
       <c r="J48" s="3">
+        <v>16780600</v>
+      </c>
+      <c r="K48" s="3">
         <v>17492100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13498800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14078900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13215800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12974600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12735300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12722200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12704400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1221100</v>
+        <v>1190000</v>
       </c>
       <c r="E49" s="3">
-        <v>1115000</v>
+        <v>1184100</v>
       </c>
       <c r="F49" s="3">
-        <v>1046700</v>
+        <v>1081200</v>
       </c>
       <c r="G49" s="3">
-        <v>1234500</v>
+        <v>1014900</v>
       </c>
       <c r="H49" s="3">
-        <v>1229700</v>
+        <v>1152100</v>
       </c>
       <c r="I49" s="3">
-        <v>1272400</v>
+        <v>1192400</v>
       </c>
       <c r="J49" s="3">
+        <v>1233800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1282100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1462000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1178800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1060600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1027800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>429100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>448700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>428000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1390700</v>
+        <v>2962000</v>
       </c>
       <c r="E52" s="3">
-        <v>946600</v>
+        <v>1348500</v>
       </c>
       <c r="F52" s="3">
-        <v>1241900</v>
+        <v>917900</v>
       </c>
       <c r="G52" s="3">
-        <v>1377300</v>
+        <v>1204200</v>
       </c>
       <c r="H52" s="3">
-        <v>1701800</v>
+        <v>1335500</v>
       </c>
       <c r="I52" s="3">
-        <v>1190600</v>
+        <v>1650100</v>
       </c>
       <c r="J52" s="3">
+        <v>1154500</v>
+      </c>
+      <c r="K52" s="3">
         <v>356200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>60800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>62600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>138300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31322200</v>
+        <v>31834200</v>
       </c>
       <c r="E54" s="3">
-        <v>30814700</v>
+        <v>30372100</v>
       </c>
       <c r="F54" s="3">
-        <v>33038600</v>
+        <v>29880100</v>
       </c>
       <c r="G54" s="3">
-        <v>34080300</v>
+        <v>32036500</v>
       </c>
       <c r="H54" s="3">
-        <v>35262400</v>
+        <v>33046700</v>
       </c>
       <c r="I54" s="3">
-        <v>34170600</v>
+        <v>34192900</v>
       </c>
       <c r="J54" s="3">
+        <v>33134200</v>
+      </c>
+      <c r="K54" s="3">
         <v>33082500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30004700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29263100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26149000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25776000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22138100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22131500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21775800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5566400</v>
+        <v>5377500</v>
       </c>
       <c r="E57" s="3">
-        <v>5474900</v>
+        <v>5397600</v>
       </c>
       <c r="F57" s="3">
-        <v>5736000</v>
+        <v>5308900</v>
       </c>
       <c r="G57" s="3">
-        <v>5215100</v>
+        <v>5562000</v>
       </c>
       <c r="H57" s="3">
-        <v>5745700</v>
+        <v>5056900</v>
       </c>
       <c r="I57" s="3">
-        <v>5334600</v>
+        <v>5571500</v>
       </c>
       <c r="J57" s="3">
+        <v>5172800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5833600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5894300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5920800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4941100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5511200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8151900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8526300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8369500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>999100</v>
+        <v>686100</v>
       </c>
       <c r="E58" s="3">
-        <v>1073500</v>
+        <v>968800</v>
       </c>
       <c r="F58" s="3">
-        <v>1720100</v>
+        <v>1041000</v>
       </c>
       <c r="G58" s="3">
-        <v>680700</v>
+        <v>1667900</v>
       </c>
       <c r="H58" s="3">
-        <v>1257700</v>
+        <v>660100</v>
       </c>
       <c r="I58" s="3">
-        <v>1645600</v>
+        <v>1219600</v>
       </c>
       <c r="J58" s="3">
+        <v>1595700</v>
+      </c>
+      <c r="K58" s="3">
         <v>933200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>870100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>984900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>454400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>586900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>290900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>230900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>342400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6453300</v>
+        <v>5609300</v>
       </c>
       <c r="E59" s="3">
-        <v>7864700</v>
+        <v>6257500</v>
       </c>
       <c r="F59" s="3">
-        <v>7452400</v>
+        <v>7642700</v>
       </c>
       <c r="G59" s="3">
-        <v>8800400</v>
+        <v>7226300</v>
       </c>
       <c r="H59" s="3">
-        <v>8413700</v>
+        <v>8537000</v>
       </c>
       <c r="I59" s="3">
-        <v>7474300</v>
+        <v>8158500</v>
       </c>
       <c r="J59" s="3">
+        <v>7247600</v>
+      </c>
+      <c r="K59" s="3">
         <v>6802200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7285400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7275100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6172100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5257900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>322200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>277800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>404300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13018800</v>
+        <v>11672900</v>
       </c>
       <c r="E60" s="3">
-        <v>14413100</v>
+        <v>12623900</v>
       </c>
       <c r="F60" s="3">
-        <v>14908400</v>
+        <v>13992500</v>
       </c>
       <c r="G60" s="3">
-        <v>14696100</v>
+        <v>14456200</v>
       </c>
       <c r="H60" s="3">
-        <v>15417100</v>
+        <v>14253900</v>
       </c>
       <c r="I60" s="3">
-        <v>14454600</v>
+        <v>14949500</v>
       </c>
       <c r="J60" s="3">
+        <v>14016200</v>
+      </c>
+      <c r="K60" s="3">
         <v>13568900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14049800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14180800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11340300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11062600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8765000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9035000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9116100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7912300</v>
+        <v>8046100</v>
       </c>
       <c r="E61" s="3">
-        <v>7390200</v>
+        <v>7672300</v>
       </c>
       <c r="F61" s="3">
-        <v>7491400</v>
+        <v>7166000</v>
       </c>
       <c r="G61" s="3">
-        <v>7944000</v>
+        <v>7264200</v>
       </c>
       <c r="H61" s="3">
-        <v>7640200</v>
+        <v>7703000</v>
       </c>
       <c r="I61" s="3">
-        <v>7492600</v>
+        <v>7408500</v>
       </c>
       <c r="J61" s="3">
+        <v>7265400</v>
+      </c>
+      <c r="K61" s="3">
         <v>8113600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2184800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2042000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2693100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2731700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2856400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3018200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3299900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1759100</v>
+        <v>2151700</v>
       </c>
       <c r="E62" s="3">
-        <v>955200</v>
+        <v>1705700</v>
       </c>
       <c r="F62" s="3">
-        <v>1871300</v>
+        <v>794900</v>
       </c>
       <c r="G62" s="3">
-        <v>1957900</v>
+        <v>1814600</v>
       </c>
       <c r="H62" s="3">
-        <v>2560600</v>
+        <v>1873700</v>
       </c>
       <c r="I62" s="3">
-        <v>2730100</v>
+        <v>2482900</v>
       </c>
       <c r="J62" s="3">
+        <v>2647300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2648400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3663100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3223600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3039100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3586300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2214700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1977300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2066000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22690100</v>
+        <v>21870600</v>
       </c>
       <c r="E66" s="3">
-        <v>22758500</v>
+        <v>22001900</v>
       </c>
       <c r="F66" s="3">
-        <v>24271100</v>
+        <v>21953400</v>
       </c>
       <c r="G66" s="3">
-        <v>24598100</v>
+        <v>23535000</v>
       </c>
       <c r="H66" s="3">
-        <v>25617900</v>
+        <v>23830700</v>
       </c>
       <c r="I66" s="3">
-        <v>24677400</v>
+        <v>24840900</v>
       </c>
       <c r="J66" s="3">
+        <v>23928900</v>
+      </c>
+      <c r="K66" s="3">
         <v>24330900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19897700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19446400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17072500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17380500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13836100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14030500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14482100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6114100</v>
+        <v>7510200</v>
       </c>
       <c r="E72" s="3">
-        <v>5545700</v>
+        <v>5928700</v>
       </c>
       <c r="F72" s="3">
-        <v>6271500</v>
+        <v>5492200</v>
       </c>
       <c r="G72" s="3">
-        <v>6689900</v>
+        <v>6081300</v>
       </c>
       <c r="H72" s="3">
-        <v>6864400</v>
+        <v>6508300</v>
       </c>
       <c r="I72" s="3">
-        <v>6720400</v>
+        <v>6656200</v>
       </c>
       <c r="J72" s="3">
+        <v>6516600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5988500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7034400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6639700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6116600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5500900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5484600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5285100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5113100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8632000</v>
+        <v>9963600</v>
       </c>
       <c r="E76" s="3">
-        <v>8056200</v>
+        <v>8370200</v>
       </c>
       <c r="F76" s="3">
-        <v>8767400</v>
+        <v>7926600</v>
       </c>
       <c r="G76" s="3">
-        <v>9482300</v>
+        <v>8501500</v>
       </c>
       <c r="H76" s="3">
-        <v>9644500</v>
+        <v>9216000</v>
       </c>
       <c r="I76" s="3">
-        <v>9493300</v>
+        <v>9352000</v>
       </c>
       <c r="J76" s="3">
+        <v>9205300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8751600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10107000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9816600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9076500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8395500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8301900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8101100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7293700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E80" s="2">
         <v>44457</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44261</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44093</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43897</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43533</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43365</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43169</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43001</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42805</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42637</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42441</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42273</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42077</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>474500</v>
+        <v>340700</v>
       </c>
       <c r="E81" s="3">
-        <v>-126900</v>
+        <v>460100</v>
       </c>
       <c r="F81" s="3">
-        <v>-223200</v>
+        <v>-28400</v>
       </c>
       <c r="G81" s="3">
-        <v>217100</v>
+        <v>-216500</v>
       </c>
       <c r="H81" s="3">
-        <v>-59800</v>
+        <v>210600</v>
       </c>
       <c r="I81" s="3">
-        <v>67100</v>
+        <v>-58000</v>
       </c>
       <c r="J81" s="3">
+        <v>65100</v>
+      </c>
+      <c r="K81" s="3">
         <v>137800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>184100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>220800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>92500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>373600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>256900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>341700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>234400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>803900</v>
+        <v>663600</v>
       </c>
       <c r="E83" s="3">
-        <v>717300</v>
+        <v>779500</v>
       </c>
       <c r="F83" s="3">
-        <v>806400</v>
+        <v>695500</v>
       </c>
       <c r="G83" s="3">
-        <v>718500</v>
+        <v>781900</v>
       </c>
       <c r="H83" s="3">
-        <v>813700</v>
+        <v>696700</v>
       </c>
       <c r="I83" s="3">
-        <v>708800</v>
+        <v>789000</v>
       </c>
       <c r="J83" s="3">
+        <v>687300</v>
+      </c>
+      <c r="K83" s="3">
         <v>830800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>503200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>512300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>397600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>422700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>360000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>401700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>343700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1113800</v>
+        <v>113600</v>
       </c>
       <c r="E89" s="3">
-        <v>1015000</v>
+        <v>1080000</v>
       </c>
       <c r="F89" s="3">
-        <v>1843300</v>
+        <v>984200</v>
       </c>
       <c r="G89" s="3">
-        <v>424500</v>
+        <v>1787400</v>
       </c>
       <c r="H89" s="3">
-        <v>1249200</v>
+        <v>411600</v>
       </c>
       <c r="I89" s="3">
-        <v>108600</v>
+        <v>1211300</v>
       </c>
       <c r="J89" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1163800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>782800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1119400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>537600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>964400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>189100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>322200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>675500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187900</v>
+        <v>-309900</v>
       </c>
       <c r="E91" s="3">
-        <v>-202500</v>
+        <v>-182200</v>
       </c>
       <c r="F91" s="3">
-        <v>-313500</v>
+        <v>-196400</v>
       </c>
       <c r="G91" s="3">
-        <v>-373300</v>
+        <v>-304000</v>
       </c>
       <c r="H91" s="3">
-        <v>-259800</v>
+        <v>-362000</v>
       </c>
       <c r="I91" s="3">
-        <v>-291600</v>
+        <v>-252000</v>
       </c>
       <c r="J91" s="3">
+        <v>-282700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-286700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-380500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-399100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-431900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-396900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-373000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-469600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-583300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342800</v>
+        <v>-435300</v>
       </c>
       <c r="E94" s="3">
-        <v>-353800</v>
+        <v>-332400</v>
       </c>
       <c r="F94" s="3">
-        <v>-320800</v>
+        <v>-343000</v>
       </c>
       <c r="G94" s="3">
-        <v>-406200</v>
+        <v>-311100</v>
       </c>
       <c r="H94" s="3">
+        <v>-393900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-261800</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-393400</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-394900</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-583100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-113500</v>
       </c>
-      <c r="I94" s="3">
-        <v>-318400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-259800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-261800</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-393400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-394900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-583100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-113500</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-408200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-454300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-28100</v>
+        <v>-4700</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-27200</v>
       </c>
       <c r="G96" s="3">
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>199600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-204800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-126400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,58 +5062,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-821000</v>
+        <v>-408100</v>
       </c>
       <c r="E100" s="3">
-        <v>-633100</v>
+        <v>-796100</v>
       </c>
       <c r="F100" s="3">
-        <v>-962500</v>
+        <v>-613900</v>
       </c>
       <c r="G100" s="3">
-        <v>-595300</v>
+        <v>-933300</v>
       </c>
       <c r="H100" s="3">
-        <v>-712400</v>
+        <v>-577300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4900</v>
+        <v>-690800</v>
       </c>
       <c r="J100" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-912500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>19100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-365100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-281300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-327100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-233500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>66500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-385800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4919,54 +5168,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50000</v>
+        <v>-729800</v>
       </c>
       <c r="E102" s="3">
-        <v>28100</v>
+        <v>-48500</v>
       </c>
       <c r="F102" s="3">
-        <v>559900</v>
+        <v>27200</v>
       </c>
       <c r="G102" s="3">
-        <v>-577000</v>
+        <v>543000</v>
       </c>
       <c r="H102" s="3">
-        <v>423300</v>
+        <v>-559500</v>
       </c>
       <c r="I102" s="3">
-        <v>-417200</v>
+        <v>410500</v>
       </c>
       <c r="J102" s="3">
+        <v>-404600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-324500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>540100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>360900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-138700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>54300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-157800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-164600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44821</v>
+      </c>
+      <c r="E7" s="2">
         <v>44625</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44457</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44261</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44093</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43897</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43533</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43365</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43169</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43001</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42805</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42637</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42441</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42273</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42077</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16762900</v>
+        <v>19218700</v>
       </c>
       <c r="E8" s="3">
-        <v>18599900</v>
+        <v>16598500</v>
       </c>
       <c r="F8" s="3">
-        <v>16695500</v>
+        <v>18417500</v>
       </c>
       <c r="G8" s="3">
-        <v>17665400</v>
+        <v>16531700</v>
       </c>
       <c r="H8" s="3">
-        <v>16437600</v>
+        <v>17492200</v>
       </c>
       <c r="I8" s="3">
-        <v>17858200</v>
+        <v>16276400</v>
       </c>
       <c r="J8" s="3">
+        <v>17683100</v>
+      </c>
+      <c r="K8" s="3">
         <v>16418700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18453400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18836700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20722900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17939000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16343700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14460900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16198200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14626900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15451000</v>
+        <v>17783800</v>
       </c>
       <c r="E9" s="3">
-        <v>17123700</v>
+        <v>15299500</v>
       </c>
       <c r="F9" s="3">
-        <v>15645000</v>
+        <v>16955700</v>
       </c>
       <c r="G9" s="3">
-        <v>16139500</v>
+        <v>15491600</v>
       </c>
       <c r="H9" s="3">
-        <v>15056000</v>
+        <v>15981200</v>
       </c>
       <c r="I9" s="3">
-        <v>16526300</v>
+        <v>14908300</v>
       </c>
       <c r="J9" s="3">
+        <v>16364200</v>
+      </c>
+      <c r="K9" s="3">
         <v>15099700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17022500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17614700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19327600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16791200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15354700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13549200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15210900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13693300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1311800</v>
+        <v>1434800</v>
       </c>
       <c r="E10" s="3">
-        <v>1476300</v>
+        <v>1299000</v>
       </c>
       <c r="F10" s="3">
-        <v>1050400</v>
+        <v>1461800</v>
       </c>
       <c r="G10" s="3">
-        <v>1525900</v>
+        <v>1040100</v>
       </c>
       <c r="H10" s="3">
-        <v>1381600</v>
+        <v>1511000</v>
       </c>
       <c r="I10" s="3">
-        <v>1331900</v>
+        <v>1368100</v>
       </c>
       <c r="J10" s="3">
         <v>1318900</v>
       </c>
       <c r="K10" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="L10" s="3">
         <v>1430900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1222000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1395300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1147800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>989000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>911700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>987400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>933600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,37 +1049,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26000</v>
+        <v>-7000</v>
       </c>
       <c r="E14" s="3">
-        <v>-149000</v>
+        <v>25800</v>
       </c>
       <c r="F14" s="3">
-        <v>101700</v>
+        <v>-131200</v>
       </c>
       <c r="G14" s="3">
-        <v>515700</v>
+        <v>100700</v>
       </c>
       <c r="H14" s="3">
-        <v>131300</v>
+        <v>510700</v>
       </c>
       <c r="I14" s="3">
-        <v>265000</v>
+        <v>130000</v>
       </c>
       <c r="J14" s="3">
+        <v>262400</v>
+      </c>
+      <c r="K14" s="3">
         <v>30800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1073,8 +1093,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1085,8 +1105,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16198600</v>
+        <v>18595600</v>
       </c>
       <c r="E17" s="3">
-        <v>17790800</v>
+        <v>16039800</v>
       </c>
       <c r="F17" s="3">
-        <v>16558200</v>
+        <v>17632800</v>
       </c>
       <c r="G17" s="3">
-        <v>17595600</v>
+        <v>16395900</v>
       </c>
       <c r="H17" s="3">
-        <v>15932500</v>
+        <v>17423100</v>
       </c>
       <c r="I17" s="3">
-        <v>17560200</v>
+        <v>15776200</v>
       </c>
       <c r="J17" s="3">
+        <v>17387900</v>
+      </c>
+      <c r="K17" s="3">
         <v>16096900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18063100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18516200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20322400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17694600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15752900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14090500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15646500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14212100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>564200</v>
+        <v>623100</v>
       </c>
       <c r="E18" s="3">
-        <v>809100</v>
+        <v>558700</v>
       </c>
       <c r="F18" s="3">
-        <v>137200</v>
+        <v>784800</v>
       </c>
       <c r="G18" s="3">
-        <v>69800</v>
+        <v>135900</v>
       </c>
       <c r="H18" s="3">
-        <v>505100</v>
+        <v>69100</v>
       </c>
       <c r="I18" s="3">
-        <v>298100</v>
+        <v>500100</v>
       </c>
       <c r="J18" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K18" s="3">
         <v>321700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>390400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>320500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>244300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>590800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>370400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>551700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>414800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1316,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-28400</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>33100</v>
+        <v>-28100</v>
       </c>
       <c r="F20" s="3">
-        <v>9500</v>
+        <v>32800</v>
       </c>
       <c r="G20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
-        <v>-9500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-41400</v>
+        <v>-9400</v>
       </c>
       <c r="J20" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="K20" s="3">
         <v>10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-29700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-26100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-48700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1199500</v>
+        <v>1390300</v>
       </c>
       <c r="E21" s="3">
-        <v>1621800</v>
+        <v>1187700</v>
       </c>
       <c r="F21" s="3">
-        <v>842200</v>
+        <v>1589500</v>
       </c>
       <c r="G21" s="3">
-        <v>845800</v>
+        <v>834000</v>
       </c>
       <c r="H21" s="3">
-        <v>1192400</v>
+        <v>837500</v>
       </c>
       <c r="I21" s="3">
-        <v>1045700</v>
+        <v>1180700</v>
       </c>
       <c r="J21" s="3">
+        <v>1035400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1019700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1232100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>831900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>904300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>639300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>983800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>705600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>927400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>709700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>165600</v>
+        <v>188600</v>
       </c>
       <c r="E22" s="3">
-        <v>202300</v>
+        <v>164000</v>
       </c>
       <c r="F22" s="3">
-        <v>177400</v>
+        <v>200300</v>
       </c>
       <c r="G22" s="3">
-        <v>225900</v>
+        <v>175700</v>
       </c>
       <c r="H22" s="3">
-        <v>204600</v>
+        <v>223700</v>
       </c>
       <c r="I22" s="3">
-        <v>246000</v>
+        <v>202600</v>
       </c>
       <c r="J22" s="3">
+        <v>243600</v>
+      </c>
+      <c r="K22" s="3">
         <v>220000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>270800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>80700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>68700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>73000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>83500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>79000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>370200</v>
+        <v>440400</v>
       </c>
       <c r="E23" s="3">
-        <v>639900</v>
+        <v>366600</v>
       </c>
       <c r="F23" s="3">
-        <v>-30800</v>
+        <v>617300</v>
       </c>
       <c r="G23" s="3">
-        <v>-162100</v>
+        <v>-30500</v>
       </c>
       <c r="H23" s="3">
-        <v>291000</v>
+        <v>-160500</v>
       </c>
       <c r="I23" s="3">
-        <v>10600</v>
+        <v>288100</v>
       </c>
       <c r="J23" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K23" s="3">
         <v>112400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>130500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>257800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>311300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>173000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>480900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>272600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>442200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>287100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>29600</v>
+        <v>106600</v>
       </c>
       <c r="E24" s="3">
-        <v>179800</v>
+        <v>29300</v>
       </c>
       <c r="F24" s="3">
+        <v>174500</v>
+      </c>
+      <c r="G24" s="3">
         <v>-5900</v>
       </c>
-      <c r="G24" s="3">
-        <v>49700</v>
-      </c>
       <c r="H24" s="3">
-        <v>66200</v>
+        <v>49200</v>
       </c>
       <c r="I24" s="3">
-        <v>55600</v>
+        <v>65600</v>
       </c>
       <c r="J24" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K24" s="3">
         <v>37900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>62700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>76400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>70000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>94400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>97800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>52700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>340700</v>
+        <v>333800</v>
       </c>
       <c r="E26" s="3">
-        <v>460100</v>
+        <v>337300</v>
       </c>
       <c r="F26" s="3">
-        <v>-24800</v>
+        <v>442800</v>
       </c>
       <c r="G26" s="3">
-        <v>-211700</v>
+        <v>-24600</v>
       </c>
       <c r="H26" s="3">
-        <v>224800</v>
+        <v>-209700</v>
       </c>
       <c r="I26" s="3">
-        <v>-45000</v>
+        <v>222500</v>
       </c>
       <c r="J26" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="K26" s="3">
         <v>74500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>195000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>234900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>386600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>270000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>344300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>234400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>340700</v>
+        <v>333800</v>
       </c>
       <c r="E27" s="3">
-        <v>460100</v>
+        <v>337300</v>
       </c>
       <c r="F27" s="3">
-        <v>-28400</v>
+        <v>442800</v>
       </c>
       <c r="G27" s="3">
-        <v>-216500</v>
+        <v>-28100</v>
       </c>
       <c r="H27" s="3">
-        <v>210600</v>
+        <v>-214300</v>
       </c>
       <c r="I27" s="3">
-        <v>-58000</v>
+        <v>208500</v>
       </c>
       <c r="J27" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K27" s="3">
         <v>65100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>137800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>184100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>220800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>92500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>373600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>256900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>341700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>234400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>28400</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-33100</v>
+        <v>28100</v>
       </c>
       <c r="F32" s="3">
-        <v>-9500</v>
+        <v>-32800</v>
       </c>
       <c r="G32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
-        <v>9500</v>
-      </c>
       <c r="I32" s="3">
-        <v>41400</v>
+        <v>9400</v>
       </c>
       <c r="J32" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>29700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>26100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>48700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>340700</v>
+        <v>333800</v>
       </c>
       <c r="E33" s="3">
-        <v>460100</v>
+        <v>337300</v>
       </c>
       <c r="F33" s="3">
-        <v>-28400</v>
+        <v>442800</v>
       </c>
       <c r="G33" s="3">
-        <v>-216500</v>
+        <v>-28100</v>
       </c>
       <c r="H33" s="3">
-        <v>210600</v>
+        <v>-214300</v>
       </c>
       <c r="I33" s="3">
-        <v>-58000</v>
+        <v>208500</v>
       </c>
       <c r="J33" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K33" s="3">
         <v>65100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>137800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>184100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>220800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>92500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>373600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>256900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>341700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>234400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>340700</v>
+        <v>333800</v>
       </c>
       <c r="E35" s="3">
-        <v>460100</v>
+        <v>337300</v>
       </c>
       <c r="F35" s="3">
-        <v>-28400</v>
+        <v>442800</v>
       </c>
       <c r="G35" s="3">
-        <v>-216500</v>
+        <v>-28100</v>
       </c>
       <c r="H35" s="3">
-        <v>210600</v>
+        <v>-214300</v>
       </c>
       <c r="I35" s="3">
-        <v>-58000</v>
+        <v>208500</v>
       </c>
       <c r="J35" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K35" s="3">
         <v>65100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>137800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>184100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>220800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>92500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>373600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>256900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>341700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>234400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44821</v>
+      </c>
+      <c r="E38" s="2">
         <v>44625</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44457</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44261</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44093</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43897</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43533</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43365</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43169</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43001</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42805</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42637</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42441</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42273</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42077</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>699100</v>
+        <v>1391500</v>
       </c>
       <c r="E41" s="3">
-        <v>1285800</v>
+        <v>692200</v>
       </c>
       <c r="F41" s="3">
-        <v>855200</v>
+        <v>1273200</v>
       </c>
       <c r="G41" s="3">
-        <v>1958900</v>
+        <v>846800</v>
       </c>
       <c r="H41" s="3">
-        <v>2028700</v>
+        <v>1939700</v>
       </c>
       <c r="I41" s="3">
-        <v>1308300</v>
+        <v>2008800</v>
       </c>
       <c r="J41" s="3">
+        <v>1295500</v>
+      </c>
+      <c r="K41" s="3">
         <v>961700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1095500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1427900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1542500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1112100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1383300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1113900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1494700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1692100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>508600</v>
+        <v>1070600</v>
       </c>
       <c r="E42" s="3">
-        <v>781900</v>
+        <v>503700</v>
       </c>
       <c r="F42" s="3">
-        <v>1114300</v>
+        <v>774200</v>
       </c>
       <c r="G42" s="3">
-        <v>559500</v>
+        <v>1103400</v>
       </c>
       <c r="H42" s="3">
-        <v>419900</v>
+        <v>554000</v>
       </c>
       <c r="I42" s="3">
-        <v>643500</v>
+        <v>415800</v>
       </c>
       <c r="J42" s="3">
+        <v>637200</v>
+      </c>
+      <c r="K42" s="3">
         <v>613900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1119900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1208300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>536300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>450400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>309000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>439600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>156500</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4549400</v>
+        <v>4688700</v>
       </c>
       <c r="E43" s="3">
-        <v>4392100</v>
+        <v>4504800</v>
       </c>
       <c r="F43" s="3">
-        <v>8255500</v>
+        <v>7831300</v>
       </c>
       <c r="G43" s="3">
-        <v>8881200</v>
+        <v>8174500</v>
       </c>
       <c r="H43" s="3">
-        <v>10306600</v>
+        <v>8794100</v>
       </c>
       <c r="I43" s="3">
-        <v>5324200</v>
+        <v>10205500</v>
       </c>
       <c r="J43" s="3">
+        <v>5272000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5048600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5044300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5597000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5115600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4305800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4140900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2873400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2986900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2725800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2125700</v>
+        <v>2214900</v>
       </c>
       <c r="E44" s="3">
-        <v>1989600</v>
+        <v>2104800</v>
       </c>
       <c r="F44" s="3">
-        <v>1922200</v>
+        <v>1970100</v>
       </c>
       <c r="G44" s="3">
-        <v>1934000</v>
+        <v>1903400</v>
       </c>
       <c r="H44" s="3">
-        <v>2048800</v>
+        <v>1915100</v>
       </c>
       <c r="I44" s="3">
-        <v>2310200</v>
+        <v>2028700</v>
       </c>
       <c r="J44" s="3">
+        <v>2287500</v>
+      </c>
+      <c r="K44" s="3">
         <v>2281800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2292200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2468500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2728300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2344400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2460200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1262600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1321300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1312800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>92300</v>
+        <v>131200</v>
       </c>
       <c r="E45" s="3">
-        <v>23700</v>
+        <v>91400</v>
       </c>
       <c r="F45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3">
-        <v>33100</v>
-      </c>
       <c r="H45" s="3">
-        <v>14200</v>
+        <v>32800</v>
       </c>
       <c r="I45" s="3">
-        <v>48500</v>
+        <v>14100</v>
       </c>
       <c r="J45" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K45" s="3">
         <v>24800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>57300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>124200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>175800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>90900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7975100</v>
+        <v>9496900</v>
       </c>
       <c r="E46" s="3">
-        <v>8473100</v>
+        <v>7896900</v>
       </c>
       <c r="F46" s="3">
-        <v>8454200</v>
+        <v>8390000</v>
       </c>
       <c r="G46" s="3">
-        <v>9368600</v>
+        <v>8371300</v>
       </c>
       <c r="H46" s="3">
-        <v>8968700</v>
+        <v>9276700</v>
       </c>
       <c r="I46" s="3">
-        <v>9634700</v>
+        <v>8880800</v>
       </c>
       <c r="J46" s="3">
+        <v>9540200</v>
+      </c>
+      <c r="K46" s="3">
         <v>8930900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9609200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10715300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9948200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8336800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8469200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5755900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6018100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5821500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3191500</v>
+        <v>2740800</v>
       </c>
       <c r="E47" s="3">
-        <v>3232900</v>
+        <v>3160200</v>
       </c>
       <c r="F47" s="3">
-        <v>6351000</v>
+        <v>3201200</v>
       </c>
       <c r="G47" s="3">
-        <v>7740900</v>
+        <v>6288700</v>
       </c>
       <c r="H47" s="3">
-        <v>9380400</v>
+        <v>7665000</v>
       </c>
       <c r="I47" s="3">
-        <v>5366800</v>
+        <v>9288400</v>
       </c>
       <c r="J47" s="3">
+        <v>5314200</v>
+      </c>
+      <c r="K47" s="3">
         <v>5034400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4342800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4293200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4044400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3509300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3243700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3155100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2870800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2683600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16515600</v>
+        <v>16079600</v>
       </c>
       <c r="E48" s="3">
-        <v>16133600</v>
+        <v>16353700</v>
       </c>
       <c r="F48" s="3">
-        <v>25930400</v>
+        <v>15975400</v>
       </c>
       <c r="G48" s="3">
-        <v>26350300</v>
+        <v>25676100</v>
       </c>
       <c r="H48" s="3">
-        <v>26835300</v>
+        <v>26091900</v>
       </c>
       <c r="I48" s="3">
-        <v>16348900</v>
+        <v>26572100</v>
       </c>
       <c r="J48" s="3">
+        <v>16188500</v>
+      </c>
+      <c r="K48" s="3">
         <v>16780600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17492100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13498800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14078900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13215800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12974600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12735300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12722200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12704400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1190000</v>
+        <v>1195900</v>
       </c>
       <c r="E49" s="3">
-        <v>1184100</v>
+        <v>1178300</v>
       </c>
       <c r="F49" s="3">
-        <v>1081200</v>
+        <v>1172500</v>
       </c>
       <c r="G49" s="3">
-        <v>1014900</v>
+        <v>1070600</v>
       </c>
       <c r="H49" s="3">
-        <v>1152100</v>
+        <v>1005000</v>
       </c>
       <c r="I49" s="3">
-        <v>1192400</v>
+        <v>1140800</v>
       </c>
       <c r="J49" s="3">
+        <v>1180700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1233800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1282100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1462000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1178800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1060600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1027800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>429100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>448700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>428000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2962000</v>
+        <v>2222000</v>
       </c>
       <c r="E52" s="3">
-        <v>1348500</v>
+        <v>2932900</v>
       </c>
       <c r="F52" s="3">
-        <v>917900</v>
+        <v>1335300</v>
       </c>
       <c r="G52" s="3">
-        <v>1204200</v>
+        <v>908900</v>
       </c>
       <c r="H52" s="3">
-        <v>1335500</v>
+        <v>1192400</v>
       </c>
       <c r="I52" s="3">
-        <v>1650100</v>
+        <v>1322400</v>
       </c>
       <c r="J52" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1154500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>356200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>60800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>62600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>138300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31834200</v>
+        <v>31735200</v>
       </c>
       <c r="E54" s="3">
-        <v>30372100</v>
+        <v>31522000</v>
       </c>
       <c r="F54" s="3">
-        <v>29880100</v>
+        <v>30074300</v>
       </c>
       <c r="G54" s="3">
-        <v>32036500</v>
+        <v>29587000</v>
       </c>
       <c r="H54" s="3">
-        <v>33046700</v>
+        <v>31722300</v>
       </c>
       <c r="I54" s="3">
-        <v>34192900</v>
+        <v>32722600</v>
       </c>
       <c r="J54" s="3">
+        <v>33857600</v>
+      </c>
+      <c r="K54" s="3">
         <v>33134200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33082500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30004700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29263100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26149000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25776000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22138100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22131500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21775800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5377500</v>
+        <v>5816700</v>
       </c>
       <c r="E57" s="3">
-        <v>5397600</v>
+        <v>5324700</v>
       </c>
       <c r="F57" s="3">
-        <v>5308900</v>
+        <v>5344600</v>
       </c>
       <c r="G57" s="3">
-        <v>5562000</v>
+        <v>5256800</v>
       </c>
       <c r="H57" s="3">
-        <v>5056900</v>
+        <v>5507500</v>
       </c>
       <c r="I57" s="3">
-        <v>5571500</v>
+        <v>5007300</v>
       </c>
       <c r="J57" s="3">
+        <v>5516800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5172800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5833600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5894300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5920800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4941100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5511200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8151900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8526300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8369500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>686100</v>
+        <v>1860000</v>
       </c>
       <c r="E58" s="3">
-        <v>968800</v>
+        <v>679400</v>
       </c>
       <c r="F58" s="3">
-        <v>1041000</v>
+        <v>959300</v>
       </c>
       <c r="G58" s="3">
-        <v>1667900</v>
+        <v>1030700</v>
       </c>
       <c r="H58" s="3">
-        <v>660100</v>
+        <v>1651500</v>
       </c>
       <c r="I58" s="3">
-        <v>1219600</v>
+        <v>653600</v>
       </c>
       <c r="J58" s="3">
+        <v>1207600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1595700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>933200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>870100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>984900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>454400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>586900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>290900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>230900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>342400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5609300</v>
+        <v>5909200</v>
       </c>
       <c r="E59" s="3">
-        <v>6257500</v>
+        <v>5554300</v>
       </c>
       <c r="F59" s="3">
-        <v>7642700</v>
+        <v>6210200</v>
       </c>
       <c r="G59" s="3">
-        <v>7226300</v>
+        <v>7567800</v>
       </c>
       <c r="H59" s="3">
-        <v>8537000</v>
+        <v>7155500</v>
       </c>
       <c r="I59" s="3">
-        <v>8158500</v>
+        <v>8453300</v>
       </c>
       <c r="J59" s="3">
+        <v>8078500</v>
+      </c>
+      <c r="K59" s="3">
         <v>7247600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6802200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7285400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7275100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6172100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5257900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>322200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>277800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>404300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11672900</v>
+        <v>13585900</v>
       </c>
       <c r="E60" s="3">
-        <v>12623900</v>
+        <v>11558400</v>
       </c>
       <c r="F60" s="3">
-        <v>13992500</v>
+        <v>12514200</v>
       </c>
       <c r="G60" s="3">
-        <v>14456200</v>
+        <v>13855300</v>
       </c>
       <c r="H60" s="3">
-        <v>14253900</v>
+        <v>14314500</v>
       </c>
       <c r="I60" s="3">
-        <v>14949500</v>
+        <v>14114200</v>
       </c>
       <c r="J60" s="3">
+        <v>14802900</v>
+      </c>
+      <c r="K60" s="3">
         <v>14016200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13568900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14049800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14180800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11340300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11062600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8765000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9035000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9116100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8046100</v>
+        <v>6651800</v>
       </c>
       <c r="E61" s="3">
-        <v>7672300</v>
+        <v>7967200</v>
       </c>
       <c r="F61" s="3">
-        <v>7166000</v>
+        <v>7597100</v>
       </c>
       <c r="G61" s="3">
-        <v>7264200</v>
+        <v>7095700</v>
       </c>
       <c r="H61" s="3">
-        <v>7703000</v>
+        <v>7193000</v>
       </c>
       <c r="I61" s="3">
-        <v>7408500</v>
+        <v>7627500</v>
       </c>
       <c r="J61" s="3">
+        <v>7335900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7265400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8113600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2184800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2042000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2693100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2731700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2856400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3018200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3299900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2151700</v>
+        <v>2210200</v>
       </c>
       <c r="E62" s="3">
-        <v>1705700</v>
+        <v>2130600</v>
       </c>
       <c r="F62" s="3">
-        <v>794900</v>
+        <v>1574200</v>
       </c>
       <c r="G62" s="3">
-        <v>1814600</v>
+        <v>787100</v>
       </c>
       <c r="H62" s="3">
-        <v>1873700</v>
+        <v>1796800</v>
       </c>
       <c r="I62" s="3">
-        <v>2482900</v>
+        <v>1855300</v>
       </c>
       <c r="J62" s="3">
+        <v>2458600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2647300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2648400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3663100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3223600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3039100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3586300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2214700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1977300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2066000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21870600</v>
+        <v>22448000</v>
       </c>
       <c r="E66" s="3">
-        <v>22001900</v>
+        <v>21656200</v>
       </c>
       <c r="F66" s="3">
-        <v>21953400</v>
+        <v>21685400</v>
       </c>
       <c r="G66" s="3">
-        <v>23535000</v>
+        <v>21738200</v>
       </c>
       <c r="H66" s="3">
-        <v>23830700</v>
+        <v>23304200</v>
       </c>
       <c r="I66" s="3">
-        <v>24840900</v>
+        <v>23597000</v>
       </c>
       <c r="J66" s="3">
+        <v>24597300</v>
+      </c>
+      <c r="K66" s="3">
         <v>23928900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24330900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19897700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19446400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17072500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17380500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13836100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14030500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14482100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7510200</v>
+        <v>6853300</v>
       </c>
       <c r="E72" s="3">
-        <v>5928700</v>
+        <v>7436600</v>
       </c>
       <c r="F72" s="3">
-        <v>5492200</v>
+        <v>5971300</v>
       </c>
       <c r="G72" s="3">
-        <v>6081300</v>
+        <v>5438300</v>
       </c>
       <c r="H72" s="3">
-        <v>6508300</v>
+        <v>6021700</v>
       </c>
       <c r="I72" s="3">
-        <v>6656200</v>
+        <v>6444500</v>
       </c>
       <c r="J72" s="3">
+        <v>6590900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6516600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5988500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7034400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6639700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6116600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5500900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5484600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5285100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5113100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9963600</v>
+        <v>9287200</v>
       </c>
       <c r="E76" s="3">
-        <v>8370200</v>
+        <v>9865900</v>
       </c>
       <c r="F76" s="3">
-        <v>7926600</v>
+        <v>8388900</v>
       </c>
       <c r="G76" s="3">
-        <v>8501500</v>
+        <v>7848900</v>
       </c>
       <c r="H76" s="3">
-        <v>9216000</v>
+        <v>8418100</v>
       </c>
       <c r="I76" s="3">
-        <v>9352000</v>
+        <v>9125600</v>
       </c>
       <c r="J76" s="3">
+        <v>9260300</v>
+      </c>
+      <c r="K76" s="3">
         <v>9205300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8751600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10107000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9816600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9076500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8395500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8301900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8101100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7293700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44821</v>
+      </c>
+      <c r="E80" s="2">
         <v>44625</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44457</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44261</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44093</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43897</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43533</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43365</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43169</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43001</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42805</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42637</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42441</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42273</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42077</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>340700</v>
+        <v>333800</v>
       </c>
       <c r="E81" s="3">
-        <v>460100</v>
+        <v>337300</v>
       </c>
       <c r="F81" s="3">
-        <v>-28400</v>
+        <v>442800</v>
       </c>
       <c r="G81" s="3">
-        <v>-216500</v>
+        <v>-28100</v>
       </c>
       <c r="H81" s="3">
-        <v>210600</v>
+        <v>-214300</v>
       </c>
       <c r="I81" s="3">
-        <v>-58000</v>
+        <v>208500</v>
       </c>
       <c r="J81" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="K81" s="3">
         <v>65100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>137800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>184100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>220800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>92500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>373600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>256900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>341700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>234400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>663600</v>
+        <v>761300</v>
       </c>
       <c r="E83" s="3">
-        <v>779500</v>
+        <v>657100</v>
       </c>
       <c r="F83" s="3">
-        <v>695500</v>
+        <v>771900</v>
       </c>
       <c r="G83" s="3">
-        <v>781900</v>
+        <v>688700</v>
       </c>
       <c r="H83" s="3">
-        <v>696700</v>
+        <v>774200</v>
       </c>
       <c r="I83" s="3">
-        <v>789000</v>
+        <v>689900</v>
       </c>
       <c r="J83" s="3">
+        <v>781300</v>
+      </c>
+      <c r="K83" s="3">
         <v>687300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>830800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>503200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>512300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>397600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>422700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>360000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>401700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>343700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>113600</v>
+        <v>1836600</v>
       </c>
       <c r="E89" s="3">
-        <v>1080000</v>
+        <v>112400</v>
       </c>
       <c r="F89" s="3">
-        <v>984200</v>
+        <v>1069400</v>
       </c>
       <c r="G89" s="3">
-        <v>1787400</v>
+        <v>974500</v>
       </c>
       <c r="H89" s="3">
-        <v>411600</v>
+        <v>1769800</v>
       </c>
       <c r="I89" s="3">
-        <v>1211300</v>
+        <v>407600</v>
       </c>
       <c r="J89" s="3">
+        <v>1199400</v>
+      </c>
+      <c r="K89" s="3">
         <v>105300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1163800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>782800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1119400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>537600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>964400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>189100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>322200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>675500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-309900</v>
+        <v>-236600</v>
       </c>
       <c r="E91" s="3">
-        <v>-182200</v>
+        <v>-306900</v>
       </c>
       <c r="F91" s="3">
-        <v>-196400</v>
+        <v>-180400</v>
       </c>
       <c r="G91" s="3">
-        <v>-304000</v>
+        <v>-194400</v>
       </c>
       <c r="H91" s="3">
-        <v>-362000</v>
+        <v>-301000</v>
       </c>
       <c r="I91" s="3">
-        <v>-252000</v>
+        <v>-358400</v>
       </c>
       <c r="J91" s="3">
+        <v>-249500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-282700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-286700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-380500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-399100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-431900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-396900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-373000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-469600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-583300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-435300</v>
+        <v>-338500</v>
       </c>
       <c r="E94" s="3">
-        <v>-332400</v>
+        <v>-431000</v>
       </c>
       <c r="F94" s="3">
-        <v>-343000</v>
+        <v>-329100</v>
       </c>
       <c r="G94" s="3">
-        <v>-311100</v>
+        <v>-339700</v>
       </c>
       <c r="H94" s="3">
-        <v>-393900</v>
+        <v>-308100</v>
       </c>
       <c r="I94" s="3">
-        <v>-110000</v>
+        <v>-390000</v>
       </c>
       <c r="J94" s="3">
+        <v>-108900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-308700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-259800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-261800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-393400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-394900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-583100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-113500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-408200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-454300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,52 +5096,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-27200</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-26900</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3500</v>
       </c>
-      <c r="I96" s="3">
-        <v>-23700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-28300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>199600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-204800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-126400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,61 +5308,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-408100</v>
+        <v>-609100</v>
       </c>
       <c r="E100" s="3">
-        <v>-796100</v>
+        <v>-404100</v>
       </c>
       <c r="F100" s="3">
-        <v>-613900</v>
+        <v>-788300</v>
       </c>
       <c r="G100" s="3">
-        <v>-933300</v>
+        <v>-607900</v>
       </c>
       <c r="H100" s="3">
-        <v>-577300</v>
+        <v>-924200</v>
       </c>
       <c r="I100" s="3">
-        <v>-690800</v>
+        <v>-571600</v>
       </c>
       <c r="J100" s="3">
+        <v>-684000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-912500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>19100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-365100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-281300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-327100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-233500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>66500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-385800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5171,57 +5420,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-729800</v>
+        <v>889000</v>
       </c>
       <c r="E102" s="3">
-        <v>-48500</v>
+        <v>-722700</v>
       </c>
       <c r="F102" s="3">
-        <v>27200</v>
+        <v>-48000</v>
       </c>
       <c r="G102" s="3">
-        <v>543000</v>
+        <v>26900</v>
       </c>
       <c r="H102" s="3">
-        <v>-559500</v>
+        <v>537600</v>
       </c>
       <c r="I102" s="3">
-        <v>410500</v>
+        <v>-554000</v>
       </c>
       <c r="J102" s="3">
+        <v>406400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-404600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-324500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>540100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>360900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-138700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>54300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-157800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-164600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19218700</v>
+        <v>19566700</v>
       </c>
       <c r="E8" s="3">
-        <v>16598500</v>
+        <v>16899100</v>
       </c>
       <c r="F8" s="3">
-        <v>18417500</v>
+        <v>18751000</v>
       </c>
       <c r="G8" s="3">
-        <v>16531700</v>
+        <v>16831100</v>
       </c>
       <c r="H8" s="3">
-        <v>17492200</v>
+        <v>17808900</v>
       </c>
       <c r="I8" s="3">
-        <v>16276400</v>
+        <v>16571100</v>
       </c>
       <c r="J8" s="3">
-        <v>17683100</v>
+        <v>18003300</v>
       </c>
       <c r="K8" s="3">
         <v>16418700</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17783800</v>
+        <v>18105900</v>
       </c>
       <c r="E9" s="3">
-        <v>15299500</v>
+        <v>15576600</v>
       </c>
       <c r="F9" s="3">
-        <v>16955700</v>
+        <v>17262800</v>
       </c>
       <c r="G9" s="3">
-        <v>15491600</v>
+        <v>15772100</v>
       </c>
       <c r="H9" s="3">
-        <v>15981200</v>
+        <v>16270600</v>
       </c>
       <c r="I9" s="3">
-        <v>14908300</v>
+        <v>15178300</v>
       </c>
       <c r="J9" s="3">
-        <v>16364200</v>
+        <v>16660600</v>
       </c>
       <c r="K9" s="3">
         <v>15099700</v>
@@ -868,25 +868,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1434800</v>
+        <v>1460800</v>
       </c>
       <c r="E10" s="3">
-        <v>1299000</v>
+        <v>1322500</v>
       </c>
       <c r="F10" s="3">
-        <v>1461800</v>
+        <v>1488300</v>
       </c>
       <c r="G10" s="3">
-        <v>1040100</v>
+        <v>1058900</v>
       </c>
       <c r="H10" s="3">
-        <v>1511000</v>
+        <v>1538300</v>
       </c>
       <c r="I10" s="3">
-        <v>1368100</v>
+        <v>1392900</v>
       </c>
       <c r="J10" s="3">
-        <v>1318900</v>
+        <v>1342800</v>
       </c>
       <c r="K10" s="3">
         <v>1318900</v>
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="E14" s="3">
-        <v>25800</v>
+        <v>26200</v>
       </c>
       <c r="F14" s="3">
-        <v>-131200</v>
+        <v>-133600</v>
       </c>
       <c r="G14" s="3">
-        <v>100700</v>
+        <v>102600</v>
       </c>
       <c r="H14" s="3">
-        <v>510700</v>
+        <v>519900</v>
       </c>
       <c r="I14" s="3">
-        <v>130000</v>
+        <v>132400</v>
       </c>
       <c r="J14" s="3">
-        <v>262400</v>
+        <v>267100</v>
       </c>
       <c r="K14" s="3">
         <v>30800</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18595600</v>
+        <v>18932300</v>
       </c>
       <c r="E17" s="3">
-        <v>16039800</v>
+        <v>16330200</v>
       </c>
       <c r="F17" s="3">
-        <v>17632800</v>
+        <v>17952000</v>
       </c>
       <c r="G17" s="3">
-        <v>16395900</v>
+        <v>16692800</v>
       </c>
       <c r="H17" s="3">
-        <v>17423100</v>
+        <v>17738600</v>
       </c>
       <c r="I17" s="3">
-        <v>15776200</v>
+        <v>16061900</v>
       </c>
       <c r="J17" s="3">
-        <v>17387900</v>
+        <v>17702800</v>
       </c>
       <c r="K17" s="3">
         <v>16096900</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>623100</v>
+        <v>634400</v>
       </c>
       <c r="E18" s="3">
-        <v>558700</v>
+        <v>568800</v>
       </c>
       <c r="F18" s="3">
-        <v>784800</v>
+        <v>799000</v>
       </c>
       <c r="G18" s="3">
-        <v>135900</v>
+        <v>138300</v>
       </c>
       <c r="H18" s="3">
-        <v>69100</v>
+        <v>70400</v>
       </c>
       <c r="I18" s="3">
-        <v>500100</v>
+        <v>509200</v>
       </c>
       <c r="J18" s="3">
-        <v>295200</v>
+        <v>300500</v>
       </c>
       <c r="K18" s="3">
         <v>321700</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E20" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="F20" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="G20" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H20" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="I20" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="J20" s="3">
-        <v>-41000</v>
+        <v>-41700</v>
       </c>
       <c r="K20" s="3">
         <v>10600</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1390300</v>
+        <v>1415500</v>
       </c>
       <c r="E21" s="3">
-        <v>1187700</v>
+        <v>1209200</v>
       </c>
       <c r="F21" s="3">
-        <v>1589500</v>
+        <v>1618200</v>
       </c>
       <c r="G21" s="3">
-        <v>834000</v>
+        <v>849100</v>
       </c>
       <c r="H21" s="3">
-        <v>837500</v>
+        <v>852600</v>
       </c>
       <c r="I21" s="3">
-        <v>1180700</v>
+        <v>1202100</v>
       </c>
       <c r="J21" s="3">
-        <v>1035400</v>
+        <v>1054200</v>
       </c>
       <c r="K21" s="3">
         <v>1019700</v>
@@ -1435,25 +1435,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>188600</v>
+        <v>192000</v>
       </c>
       <c r="E22" s="3">
-        <v>164000</v>
+        <v>167000</v>
       </c>
       <c r="F22" s="3">
-        <v>200300</v>
+        <v>203900</v>
       </c>
       <c r="G22" s="3">
-        <v>175700</v>
+        <v>178900</v>
       </c>
       <c r="H22" s="3">
-        <v>223700</v>
+        <v>227800</v>
       </c>
       <c r="I22" s="3">
-        <v>202600</v>
+        <v>206300</v>
       </c>
       <c r="J22" s="3">
-        <v>243600</v>
+        <v>248000</v>
       </c>
       <c r="K22" s="3">
         <v>220000</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>440400</v>
+        <v>448400</v>
       </c>
       <c r="E23" s="3">
-        <v>366600</v>
+        <v>373300</v>
       </c>
       <c r="F23" s="3">
-        <v>617300</v>
+        <v>628500</v>
       </c>
       <c r="G23" s="3">
-        <v>-30500</v>
+        <v>-31000</v>
       </c>
       <c r="H23" s="3">
-        <v>-160500</v>
+        <v>-163400</v>
       </c>
       <c r="I23" s="3">
-        <v>288100</v>
+        <v>293400</v>
       </c>
       <c r="J23" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="K23" s="3">
         <v>112400</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>106600</v>
+        <v>108500</v>
       </c>
       <c r="E24" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F24" s="3">
-        <v>174500</v>
+        <v>177700</v>
       </c>
       <c r="G24" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H24" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="I24" s="3">
-        <v>65600</v>
+        <v>66800</v>
       </c>
       <c r="J24" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="K24" s="3">
         <v>37900</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>333800</v>
+        <v>339900</v>
       </c>
       <c r="E26" s="3">
-        <v>337300</v>
+        <v>343400</v>
       </c>
       <c r="F26" s="3">
-        <v>442800</v>
+        <v>450800</v>
       </c>
       <c r="G26" s="3">
-        <v>-24600</v>
+        <v>-25000</v>
       </c>
       <c r="H26" s="3">
-        <v>-209700</v>
+        <v>-213500</v>
       </c>
       <c r="I26" s="3">
-        <v>222500</v>
+        <v>226600</v>
       </c>
       <c r="J26" s="3">
-        <v>-44500</v>
+        <v>-45300</v>
       </c>
       <c r="K26" s="3">
         <v>74500</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>333800</v>
+        <v>339900</v>
       </c>
       <c r="E27" s="3">
-        <v>337300</v>
+        <v>343400</v>
       </c>
       <c r="F27" s="3">
-        <v>442800</v>
+        <v>450800</v>
       </c>
       <c r="G27" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="H27" s="3">
-        <v>-214300</v>
+        <v>-218200</v>
       </c>
       <c r="I27" s="3">
-        <v>208500</v>
+        <v>212300</v>
       </c>
       <c r="J27" s="3">
-        <v>-57400</v>
+        <v>-58400</v>
       </c>
       <c r="K27" s="3">
         <v>65100</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E32" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="F32" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="G32" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="H32" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I32" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J32" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="K32" s="3">
         <v>-10600</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>333800</v>
+        <v>339900</v>
       </c>
       <c r="E33" s="3">
-        <v>337300</v>
+        <v>343400</v>
       </c>
       <c r="F33" s="3">
-        <v>442800</v>
+        <v>450800</v>
       </c>
       <c r="G33" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="H33" s="3">
-        <v>-214300</v>
+        <v>-218200</v>
       </c>
       <c r="I33" s="3">
-        <v>208500</v>
+        <v>212300</v>
       </c>
       <c r="J33" s="3">
-        <v>-57400</v>
+        <v>-58400</v>
       </c>
       <c r="K33" s="3">
         <v>65100</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>333800</v>
+        <v>339900</v>
       </c>
       <c r="E35" s="3">
-        <v>337300</v>
+        <v>343400</v>
       </c>
       <c r="F35" s="3">
-        <v>442800</v>
+        <v>450800</v>
       </c>
       <c r="G35" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="H35" s="3">
-        <v>-214300</v>
+        <v>-218200</v>
       </c>
       <c r="I35" s="3">
-        <v>208500</v>
+        <v>212300</v>
       </c>
       <c r="J35" s="3">
-        <v>-57400</v>
+        <v>-58400</v>
       </c>
       <c r="K35" s="3">
         <v>65100</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1391500</v>
+        <v>1416700</v>
       </c>
       <c r="E41" s="3">
-        <v>692200</v>
+        <v>704800</v>
       </c>
       <c r="F41" s="3">
-        <v>1273200</v>
+        <v>1296300</v>
       </c>
       <c r="G41" s="3">
-        <v>846800</v>
+        <v>862200</v>
       </c>
       <c r="H41" s="3">
-        <v>1939700</v>
+        <v>1974800</v>
       </c>
       <c r="I41" s="3">
-        <v>2008800</v>
+        <v>2045200</v>
       </c>
       <c r="J41" s="3">
-        <v>1295500</v>
+        <v>1318900</v>
       </c>
       <c r="K41" s="3">
         <v>961700</v>
@@ -2380,25 +2380,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1070600</v>
+        <v>1090000</v>
       </c>
       <c r="E42" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="F42" s="3">
-        <v>774200</v>
+        <v>788200</v>
       </c>
       <c r="G42" s="3">
-        <v>1103400</v>
+        <v>1123300</v>
       </c>
       <c r="H42" s="3">
-        <v>554000</v>
+        <v>564100</v>
       </c>
       <c r="I42" s="3">
-        <v>415800</v>
+        <v>423300</v>
       </c>
       <c r="J42" s="3">
-        <v>637200</v>
+        <v>648700</v>
       </c>
       <c r="K42" s="3">
         <v>613900</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4688700</v>
+        <v>4773600</v>
       </c>
       <c r="E43" s="3">
-        <v>4504800</v>
+        <v>4586400</v>
       </c>
       <c r="F43" s="3">
-        <v>7831300</v>
+        <v>7973100</v>
       </c>
       <c r="G43" s="3">
-        <v>8174500</v>
+        <v>8322500</v>
       </c>
       <c r="H43" s="3">
-        <v>8794100</v>
+        <v>8953400</v>
       </c>
       <c r="I43" s="3">
-        <v>10205500</v>
+        <v>10390300</v>
       </c>
       <c r="J43" s="3">
-        <v>5272000</v>
+        <v>5367500</v>
       </c>
       <c r="K43" s="3">
         <v>5048600</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2214900</v>
+        <v>2255000</v>
       </c>
       <c r="E44" s="3">
-        <v>2104800</v>
+        <v>2142900</v>
       </c>
       <c r="F44" s="3">
-        <v>1970100</v>
+        <v>2005800</v>
       </c>
       <c r="G44" s="3">
-        <v>1903400</v>
+        <v>1937800</v>
       </c>
       <c r="H44" s="3">
-        <v>1915100</v>
+        <v>1949800</v>
       </c>
       <c r="I44" s="3">
-        <v>2028700</v>
+        <v>2065400</v>
       </c>
       <c r="J44" s="3">
-        <v>2287500</v>
+        <v>2329000</v>
       </c>
       <c r="K44" s="3">
         <v>2281800</v>
@@ -2548,25 +2548,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131200</v>
+        <v>133600</v>
       </c>
       <c r="E45" s="3">
-        <v>91400</v>
+        <v>93000</v>
       </c>
       <c r="F45" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="G45" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="I45" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="J45" s="3">
-        <v>48000</v>
+        <v>48900</v>
       </c>
       <c r="K45" s="3">
         <v>24800</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9496900</v>
+        <v>9668900</v>
       </c>
       <c r="E46" s="3">
-        <v>7896900</v>
+        <v>8039900</v>
       </c>
       <c r="F46" s="3">
-        <v>8390000</v>
+        <v>8541900</v>
       </c>
       <c r="G46" s="3">
-        <v>8371300</v>
+        <v>8522900</v>
       </c>
       <c r="H46" s="3">
-        <v>9276700</v>
+        <v>9444700</v>
       </c>
       <c r="I46" s="3">
-        <v>8880800</v>
+        <v>9041600</v>
       </c>
       <c r="J46" s="3">
-        <v>9540200</v>
+        <v>9713000</v>
       </c>
       <c r="K46" s="3">
         <v>8930900</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2740800</v>
+        <v>2790500</v>
       </c>
       <c r="E47" s="3">
-        <v>3160200</v>
+        <v>3217400</v>
       </c>
       <c r="F47" s="3">
-        <v>3201200</v>
+        <v>3259100</v>
       </c>
       <c r="G47" s="3">
-        <v>6288700</v>
+        <v>6402600</v>
       </c>
       <c r="H47" s="3">
-        <v>7665000</v>
+        <v>7803800</v>
       </c>
       <c r="I47" s="3">
-        <v>9288400</v>
+        <v>9456600</v>
       </c>
       <c r="J47" s="3">
-        <v>5314200</v>
+        <v>5410400</v>
       </c>
       <c r="K47" s="3">
         <v>5034400</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16079600</v>
+        <v>16370800</v>
       </c>
       <c r="E48" s="3">
-        <v>16353700</v>
+        <v>16649800</v>
       </c>
       <c r="F48" s="3">
-        <v>15975400</v>
+        <v>16264600</v>
       </c>
       <c r="G48" s="3">
-        <v>25676100</v>
+        <v>26141000</v>
       </c>
       <c r="H48" s="3">
-        <v>26091900</v>
+        <v>26564400</v>
       </c>
       <c r="I48" s="3">
-        <v>26572100</v>
+        <v>27053300</v>
       </c>
       <c r="J48" s="3">
-        <v>16188500</v>
+        <v>16481700</v>
       </c>
       <c r="K48" s="3">
         <v>16780600</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1195900</v>
+        <v>1217600</v>
       </c>
       <c r="E49" s="3">
-        <v>1178300</v>
+        <v>1199700</v>
       </c>
       <c r="F49" s="3">
-        <v>1172500</v>
+        <v>1193700</v>
       </c>
       <c r="G49" s="3">
-        <v>1070600</v>
+        <v>1090000</v>
       </c>
       <c r="H49" s="3">
-        <v>1005000</v>
+        <v>1023200</v>
       </c>
       <c r="I49" s="3">
-        <v>1140800</v>
+        <v>1161500</v>
       </c>
       <c r="J49" s="3">
-        <v>1180700</v>
+        <v>1202100</v>
       </c>
       <c r="K49" s="3">
         <v>1233800</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2222000</v>
+        <v>2262200</v>
       </c>
       <c r="E52" s="3">
-        <v>2932900</v>
+        <v>2986000</v>
       </c>
       <c r="F52" s="3">
-        <v>1335300</v>
+        <v>1359500</v>
       </c>
       <c r="G52" s="3">
-        <v>908900</v>
+        <v>925400</v>
       </c>
       <c r="H52" s="3">
-        <v>1192400</v>
+        <v>1214000</v>
       </c>
       <c r="I52" s="3">
-        <v>1322400</v>
+        <v>1346300</v>
       </c>
       <c r="J52" s="3">
-        <v>1634000</v>
+        <v>1663600</v>
       </c>
       <c r="K52" s="3">
         <v>1154500</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31735200</v>
+        <v>32309900</v>
       </c>
       <c r="E54" s="3">
-        <v>31522000</v>
+        <v>32092800</v>
       </c>
       <c r="F54" s="3">
-        <v>30074300</v>
+        <v>30618900</v>
       </c>
       <c r="G54" s="3">
-        <v>29587000</v>
+        <v>30122800</v>
       </c>
       <c r="H54" s="3">
-        <v>31722300</v>
+        <v>32296700</v>
       </c>
       <c r="I54" s="3">
-        <v>32722600</v>
+        <v>33315200</v>
       </c>
       <c r="J54" s="3">
-        <v>33857600</v>
+        <v>34470700</v>
       </c>
       <c r="K54" s="3">
         <v>33134200</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5816700</v>
+        <v>5922000</v>
       </c>
       <c r="E57" s="3">
-        <v>5324700</v>
+        <v>5421200</v>
       </c>
       <c r="F57" s="3">
-        <v>5344600</v>
+        <v>5441400</v>
       </c>
       <c r="G57" s="3">
-        <v>5256800</v>
+        <v>5352000</v>
       </c>
       <c r="H57" s="3">
-        <v>5507500</v>
+        <v>5607200</v>
       </c>
       <c r="I57" s="3">
-        <v>5007300</v>
+        <v>5098000</v>
       </c>
       <c r="J57" s="3">
-        <v>5516800</v>
+        <v>5616700</v>
       </c>
       <c r="K57" s="3">
         <v>5172800</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1860000</v>
+        <v>1893700</v>
       </c>
       <c r="E58" s="3">
-        <v>679400</v>
+        <v>691700</v>
       </c>
       <c r="F58" s="3">
-        <v>959300</v>
+        <v>976700</v>
       </c>
       <c r="G58" s="3">
-        <v>1030700</v>
+        <v>1049400</v>
       </c>
       <c r="H58" s="3">
-        <v>1651500</v>
+        <v>1681400</v>
       </c>
       <c r="I58" s="3">
-        <v>653600</v>
+        <v>665400</v>
       </c>
       <c r="J58" s="3">
-        <v>1207600</v>
+        <v>1229500</v>
       </c>
       <c r="K58" s="3">
         <v>1595700</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5909200</v>
+        <v>6016200</v>
       </c>
       <c r="E59" s="3">
-        <v>5554300</v>
+        <v>5654900</v>
       </c>
       <c r="F59" s="3">
-        <v>6210200</v>
+        <v>6322700</v>
       </c>
       <c r="G59" s="3">
-        <v>7567800</v>
+        <v>7704800</v>
       </c>
       <c r="H59" s="3">
-        <v>7155500</v>
+        <v>7285000</v>
       </c>
       <c r="I59" s="3">
-        <v>8453300</v>
+        <v>8606300</v>
       </c>
       <c r="J59" s="3">
-        <v>8078500</v>
+        <v>8224700</v>
       </c>
       <c r="K59" s="3">
         <v>7247600</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13585900</v>
+        <v>13831900</v>
       </c>
       <c r="E60" s="3">
-        <v>11558400</v>
+        <v>11767700</v>
       </c>
       <c r="F60" s="3">
-        <v>12514200</v>
+        <v>12740800</v>
       </c>
       <c r="G60" s="3">
-        <v>13855300</v>
+        <v>14106200</v>
       </c>
       <c r="H60" s="3">
-        <v>14314500</v>
+        <v>14573700</v>
       </c>
       <c r="I60" s="3">
-        <v>14114200</v>
+        <v>14369700</v>
       </c>
       <c r="J60" s="3">
-        <v>14802900</v>
+        <v>15070900</v>
       </c>
       <c r="K60" s="3">
         <v>14016200</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6651800</v>
+        <v>6772300</v>
       </c>
       <c r="E61" s="3">
-        <v>7967200</v>
+        <v>8111500</v>
       </c>
       <c r="F61" s="3">
-        <v>7597100</v>
+        <v>7734600</v>
       </c>
       <c r="G61" s="3">
-        <v>7095700</v>
+        <v>7224200</v>
       </c>
       <c r="H61" s="3">
-        <v>7193000</v>
+        <v>7323200</v>
       </c>
       <c r="I61" s="3">
-        <v>7627500</v>
+        <v>7765600</v>
       </c>
       <c r="J61" s="3">
-        <v>7335900</v>
+        <v>7468700</v>
       </c>
       <c r="K61" s="3">
         <v>7265400</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2210200</v>
+        <v>2250300</v>
       </c>
       <c r="E62" s="3">
-        <v>2130600</v>
+        <v>2169200</v>
       </c>
       <c r="F62" s="3">
-        <v>1574200</v>
+        <v>1602700</v>
       </c>
       <c r="G62" s="3">
-        <v>787100</v>
+        <v>801400</v>
       </c>
       <c r="H62" s="3">
-        <v>1796800</v>
+        <v>1829300</v>
       </c>
       <c r="I62" s="3">
-        <v>1855300</v>
+        <v>1888900</v>
       </c>
       <c r="J62" s="3">
-        <v>2458600</v>
+        <v>2503100</v>
       </c>
       <c r="K62" s="3">
         <v>2647300</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22448000</v>
+        <v>22854500</v>
       </c>
       <c r="E66" s="3">
-        <v>21656200</v>
+        <v>22048300</v>
       </c>
       <c r="F66" s="3">
-        <v>21685400</v>
+        <v>22078100</v>
       </c>
       <c r="G66" s="3">
-        <v>21738200</v>
+        <v>22131800</v>
       </c>
       <c r="H66" s="3">
-        <v>23304200</v>
+        <v>23726200</v>
       </c>
       <c r="I66" s="3">
-        <v>23597000</v>
+        <v>24024300</v>
       </c>
       <c r="J66" s="3">
-        <v>24597300</v>
+        <v>25042700</v>
       </c>
       <c r="K66" s="3">
         <v>23928900</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6853300</v>
+        <v>6977400</v>
       </c>
       <c r="E72" s="3">
-        <v>7436600</v>
+        <v>7571200</v>
       </c>
       <c r="F72" s="3">
-        <v>5971300</v>
+        <v>6079400</v>
       </c>
       <c r="G72" s="3">
-        <v>5438300</v>
+        <v>5536800</v>
       </c>
       <c r="H72" s="3">
-        <v>6021700</v>
+        <v>6130700</v>
       </c>
       <c r="I72" s="3">
-        <v>6444500</v>
+        <v>6561200</v>
       </c>
       <c r="J72" s="3">
-        <v>6590900</v>
+        <v>6710300</v>
       </c>
       <c r="K72" s="3">
         <v>6516600</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9287200</v>
+        <v>9455400</v>
       </c>
       <c r="E76" s="3">
-        <v>9865900</v>
+        <v>10044500</v>
       </c>
       <c r="F76" s="3">
-        <v>8388900</v>
+        <v>8540800</v>
       </c>
       <c r="G76" s="3">
-        <v>7848900</v>
+        <v>7991000</v>
       </c>
       <c r="H76" s="3">
-        <v>8418100</v>
+        <v>8570600</v>
       </c>
       <c r="I76" s="3">
-        <v>9125600</v>
+        <v>9290800</v>
       </c>
       <c r="J76" s="3">
-        <v>9260300</v>
+        <v>9428000</v>
       </c>
       <c r="K76" s="3">
         <v>9205300</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>333800</v>
+        <v>339900</v>
       </c>
       <c r="E81" s="3">
-        <v>337300</v>
+        <v>343400</v>
       </c>
       <c r="F81" s="3">
-        <v>442800</v>
+        <v>450800</v>
       </c>
       <c r="G81" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="H81" s="3">
-        <v>-214300</v>
+        <v>-218200</v>
       </c>
       <c r="I81" s="3">
-        <v>208500</v>
+        <v>212300</v>
       </c>
       <c r="J81" s="3">
-        <v>-57400</v>
+        <v>-58400</v>
       </c>
       <c r="K81" s="3">
         <v>65100</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>761300</v>
+        <v>775100</v>
       </c>
       <c r="E83" s="3">
-        <v>657100</v>
+        <v>669000</v>
       </c>
       <c r="F83" s="3">
-        <v>771900</v>
+        <v>785900</v>
       </c>
       <c r="G83" s="3">
-        <v>688700</v>
+        <v>701200</v>
       </c>
       <c r="H83" s="3">
-        <v>774200</v>
+        <v>788200</v>
       </c>
       <c r="I83" s="3">
-        <v>689900</v>
+        <v>702400</v>
       </c>
       <c r="J83" s="3">
-        <v>781300</v>
+        <v>795400</v>
       </c>
       <c r="K83" s="3">
         <v>687300</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1836600</v>
+        <v>1869900</v>
       </c>
       <c r="E89" s="3">
-        <v>112400</v>
+        <v>114500</v>
       </c>
       <c r="F89" s="3">
-        <v>1069400</v>
+        <v>1088800</v>
       </c>
       <c r="G89" s="3">
-        <v>974500</v>
+        <v>992200</v>
       </c>
       <c r="H89" s="3">
-        <v>1769800</v>
+        <v>1801900</v>
       </c>
       <c r="I89" s="3">
-        <v>407600</v>
+        <v>415000</v>
       </c>
       <c r="J89" s="3">
-        <v>1199400</v>
+        <v>1221100</v>
       </c>
       <c r="K89" s="3">
         <v>105300</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236600</v>
+        <v>-240900</v>
       </c>
       <c r="E91" s="3">
-        <v>-306900</v>
+        <v>-312400</v>
       </c>
       <c r="F91" s="3">
-        <v>-180400</v>
+        <v>-183600</v>
       </c>
       <c r="G91" s="3">
-        <v>-194400</v>
+        <v>-198000</v>
       </c>
       <c r="H91" s="3">
-        <v>-301000</v>
+        <v>-306500</v>
       </c>
       <c r="I91" s="3">
-        <v>-358400</v>
+        <v>-364900</v>
       </c>
       <c r="J91" s="3">
-        <v>-249500</v>
+        <v>-254000</v>
       </c>
       <c r="K91" s="3">
         <v>-282700</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-338500</v>
+        <v>-344600</v>
       </c>
       <c r="E94" s="3">
-        <v>-431000</v>
+        <v>-438800</v>
       </c>
       <c r="F94" s="3">
-        <v>-329100</v>
+        <v>-335100</v>
       </c>
       <c r="G94" s="3">
-        <v>-339700</v>
+        <v>-345800</v>
       </c>
       <c r="H94" s="3">
-        <v>-308100</v>
+        <v>-313600</v>
       </c>
       <c r="I94" s="3">
-        <v>-390000</v>
+        <v>-397100</v>
       </c>
       <c r="J94" s="3">
-        <v>-108900</v>
+        <v>-110900</v>
       </c>
       <c r="K94" s="3">
         <v>-308700</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="G96" s="3">
-        <v>-26900</v>
+        <v>-27400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="J96" s="3">
-        <v>-23400</v>
+        <v>-23900</v>
       </c>
       <c r="K96" s="3">
         <v>-3500</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-609100</v>
+        <v>-620100</v>
       </c>
       <c r="E100" s="3">
-        <v>-404100</v>
+        <v>-411400</v>
       </c>
       <c r="F100" s="3">
-        <v>-788300</v>
+        <v>-802600</v>
       </c>
       <c r="G100" s="3">
-        <v>-607900</v>
+        <v>-618900</v>
       </c>
       <c r="H100" s="3">
-        <v>-924200</v>
+        <v>-940900</v>
       </c>
       <c r="I100" s="3">
-        <v>-571600</v>
+        <v>-581900</v>
       </c>
       <c r="J100" s="3">
-        <v>-684000</v>
+        <v>-696400</v>
       </c>
       <c r="K100" s="3">
         <v>-4700</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>889000</v>
+        <v>905100</v>
       </c>
       <c r="E102" s="3">
-        <v>-722700</v>
+        <v>-735800</v>
       </c>
       <c r="F102" s="3">
-        <v>-48000</v>
+        <v>-48900</v>
       </c>
       <c r="G102" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="H102" s="3">
-        <v>537600</v>
+        <v>547400</v>
       </c>
       <c r="I102" s="3">
-        <v>-554000</v>
+        <v>-564100</v>
       </c>
       <c r="J102" s="3">
-        <v>406400</v>
+        <v>413800</v>
       </c>
       <c r="K102" s="3">
         <v>-404600</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19566700</v>
+        <v>20359000</v>
       </c>
       <c r="E8" s="3">
-        <v>16899100</v>
+        <v>17583400</v>
       </c>
       <c r="F8" s="3">
-        <v>18751000</v>
+        <v>19510300</v>
       </c>
       <c r="G8" s="3">
-        <v>16831100</v>
+        <v>17512700</v>
       </c>
       <c r="H8" s="3">
-        <v>17808900</v>
+        <v>18530100</v>
       </c>
       <c r="I8" s="3">
-        <v>16571100</v>
+        <v>17242200</v>
       </c>
       <c r="J8" s="3">
-        <v>18003300</v>
+        <v>18732400</v>
       </c>
       <c r="K8" s="3">
         <v>16418700</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18105900</v>
+        <v>18839100</v>
       </c>
       <c r="E9" s="3">
-        <v>15576600</v>
+        <v>16207300</v>
       </c>
       <c r="F9" s="3">
-        <v>17262800</v>
+        <v>17961800</v>
       </c>
       <c r="G9" s="3">
-        <v>15772100</v>
+        <v>16410800</v>
       </c>
       <c r="H9" s="3">
-        <v>16270600</v>
+        <v>16929500</v>
       </c>
       <c r="I9" s="3">
-        <v>15178300</v>
+        <v>15792900</v>
       </c>
       <c r="J9" s="3">
-        <v>16660600</v>
+        <v>17335200</v>
       </c>
       <c r="K9" s="3">
         <v>15099700</v>
@@ -868,25 +868,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1460800</v>
+        <v>1520000</v>
       </c>
       <c r="E10" s="3">
-        <v>1322500</v>
+        <v>1376000</v>
       </c>
       <c r="F10" s="3">
-        <v>1488300</v>
+        <v>1548500</v>
       </c>
       <c r="G10" s="3">
-        <v>1058900</v>
+        <v>1101800</v>
       </c>
       <c r="H10" s="3">
-        <v>1538300</v>
+        <v>1600600</v>
       </c>
       <c r="I10" s="3">
-        <v>1392900</v>
+        <v>1449300</v>
       </c>
       <c r="J10" s="3">
-        <v>1342800</v>
+        <v>1397100</v>
       </c>
       <c r="K10" s="3">
         <v>1318900</v>
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="E14" s="3">
-        <v>26200</v>
+        <v>27300</v>
       </c>
       <c r="F14" s="3">
-        <v>-133600</v>
+        <v>-139000</v>
       </c>
       <c r="G14" s="3">
-        <v>102600</v>
+        <v>106700</v>
       </c>
       <c r="H14" s="3">
-        <v>519900</v>
+        <v>541000</v>
       </c>
       <c r="I14" s="3">
-        <v>132400</v>
+        <v>137700</v>
       </c>
       <c r="J14" s="3">
-        <v>267100</v>
+        <v>277900</v>
       </c>
       <c r="K14" s="3">
         <v>30800</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18932300</v>
+        <v>19698900</v>
       </c>
       <c r="E17" s="3">
-        <v>16330200</v>
+        <v>16991500</v>
       </c>
       <c r="F17" s="3">
-        <v>17952000</v>
+        <v>18679000</v>
       </c>
       <c r="G17" s="3">
-        <v>16692800</v>
+        <v>17368700</v>
       </c>
       <c r="H17" s="3">
-        <v>17738600</v>
+        <v>18456900</v>
       </c>
       <c r="I17" s="3">
-        <v>16061900</v>
+        <v>16712300</v>
       </c>
       <c r="J17" s="3">
-        <v>17702800</v>
+        <v>18419700</v>
       </c>
       <c r="K17" s="3">
         <v>16096900</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>634400</v>
+        <v>660100</v>
       </c>
       <c r="E18" s="3">
-        <v>568800</v>
+        <v>591900</v>
       </c>
       <c r="F18" s="3">
-        <v>799000</v>
+        <v>831300</v>
       </c>
       <c r="G18" s="3">
-        <v>138300</v>
+        <v>143900</v>
       </c>
       <c r="H18" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="I18" s="3">
-        <v>509200</v>
+        <v>529800</v>
       </c>
       <c r="J18" s="3">
-        <v>300500</v>
+        <v>312700</v>
       </c>
       <c r="K18" s="3">
         <v>321700</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E20" s="3">
-        <v>-28600</v>
+        <v>-29800</v>
       </c>
       <c r="F20" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="G20" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="H20" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="I20" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="J20" s="3">
-        <v>-41700</v>
+        <v>-43400</v>
       </c>
       <c r="K20" s="3">
         <v>10600</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1415500</v>
+        <v>1472800</v>
       </c>
       <c r="E21" s="3">
-        <v>1209200</v>
+        <v>1258200</v>
       </c>
       <c r="F21" s="3">
-        <v>1618200</v>
+        <v>1683800</v>
       </c>
       <c r="G21" s="3">
-        <v>849100</v>
+        <v>883400</v>
       </c>
       <c r="H21" s="3">
-        <v>852600</v>
+        <v>887200</v>
       </c>
       <c r="I21" s="3">
-        <v>1202100</v>
+        <v>1250700</v>
       </c>
       <c r="J21" s="3">
-        <v>1054200</v>
+        <v>1096900</v>
       </c>
       <c r="K21" s="3">
         <v>1019700</v>
@@ -1435,25 +1435,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>192000</v>
+        <v>199800</v>
       </c>
       <c r="E22" s="3">
-        <v>167000</v>
+        <v>173700</v>
       </c>
       <c r="F22" s="3">
-        <v>203900</v>
+        <v>212200</v>
       </c>
       <c r="G22" s="3">
-        <v>178900</v>
+        <v>186100</v>
       </c>
       <c r="H22" s="3">
-        <v>227800</v>
+        <v>237000</v>
       </c>
       <c r="I22" s="3">
-        <v>206300</v>
+        <v>214700</v>
       </c>
       <c r="J22" s="3">
-        <v>248000</v>
+        <v>258100</v>
       </c>
       <c r="K22" s="3">
         <v>220000</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>448400</v>
+        <v>466500</v>
       </c>
       <c r="E23" s="3">
-        <v>373300</v>
+        <v>388400</v>
       </c>
       <c r="F23" s="3">
-        <v>628500</v>
+        <v>653900</v>
       </c>
       <c r="G23" s="3">
-        <v>-31000</v>
+        <v>-32300</v>
       </c>
       <c r="H23" s="3">
-        <v>-163400</v>
+        <v>-170000</v>
       </c>
       <c r="I23" s="3">
-        <v>293400</v>
+        <v>305200</v>
       </c>
       <c r="J23" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="K23" s="3">
         <v>112400</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108500</v>
+        <v>112900</v>
       </c>
       <c r="E24" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="F24" s="3">
-        <v>177700</v>
+        <v>184900</v>
       </c>
       <c r="G24" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H24" s="3">
-        <v>50100</v>
+        <v>52100</v>
       </c>
       <c r="I24" s="3">
-        <v>66800</v>
+        <v>69500</v>
       </c>
       <c r="J24" s="3">
-        <v>56000</v>
+        <v>58300</v>
       </c>
       <c r="K24" s="3">
         <v>37900</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>339900</v>
+        <v>353600</v>
       </c>
       <c r="E26" s="3">
-        <v>343400</v>
+        <v>357400</v>
       </c>
       <c r="F26" s="3">
-        <v>450800</v>
+        <v>469000</v>
       </c>
       <c r="G26" s="3">
-        <v>-25000</v>
+        <v>-26100</v>
       </c>
       <c r="H26" s="3">
-        <v>-213500</v>
+        <v>-222100</v>
       </c>
       <c r="I26" s="3">
-        <v>226600</v>
+        <v>235800</v>
       </c>
       <c r="J26" s="3">
-        <v>-45300</v>
+        <v>-47200</v>
       </c>
       <c r="K26" s="3">
         <v>74500</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>339900</v>
+        <v>353600</v>
       </c>
       <c r="E27" s="3">
-        <v>343400</v>
+        <v>357400</v>
       </c>
       <c r="F27" s="3">
-        <v>450800</v>
+        <v>469000</v>
       </c>
       <c r="G27" s="3">
-        <v>-28600</v>
+        <v>-29800</v>
       </c>
       <c r="H27" s="3">
-        <v>-218200</v>
+        <v>-227100</v>
       </c>
       <c r="I27" s="3">
-        <v>212300</v>
+        <v>220900</v>
       </c>
       <c r="J27" s="3">
-        <v>-58400</v>
+        <v>-60800</v>
       </c>
       <c r="K27" s="3">
         <v>65100</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="E32" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="F32" s="3">
-        <v>-33400</v>
+        <v>-34700</v>
       </c>
       <c r="G32" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="H32" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I32" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="J32" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="K32" s="3">
         <v>-10600</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>339900</v>
+        <v>353600</v>
       </c>
       <c r="E33" s="3">
-        <v>343400</v>
+        <v>357400</v>
       </c>
       <c r="F33" s="3">
-        <v>450800</v>
+        <v>469000</v>
       </c>
       <c r="G33" s="3">
-        <v>-28600</v>
+        <v>-29800</v>
       </c>
       <c r="H33" s="3">
-        <v>-218200</v>
+        <v>-227100</v>
       </c>
       <c r="I33" s="3">
-        <v>212300</v>
+        <v>220900</v>
       </c>
       <c r="J33" s="3">
-        <v>-58400</v>
+        <v>-60800</v>
       </c>
       <c r="K33" s="3">
         <v>65100</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>339900</v>
+        <v>353600</v>
       </c>
       <c r="E35" s="3">
-        <v>343400</v>
+        <v>357400</v>
       </c>
       <c r="F35" s="3">
-        <v>450800</v>
+        <v>469000</v>
       </c>
       <c r="G35" s="3">
-        <v>-28600</v>
+        <v>-29800</v>
       </c>
       <c r="H35" s="3">
-        <v>-218200</v>
+        <v>-227100</v>
       </c>
       <c r="I35" s="3">
-        <v>212300</v>
+        <v>220900</v>
       </c>
       <c r="J35" s="3">
-        <v>-58400</v>
+        <v>-60800</v>
       </c>
       <c r="K35" s="3">
         <v>65100</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1416700</v>
+        <v>1474100</v>
       </c>
       <c r="E41" s="3">
-        <v>704800</v>
+        <v>733300</v>
       </c>
       <c r="F41" s="3">
-        <v>1296300</v>
+        <v>1348700</v>
       </c>
       <c r="G41" s="3">
-        <v>862200</v>
+        <v>897100</v>
       </c>
       <c r="H41" s="3">
-        <v>1974800</v>
+        <v>2054800</v>
       </c>
       <c r="I41" s="3">
-        <v>2045200</v>
+        <v>2128000</v>
       </c>
       <c r="J41" s="3">
-        <v>1318900</v>
+        <v>1372300</v>
       </c>
       <c r="K41" s="3">
         <v>961700</v>
@@ -2380,25 +2380,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1090000</v>
+        <v>1134100</v>
       </c>
       <c r="E42" s="3">
-        <v>512800</v>
+        <v>533500</v>
       </c>
       <c r="F42" s="3">
-        <v>788200</v>
+        <v>820200</v>
       </c>
       <c r="G42" s="3">
-        <v>1123300</v>
+        <v>1168800</v>
       </c>
       <c r="H42" s="3">
-        <v>564100</v>
+        <v>586900</v>
       </c>
       <c r="I42" s="3">
-        <v>423300</v>
+        <v>440500</v>
       </c>
       <c r="J42" s="3">
-        <v>648700</v>
+        <v>675000</v>
       </c>
       <c r="K42" s="3">
         <v>613900</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4773600</v>
+        <v>4966900</v>
       </c>
       <c r="E43" s="3">
-        <v>4586400</v>
+        <v>4772100</v>
       </c>
       <c r="F43" s="3">
-        <v>7973100</v>
+        <v>8296000</v>
       </c>
       <c r="G43" s="3">
-        <v>8322500</v>
+        <v>8659500</v>
       </c>
       <c r="H43" s="3">
-        <v>8953400</v>
+        <v>9315900</v>
       </c>
       <c r="I43" s="3">
-        <v>10390300</v>
+        <v>10811100</v>
       </c>
       <c r="J43" s="3">
-        <v>5367500</v>
+        <v>5584800</v>
       </c>
       <c r="K43" s="3">
         <v>5048600</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2255000</v>
+        <v>2346400</v>
       </c>
       <c r="E44" s="3">
-        <v>2142900</v>
+        <v>2229700</v>
       </c>
       <c r="F44" s="3">
-        <v>2005800</v>
+        <v>2087000</v>
       </c>
       <c r="G44" s="3">
-        <v>1937800</v>
+        <v>2016300</v>
       </c>
       <c r="H44" s="3">
-        <v>1949800</v>
+        <v>2028700</v>
       </c>
       <c r="I44" s="3">
-        <v>2065400</v>
+        <v>2149100</v>
       </c>
       <c r="J44" s="3">
-        <v>2329000</v>
+        <v>2423300</v>
       </c>
       <c r="K44" s="3">
         <v>2281800</v>
@@ -2548,25 +2548,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>133600</v>
+        <v>139000</v>
       </c>
       <c r="E45" s="3">
-        <v>93000</v>
+        <v>96800</v>
       </c>
       <c r="F45" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="G45" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H45" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="I45" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="J45" s="3">
-        <v>48900</v>
+        <v>50900</v>
       </c>
       <c r="K45" s="3">
         <v>24800</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9668900</v>
+        <v>10060400</v>
       </c>
       <c r="E46" s="3">
-        <v>8039900</v>
+        <v>8365500</v>
       </c>
       <c r="F46" s="3">
-        <v>8541900</v>
+        <v>8887900</v>
       </c>
       <c r="G46" s="3">
-        <v>8522900</v>
+        <v>8868000</v>
       </c>
       <c r="H46" s="3">
-        <v>9444700</v>
+        <v>9827100</v>
       </c>
       <c r="I46" s="3">
-        <v>9041600</v>
+        <v>9407700</v>
       </c>
       <c r="J46" s="3">
-        <v>9713000</v>
+        <v>10106300</v>
       </c>
       <c r="K46" s="3">
         <v>8930900</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2790500</v>
+        <v>2903500</v>
       </c>
       <c r="E47" s="3">
-        <v>3217400</v>
+        <v>3347700</v>
       </c>
       <c r="F47" s="3">
-        <v>3259100</v>
+        <v>3391100</v>
       </c>
       <c r="G47" s="3">
-        <v>6402600</v>
+        <v>6661900</v>
       </c>
       <c r="H47" s="3">
-        <v>7803800</v>
+        <v>8119800</v>
       </c>
       <c r="I47" s="3">
-        <v>9456600</v>
+        <v>9839500</v>
       </c>
       <c r="J47" s="3">
-        <v>5410400</v>
+        <v>5629500</v>
       </c>
       <c r="K47" s="3">
         <v>5034400</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16370800</v>
+        <v>17033700</v>
       </c>
       <c r="E48" s="3">
-        <v>16649800</v>
+        <v>17324000</v>
       </c>
       <c r="F48" s="3">
-        <v>16264600</v>
+        <v>16923300</v>
       </c>
       <c r="G48" s="3">
-        <v>26141000</v>
+        <v>27199600</v>
       </c>
       <c r="H48" s="3">
-        <v>26564400</v>
+        <v>27640100</v>
       </c>
       <c r="I48" s="3">
-        <v>27053300</v>
+        <v>28148800</v>
       </c>
       <c r="J48" s="3">
-        <v>16481700</v>
+        <v>17149100</v>
       </c>
       <c r="K48" s="3">
         <v>16780600</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1217600</v>
+        <v>1266900</v>
       </c>
       <c r="E49" s="3">
-        <v>1199700</v>
+        <v>1248200</v>
       </c>
       <c r="F49" s="3">
-        <v>1193700</v>
+        <v>1242000</v>
       </c>
       <c r="G49" s="3">
-        <v>1090000</v>
+        <v>1134100</v>
       </c>
       <c r="H49" s="3">
-        <v>1023200</v>
+        <v>1064600</v>
       </c>
       <c r="I49" s="3">
-        <v>1161500</v>
+        <v>1208500</v>
       </c>
       <c r="J49" s="3">
-        <v>1202100</v>
+        <v>1250700</v>
       </c>
       <c r="K49" s="3">
         <v>1233800</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2262200</v>
+        <v>2353800</v>
       </c>
       <c r="E52" s="3">
-        <v>2986000</v>
+        <v>3107000</v>
       </c>
       <c r="F52" s="3">
-        <v>1359500</v>
+        <v>1414500</v>
       </c>
       <c r="G52" s="3">
-        <v>925400</v>
+        <v>962900</v>
       </c>
       <c r="H52" s="3">
-        <v>1214000</v>
+        <v>1263100</v>
       </c>
       <c r="I52" s="3">
-        <v>1346300</v>
+        <v>1400900</v>
       </c>
       <c r="J52" s="3">
-        <v>1663600</v>
+        <v>1730900</v>
       </c>
       <c r="K52" s="3">
         <v>1154500</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32309900</v>
+        <v>33618200</v>
       </c>
       <c r="E54" s="3">
-        <v>32092800</v>
+        <v>33392400</v>
       </c>
       <c r="F54" s="3">
-        <v>30618900</v>
+        <v>31858800</v>
       </c>
       <c r="G54" s="3">
-        <v>30122800</v>
+        <v>31342600</v>
       </c>
       <c r="H54" s="3">
-        <v>32296700</v>
+        <v>33604600</v>
       </c>
       <c r="I54" s="3">
-        <v>33315200</v>
+        <v>34664200</v>
       </c>
       <c r="J54" s="3">
-        <v>34470700</v>
+        <v>35866600</v>
       </c>
       <c r="K54" s="3">
         <v>33134200</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5922000</v>
+        <v>6161800</v>
       </c>
       <c r="E57" s="3">
-        <v>5421200</v>
+        <v>5640700</v>
       </c>
       <c r="F57" s="3">
-        <v>5441400</v>
+        <v>5661800</v>
       </c>
       <c r="G57" s="3">
-        <v>5352000</v>
+        <v>5568700</v>
       </c>
       <c r="H57" s="3">
-        <v>5607200</v>
+        <v>5834200</v>
       </c>
       <c r="I57" s="3">
-        <v>5098000</v>
+        <v>5304400</v>
       </c>
       <c r="J57" s="3">
-        <v>5616700</v>
+        <v>5844200</v>
       </c>
       <c r="K57" s="3">
         <v>5172800</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1893700</v>
+        <v>1970400</v>
       </c>
       <c r="E58" s="3">
-        <v>691700</v>
+        <v>719700</v>
       </c>
       <c r="F58" s="3">
-        <v>976700</v>
+        <v>1016200</v>
       </c>
       <c r="G58" s="3">
-        <v>1049400</v>
+        <v>1091900</v>
       </c>
       <c r="H58" s="3">
-        <v>1681400</v>
+        <v>1749500</v>
       </c>
       <c r="I58" s="3">
-        <v>665400</v>
+        <v>692400</v>
       </c>
       <c r="J58" s="3">
-        <v>1229500</v>
+        <v>1279300</v>
       </c>
       <c r="K58" s="3">
         <v>1595700</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6016200</v>
+        <v>6259800</v>
       </c>
       <c r="E59" s="3">
-        <v>5654900</v>
+        <v>5883900</v>
       </c>
       <c r="F59" s="3">
-        <v>6322700</v>
+        <v>6578700</v>
       </c>
       <c r="G59" s="3">
-        <v>7704800</v>
+        <v>8016800</v>
       </c>
       <c r="H59" s="3">
-        <v>7285000</v>
+        <v>7580000</v>
       </c>
       <c r="I59" s="3">
-        <v>8606300</v>
+        <v>8954900</v>
       </c>
       <c r="J59" s="3">
-        <v>8224700</v>
+        <v>8557800</v>
       </c>
       <c r="K59" s="3">
         <v>7247600</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13831900</v>
+        <v>14392000</v>
       </c>
       <c r="E60" s="3">
-        <v>11767700</v>
+        <v>12244200</v>
       </c>
       <c r="F60" s="3">
-        <v>12740800</v>
+        <v>13256700</v>
       </c>
       <c r="G60" s="3">
-        <v>14106200</v>
+        <v>14677400</v>
       </c>
       <c r="H60" s="3">
-        <v>14573700</v>
+        <v>15163800</v>
       </c>
       <c r="I60" s="3">
-        <v>14369700</v>
+        <v>14951600</v>
       </c>
       <c r="J60" s="3">
-        <v>15070900</v>
+        <v>15681200</v>
       </c>
       <c r="K60" s="3">
         <v>14016200</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6772300</v>
+        <v>7046500</v>
       </c>
       <c r="E61" s="3">
-        <v>8111500</v>
+        <v>8439900</v>
       </c>
       <c r="F61" s="3">
-        <v>7734600</v>
+        <v>8047800</v>
       </c>
       <c r="G61" s="3">
-        <v>7224200</v>
+        <v>7516800</v>
       </c>
       <c r="H61" s="3">
-        <v>7323200</v>
+        <v>7619800</v>
       </c>
       <c r="I61" s="3">
-        <v>7765600</v>
+        <v>8080100</v>
       </c>
       <c r="J61" s="3">
-        <v>7468700</v>
+        <v>7771100</v>
       </c>
       <c r="K61" s="3">
         <v>7265400</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2250300</v>
+        <v>2341400</v>
       </c>
       <c r="E62" s="3">
-        <v>2169200</v>
+        <v>2257000</v>
       </c>
       <c r="F62" s="3">
-        <v>1602700</v>
+        <v>1667600</v>
       </c>
       <c r="G62" s="3">
-        <v>801400</v>
+        <v>833800</v>
       </c>
       <c r="H62" s="3">
-        <v>1829300</v>
+        <v>1903400</v>
       </c>
       <c r="I62" s="3">
-        <v>1888900</v>
+        <v>1965400</v>
       </c>
       <c r="J62" s="3">
-        <v>2503100</v>
+        <v>2604400</v>
       </c>
       <c r="K62" s="3">
         <v>2647300</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22854500</v>
+        <v>23779900</v>
       </c>
       <c r="E66" s="3">
-        <v>22048300</v>
+        <v>22941200</v>
       </c>
       <c r="F66" s="3">
-        <v>22078100</v>
+        <v>22972200</v>
       </c>
       <c r="G66" s="3">
-        <v>22131800</v>
+        <v>23028000</v>
       </c>
       <c r="H66" s="3">
-        <v>23726200</v>
+        <v>24687000</v>
       </c>
       <c r="I66" s="3">
-        <v>24024300</v>
+        <v>24997200</v>
       </c>
       <c r="J66" s="3">
-        <v>25042700</v>
+        <v>26056800</v>
       </c>
       <c r="K66" s="3">
         <v>23928900</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6977400</v>
+        <v>7259900</v>
       </c>
       <c r="E72" s="3">
-        <v>7571200</v>
+        <v>7877800</v>
       </c>
       <c r="F72" s="3">
-        <v>6079400</v>
+        <v>6325600</v>
       </c>
       <c r="G72" s="3">
-        <v>5536800</v>
+        <v>5761000</v>
       </c>
       <c r="H72" s="3">
-        <v>6130700</v>
+        <v>6379000</v>
       </c>
       <c r="I72" s="3">
-        <v>6561200</v>
+        <v>6826900</v>
       </c>
       <c r="J72" s="3">
-        <v>6710300</v>
+        <v>6982000</v>
       </c>
       <c r="K72" s="3">
         <v>6516600</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9455400</v>
+        <v>9838300</v>
       </c>
       <c r="E76" s="3">
-        <v>10044500</v>
+        <v>10451300</v>
       </c>
       <c r="F76" s="3">
-        <v>8540800</v>
+        <v>8886600</v>
       </c>
       <c r="G76" s="3">
-        <v>7991000</v>
+        <v>8314600</v>
       </c>
       <c r="H76" s="3">
-        <v>8570600</v>
+        <v>8917600</v>
       </c>
       <c r="I76" s="3">
-        <v>9290800</v>
+        <v>9667100</v>
       </c>
       <c r="J76" s="3">
-        <v>9428000</v>
+        <v>9809800</v>
       </c>
       <c r="K76" s="3">
         <v>9205300</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>339900</v>
+        <v>353600</v>
       </c>
       <c r="E81" s="3">
-        <v>343400</v>
+        <v>357400</v>
       </c>
       <c r="F81" s="3">
-        <v>450800</v>
+        <v>469000</v>
       </c>
       <c r="G81" s="3">
-        <v>-28600</v>
+        <v>-29800</v>
       </c>
       <c r="H81" s="3">
-        <v>-218200</v>
+        <v>-227100</v>
       </c>
       <c r="I81" s="3">
-        <v>212300</v>
+        <v>220900</v>
       </c>
       <c r="J81" s="3">
-        <v>-58400</v>
+        <v>-60800</v>
       </c>
       <c r="K81" s="3">
         <v>65100</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>775100</v>
+        <v>806500</v>
       </c>
       <c r="E83" s="3">
-        <v>669000</v>
+        <v>696100</v>
       </c>
       <c r="F83" s="3">
-        <v>785900</v>
+        <v>817700</v>
       </c>
       <c r="G83" s="3">
-        <v>701200</v>
+        <v>729600</v>
       </c>
       <c r="H83" s="3">
-        <v>788200</v>
+        <v>820200</v>
       </c>
       <c r="I83" s="3">
-        <v>702400</v>
+        <v>730800</v>
       </c>
       <c r="J83" s="3">
-        <v>795400</v>
+        <v>827600</v>
       </c>
       <c r="K83" s="3">
         <v>687300</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1869900</v>
+        <v>1945600</v>
       </c>
       <c r="E89" s="3">
-        <v>114500</v>
+        <v>119100</v>
       </c>
       <c r="F89" s="3">
-        <v>1088800</v>
+        <v>1132900</v>
       </c>
       <c r="G89" s="3">
-        <v>992200</v>
+        <v>1032300</v>
       </c>
       <c r="H89" s="3">
-        <v>1801900</v>
+        <v>1874800</v>
       </c>
       <c r="I89" s="3">
-        <v>415000</v>
+        <v>431800</v>
       </c>
       <c r="J89" s="3">
-        <v>1221100</v>
+        <v>1270600</v>
       </c>
       <c r="K89" s="3">
         <v>105300</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-240900</v>
+        <v>-308000</v>
       </c>
       <c r="E91" s="3">
-        <v>-312400</v>
+        <v>-375000</v>
       </c>
       <c r="F91" s="3">
-        <v>-183600</v>
+        <v>-319000</v>
       </c>
       <c r="G91" s="3">
-        <v>-198000</v>
+        <v>-294000</v>
       </c>
       <c r="H91" s="3">
-        <v>-306500</v>
+        <v>-301000</v>
       </c>
       <c r="I91" s="3">
-        <v>-364900</v>
+        <v>-374000</v>
       </c>
       <c r="J91" s="3">
-        <v>-254000</v>
+        <v>-265000</v>
       </c>
       <c r="K91" s="3">
         <v>-282700</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-344600</v>
+        <v>-358600</v>
       </c>
       <c r="E94" s="3">
-        <v>-438800</v>
+        <v>-456600</v>
       </c>
       <c r="F94" s="3">
-        <v>-335100</v>
+        <v>-348700</v>
       </c>
       <c r="G94" s="3">
-        <v>-345800</v>
+        <v>-359800</v>
       </c>
       <c r="H94" s="3">
-        <v>-313600</v>
+        <v>-326300</v>
       </c>
       <c r="I94" s="3">
-        <v>-397100</v>
+        <v>-413200</v>
       </c>
       <c r="J94" s="3">
-        <v>-110900</v>
+        <v>-115400</v>
       </c>
       <c r="K94" s="3">
         <v>-308700</v>
@@ -5099,19 +5099,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="G96" s="3">
-        <v>-27400</v>
+        <v>-28500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J96" s="3">
-        <v>-23900</v>
+        <v>-24800</v>
       </c>
       <c r="K96" s="3">
         <v>-3500</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-620100</v>
+        <v>-645200</v>
       </c>
       <c r="E100" s="3">
-        <v>-411400</v>
+        <v>-428100</v>
       </c>
       <c r="F100" s="3">
-        <v>-802600</v>
+        <v>-835100</v>
       </c>
       <c r="G100" s="3">
-        <v>-618900</v>
+        <v>-644000</v>
       </c>
       <c r="H100" s="3">
-        <v>-940900</v>
+        <v>-979000</v>
       </c>
       <c r="I100" s="3">
-        <v>-581900</v>
+        <v>-605500</v>
       </c>
       <c r="J100" s="3">
-        <v>-696400</v>
+        <v>-724600</v>
       </c>
       <c r="K100" s="3">
         <v>-4700</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>905100</v>
+        <v>941800</v>
       </c>
       <c r="E102" s="3">
-        <v>-735800</v>
+        <v>-765600</v>
       </c>
       <c r="F102" s="3">
-        <v>-48900</v>
+        <v>-50900</v>
       </c>
       <c r="G102" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="H102" s="3">
-        <v>547400</v>
+        <v>569500</v>
       </c>
       <c r="I102" s="3">
-        <v>-564100</v>
+        <v>-586900</v>
       </c>
       <c r="J102" s="3">
-        <v>413800</v>
+        <v>430600</v>
       </c>
       <c r="K102" s="3">
         <v>-404600</v>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E7" s="2">
         <v>44821</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44625</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44457</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44261</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44093</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43897</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43533</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43365</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43169</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43001</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42805</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42637</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42441</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42273</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42077</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20359000</v>
+        <v>19114700</v>
       </c>
       <c r="E8" s="3">
-        <v>17583400</v>
+        <v>20793900</v>
       </c>
       <c r="F8" s="3">
-        <v>19510300</v>
+        <v>17958900</v>
       </c>
       <c r="G8" s="3">
-        <v>17512700</v>
+        <v>19927000</v>
       </c>
       <c r="H8" s="3">
-        <v>18530100</v>
+        <v>17886700</v>
       </c>
       <c r="I8" s="3">
-        <v>17242200</v>
+        <v>18925900</v>
       </c>
       <c r="J8" s="3">
+        <v>17610400</v>
+      </c>
+      <c r="K8" s="3">
         <v>18732400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16418700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18453400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18836700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20722900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17939000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16343700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14460900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16198200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14626900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18839100</v>
+        <v>17505200</v>
       </c>
       <c r="E9" s="3">
-        <v>16207300</v>
+        <v>19241400</v>
       </c>
       <c r="F9" s="3">
-        <v>17961800</v>
+        <v>16553500</v>
       </c>
       <c r="G9" s="3">
-        <v>16410800</v>
+        <v>18345400</v>
       </c>
       <c r="H9" s="3">
-        <v>16929500</v>
+        <v>16761300</v>
       </c>
       <c r="I9" s="3">
-        <v>15792900</v>
+        <v>17291000</v>
       </c>
       <c r="J9" s="3">
+        <v>16130200</v>
+      </c>
+      <c r="K9" s="3">
         <v>17335200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15099700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17022500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17614700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19327600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16791200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15354700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13549200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15210900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13693300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1520000</v>
+        <v>1609500</v>
       </c>
       <c r="E10" s="3">
-        <v>1376000</v>
+        <v>1552400</v>
       </c>
       <c r="F10" s="3">
-        <v>1548500</v>
+        <v>1405400</v>
       </c>
       <c r="G10" s="3">
-        <v>1101800</v>
+        <v>1581600</v>
       </c>
       <c r="H10" s="3">
-        <v>1600600</v>
+        <v>1125400</v>
       </c>
       <c r="I10" s="3">
-        <v>1449300</v>
+        <v>1634800</v>
       </c>
       <c r="J10" s="3">
+        <v>1480200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1397100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1318900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1430900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1222000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1395300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1147800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>989000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>911700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>987400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>933600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,40 +1069,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-7400</v>
+        <v>596900</v>
       </c>
       <c r="E14" s="3">
-        <v>27300</v>
+        <v>-7600</v>
       </c>
       <c r="F14" s="3">
-        <v>-139000</v>
+        <v>27900</v>
       </c>
       <c r="G14" s="3">
-        <v>106700</v>
+        <v>-141900</v>
       </c>
       <c r="H14" s="3">
-        <v>541000</v>
+        <v>109000</v>
       </c>
       <c r="I14" s="3">
-        <v>137700</v>
+        <v>552500</v>
       </c>
       <c r="J14" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K14" s="3">
         <v>277900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>30800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1096,8 +1116,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1108,8 +1128,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19698900</v>
+        <v>19017100</v>
       </c>
       <c r="E17" s="3">
-        <v>16991500</v>
+        <v>20119700</v>
       </c>
       <c r="F17" s="3">
-        <v>18679000</v>
+        <v>17354400</v>
       </c>
       <c r="G17" s="3">
-        <v>17368700</v>
+        <v>19077900</v>
       </c>
       <c r="H17" s="3">
-        <v>18456900</v>
+        <v>17739700</v>
       </c>
       <c r="I17" s="3">
-        <v>16712300</v>
+        <v>18851100</v>
       </c>
       <c r="J17" s="3">
+        <v>17069300</v>
+      </c>
+      <c r="K17" s="3">
         <v>18419700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16096900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18063100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18516200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20322400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17694600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15752900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14090500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15646500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14212100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>660100</v>
+        <v>97600</v>
       </c>
       <c r="E18" s="3">
-        <v>591900</v>
+        <v>674200</v>
       </c>
       <c r="F18" s="3">
-        <v>831300</v>
+        <v>604500</v>
       </c>
       <c r="G18" s="3">
-        <v>143900</v>
+        <v>849100</v>
       </c>
       <c r="H18" s="3">
-        <v>73200</v>
+        <v>147000</v>
       </c>
       <c r="I18" s="3">
-        <v>529800</v>
+        <v>74800</v>
       </c>
       <c r="J18" s="3">
+        <v>541100</v>
+      </c>
+      <c r="K18" s="3">
         <v>312700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>321700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>390400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>320500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>244300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>590800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>370400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>551700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>414800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,288 +1350,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6200</v>
+        <v>16500</v>
       </c>
       <c r="E20" s="3">
-        <v>-29800</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>34700</v>
+        <v>-30400</v>
       </c>
       <c r="G20" s="3">
-        <v>9900</v>
+        <v>35500</v>
       </c>
       <c r="H20" s="3">
-        <v>-6200</v>
+        <v>10100</v>
       </c>
       <c r="I20" s="3">
-        <v>-9900</v>
+        <v>-6300</v>
       </c>
       <c r="J20" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-43400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-29700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-26100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-48700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1472800</v>
+        <v>821200</v>
       </c>
       <c r="E21" s="3">
-        <v>1258200</v>
+        <v>1504300</v>
       </c>
       <c r="F21" s="3">
-        <v>1683800</v>
+        <v>1285000</v>
       </c>
       <c r="G21" s="3">
-        <v>883400</v>
+        <v>1719700</v>
       </c>
       <c r="H21" s="3">
-        <v>887200</v>
+        <v>902300</v>
       </c>
       <c r="I21" s="3">
-        <v>1250700</v>
+        <v>906100</v>
       </c>
       <c r="J21" s="3">
+        <v>1277400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1096900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1019700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1232100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>831900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>904300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>639300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>983800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>705600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>927400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>709700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199800</v>
+        <v>176200</v>
       </c>
       <c r="E22" s="3">
-        <v>173700</v>
+        <v>204000</v>
       </c>
       <c r="F22" s="3">
-        <v>212200</v>
+        <v>177400</v>
       </c>
       <c r="G22" s="3">
-        <v>186100</v>
+        <v>216700</v>
       </c>
       <c r="H22" s="3">
-        <v>237000</v>
+        <v>190100</v>
       </c>
       <c r="I22" s="3">
-        <v>214700</v>
+        <v>242100</v>
       </c>
       <c r="J22" s="3">
+        <v>219200</v>
+      </c>
+      <c r="K22" s="3">
         <v>258100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>220000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>270800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>80700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>68700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>80200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>73000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>83500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>79000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>466500</v>
+        <v>-62100</v>
       </c>
       <c r="E23" s="3">
-        <v>388400</v>
+        <v>476500</v>
       </c>
       <c r="F23" s="3">
-        <v>653900</v>
+        <v>396700</v>
       </c>
       <c r="G23" s="3">
-        <v>-32300</v>
+        <v>667900</v>
       </c>
       <c r="H23" s="3">
-        <v>-170000</v>
+        <v>-32900</v>
       </c>
       <c r="I23" s="3">
-        <v>305200</v>
+        <v>-173600</v>
       </c>
       <c r="J23" s="3">
+        <v>311800</v>
+      </c>
+      <c r="K23" s="3">
         <v>11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>112400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>130500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>257800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>311300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>173000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>480900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>272600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>442200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>287100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>112900</v>
+        <v>36800</v>
       </c>
       <c r="E24" s="3">
-        <v>31000</v>
+        <v>115300</v>
       </c>
       <c r="F24" s="3">
-        <v>184900</v>
+        <v>31700</v>
       </c>
       <c r="G24" s="3">
-        <v>-6200</v>
+        <v>188800</v>
       </c>
       <c r="H24" s="3">
-        <v>52100</v>
+        <v>-6300</v>
       </c>
       <c r="I24" s="3">
-        <v>69500</v>
+        <v>53200</v>
       </c>
       <c r="J24" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K24" s="3">
         <v>58300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>62700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>76400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>70000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>94400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>97800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>52700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>353600</v>
+        <v>-98800</v>
       </c>
       <c r="E26" s="3">
-        <v>357400</v>
+        <v>361200</v>
       </c>
       <c r="F26" s="3">
-        <v>469000</v>
+        <v>365000</v>
       </c>
       <c r="G26" s="3">
-        <v>-26100</v>
+        <v>479000</v>
       </c>
       <c r="H26" s="3">
-        <v>-222100</v>
+        <v>-26600</v>
       </c>
       <c r="I26" s="3">
-        <v>235800</v>
+        <v>-226800</v>
       </c>
       <c r="J26" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-47200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>150000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>195000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>234900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>386600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>270000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>344300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>234400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>353600</v>
+        <v>-98800</v>
       </c>
       <c r="E27" s="3">
-        <v>357400</v>
+        <v>361200</v>
       </c>
       <c r="F27" s="3">
-        <v>469000</v>
+        <v>365000</v>
       </c>
       <c r="G27" s="3">
-        <v>-29800</v>
+        <v>479000</v>
       </c>
       <c r="H27" s="3">
-        <v>-227100</v>
+        <v>-30400</v>
       </c>
       <c r="I27" s="3">
-        <v>220900</v>
+        <v>-231900</v>
       </c>
       <c r="J27" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-60800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>137800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>184100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>220800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>92500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>373600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>256900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>341700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>234400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6200</v>
+        <v>-16500</v>
       </c>
       <c r="E32" s="3">
-        <v>29800</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-34700</v>
+        <v>30400</v>
       </c>
       <c r="G32" s="3">
-        <v>-9900</v>
+        <v>-35500</v>
       </c>
       <c r="H32" s="3">
-        <v>6200</v>
+        <v>-10100</v>
       </c>
       <c r="I32" s="3">
-        <v>9900</v>
+        <v>6300</v>
       </c>
       <c r="J32" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K32" s="3">
         <v>43400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>29700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>26100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>48700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>353600</v>
+        <v>-98800</v>
       </c>
       <c r="E33" s="3">
-        <v>357400</v>
+        <v>361200</v>
       </c>
       <c r="F33" s="3">
-        <v>469000</v>
+        <v>365000</v>
       </c>
       <c r="G33" s="3">
-        <v>-29800</v>
+        <v>479000</v>
       </c>
       <c r="H33" s="3">
-        <v>-227100</v>
+        <v>-30400</v>
       </c>
       <c r="I33" s="3">
-        <v>220900</v>
+        <v>-231900</v>
       </c>
       <c r="J33" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-60800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>137800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>184100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>220800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>92500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>373600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>256900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>341700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>234400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>353600</v>
+        <v>-98800</v>
       </c>
       <c r="E35" s="3">
-        <v>357400</v>
+        <v>361200</v>
       </c>
       <c r="F35" s="3">
-        <v>469000</v>
+        <v>365000</v>
       </c>
       <c r="G35" s="3">
-        <v>-29800</v>
+        <v>479000</v>
       </c>
       <c r="H35" s="3">
-        <v>-227100</v>
+        <v>-30400</v>
       </c>
       <c r="I35" s="3">
-        <v>220900</v>
+        <v>-231900</v>
       </c>
       <c r="J35" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-60800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>137800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>184100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>220800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>92500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>373600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>256900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>341700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>234400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E38" s="2">
         <v>44821</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44625</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44457</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44261</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44093</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43897</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43533</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43365</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43169</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43001</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42805</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42637</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42441</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42273</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42077</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,512 +2404,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1474100</v>
+        <v>1234400</v>
       </c>
       <c r="E41" s="3">
-        <v>733300</v>
+        <v>1505600</v>
       </c>
       <c r="F41" s="3">
-        <v>1348700</v>
+        <v>749000</v>
       </c>
       <c r="G41" s="3">
-        <v>897100</v>
+        <v>1377600</v>
       </c>
       <c r="H41" s="3">
-        <v>2054800</v>
+        <v>916300</v>
       </c>
       <c r="I41" s="3">
-        <v>2128000</v>
+        <v>2098600</v>
       </c>
       <c r="J41" s="3">
+        <v>2173400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1372300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>961700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1095500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1427900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1542500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1112100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1383300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1113900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1494700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1692100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1134100</v>
+        <v>1063300</v>
       </c>
       <c r="E42" s="3">
-        <v>533500</v>
+        <v>1158300</v>
       </c>
       <c r="F42" s="3">
-        <v>820200</v>
+        <v>544900</v>
       </c>
       <c r="G42" s="3">
-        <v>1168800</v>
+        <v>837700</v>
       </c>
       <c r="H42" s="3">
-        <v>586900</v>
+        <v>1193800</v>
       </c>
       <c r="I42" s="3">
-        <v>440500</v>
+        <v>599400</v>
       </c>
       <c r="J42" s="3">
+        <v>449900</v>
+      </c>
+      <c r="K42" s="3">
         <v>675000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>613900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1119900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1208300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>536300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>450400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>309000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>439600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>156500</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4966900</v>
+        <v>5209900</v>
       </c>
       <c r="E43" s="3">
-        <v>4772100</v>
+        <v>5073000</v>
       </c>
       <c r="F43" s="3">
-        <v>8296000</v>
+        <v>4874000</v>
       </c>
       <c r="G43" s="3">
-        <v>8659500</v>
+        <v>8473200</v>
       </c>
       <c r="H43" s="3">
-        <v>9315900</v>
+        <v>8844500</v>
       </c>
       <c r="I43" s="3">
-        <v>10811100</v>
+        <v>9514900</v>
       </c>
       <c r="J43" s="3">
+        <v>11042000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5584800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5048600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5044300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5597000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5115600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4305800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4140900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2873400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2986900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2725800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2346400</v>
+        <v>2406600</v>
       </c>
       <c r="E44" s="3">
-        <v>2229700</v>
+        <v>2396500</v>
       </c>
       <c r="F44" s="3">
-        <v>2087000</v>
+        <v>2277300</v>
       </c>
       <c r="G44" s="3">
-        <v>2016300</v>
+        <v>2131600</v>
       </c>
       <c r="H44" s="3">
-        <v>2028700</v>
+        <v>2059400</v>
       </c>
       <c r="I44" s="3">
-        <v>2149100</v>
+        <v>2072000</v>
       </c>
       <c r="J44" s="3">
+        <v>2195000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2423300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2281800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2292200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2468500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2728300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2344400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2460200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1262600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1321300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1312800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>139000</v>
+        <v>88700</v>
       </c>
       <c r="E45" s="3">
-        <v>96800</v>
+        <v>141900</v>
       </c>
       <c r="F45" s="3">
+        <v>98800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K45" s="3">
+        <v>50900</v>
+      </c>
+      <c r="L45" s="3">
         <v>24800</v>
       </c>
-      <c r="G45" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>34700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>14900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>50900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>24800</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>124200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>175800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>90900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10060400</v>
+        <v>10002800</v>
       </c>
       <c r="E46" s="3">
-        <v>8365500</v>
+        <v>10275300</v>
       </c>
       <c r="F46" s="3">
-        <v>8887900</v>
+        <v>8544100</v>
       </c>
       <c r="G46" s="3">
-        <v>8868000</v>
+        <v>9077700</v>
       </c>
       <c r="H46" s="3">
-        <v>9827100</v>
+        <v>9057400</v>
       </c>
       <c r="I46" s="3">
-        <v>9407700</v>
+        <v>10037000</v>
       </c>
       <c r="J46" s="3">
+        <v>9608700</v>
+      </c>
+      <c r="K46" s="3">
         <v>10106300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8930900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9609200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10715300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9948200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8336800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8469200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5755900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6018100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5821500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2903500</v>
+        <v>3144200</v>
       </c>
       <c r="E47" s="3">
-        <v>3347700</v>
+        <v>2965500</v>
       </c>
       <c r="F47" s="3">
-        <v>3391100</v>
+        <v>3419200</v>
       </c>
       <c r="G47" s="3">
-        <v>6661900</v>
+        <v>3463500</v>
       </c>
       <c r="H47" s="3">
-        <v>8119800</v>
+        <v>6804100</v>
       </c>
       <c r="I47" s="3">
-        <v>9839500</v>
+        <v>8293200</v>
       </c>
       <c r="J47" s="3">
+        <v>10049700</v>
+      </c>
+      <c r="K47" s="3">
         <v>5629500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5034400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4342800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4293200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4044400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3509300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3243700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3155100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2870800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2683600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17033700</v>
+        <v>17166800</v>
       </c>
       <c r="E48" s="3">
-        <v>17324000</v>
+        <v>17397500</v>
       </c>
       <c r="F48" s="3">
-        <v>16923300</v>
+        <v>17694000</v>
       </c>
       <c r="G48" s="3">
-        <v>27199600</v>
+        <v>17284700</v>
       </c>
       <c r="H48" s="3">
-        <v>27640100</v>
+        <v>27780500</v>
       </c>
       <c r="I48" s="3">
-        <v>28148800</v>
+        <v>28230400</v>
       </c>
       <c r="J48" s="3">
+        <v>28750000</v>
+      </c>
+      <c r="K48" s="3">
         <v>17149100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16780600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17492100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13498800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14078900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13215800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12974600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12735300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12722200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12704400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1266900</v>
+        <v>1297700</v>
       </c>
       <c r="E49" s="3">
-        <v>1248200</v>
+        <v>1293900</v>
       </c>
       <c r="F49" s="3">
-        <v>1242000</v>
+        <v>1274900</v>
       </c>
       <c r="G49" s="3">
-        <v>1134100</v>
+        <v>1268600</v>
       </c>
       <c r="H49" s="3">
-        <v>1064600</v>
+        <v>1158300</v>
       </c>
       <c r="I49" s="3">
-        <v>1208500</v>
+        <v>1087300</v>
       </c>
       <c r="J49" s="3">
+        <v>1234400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1250700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1233800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1282100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1462000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1178800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1060600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1027800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>429100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>448700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>428000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2353800</v>
+        <v>1538500</v>
       </c>
       <c r="E52" s="3">
-        <v>3107000</v>
+        <v>2404100</v>
       </c>
       <c r="F52" s="3">
-        <v>1414500</v>
+        <v>3173300</v>
       </c>
       <c r="G52" s="3">
-        <v>962900</v>
+        <v>1444700</v>
       </c>
       <c r="H52" s="3">
-        <v>1263100</v>
+        <v>983400</v>
       </c>
       <c r="I52" s="3">
-        <v>1400900</v>
+        <v>1290100</v>
       </c>
       <c r="J52" s="3">
+        <v>1430800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1730900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1154500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>356200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>60800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>62600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>138300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33618200</v>
+        <v>33150000</v>
       </c>
       <c r="E54" s="3">
-        <v>33392400</v>
+        <v>34336200</v>
       </c>
       <c r="F54" s="3">
-        <v>31858800</v>
+        <v>34105600</v>
       </c>
       <c r="G54" s="3">
-        <v>31342600</v>
+        <v>32539200</v>
       </c>
       <c r="H54" s="3">
-        <v>33604600</v>
+        <v>32012000</v>
       </c>
       <c r="I54" s="3">
-        <v>34664200</v>
+        <v>34322300</v>
       </c>
       <c r="J54" s="3">
+        <v>35404600</v>
+      </c>
+      <c r="K54" s="3">
         <v>35866600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33134200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33082500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30004700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29263100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26149000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25776000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22138100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22131500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21775800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6161800</v>
+        <v>6129900</v>
       </c>
       <c r="E57" s="3">
-        <v>5640700</v>
+        <v>6293400</v>
       </c>
       <c r="F57" s="3">
-        <v>5661800</v>
+        <v>5761100</v>
       </c>
       <c r="G57" s="3">
-        <v>5568700</v>
+        <v>5782700</v>
       </c>
       <c r="H57" s="3">
-        <v>5834200</v>
+        <v>5687600</v>
       </c>
       <c r="I57" s="3">
-        <v>5304400</v>
+        <v>5958800</v>
       </c>
       <c r="J57" s="3">
+        <v>5417700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5844200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5172800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5833600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5894300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5920800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4941100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5511200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8151900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8526300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8369500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1970400</v>
+        <v>2009900</v>
       </c>
       <c r="E58" s="3">
-        <v>719700</v>
+        <v>2012500</v>
       </c>
       <c r="F58" s="3">
-        <v>1016200</v>
+        <v>735000</v>
       </c>
       <c r="G58" s="3">
-        <v>1091900</v>
+        <v>1037900</v>
       </c>
       <c r="H58" s="3">
-        <v>1749500</v>
+        <v>1115200</v>
       </c>
       <c r="I58" s="3">
-        <v>692400</v>
+        <v>1786900</v>
       </c>
       <c r="J58" s="3">
+        <v>707200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1279300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1595700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>933200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>870100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>984900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>454400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>586900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>290900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>230900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>342400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6259800</v>
+        <v>6578600</v>
       </c>
       <c r="E59" s="3">
-        <v>5883900</v>
+        <v>6393500</v>
       </c>
       <c r="F59" s="3">
-        <v>6578700</v>
+        <v>6009500</v>
       </c>
       <c r="G59" s="3">
-        <v>8016800</v>
+        <v>6719200</v>
       </c>
       <c r="H59" s="3">
-        <v>7580000</v>
+        <v>8188000</v>
       </c>
       <c r="I59" s="3">
-        <v>8954900</v>
+        <v>7741900</v>
       </c>
       <c r="J59" s="3">
+        <v>9146100</v>
+      </c>
+      <c r="K59" s="3">
         <v>8557800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7247600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6802200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7285400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7275100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6172100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5257900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>322200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>277800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>404300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14392000</v>
+        <v>14718400</v>
       </c>
       <c r="E60" s="3">
-        <v>12244200</v>
+        <v>14699400</v>
       </c>
       <c r="F60" s="3">
-        <v>13256700</v>
+        <v>12505700</v>
       </c>
       <c r="G60" s="3">
-        <v>14677400</v>
+        <v>13539800</v>
       </c>
       <c r="H60" s="3">
-        <v>15163800</v>
+        <v>14990900</v>
       </c>
       <c r="I60" s="3">
-        <v>14951600</v>
+        <v>15487700</v>
       </c>
       <c r="J60" s="3">
+        <v>15271000</v>
+      </c>
+      <c r="K60" s="3">
         <v>15681200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14016200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13568900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14049800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14180800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11340300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11062600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8765000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9035000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9116100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7046500</v>
+        <v>7044900</v>
       </c>
       <c r="E61" s="3">
-        <v>8439900</v>
+        <v>7197000</v>
       </c>
       <c r="F61" s="3">
-        <v>8047800</v>
+        <v>8620200</v>
       </c>
       <c r="G61" s="3">
-        <v>7516800</v>
+        <v>8219700</v>
       </c>
       <c r="H61" s="3">
-        <v>7619800</v>
+        <v>7677300</v>
       </c>
       <c r="I61" s="3">
-        <v>8080100</v>
+        <v>7782500</v>
       </c>
       <c r="J61" s="3">
+        <v>8252700</v>
+      </c>
+      <c r="K61" s="3">
         <v>7771100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7265400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8113600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2184800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2042000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2693100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2731700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2856400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3018200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3299900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2341400</v>
+        <v>2195000</v>
       </c>
       <c r="E62" s="3">
-        <v>2257000</v>
+        <v>2391400</v>
       </c>
       <c r="F62" s="3">
-        <v>1667600</v>
+        <v>2305200</v>
       </c>
       <c r="G62" s="3">
-        <v>833800</v>
+        <v>1703300</v>
       </c>
       <c r="H62" s="3">
-        <v>1903400</v>
+        <v>851600</v>
       </c>
       <c r="I62" s="3">
-        <v>1965400</v>
+        <v>1944000</v>
       </c>
       <c r="J62" s="3">
+        <v>2007400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2604400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2647300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2648400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3663100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3223600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3039100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3586300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2214700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1977300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2066000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23779900</v>
+        <v>23958300</v>
       </c>
       <c r="E66" s="3">
-        <v>22941200</v>
+        <v>24287800</v>
       </c>
       <c r="F66" s="3">
-        <v>22972200</v>
+        <v>23431100</v>
       </c>
       <c r="G66" s="3">
-        <v>23028000</v>
+        <v>23462800</v>
       </c>
       <c r="H66" s="3">
-        <v>24687000</v>
+        <v>23519800</v>
       </c>
       <c r="I66" s="3">
-        <v>24997200</v>
+        <v>25214200</v>
       </c>
       <c r="J66" s="3">
+        <v>25531000</v>
+      </c>
+      <c r="K66" s="3">
         <v>26056800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23928900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24330900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19897700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19446400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17072500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17380500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13836100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14030500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14482100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7259900</v>
+        <v>6543100</v>
       </c>
       <c r="E72" s="3">
-        <v>7877800</v>
+        <v>7415000</v>
       </c>
       <c r="F72" s="3">
-        <v>6325600</v>
+        <v>8046100</v>
       </c>
       <c r="G72" s="3">
-        <v>5761000</v>
+        <v>6460700</v>
       </c>
       <c r="H72" s="3">
-        <v>6379000</v>
+        <v>5884100</v>
       </c>
       <c r="I72" s="3">
-        <v>6826900</v>
+        <v>6515200</v>
       </c>
       <c r="J72" s="3">
+        <v>6972700</v>
+      </c>
+      <c r="K72" s="3">
         <v>6982000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6516600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5988500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7034400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6639700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6116600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5500900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5484600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5285100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5113100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9838300</v>
+        <v>9191700</v>
       </c>
       <c r="E76" s="3">
-        <v>10451300</v>
+        <v>10048400</v>
       </c>
       <c r="F76" s="3">
-        <v>8886600</v>
+        <v>10674500</v>
       </c>
       <c r="G76" s="3">
-        <v>8314600</v>
+        <v>9076400</v>
       </c>
       <c r="H76" s="3">
-        <v>8917600</v>
+        <v>8492200</v>
       </c>
       <c r="I76" s="3">
-        <v>9667100</v>
+        <v>9108100</v>
       </c>
       <c r="J76" s="3">
+        <v>9873500</v>
+      </c>
+      <c r="K76" s="3">
         <v>9809800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9205300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8751600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10107000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9816600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9076500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8395500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8301900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8101100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7293700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44989</v>
+      </c>
+      <c r="E80" s="2">
         <v>44821</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44625</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44457</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44261</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44093</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43897</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43533</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43365</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43169</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43001</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42805</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42637</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42441</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42273</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42077</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>353600</v>
+        <v>-98800</v>
       </c>
       <c r="E81" s="3">
-        <v>357400</v>
+        <v>361200</v>
       </c>
       <c r="F81" s="3">
-        <v>469000</v>
+        <v>365000</v>
       </c>
       <c r="G81" s="3">
-        <v>-29800</v>
+        <v>479000</v>
       </c>
       <c r="H81" s="3">
-        <v>-227100</v>
+        <v>-30400</v>
       </c>
       <c r="I81" s="3">
-        <v>220900</v>
+        <v>-231900</v>
       </c>
       <c r="J81" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-60800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>137800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>184100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>220800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>92500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>373600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>256900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>341700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>234400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>806500</v>
+        <v>707200</v>
       </c>
       <c r="E83" s="3">
-        <v>696100</v>
+        <v>823700</v>
       </c>
       <c r="F83" s="3">
-        <v>817700</v>
+        <v>711000</v>
       </c>
       <c r="G83" s="3">
-        <v>729600</v>
+        <v>835200</v>
       </c>
       <c r="H83" s="3">
-        <v>820200</v>
+        <v>745200</v>
       </c>
       <c r="I83" s="3">
-        <v>730800</v>
+        <v>837700</v>
       </c>
       <c r="J83" s="3">
+        <v>746400</v>
+      </c>
+      <c r="K83" s="3">
         <v>827600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>687300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>830800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>503200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>512300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>397600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>422700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>360000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>401700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>343700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1945600</v>
+        <v>781900</v>
       </c>
       <c r="E89" s="3">
-        <v>119100</v>
+        <v>1987100</v>
       </c>
       <c r="F89" s="3">
-        <v>1132900</v>
+        <v>121700</v>
       </c>
       <c r="G89" s="3">
-        <v>1032300</v>
+        <v>1157000</v>
       </c>
       <c r="H89" s="3">
-        <v>1874800</v>
+        <v>1054400</v>
       </c>
       <c r="I89" s="3">
-        <v>431800</v>
+        <v>1914900</v>
       </c>
       <c r="J89" s="3">
+        <v>441000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1270600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>105300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1163800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>782800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1119400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>537600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>964400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>189100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>322200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>675500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-430000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-308000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-375000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-319000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-294000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-301000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-374000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-265000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-282700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-286700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-380500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-399100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-431900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-396900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-373000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-469600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-583300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-358600</v>
+        <v>-551300</v>
       </c>
       <c r="E94" s="3">
-        <v>-456600</v>
+        <v>-366200</v>
       </c>
       <c r="F94" s="3">
-        <v>-348700</v>
+        <v>-466400</v>
       </c>
       <c r="G94" s="3">
-        <v>-359800</v>
+        <v>-356100</v>
       </c>
       <c r="H94" s="3">
-        <v>-326300</v>
+        <v>-367500</v>
       </c>
       <c r="I94" s="3">
-        <v>-413200</v>
+        <v>-333300</v>
       </c>
       <c r="J94" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-115400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-308700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-259800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-261800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-393400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-394900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-583100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-113500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-408200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-454300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,8 +5320,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5099,52 +5333,55 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-28500</v>
+        <v>-5100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-29100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-24800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-24400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-28300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>199600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-204800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-126400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,64 +5554,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-645200</v>
+        <v>-557600</v>
       </c>
       <c r="E100" s="3">
-        <v>-428100</v>
+        <v>-659000</v>
       </c>
       <c r="F100" s="3">
-        <v>-835100</v>
+        <v>-437200</v>
       </c>
       <c r="G100" s="3">
-        <v>-644000</v>
+        <v>-852900</v>
       </c>
       <c r="H100" s="3">
-        <v>-979000</v>
+        <v>-657700</v>
       </c>
       <c r="I100" s="3">
-        <v>-605500</v>
+        <v>-999900</v>
       </c>
       <c r="J100" s="3">
+        <v>-618400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-724600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-912500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>19100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-365100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-281300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-327100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-233500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>66500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-385800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5423,60 +5672,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>941800</v>
+        <v>-327000</v>
       </c>
       <c r="E102" s="3">
-        <v>-765600</v>
+        <v>961900</v>
       </c>
       <c r="F102" s="3">
-        <v>-50900</v>
+        <v>-781900</v>
       </c>
       <c r="G102" s="3">
-        <v>28500</v>
+        <v>-52000</v>
       </c>
       <c r="H102" s="3">
-        <v>569500</v>
+        <v>29100</v>
       </c>
       <c r="I102" s="3">
-        <v>-586900</v>
+        <v>581700</v>
       </c>
       <c r="J102" s="3">
+        <v>-599400</v>
+      </c>
+      <c r="K102" s="3">
         <v>430600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-404600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-324500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>540100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>360900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-138700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>54300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-157800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-164600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-234400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSAIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,274 +665,287 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45185</v>
+      </c>
+      <c r="E7" s="2">
         <v>44989</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44821</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44625</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44457</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44261</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44093</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43897</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43533</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43365</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43169</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43001</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42805</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42637</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42441</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42273</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42077</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19114700</v>
+        <v>21069100</v>
       </c>
       <c r="E8" s="3">
-        <v>20793900</v>
+        <v>18712000</v>
       </c>
       <c r="F8" s="3">
-        <v>17958900</v>
+        <v>20355800</v>
       </c>
       <c r="G8" s="3">
-        <v>19927000</v>
+        <v>17580500</v>
       </c>
       <c r="H8" s="3">
-        <v>17886700</v>
+        <v>19507200</v>
       </c>
       <c r="I8" s="3">
-        <v>18925900</v>
+        <v>17509800</v>
       </c>
       <c r="J8" s="3">
+        <v>18527100</v>
+      </c>
+      <c r="K8" s="3">
         <v>17610400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18732400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16418700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18453400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18836700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20722900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17939000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16343700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14460900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16198200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14626900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16679800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17505200</v>
+        <v>19425300</v>
       </c>
       <c r="E9" s="3">
-        <v>19241400</v>
+        <v>17136400</v>
       </c>
       <c r="F9" s="3">
-        <v>16553500</v>
+        <v>18836000</v>
       </c>
       <c r="G9" s="3">
-        <v>18345400</v>
+        <v>16204700</v>
       </c>
       <c r="H9" s="3">
-        <v>16761300</v>
+        <v>17958900</v>
       </c>
       <c r="I9" s="3">
-        <v>17291000</v>
+        <v>16408200</v>
       </c>
       <c r="J9" s="3">
+        <v>16926700</v>
+      </c>
+      <c r="K9" s="3">
         <v>16130200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17335200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15099700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17022500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17614700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19327600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16791200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15354700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13549200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15210900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13693300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>16022700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1609500</v>
+        <v>1643800</v>
       </c>
       <c r="E10" s="3">
-        <v>1552400</v>
+        <v>1575600</v>
       </c>
       <c r="F10" s="3">
-        <v>1405400</v>
+        <v>1519700</v>
       </c>
       <c r="G10" s="3">
-        <v>1581600</v>
+        <v>1375800</v>
       </c>
       <c r="H10" s="3">
-        <v>1125400</v>
+        <v>1548300</v>
       </c>
       <c r="I10" s="3">
-        <v>1634800</v>
+        <v>1101700</v>
       </c>
       <c r="J10" s="3">
+        <v>1600400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1480200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1397100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1318900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1430900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1222000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1395300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1147800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>989000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>911700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>987400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>933600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>657100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,43 +1089,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>596900</v>
+        <v>140200</v>
       </c>
       <c r="E14" s="3">
-        <v>-7600</v>
+        <v>584300</v>
       </c>
       <c r="F14" s="3">
-        <v>27900</v>
+        <v>-7400</v>
       </c>
       <c r="G14" s="3">
-        <v>-141900</v>
+        <v>27300</v>
       </c>
       <c r="H14" s="3">
-        <v>109000</v>
+        <v>-138900</v>
       </c>
       <c r="I14" s="3">
-        <v>552500</v>
+        <v>106700</v>
       </c>
       <c r="J14" s="3">
+        <v>540900</v>
+      </c>
+      <c r="K14" s="3">
         <v>140700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>277900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-17100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1119,8 +1139,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1131,8 +1151,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1213,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19017100</v>
+        <v>20531900</v>
       </c>
       <c r="E17" s="3">
-        <v>20119700</v>
+        <v>18616400</v>
       </c>
       <c r="F17" s="3">
-        <v>17354400</v>
+        <v>19695800</v>
       </c>
       <c r="G17" s="3">
-        <v>19077900</v>
+        <v>16988800</v>
       </c>
       <c r="H17" s="3">
-        <v>17739700</v>
+        <v>18676000</v>
       </c>
       <c r="I17" s="3">
-        <v>18851100</v>
+        <v>17365900</v>
       </c>
       <c r="J17" s="3">
+        <v>18453900</v>
+      </c>
+      <c r="K17" s="3">
         <v>17069300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18419700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16096900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18063100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18516200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20322400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17694600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15752900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14090500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15646500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14212100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16987900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>97600</v>
+        <v>537200</v>
       </c>
       <c r="E18" s="3">
-        <v>674200</v>
+        <v>95500</v>
       </c>
       <c r="F18" s="3">
-        <v>604500</v>
+        <v>660000</v>
       </c>
       <c r="G18" s="3">
-        <v>849100</v>
+        <v>591800</v>
       </c>
       <c r="H18" s="3">
-        <v>147000</v>
+        <v>831200</v>
       </c>
       <c r="I18" s="3">
-        <v>74800</v>
+        <v>143900</v>
       </c>
       <c r="J18" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K18" s="3">
         <v>541100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>312700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>321700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>390400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>320500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>244300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>590800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>370400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>551700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>414800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,303 +1384,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16500</v>
+        <v>14900</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>16100</v>
       </c>
       <c r="F20" s="3">
-        <v>-30400</v>
+        <v>6200</v>
       </c>
       <c r="G20" s="3">
-        <v>35500</v>
+        <v>-29800</v>
       </c>
       <c r="H20" s="3">
-        <v>10100</v>
+        <v>34700</v>
       </c>
       <c r="I20" s="3">
-        <v>-6300</v>
+        <v>9900</v>
       </c>
       <c r="J20" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-43400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-29700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-26100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-48700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>821200</v>
+        <v>1334900</v>
       </c>
       <c r="E21" s="3">
-        <v>1504300</v>
+        <v>803900</v>
       </c>
       <c r="F21" s="3">
-        <v>1285000</v>
+        <v>1472600</v>
       </c>
       <c r="G21" s="3">
-        <v>1719700</v>
+        <v>1258000</v>
       </c>
       <c r="H21" s="3">
-        <v>902300</v>
+        <v>1683500</v>
       </c>
       <c r="I21" s="3">
-        <v>906100</v>
+        <v>883300</v>
       </c>
       <c r="J21" s="3">
+        <v>887000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1277400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1096900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1019700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1232100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>831900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>904300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>639300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>983800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>705600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>927400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>709700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>119800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>176200</v>
+        <v>210900</v>
       </c>
       <c r="E22" s="3">
-        <v>204000</v>
+        <v>172400</v>
       </c>
       <c r="F22" s="3">
-        <v>177400</v>
+        <v>199700</v>
       </c>
       <c r="G22" s="3">
-        <v>216700</v>
+        <v>173700</v>
       </c>
       <c r="H22" s="3">
-        <v>190100</v>
+        <v>212100</v>
       </c>
       <c r="I22" s="3">
-        <v>242100</v>
+        <v>186100</v>
       </c>
       <c r="J22" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K22" s="3">
         <v>219200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>258100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>220000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>270800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>68700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>80200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>73000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>83500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>79000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62100</v>
+        <v>341200</v>
       </c>
       <c r="E23" s="3">
-        <v>476500</v>
+        <v>-60800</v>
       </c>
       <c r="F23" s="3">
-        <v>396700</v>
+        <v>466500</v>
       </c>
       <c r="G23" s="3">
-        <v>667900</v>
+        <v>388300</v>
       </c>
       <c r="H23" s="3">
-        <v>-32900</v>
+        <v>653800</v>
       </c>
       <c r="I23" s="3">
-        <v>-173600</v>
+        <v>-32300</v>
       </c>
       <c r="J23" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="K23" s="3">
         <v>311800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>112400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>130500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>257800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>311300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>173000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>480900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>272600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>442200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>287100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-381900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36800</v>
+        <v>148900</v>
       </c>
       <c r="E24" s="3">
-        <v>115300</v>
+        <v>36000</v>
       </c>
       <c r="F24" s="3">
-        <v>31700</v>
+        <v>112900</v>
       </c>
       <c r="G24" s="3">
-        <v>188800</v>
+        <v>31000</v>
       </c>
       <c r="H24" s="3">
-        <v>-6300</v>
+        <v>184800</v>
       </c>
       <c r="I24" s="3">
-        <v>53200</v>
+        <v>-6200</v>
       </c>
       <c r="J24" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K24" s="3">
         <v>71000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-19500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>62700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>76400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>70000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>94400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>97800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>52700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>71100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-98800</v>
+        <v>192300</v>
       </c>
       <c r="E26" s="3">
-        <v>361200</v>
+        <v>-96800</v>
       </c>
       <c r="F26" s="3">
-        <v>365000</v>
+        <v>353600</v>
       </c>
       <c r="G26" s="3">
-        <v>479000</v>
+        <v>357300</v>
       </c>
       <c r="H26" s="3">
-        <v>-26600</v>
+        <v>468900</v>
       </c>
       <c r="I26" s="3">
-        <v>-226800</v>
+        <v>-26100</v>
       </c>
       <c r="J26" s="3">
+        <v>-222100</v>
+      </c>
+      <c r="K26" s="3">
         <v>240800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-47200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>150000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>195000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>234900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>103000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>386600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>270000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>344300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>234400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-98800</v>
+        <v>192300</v>
       </c>
       <c r="E27" s="3">
-        <v>361200</v>
+        <v>-96800</v>
       </c>
       <c r="F27" s="3">
-        <v>365000</v>
+        <v>353600</v>
       </c>
       <c r="G27" s="3">
-        <v>479000</v>
+        <v>357300</v>
       </c>
       <c r="H27" s="3">
-        <v>-30400</v>
+        <v>468900</v>
       </c>
       <c r="I27" s="3">
-        <v>-231900</v>
+        <v>-29800</v>
       </c>
       <c r="J27" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K27" s="3">
         <v>225600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-60800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>137800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>184100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>220800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>92500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>373600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>256900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>341700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>234400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1940,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1941,8 +2002,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16500</v>
+        <v>-14900</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-16100</v>
       </c>
       <c r="F32" s="3">
-        <v>30400</v>
+        <v>-6200</v>
       </c>
       <c r="G32" s="3">
-        <v>-35500</v>
+        <v>29800</v>
       </c>
       <c r="H32" s="3">
-        <v>-10100</v>
+        <v>-34700</v>
       </c>
       <c r="I32" s="3">
-        <v>6300</v>
+        <v>-9900</v>
       </c>
       <c r="J32" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K32" s="3">
         <v>10100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>43400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>29700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>26100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>48700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-98800</v>
+        <v>192300</v>
       </c>
       <c r="E33" s="3">
-        <v>361200</v>
+        <v>-96800</v>
       </c>
       <c r="F33" s="3">
-        <v>365000</v>
+        <v>353600</v>
       </c>
       <c r="G33" s="3">
-        <v>479000</v>
+        <v>357300</v>
       </c>
       <c r="H33" s="3">
-        <v>-30400</v>
+        <v>468900</v>
       </c>
       <c r="I33" s="3">
-        <v>-231900</v>
+        <v>-29800</v>
       </c>
       <c r="J33" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K33" s="3">
         <v>225600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-60800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>65100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>137800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>184100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>220800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>92500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>373600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>256900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>341700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>234400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-98800</v>
+        <v>192300</v>
       </c>
       <c r="E35" s="3">
-        <v>361200</v>
+        <v>-96800</v>
       </c>
       <c r="F35" s="3">
-        <v>365000</v>
+        <v>353600</v>
       </c>
       <c r="G35" s="3">
-        <v>479000</v>
+        <v>357300</v>
       </c>
       <c r="H35" s="3">
-        <v>-30400</v>
+        <v>468900</v>
       </c>
       <c r="I35" s="3">
-        <v>-231900</v>
+        <v>-29800</v>
       </c>
       <c r="J35" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K35" s="3">
         <v>225600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-60800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>65100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>137800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>184100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>220800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>92500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>373600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>256900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>341700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>234400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45185</v>
+      </c>
+      <c r="E38" s="2">
         <v>44989</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44821</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44625</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44457</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44261</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44093</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43897</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43533</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43365</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43169</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43001</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42805</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42637</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42441</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42273</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42077</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,539 +2491,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1234400</v>
+        <v>1414300</v>
       </c>
       <c r="E41" s="3">
-        <v>1505600</v>
+        <v>1208300</v>
       </c>
       <c r="F41" s="3">
-        <v>749000</v>
+        <v>1473800</v>
       </c>
       <c r="G41" s="3">
-        <v>1377600</v>
+        <v>733200</v>
       </c>
       <c r="H41" s="3">
-        <v>916300</v>
+        <v>1348500</v>
       </c>
       <c r="I41" s="3">
-        <v>2098600</v>
+        <v>897000</v>
       </c>
       <c r="J41" s="3">
+        <v>2054400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2173400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1372300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>961700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1095500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1427900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1542500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1112100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1383300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1113900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1494700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1692100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1865900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1063300</v>
+        <v>1194700</v>
       </c>
       <c r="E42" s="3">
-        <v>1158300</v>
+        <v>1040900</v>
       </c>
       <c r="F42" s="3">
-        <v>544900</v>
+        <v>1133900</v>
       </c>
       <c r="G42" s="3">
-        <v>837700</v>
+        <v>533500</v>
       </c>
       <c r="H42" s="3">
-        <v>1193800</v>
+        <v>820000</v>
       </c>
       <c r="I42" s="3">
-        <v>599400</v>
+        <v>1168600</v>
       </c>
       <c r="J42" s="3">
+        <v>586800</v>
+      </c>
+      <c r="K42" s="3">
         <v>449900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>675000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>613900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1119900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1208300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>536300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>450400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>309000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>439600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>156500</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5209900</v>
+        <v>4940100</v>
       </c>
       <c r="E43" s="3">
-        <v>5073000</v>
+        <v>5100100</v>
       </c>
       <c r="F43" s="3">
-        <v>4874000</v>
+        <v>4966100</v>
       </c>
       <c r="G43" s="3">
-        <v>8473200</v>
+        <v>4771300</v>
       </c>
       <c r="H43" s="3">
-        <v>8844500</v>
+        <v>8294700</v>
       </c>
       <c r="I43" s="3">
-        <v>9514900</v>
+        <v>8658100</v>
       </c>
       <c r="J43" s="3">
+        <v>9314400</v>
+      </c>
+      <c r="K43" s="3">
         <v>11042000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5584800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5048600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5044300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5597000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5115600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4305800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4140900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2873400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2986900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2725800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2561200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2406600</v>
+        <v>2713200</v>
       </c>
       <c r="E44" s="3">
-        <v>2396500</v>
+        <v>2355900</v>
       </c>
       <c r="F44" s="3">
-        <v>2277300</v>
+        <v>2346000</v>
       </c>
       <c r="G44" s="3">
-        <v>2131600</v>
+        <v>2229400</v>
       </c>
       <c r="H44" s="3">
-        <v>2059400</v>
+        <v>2086700</v>
       </c>
       <c r="I44" s="3">
-        <v>2072000</v>
+        <v>2016000</v>
       </c>
       <c r="J44" s="3">
+        <v>2028400</v>
+      </c>
+      <c r="K44" s="3">
         <v>2195000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2423300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2281800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2292200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2468500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2728300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2344400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2460200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1262600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1321300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1312800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1389200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>88700</v>
+        <v>132700</v>
       </c>
       <c r="E45" s="3">
-        <v>141900</v>
+        <v>86800</v>
       </c>
       <c r="F45" s="3">
-        <v>98800</v>
+        <v>138900</v>
       </c>
       <c r="G45" s="3">
-        <v>25300</v>
+        <v>96800</v>
       </c>
       <c r="H45" s="3">
-        <v>6300</v>
+        <v>24800</v>
       </c>
       <c r="I45" s="3">
-        <v>35500</v>
+        <v>6200</v>
       </c>
       <c r="J45" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>50900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>124200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>175800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>90900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>61900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10002800</v>
+        <v>10395000</v>
       </c>
       <c r="E46" s="3">
-        <v>10275300</v>
+        <v>9792100</v>
       </c>
       <c r="F46" s="3">
-        <v>8544100</v>
+        <v>10058800</v>
       </c>
       <c r="G46" s="3">
-        <v>9077700</v>
+        <v>8364100</v>
       </c>
       <c r="H46" s="3">
-        <v>9057400</v>
+        <v>8886400</v>
       </c>
       <c r="I46" s="3">
-        <v>10037000</v>
+        <v>8866600</v>
       </c>
       <c r="J46" s="3">
+        <v>9825600</v>
+      </c>
+      <c r="K46" s="3">
         <v>9608700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10106300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8930900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9609200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10715300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9948200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8336800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8469200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5755900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6018100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5821500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5878200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3144200</v>
+        <v>2790100</v>
       </c>
       <c r="E47" s="3">
-        <v>2965500</v>
+        <v>3077900</v>
       </c>
       <c r="F47" s="3">
-        <v>3419200</v>
+        <v>2903000</v>
       </c>
       <c r="G47" s="3">
-        <v>3463500</v>
+        <v>3347100</v>
       </c>
       <c r="H47" s="3">
-        <v>6804100</v>
+        <v>3390600</v>
       </c>
       <c r="I47" s="3">
-        <v>8293200</v>
+        <v>6660800</v>
       </c>
       <c r="J47" s="3">
+        <v>8118500</v>
+      </c>
+      <c r="K47" s="3">
         <v>10049700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5629500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5034400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4342800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4293200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4044400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3509300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3243700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3155100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2870800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2683600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2766600</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17166800</v>
+        <v>16681100</v>
       </c>
       <c r="E48" s="3">
-        <v>17397500</v>
+        <v>16805200</v>
       </c>
       <c r="F48" s="3">
-        <v>17694000</v>
+        <v>17031000</v>
       </c>
       <c r="G48" s="3">
-        <v>17284700</v>
+        <v>17321300</v>
       </c>
       <c r="H48" s="3">
-        <v>27780500</v>
+        <v>16920500</v>
       </c>
       <c r="I48" s="3">
-        <v>28230400</v>
+        <v>27195200</v>
       </c>
       <c r="J48" s="3">
+        <v>27635600</v>
+      </c>
+      <c r="K48" s="3">
         <v>28750000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17149100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16780600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17492100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13498800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14078900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13215800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12974600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12735300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12722200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12704400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12620100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1297700</v>
+        <v>1251800</v>
       </c>
       <c r="E49" s="3">
-        <v>1293900</v>
+        <v>1270400</v>
       </c>
       <c r="F49" s="3">
-        <v>1274900</v>
+        <v>1266700</v>
       </c>
       <c r="G49" s="3">
-        <v>1268600</v>
+        <v>1248000</v>
       </c>
       <c r="H49" s="3">
-        <v>1158300</v>
+        <v>1241800</v>
       </c>
       <c r="I49" s="3">
-        <v>1087300</v>
+        <v>1133900</v>
       </c>
       <c r="J49" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1234400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1250700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1233800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1282100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1462000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1178800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1060600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1027800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>429100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>448700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>428000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>399000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3171,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1538500</v>
+        <v>1347300</v>
       </c>
       <c r="E52" s="3">
-        <v>2404100</v>
+        <v>1506100</v>
       </c>
       <c r="F52" s="3">
-        <v>3173300</v>
+        <v>2353400</v>
       </c>
       <c r="G52" s="3">
-        <v>1444700</v>
+        <v>3106500</v>
       </c>
       <c r="H52" s="3">
-        <v>983400</v>
+        <v>1414300</v>
       </c>
       <c r="I52" s="3">
-        <v>1290100</v>
+        <v>962700</v>
       </c>
       <c r="J52" s="3">
+        <v>1262900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1430800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1730900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1154500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>356200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>60800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>62600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>71700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>138300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33150000</v>
+        <v>32465300</v>
       </c>
       <c r="E54" s="3">
-        <v>34336200</v>
+        <v>32451600</v>
       </c>
       <c r="F54" s="3">
-        <v>34105600</v>
+        <v>33612800</v>
       </c>
       <c r="G54" s="3">
-        <v>32539200</v>
+        <v>33387000</v>
       </c>
       <c r="H54" s="3">
-        <v>32012000</v>
+        <v>31853600</v>
       </c>
       <c r="I54" s="3">
-        <v>34322300</v>
+        <v>31337600</v>
       </c>
       <c r="J54" s="3">
+        <v>33599200</v>
+      </c>
+      <c r="K54" s="3">
         <v>35404600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35866600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33134200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33082500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30004700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29263100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26149000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25776000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22138100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22131500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21775800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21715200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,362 +3407,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6129900</v>
+        <v>6547900</v>
       </c>
       <c r="E57" s="3">
-        <v>6293400</v>
+        <v>6000800</v>
       </c>
       <c r="F57" s="3">
-        <v>5761100</v>
+        <v>6160800</v>
       </c>
       <c r="G57" s="3">
-        <v>5782700</v>
+        <v>5639800</v>
       </c>
       <c r="H57" s="3">
-        <v>5687600</v>
+        <v>5660900</v>
       </c>
       <c r="I57" s="3">
-        <v>5958800</v>
+        <v>5567800</v>
       </c>
       <c r="J57" s="3">
+        <v>5833300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5417700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5844200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5172800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5833600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5894300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5920800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4941100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5511200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8151900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8526300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8369500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8190400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2009900</v>
+        <v>666200</v>
       </c>
       <c r="E58" s="3">
-        <v>2012500</v>
+        <v>1967600</v>
       </c>
       <c r="F58" s="3">
-        <v>735000</v>
+        <v>1970100</v>
       </c>
       <c r="G58" s="3">
-        <v>1037900</v>
+        <v>719500</v>
       </c>
       <c r="H58" s="3">
-        <v>1115200</v>
+        <v>1016100</v>
       </c>
       <c r="I58" s="3">
-        <v>1786900</v>
+        <v>1091700</v>
       </c>
       <c r="J58" s="3">
+        <v>1749200</v>
+      </c>
+      <c r="K58" s="3">
         <v>707200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1279300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1595700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>933200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>870100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>984900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>454400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>586900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>290900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>230900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>342400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>492500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6578600</v>
+        <v>7169400</v>
       </c>
       <c r="E59" s="3">
-        <v>6393500</v>
+        <v>6440000</v>
       </c>
       <c r="F59" s="3">
-        <v>6009500</v>
+        <v>6258800</v>
       </c>
       <c r="G59" s="3">
-        <v>6719200</v>
+        <v>5882900</v>
       </c>
       <c r="H59" s="3">
-        <v>8188000</v>
+        <v>6577700</v>
       </c>
       <c r="I59" s="3">
-        <v>7741900</v>
+        <v>8015500</v>
       </c>
       <c r="J59" s="3">
+        <v>7578800</v>
+      </c>
+      <c r="K59" s="3">
         <v>9146100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8557800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7247600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6802200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7285400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7275100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6172100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5257900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>322200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>277800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>404300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>358200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14718400</v>
+        <v>14383500</v>
       </c>
       <c r="E60" s="3">
-        <v>14699400</v>
+        <v>14408300</v>
       </c>
       <c r="F60" s="3">
-        <v>12505700</v>
+        <v>14389700</v>
       </c>
       <c r="G60" s="3">
-        <v>13539800</v>
+        <v>12242200</v>
       </c>
       <c r="H60" s="3">
-        <v>14990900</v>
+        <v>13254600</v>
       </c>
       <c r="I60" s="3">
-        <v>15487700</v>
+        <v>14675100</v>
       </c>
       <c r="J60" s="3">
+        <v>15161400</v>
+      </c>
+      <c r="K60" s="3">
         <v>15271000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15681200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14016200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13568900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14049800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14180800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11340300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11062600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8765000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9035000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9116100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9041100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7044900</v>
+        <v>7555300</v>
       </c>
       <c r="E61" s="3">
-        <v>7197000</v>
+        <v>6896500</v>
       </c>
       <c r="F61" s="3">
-        <v>8620200</v>
+        <v>7045400</v>
       </c>
       <c r="G61" s="3">
-        <v>8219700</v>
+        <v>8438600</v>
       </c>
       <c r="H61" s="3">
-        <v>7677300</v>
+        <v>8046500</v>
       </c>
       <c r="I61" s="3">
-        <v>7782500</v>
+        <v>7515600</v>
       </c>
       <c r="J61" s="3">
+        <v>7618500</v>
+      </c>
+      <c r="K61" s="3">
         <v>8252700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7771100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7265400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8113600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2184800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2042000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2693100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2731700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2856400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3018200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3299900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3443400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2195000</v>
+        <v>1565600</v>
       </c>
       <c r="E62" s="3">
-        <v>2391400</v>
+        <v>2148700</v>
       </c>
       <c r="F62" s="3">
-        <v>2305200</v>
+        <v>2341000</v>
       </c>
       <c r="G62" s="3">
-        <v>1703300</v>
+        <v>2256700</v>
       </c>
       <c r="H62" s="3">
-        <v>851600</v>
+        <v>1667400</v>
       </c>
       <c r="I62" s="3">
-        <v>1944000</v>
+        <v>833700</v>
       </c>
       <c r="J62" s="3">
+        <v>1903100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2007400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2604400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2647300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2648400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3663100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3223600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3039100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3586300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2214700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1977300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2066000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1966000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23958300</v>
+        <v>23504400</v>
       </c>
       <c r="E66" s="3">
-        <v>24287800</v>
+        <v>23453500</v>
       </c>
       <c r="F66" s="3">
-        <v>23431100</v>
+        <v>23776100</v>
       </c>
       <c r="G66" s="3">
-        <v>23462800</v>
+        <v>22937500</v>
       </c>
       <c r="H66" s="3">
-        <v>23519800</v>
+        <v>22968500</v>
       </c>
       <c r="I66" s="3">
-        <v>25214200</v>
+        <v>23024300</v>
       </c>
       <c r="J66" s="3">
+        <v>24683000</v>
+      </c>
+      <c r="K66" s="3">
         <v>25531000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26056800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23928900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24330900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19897700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19446400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17072500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17380500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13836100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14030500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14482100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14450500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6543100</v>
+        <v>6350600</v>
       </c>
       <c r="E72" s="3">
-        <v>7415000</v>
+        <v>6405200</v>
       </c>
       <c r="F72" s="3">
-        <v>8046100</v>
+        <v>7258800</v>
       </c>
       <c r="G72" s="3">
-        <v>6460700</v>
+        <v>7876600</v>
       </c>
       <c r="H72" s="3">
-        <v>5884100</v>
+        <v>6324600</v>
       </c>
       <c r="I72" s="3">
-        <v>6515200</v>
+        <v>5760100</v>
       </c>
       <c r="J72" s="3">
+        <v>6377900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6972700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6982000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6516600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5988500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7034400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6639700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6116600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5500900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5484600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5285100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5113100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5098600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9191700</v>
+        <v>8960900</v>
       </c>
       <c r="E76" s="3">
-        <v>10048400</v>
+        <v>8998100</v>
       </c>
       <c r="F76" s="3">
-        <v>10674500</v>
+        <v>9836700</v>
       </c>
       <c r="G76" s="3">
-        <v>9076400</v>
+        <v>10449600</v>
       </c>
       <c r="H76" s="3">
-        <v>8492200</v>
+        <v>8885200</v>
       </c>
       <c r="I76" s="3">
-        <v>9108100</v>
+        <v>8313300</v>
       </c>
       <c r="J76" s="3">
+        <v>8916200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9873500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9809800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9205300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8751600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10107000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9816600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9076500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8395500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8301900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8101100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7293700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7264700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45185</v>
+      </c>
+      <c r="E80" s="2">
         <v>44989</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44821</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44625</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44457</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44261</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44093</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43897</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43533</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43365</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43169</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43001</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42805</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42637</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42441</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42273</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42077</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41909</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-98800</v>
+        <v>192300</v>
       </c>
       <c r="E81" s="3">
-        <v>361200</v>
+        <v>-96800</v>
       </c>
       <c r="F81" s="3">
-        <v>365000</v>
+        <v>353600</v>
       </c>
       <c r="G81" s="3">
-        <v>479000</v>
+        <v>357300</v>
       </c>
       <c r="H81" s="3">
-        <v>-30400</v>
+        <v>468900</v>
       </c>
       <c r="I81" s="3">
-        <v>-231900</v>
+        <v>-29800</v>
       </c>
       <c r="J81" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K81" s="3">
         <v>225600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-60800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>65100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>137800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>184100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>220800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>92500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>373600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>256900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>341700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>234400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-453000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4824,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>707200</v>
+        <v>782800</v>
       </c>
       <c r="E83" s="3">
-        <v>823700</v>
+        <v>692300</v>
       </c>
       <c r="F83" s="3">
-        <v>711000</v>
+        <v>806400</v>
       </c>
       <c r="G83" s="3">
-        <v>835200</v>
+        <v>696000</v>
       </c>
       <c r="H83" s="3">
-        <v>745200</v>
+        <v>817600</v>
       </c>
       <c r="I83" s="3">
-        <v>837700</v>
+        <v>729500</v>
       </c>
       <c r="J83" s="3">
+        <v>820000</v>
+      </c>
+      <c r="K83" s="3">
         <v>746400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>827600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>687300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>830800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>503200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>512300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>397600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>422700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>360000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>401700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>343700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>781900</v>
+        <v>1592900</v>
       </c>
       <c r="E89" s="3">
-        <v>1987100</v>
+        <v>765500</v>
       </c>
       <c r="F89" s="3">
-        <v>121700</v>
+        <v>1945300</v>
       </c>
       <c r="G89" s="3">
-        <v>1157000</v>
+        <v>119100</v>
       </c>
       <c r="H89" s="3">
-        <v>1054400</v>
+        <v>1132700</v>
       </c>
       <c r="I89" s="3">
-        <v>1914900</v>
+        <v>1032200</v>
       </c>
       <c r="J89" s="3">
+        <v>1874500</v>
+      </c>
+      <c r="K89" s="3">
         <v>441000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1270600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>105300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1163800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>782800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1119400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>537600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>964400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>189100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>322200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>675500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>524100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5282,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1130000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-430000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-308000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-375000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-319000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-294000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-301000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-374000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-265000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-282700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-286700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-380500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-399100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-431900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-396900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-373000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-469600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-583300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-771600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-551300</v>
+        <v>-766700</v>
       </c>
       <c r="E94" s="3">
-        <v>-366200</v>
+        <v>-539700</v>
       </c>
       <c r="F94" s="3">
-        <v>-466400</v>
+        <v>-358500</v>
       </c>
       <c r="G94" s="3">
-        <v>-356100</v>
+        <v>-456500</v>
       </c>
       <c r="H94" s="3">
-        <v>-367500</v>
+        <v>-348600</v>
       </c>
       <c r="I94" s="3">
-        <v>-333300</v>
+        <v>-359800</v>
       </c>
       <c r="J94" s="3">
+        <v>-326300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-422000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-308700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-259800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-261800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-393400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-394900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-583100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-113500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-408200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-454300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-730800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,13 +5554,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-266700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5336,52 +5570,55 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-5100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-29100</v>
+        <v>-5000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-28500</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-24800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-24400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-28300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>199600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-204800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-126400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-308100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,67 +5800,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-557600</v>
+        <v>99200</v>
       </c>
       <c r="E100" s="3">
-        <v>-659000</v>
+        <v>-545900</v>
       </c>
       <c r="F100" s="3">
-        <v>-437200</v>
+        <v>-645100</v>
       </c>
       <c r="G100" s="3">
-        <v>-852900</v>
+        <v>-428000</v>
       </c>
       <c r="H100" s="3">
-        <v>-657700</v>
+        <v>-834900</v>
       </c>
       <c r="I100" s="3">
-        <v>-999900</v>
+        <v>-643900</v>
       </c>
       <c r="J100" s="3">
+        <v>-978800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-618400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-724600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-912500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>19100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-365100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-281300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-327100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-233500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>66500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-385800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-27700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5675,63 +5924,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-327000</v>
+        <v>925500</v>
       </c>
       <c r="E102" s="3">
-        <v>961900</v>
+        <v>-320100</v>
       </c>
       <c r="F102" s="3">
-        <v>-781900</v>
+        <v>941600</v>
       </c>
       <c r="G102" s="3">
-        <v>-52000</v>
+        <v>-765500</v>
       </c>
       <c r="H102" s="3">
-        <v>29100</v>
+        <v>-50900</v>
       </c>
       <c r="I102" s="3">
-        <v>581700</v>
+        <v>28500</v>
       </c>
       <c r="J102" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-599400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>430600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-404600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-324500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>540100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>360900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-138700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>54300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-157800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-164600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-234400</v>
       </c>
     </row>
